--- a/frontend/src/components/components/Scholar Application Multiple.xlsx
+++ b/frontend/src/components/components/Scholar Application Multiple.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="94">
   <si>
     <t>Last Name *</t>
   </si>
@@ -78,163 +78,19 @@
     <t>Scholar</t>
   </si>
   <si>
-    <t xml:space="preserve">Graduation Year *       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street Name, House No. *       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subdivision *       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barangay *       </t>
-  </si>
-  <si>
-    <t>F Birthdate</t>
-  </si>
-  <si>
-    <t>F Citizenship</t>
-  </si>
-  <si>
-    <t>F Contact Number</t>
-  </si>
-  <si>
-    <t>F Education Attainment</t>
-  </si>
-  <si>
-    <t>F Occupation</t>
-  </si>
-  <si>
-    <t>F Employer</t>
-  </si>
-  <si>
-    <t>F Business Address</t>
-  </si>
-  <si>
-    <t>F Annual Income</t>
-  </si>
-  <si>
-    <t>M Birthdate</t>
-  </si>
-  <si>
-    <t>M Citizenship</t>
-  </si>
-  <si>
-    <t>M Contact Number</t>
-  </si>
-  <si>
-    <t>M Education Attainment</t>
-  </si>
-  <si>
-    <t>M Occupation</t>
-  </si>
-  <si>
-    <t>M Employer</t>
-  </si>
-  <si>
-    <t>M Business Address</t>
-  </si>
-  <si>
-    <t>M Annual Income</t>
-  </si>
-  <si>
-    <t>G Birthdate</t>
-  </si>
-  <si>
-    <t>G Citizenship</t>
-  </si>
-  <si>
-    <t>G Contact Number</t>
-  </si>
-  <si>
-    <t>G Education Attainment</t>
-  </si>
-  <si>
-    <t>G Occupation</t>
-  </si>
-  <si>
-    <t>G Employer</t>
-  </si>
-  <si>
-    <t>G Business Address</t>
-  </si>
-  <si>
-    <t>G Annual Income</t>
-  </si>
-  <si>
     <t>Sibling 1 Name</t>
-  </si>
-  <si>
-    <t>S1 Age</t>
-  </si>
-  <si>
-    <t>S1 Civil Status</t>
-  </si>
-  <si>
-    <t>S1 Education Attainment</t>
-  </si>
-  <si>
-    <t>S1 Occupation</t>
   </si>
   <si>
     <t>Sibling 2 Name</t>
   </si>
   <si>
-    <t>S2 Age</t>
-  </si>
-  <si>
-    <t>S2 Civil Status</t>
-  </si>
-  <si>
-    <t>S2 Education Attainment</t>
-  </si>
-  <si>
-    <t>S2 Occupation</t>
-  </si>
-  <si>
     <t>Sibling 3 Name</t>
-  </si>
-  <si>
-    <t>S3 Age</t>
-  </si>
-  <si>
-    <t>S3 Civil Status</t>
-  </si>
-  <si>
-    <t>S3 Education Attainment</t>
-  </si>
-  <si>
-    <t>S3 Occupation</t>
   </si>
   <si>
     <t>Sibling 4 Name</t>
   </si>
   <si>
-    <t>S4 Age</t>
-  </si>
-  <si>
-    <t>S4 Civil Status</t>
-  </si>
-  <si>
-    <t>S4 Education Attainment</t>
-  </si>
-  <si>
-    <t>S4 Occupation</t>
-  </si>
-  <si>
     <t>Sibling 5 Name</t>
-  </si>
-  <si>
-    <t>S5 Age</t>
-  </si>
-  <si>
-    <t>S5 Civil Status</t>
-  </si>
-  <si>
-    <t>S5 Education Attainment</t>
-  </si>
-  <si>
-    <t>S5 Occupation</t>
   </si>
   <si>
     <t>Educ BG 1 Level</t>
@@ -296,6 +152,156 @@
   <si>
     <t>Educ BG 5 Awards</t>
   </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Father's Birthdate</t>
+  </si>
+  <si>
+    <t>Father's Citizenship</t>
+  </si>
+  <si>
+    <t>Father's Contact Number</t>
+  </si>
+  <si>
+    <t>Father's Education Attainment</t>
+  </si>
+  <si>
+    <t>Father's Occupation</t>
+  </si>
+  <si>
+    <t>Father's Employer</t>
+  </si>
+  <si>
+    <t>Father's Business Address</t>
+  </si>
+  <si>
+    <t>Father's Annual Income</t>
+  </si>
+  <si>
+    <t>Mother's Birthdate</t>
+  </si>
+  <si>
+    <t>Mother's Citizenship</t>
+  </si>
+  <si>
+    <t>Mother's Contact Number</t>
+  </si>
+  <si>
+    <t>Mother's Education Attainment</t>
+  </si>
+  <si>
+    <t>Mother's Occupation</t>
+  </si>
+  <si>
+    <t>Mother's Employer</t>
+  </si>
+  <si>
+    <t>Mother's Business Address</t>
+  </si>
+  <si>
+    <t>Mother's Annual Income</t>
+  </si>
+  <si>
+    <t>Guardian's Birthdate</t>
+  </si>
+  <si>
+    <t>Guardian's Citizenship</t>
+  </si>
+  <si>
+    <t>Guardian's Contact Number</t>
+  </si>
+  <si>
+    <t>Guardian's Education Attainment</t>
+  </si>
+  <si>
+    <t>Guardian's Occupation</t>
+  </si>
+  <si>
+    <t>Guardian's Employer</t>
+  </si>
+  <si>
+    <t>Guardian's Business Address</t>
+  </si>
+  <si>
+    <t>Guardian's Annual Income</t>
+  </si>
+  <si>
+    <t>Sibling 1 Age</t>
+  </si>
+  <si>
+    <t>Sibling 1 Civil Status</t>
+  </si>
+  <si>
+    <t>Sibling 1 Education Attainment</t>
+  </si>
+  <si>
+    <t>Sibling 1 Occupation</t>
+  </si>
+  <si>
+    <t>Sibling 2 Age</t>
+  </si>
+  <si>
+    <t>Sibling 2 Civil Status</t>
+  </si>
+  <si>
+    <t>Sibling 2 Education Attainment</t>
+  </si>
+  <si>
+    <t>Sibling 2 Occupation</t>
+  </si>
+  <si>
+    <t>Sibling 3 Age</t>
+  </si>
+  <si>
+    <t>Sibling 3 Civil Status</t>
+  </si>
+  <si>
+    <t>Sibling 3 Education Attainment</t>
+  </si>
+  <si>
+    <t>Sibling 3 Occupation</t>
+  </si>
+  <si>
+    <t>Sibling 4 Age</t>
+  </si>
+  <si>
+    <t>Sibling 4 Civil Status</t>
+  </si>
+  <si>
+    <t>Sibling 4 Education Attainment</t>
+  </si>
+  <si>
+    <t>Sibling 4 Occupation</t>
+  </si>
+  <si>
+    <t>Sibling 5 Age</t>
+  </si>
+  <si>
+    <t>Sibling 5 Civil Status</t>
+  </si>
+  <si>
+    <t>Sibling 5 Education Attainment</t>
+  </si>
+  <si>
+    <t>Sibling 5 Occupation</t>
+  </si>
+  <si>
+    <t>Subdivision *</t>
+  </si>
+  <si>
+    <t>Barangay *</t>
+  </si>
+  <si>
+    <t>Graduation Year *</t>
+  </si>
+  <si>
+    <t>Street Name &amp; House No. *</t>
+  </si>
 </sst>
 </file>
 
@@ -312,21 +318,24 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Corbel"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Corbel"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFEF2"/>
       <name val="Corbel"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +352,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFEF2"/>
         <bgColor rgb="FFFFFEF2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FFFFFEF2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -497,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -532,6 +553,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,396 +778,588 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CO160"/>
+  <dimension ref="A1:CQ161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="13" width="21.36328125" customWidth="1"/>
     <col min="14" max="14" width="22.26953125" customWidth="1"/>
-    <col min="15" max="93" width="21.36328125" customWidth="1"/>
+    <col min="15" max="19" width="21.36328125" customWidth="1"/>
+    <col min="20" max="20" width="0.81640625" style="14" customWidth="1"/>
+    <col min="21" max="95" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BW1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="CA1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="CB1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="CC1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="CD1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="CE1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="CF1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="CH1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="CI1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="CJ1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="CK1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="CL1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="CM1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="CN1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="CO1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="CP1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="AX2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="BC2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="BH2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BL2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="6" t="s">
+      <c r="BM2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="BO2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="BR2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BU2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BV2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="BW2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="BX2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="BY2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="BZ2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="CA2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="CB2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="6" t="s">
+      <c r="CC2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="CD2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="CE2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="CF2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="CG2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="CH2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="CI2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="CJ2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM1" s="6" t="s">
+      <c r="CK2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="CL2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="CM2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="CN2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="CO2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="BC1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BH1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="BK1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="BL1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="BM1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="BN1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="BP1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="BQ1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="BR1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="BS1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="BT1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="BU1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="BV1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BW1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BX1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BY1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="BZ1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="CB1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="CC1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="CD1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="CE1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="CF1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="CG1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="CI1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="CJ1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="CL1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="CM1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CP2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CO1" s="2"/>
+      <c r="CQ2" s="2"/>
     </row>
-    <row r="2" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
-      <c r="BH2" s="3"/>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3"/>
-      <c r="BK2" s="3"/>
-      <c r="BL2" s="3"/>
-      <c r="BM2" s="3"/>
-      <c r="BN2" s="3"/>
-      <c r="BO2" s="3"/>
-      <c r="BP2" s="3"/>
-      <c r="BQ2" s="3"/>
-      <c r="BR2" s="3"/>
-      <c r="BS2" s="3"/>
-      <c r="BT2" s="3"/>
-      <c r="BU2" s="3"/>
-      <c r="BV2" s="3"/>
-      <c r="BW2" s="3"/>
-      <c r="BX2" s="3"/>
-      <c r="BY2" s="3"/>
-      <c r="BZ2" s="3"/>
-      <c r="CA2" s="3"/>
-      <c r="CB2" s="3"/>
-      <c r="CC2" s="3"/>
-      <c r="CD2" s="3"/>
-      <c r="CE2" s="3"/>
-      <c r="CF2" s="3"/>
-      <c r="CG2" s="3"/>
-      <c r="CH2" s="3"/>
-      <c r="CI2" s="3"/>
-      <c r="CJ2" s="3"/>
-      <c r="CK2" s="3"/>
-      <c r="CL2" s="3"/>
-      <c r="CM2" s="3"/>
-      <c r="CN2" s="3"/>
-      <c r="CO2" s="1"/>
-    </row>
-    <row r="3" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1158,7 +1378,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
@@ -1171,18 +1391,18 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
       <c r="AU3" s="3"/>
@@ -1203,11 +1423,11 @@
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
-      <c r="BM3" s="9"/>
-      <c r="BN3" s="9"/>
-      <c r="BO3" s="9"/>
-      <c r="BP3" s="9"/>
-      <c r="BQ3" s="9"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
       <c r="BR3" s="3"/>
       <c r="BS3" s="3"/>
       <c r="BT3" s="3"/>
@@ -1231,9 +1451,11 @@
       <c r="CL3" s="3"/>
       <c r="CM3" s="3"/>
       <c r="CN3" s="3"/>
-      <c r="CO3" s="1"/>
+      <c r="CO3" s="3"/>
+      <c r="CP3" s="3"/>
+      <c r="CQ3" s="1"/>
     </row>
-    <row r="4" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1253,7 +1475,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="T4" s="13"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -1266,20 +1488,20 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
       <c r="AI4" s="8"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
       <c r="AP4" s="8"/>
       <c r="AQ4" s="8"/>
       <c r="AR4" s="8"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
       <c r="AW4" s="3"/>
@@ -1298,13 +1520,13 @@
       <c r="BJ4" s="3"/>
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
-      <c r="BM4" s="9"/>
-      <c r="BN4" s="9"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
       <c r="BO4" s="9"/>
       <c r="BP4" s="9"/>
       <c r="BQ4" s="9"/>
-      <c r="BR4" s="3"/>
-      <c r="BS4" s="3"/>
+      <c r="BR4" s="9"/>
+      <c r="BS4" s="9"/>
       <c r="BT4" s="3"/>
       <c r="BU4" s="3"/>
       <c r="BV4" s="3"/>
@@ -1326,9 +1548,11 @@
       <c r="CL4" s="3"/>
       <c r="CM4" s="3"/>
       <c r="CN4" s="3"/>
-      <c r="CO4" s="1"/>
+      <c r="CO4" s="3"/>
+      <c r="CP4" s="3"/>
+      <c r="CQ4" s="1"/>
     </row>
-    <row r="5" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1348,7 +1572,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="T5" s="13"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -1361,20 +1585,20 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
       <c r="AI5" s="8"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
       <c r="AP5" s="8"/>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="8"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
       <c r="AW5" s="3"/>
@@ -1393,13 +1617,13 @@
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
-      <c r="BM5" s="9"/>
-      <c r="BN5" s="9"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
       <c r="BO5" s="9"/>
       <c r="BP5" s="9"/>
       <c r="BQ5" s="9"/>
-      <c r="BR5" s="3"/>
-      <c r="BS5" s="3"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
       <c r="BT5" s="3"/>
       <c r="BU5" s="3"/>
       <c r="BV5" s="3"/>
@@ -1421,9 +1645,11 @@
       <c r="CL5" s="3"/>
       <c r="CM5" s="3"/>
       <c r="CN5" s="3"/>
-      <c r="CO5" s="1"/>
+      <c r="CO5" s="3"/>
+      <c r="CP5" s="3"/>
+      <c r="CQ5" s="1"/>
     </row>
-    <row r="6" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1443,7 +1669,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="T6" s="13"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -1456,20 +1682,20 @@
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
       <c r="AP6" s="8"/>
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
       <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
       <c r="AW6" s="3"/>
@@ -1488,13 +1714,13 @@
       <c r="BJ6" s="3"/>
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
-      <c r="BM6" s="9"/>
-      <c r="BN6" s="9"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
       <c r="BO6" s="9"/>
       <c r="BP6" s="9"/>
       <c r="BQ6" s="9"/>
-      <c r="BR6" s="3"/>
-      <c r="BS6" s="3"/>
+      <c r="BR6" s="9"/>
+      <c r="BS6" s="9"/>
       <c r="BT6" s="3"/>
       <c r="BU6" s="3"/>
       <c r="BV6" s="3"/>
@@ -1516,9 +1742,11 @@
       <c r="CL6" s="3"/>
       <c r="CM6" s="3"/>
       <c r="CN6" s="3"/>
-      <c r="CO6" s="1"/>
+      <c r="CO6" s="3"/>
+      <c r="CP6" s="3"/>
+      <c r="CQ6" s="1"/>
     </row>
-    <row r="7" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1538,7 +1766,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="T7" s="13"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -1551,20 +1779,20 @@
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
       <c r="AI7" s="8"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
-      <c r="AN7" s="8"/>
-      <c r="AO7" s="8"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
       <c r="AP7" s="8"/>
       <c r="AQ7" s="8"/>
       <c r="AR7" s="8"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
       <c r="AU7" s="3"/>
       <c r="AV7" s="3"/>
       <c r="AW7" s="3"/>
@@ -1583,13 +1811,13 @@
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
-      <c r="BM7" s="9"/>
-      <c r="BN7" s="9"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
       <c r="BO7" s="9"/>
       <c r="BP7" s="9"/>
       <c r="BQ7" s="9"/>
-      <c r="BR7" s="3"/>
-      <c r="BS7" s="3"/>
+      <c r="BR7" s="9"/>
+      <c r="BS7" s="9"/>
       <c r="BT7" s="3"/>
       <c r="BU7" s="3"/>
       <c r="BV7" s="3"/>
@@ -1611,9 +1839,11 @@
       <c r="CL7" s="3"/>
       <c r="CM7" s="3"/>
       <c r="CN7" s="3"/>
-      <c r="CO7" s="1"/>
+      <c r="CO7" s="3"/>
+      <c r="CP7" s="3"/>
+      <c r="CQ7" s="1"/>
     </row>
-    <row r="8" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1633,7 +1863,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="T8" s="13"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -1646,20 +1876,20 @@
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
       <c r="AI8" s="8"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
       <c r="AP8" s="8"/>
       <c r="AQ8" s="8"/>
       <c r="AR8" s="8"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
       <c r="AU8" s="3"/>
       <c r="AV8" s="3"/>
       <c r="AW8" s="3"/>
@@ -1678,13 +1908,13 @@
       <c r="BJ8" s="3"/>
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
-      <c r="BM8" s="9"/>
-      <c r="BN8" s="9"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
       <c r="BO8" s="9"/>
       <c r="BP8" s="9"/>
       <c r="BQ8" s="9"/>
-      <c r="BR8" s="3"/>
-      <c r="BS8" s="3"/>
+      <c r="BR8" s="9"/>
+      <c r="BS8" s="9"/>
       <c r="BT8" s="3"/>
       <c r="BU8" s="3"/>
       <c r="BV8" s="3"/>
@@ -1706,9 +1936,11 @@
       <c r="CL8" s="3"/>
       <c r="CM8" s="3"/>
       <c r="CN8" s="3"/>
-      <c r="CO8" s="1"/>
+      <c r="CO8" s="3"/>
+      <c r="CP8" s="3"/>
+      <c r="CQ8" s="1"/>
     </row>
-    <row r="9" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1728,7 +1960,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="T9" s="13"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -1741,20 +1973,20 @@
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
       <c r="AI9" s="8"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
       <c r="AP9" s="8"/>
       <c r="AQ9" s="8"/>
       <c r="AR9" s="8"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
       <c r="AU9" s="3"/>
       <c r="AV9" s="3"/>
       <c r="AW9" s="3"/>
@@ -1773,13 +2005,13 @@
       <c r="BJ9" s="3"/>
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
-      <c r="BM9" s="9"/>
-      <c r="BN9" s="9"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
       <c r="BO9" s="9"/>
       <c r="BP9" s="9"/>
       <c r="BQ9" s="9"/>
-      <c r="BR9" s="3"/>
-      <c r="BS9" s="3"/>
+      <c r="BR9" s="9"/>
+      <c r="BS9" s="9"/>
       <c r="BT9" s="3"/>
       <c r="BU9" s="3"/>
       <c r="BV9" s="3"/>
@@ -1801,9 +2033,11 @@
       <c r="CL9" s="3"/>
       <c r="CM9" s="3"/>
       <c r="CN9" s="3"/>
-      <c r="CO9" s="1"/>
+      <c r="CO9" s="3"/>
+      <c r="CP9" s="3"/>
+      <c r="CQ9" s="1"/>
     </row>
-    <row r="10" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1823,7 +2057,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="T10" s="13"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -1836,20 +2070,20 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
       <c r="AI10" s="8"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
       <c r="AP10" s="8"/>
       <c r="AQ10" s="8"/>
       <c r="AR10" s="8"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
       <c r="AU10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="3"/>
@@ -1868,13 +2102,13 @@
       <c r="BJ10" s="3"/>
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
-      <c r="BM10" s="9"/>
-      <c r="BN10" s="9"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
       <c r="BO10" s="9"/>
       <c r="BP10" s="9"/>
       <c r="BQ10" s="9"/>
-      <c r="BR10" s="3"/>
-      <c r="BS10" s="3"/>
+      <c r="BR10" s="9"/>
+      <c r="BS10" s="9"/>
       <c r="BT10" s="3"/>
       <c r="BU10" s="3"/>
       <c r="BV10" s="3"/>
@@ -1896,9 +2130,11 @@
       <c r="CL10" s="3"/>
       <c r="CM10" s="3"/>
       <c r="CN10" s="3"/>
-      <c r="CO10" s="1"/>
+      <c r="CO10" s="3"/>
+      <c r="CP10" s="3"/>
+      <c r="CQ10" s="1"/>
     </row>
-    <row r="11" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1918,7 +2154,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="T11" s="13"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -1931,20 +2167,20 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
       <c r="AI11" s="8"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
       <c r="AP11" s="8"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="8"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
       <c r="AU11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="3"/>
@@ -1963,13 +2199,13 @@
       <c r="BJ11" s="3"/>
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
-      <c r="BM11" s="9"/>
-      <c r="BN11" s="9"/>
+      <c r="BM11" s="3"/>
+      <c r="BN11" s="3"/>
       <c r="BO11" s="9"/>
       <c r="BP11" s="9"/>
       <c r="BQ11" s="9"/>
-      <c r="BR11" s="3"/>
-      <c r="BS11" s="3"/>
+      <c r="BR11" s="9"/>
+      <c r="BS11" s="9"/>
       <c r="BT11" s="3"/>
       <c r="BU11" s="3"/>
       <c r="BV11" s="3"/>
@@ -1991,9 +2227,11 @@
       <c r="CL11" s="3"/>
       <c r="CM11" s="3"/>
       <c r="CN11" s="3"/>
-      <c r="CO11" s="1"/>
+      <c r="CO11" s="3"/>
+      <c r="CP11" s="3"/>
+      <c r="CQ11" s="1"/>
     </row>
-    <row r="12" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2013,7 +2251,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="T12" s="13"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -2026,20 +2264,20 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
       <c r="AI12" s="8"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
-      <c r="AN12" s="8"/>
-      <c r="AO12" s="8"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
       <c r="AP12" s="8"/>
       <c r="AQ12" s="8"/>
       <c r="AR12" s="8"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
       <c r="AU12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="3"/>
@@ -2058,13 +2296,13 @@
       <c r="BJ12" s="3"/>
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
-      <c r="BM12" s="9"/>
-      <c r="BN12" s="9"/>
+      <c r="BM12" s="3"/>
+      <c r="BN12" s="3"/>
       <c r="BO12" s="9"/>
       <c r="BP12" s="9"/>
       <c r="BQ12" s="9"/>
-      <c r="BR12" s="3"/>
-      <c r="BS12" s="3"/>
+      <c r="BR12" s="9"/>
+      <c r="BS12" s="9"/>
       <c r="BT12" s="3"/>
       <c r="BU12" s="3"/>
       <c r="BV12" s="3"/>
@@ -2086,9 +2324,11 @@
       <c r="CL12" s="3"/>
       <c r="CM12" s="3"/>
       <c r="CN12" s="3"/>
-      <c r="CO12" s="1"/>
+      <c r="CO12" s="3"/>
+      <c r="CP12" s="3"/>
+      <c r="CQ12" s="1"/>
     </row>
-    <row r="13" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2108,7 +2348,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="T13" s="13"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -2121,20 +2361,20 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
       <c r="AI13" s="8"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
-      <c r="AN13" s="8"/>
-      <c r="AO13" s="8"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
       <c r="AP13" s="8"/>
       <c r="AQ13" s="8"/>
       <c r="AR13" s="8"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
       <c r="AU13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="3"/>
@@ -2153,13 +2393,13 @@
       <c r="BJ13" s="3"/>
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
-      <c r="BM13" s="9"/>
-      <c r="BN13" s="9"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="3"/>
       <c r="BO13" s="9"/>
       <c r="BP13" s="9"/>
       <c r="BQ13" s="9"/>
-      <c r="BR13" s="3"/>
-      <c r="BS13" s="3"/>
+      <c r="BR13" s="9"/>
+      <c r="BS13" s="9"/>
       <c r="BT13" s="3"/>
       <c r="BU13" s="3"/>
       <c r="BV13" s="3"/>
@@ -2181,9 +2421,11 @@
       <c r="CL13" s="3"/>
       <c r="CM13" s="3"/>
       <c r="CN13" s="3"/>
-      <c r="CO13" s="1"/>
+      <c r="CO13" s="3"/>
+      <c r="CP13" s="3"/>
+      <c r="CQ13" s="1"/>
     </row>
-    <row r="14" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2203,7 +2445,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="T14" s="13"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -2216,20 +2458,20 @@
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
       <c r="AI14" s="8"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
-      <c r="AN14" s="8"/>
-      <c r="AO14" s="8"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
       <c r="AP14" s="8"/>
       <c r="AQ14" s="8"/>
       <c r="AR14" s="8"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
       <c r="AU14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="3"/>
@@ -2248,13 +2490,13 @@
       <c r="BJ14" s="3"/>
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
-      <c r="BM14" s="9"/>
-      <c r="BN14" s="9"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="3"/>
       <c r="BO14" s="9"/>
       <c r="BP14" s="9"/>
       <c r="BQ14" s="9"/>
-      <c r="BR14" s="3"/>
-      <c r="BS14" s="3"/>
+      <c r="BR14" s="9"/>
+      <c r="BS14" s="9"/>
       <c r="BT14" s="3"/>
       <c r="BU14" s="3"/>
       <c r="BV14" s="3"/>
@@ -2276,9 +2518,11 @@
       <c r="CL14" s="3"/>
       <c r="CM14" s="3"/>
       <c r="CN14" s="3"/>
-      <c r="CO14" s="1"/>
+      <c r="CO14" s="3"/>
+      <c r="CP14" s="3"/>
+      <c r="CQ14" s="1"/>
     </row>
-    <row r="15" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2298,7 +2542,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="T15" s="13"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -2311,20 +2555,20 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
       <c r="AI15" s="8"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
-      <c r="AN15" s="8"/>
-      <c r="AO15" s="8"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
       <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
       <c r="AR15" s="8"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="8"/>
       <c r="AU15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="3"/>
@@ -2343,13 +2587,13 @@
       <c r="BJ15" s="3"/>
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
-      <c r="BM15" s="9"/>
-      <c r="BN15" s="9"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="3"/>
       <c r="BO15" s="9"/>
       <c r="BP15" s="9"/>
       <c r="BQ15" s="9"/>
-      <c r="BR15" s="3"/>
-      <c r="BS15" s="3"/>
+      <c r="BR15" s="9"/>
+      <c r="BS15" s="9"/>
       <c r="BT15" s="3"/>
       <c r="BU15" s="3"/>
       <c r="BV15" s="3"/>
@@ -2371,9 +2615,11 @@
       <c r="CL15" s="3"/>
       <c r="CM15" s="3"/>
       <c r="CN15" s="3"/>
-      <c r="CO15" s="1"/>
+      <c r="CO15" s="3"/>
+      <c r="CP15" s="3"/>
+      <c r="CQ15" s="1"/>
     </row>
-    <row r="16" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2393,7 +2639,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="T16" s="13"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -2406,20 +2652,20 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
       <c r="AI16" s="8"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
-      <c r="AN16" s="8"/>
-      <c r="AO16" s="8"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
       <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
       <c r="AR16" s="8"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="8"/>
       <c r="AU16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="AW16" s="3"/>
@@ -2438,13 +2684,13 @@
       <c r="BJ16" s="3"/>
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
-      <c r="BM16" s="9"/>
-      <c r="BN16" s="9"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
       <c r="BO16" s="9"/>
       <c r="BP16" s="9"/>
       <c r="BQ16" s="9"/>
-      <c r="BR16" s="3"/>
-      <c r="BS16" s="3"/>
+      <c r="BR16" s="9"/>
+      <c r="BS16" s="9"/>
       <c r="BT16" s="3"/>
       <c r="BU16" s="3"/>
       <c r="BV16" s="3"/>
@@ -2466,9 +2712,11 @@
       <c r="CL16" s="3"/>
       <c r="CM16" s="3"/>
       <c r="CN16" s="3"/>
-      <c r="CO16" s="1"/>
+      <c r="CO16" s="3"/>
+      <c r="CP16" s="3"/>
+      <c r="CQ16" s="1"/>
     </row>
-    <row r="17" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2488,7 +2736,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="T17" s="13"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -2501,20 +2749,20 @@
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
       <c r="AI17" s="8"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
-      <c r="AN17" s="8"/>
-      <c r="AO17" s="8"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
       <c r="AR17" s="8"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
+      <c r="AS17" s="8"/>
+      <c r="AT17" s="8"/>
       <c r="AU17" s="3"/>
       <c r="AV17" s="3"/>
       <c r="AW17" s="3"/>
@@ -2533,13 +2781,13 @@
       <c r="BJ17" s="3"/>
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
-      <c r="BM17" s="9"/>
-      <c r="BN17" s="9"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
       <c r="BO17" s="9"/>
       <c r="BP17" s="9"/>
       <c r="BQ17" s="9"/>
-      <c r="BR17" s="3"/>
-      <c r="BS17" s="3"/>
+      <c r="BR17" s="9"/>
+      <c r="BS17" s="9"/>
       <c r="BT17" s="3"/>
       <c r="BU17" s="3"/>
       <c r="BV17" s="3"/>
@@ -2561,9 +2809,11 @@
       <c r="CL17" s="3"/>
       <c r="CM17" s="3"/>
       <c r="CN17" s="3"/>
-      <c r="CO17" s="1"/>
+      <c r="CO17" s="3"/>
+      <c r="CP17" s="3"/>
+      <c r="CQ17" s="1"/>
     </row>
-    <row r="18" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2583,7 +2833,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="T18" s="13"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
@@ -2596,20 +2846,20 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="8"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
       <c r="AI18" s="8"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
-      <c r="AN18" s="8"/>
-      <c r="AO18" s="8"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
       <c r="AP18" s="8"/>
       <c r="AQ18" s="8"/>
       <c r="AR18" s="8"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="8"/>
       <c r="AU18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="AW18" s="3"/>
@@ -2628,13 +2878,13 @@
       <c r="BJ18" s="3"/>
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
-      <c r="BM18" s="9"/>
-      <c r="BN18" s="9"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
       <c r="BO18" s="9"/>
       <c r="BP18" s="9"/>
       <c r="BQ18" s="9"/>
-      <c r="BR18" s="3"/>
-      <c r="BS18" s="3"/>
+      <c r="BR18" s="9"/>
+      <c r="BS18" s="9"/>
       <c r="BT18" s="3"/>
       <c r="BU18" s="3"/>
       <c r="BV18" s="3"/>
@@ -2656,9 +2906,11 @@
       <c r="CL18" s="3"/>
       <c r="CM18" s="3"/>
       <c r="CN18" s="3"/>
-      <c r="CO18" s="1"/>
+      <c r="CO18" s="3"/>
+      <c r="CP18" s="3"/>
+      <c r="CQ18" s="1"/>
     </row>
-    <row r="19" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2678,7 +2930,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="T19" s="13"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -2691,20 +2943,20 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
       <c r="AI19" s="8"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
-      <c r="AN19" s="8"/>
-      <c r="AO19" s="8"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
       <c r="AP19" s="8"/>
       <c r="AQ19" s="8"/>
       <c r="AR19" s="8"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="8"/>
       <c r="AU19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="AW19" s="3"/>
@@ -2723,13 +2975,13 @@
       <c r="BJ19" s="3"/>
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
-      <c r="BM19" s="9"/>
-      <c r="BN19" s="9"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
       <c r="BO19" s="9"/>
       <c r="BP19" s="9"/>
       <c r="BQ19" s="9"/>
-      <c r="BR19" s="3"/>
-      <c r="BS19" s="3"/>
+      <c r="BR19" s="9"/>
+      <c r="BS19" s="9"/>
       <c r="BT19" s="3"/>
       <c r="BU19" s="3"/>
       <c r="BV19" s="3"/>
@@ -2751,9 +3003,11 @@
       <c r="CL19" s="3"/>
       <c r="CM19" s="3"/>
       <c r="CN19" s="3"/>
-      <c r="CO19" s="1"/>
+      <c r="CO19" s="3"/>
+      <c r="CP19" s="3"/>
+      <c r="CQ19" s="1"/>
     </row>
-    <row r="20" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2773,7 +3027,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="T20" s="13"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -2786,20 +3040,20 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
       <c r="AI20" s="8"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
-      <c r="AN20" s="8"/>
-      <c r="AO20" s="8"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
       <c r="AP20" s="8"/>
       <c r="AQ20" s="8"/>
       <c r="AR20" s="8"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
+      <c r="AS20" s="8"/>
+      <c r="AT20" s="8"/>
       <c r="AU20" s="3"/>
       <c r="AV20" s="3"/>
       <c r="AW20" s="3"/>
@@ -2818,13 +3072,13 @@
       <c r="BJ20" s="3"/>
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
-      <c r="BM20" s="9"/>
-      <c r="BN20" s="9"/>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="3"/>
       <c r="BO20" s="9"/>
       <c r="BP20" s="9"/>
       <c r="BQ20" s="9"/>
-      <c r="BR20" s="3"/>
-      <c r="BS20" s="3"/>
+      <c r="BR20" s="9"/>
+      <c r="BS20" s="9"/>
       <c r="BT20" s="3"/>
       <c r="BU20" s="3"/>
       <c r="BV20" s="3"/>
@@ -2846,9 +3100,11 @@
       <c r="CL20" s="3"/>
       <c r="CM20" s="3"/>
       <c r="CN20" s="3"/>
-      <c r="CO20" s="1"/>
+      <c r="CO20" s="3"/>
+      <c r="CP20" s="3"/>
+      <c r="CQ20" s="1"/>
     </row>
-    <row r="21" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2868,7 +3124,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
+      <c r="T21" s="13"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -2881,20 +3137,20 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
       <c r="AI21" s="8"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
-      <c r="AN21" s="8"/>
-      <c r="AO21" s="8"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
       <c r="AP21" s="8"/>
       <c r="AQ21" s="8"/>
       <c r="AR21" s="8"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="8"/>
       <c r="AU21" s="3"/>
       <c r="AV21" s="3"/>
       <c r="AW21" s="3"/>
@@ -2913,13 +3169,13 @@
       <c r="BJ21" s="3"/>
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
-      <c r="BM21" s="9"/>
-      <c r="BN21" s="9"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
       <c r="BO21" s="9"/>
       <c r="BP21" s="9"/>
       <c r="BQ21" s="9"/>
-      <c r="BR21" s="3"/>
-      <c r="BS21" s="3"/>
+      <c r="BR21" s="9"/>
+      <c r="BS21" s="9"/>
       <c r="BT21" s="3"/>
       <c r="BU21" s="3"/>
       <c r="BV21" s="3"/>
@@ -2941,9 +3197,11 @@
       <c r="CL21" s="3"/>
       <c r="CM21" s="3"/>
       <c r="CN21" s="3"/>
-      <c r="CO21" s="1"/>
+      <c r="CO21" s="3"/>
+      <c r="CP21" s="3"/>
+      <c r="CQ21" s="1"/>
     </row>
-    <row r="22" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2963,7 +3221,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
+      <c r="T22" s="13"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -2976,20 +3234,20 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
       <c r="AI22" s="8"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
-      <c r="AN22" s="8"/>
-      <c r="AO22" s="8"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
       <c r="AP22" s="8"/>
       <c r="AQ22" s="8"/>
       <c r="AR22" s="8"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
+      <c r="AS22" s="8"/>
+      <c r="AT22" s="8"/>
       <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
@@ -3008,13 +3266,13 @@
       <c r="BJ22" s="3"/>
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
-      <c r="BM22" s="9"/>
-      <c r="BN22" s="9"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
       <c r="BO22" s="9"/>
       <c r="BP22" s="9"/>
       <c r="BQ22" s="9"/>
-      <c r="BR22" s="3"/>
-      <c r="BS22" s="3"/>
+      <c r="BR22" s="9"/>
+      <c r="BS22" s="9"/>
       <c r="BT22" s="3"/>
       <c r="BU22" s="3"/>
       <c r="BV22" s="3"/>
@@ -3036,9 +3294,11 @@
       <c r="CL22" s="3"/>
       <c r="CM22" s="3"/>
       <c r="CN22" s="3"/>
-      <c r="CO22" s="1"/>
+      <c r="CO22" s="3"/>
+      <c r="CP22" s="3"/>
+      <c r="CQ22" s="1"/>
     </row>
-    <row r="23" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3058,7 +3318,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
+      <c r="T23" s="13"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -3071,20 +3331,20 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
       <c r="AI23" s="8"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
-      <c r="AN23" s="8"/>
-      <c r="AO23" s="8"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
       <c r="AP23" s="8"/>
       <c r="AQ23" s="8"/>
       <c r="AR23" s="8"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
+      <c r="AS23" s="8"/>
+      <c r="AT23" s="8"/>
       <c r="AU23" s="3"/>
       <c r="AV23" s="3"/>
       <c r="AW23" s="3"/>
@@ -3103,13 +3363,13 @@
       <c r="BJ23" s="3"/>
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
-      <c r="BM23" s="9"/>
-      <c r="BN23" s="9"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
       <c r="BO23" s="9"/>
       <c r="BP23" s="9"/>
       <c r="BQ23" s="9"/>
-      <c r="BR23" s="3"/>
-      <c r="BS23" s="3"/>
+      <c r="BR23" s="9"/>
+      <c r="BS23" s="9"/>
       <c r="BT23" s="3"/>
       <c r="BU23" s="3"/>
       <c r="BV23" s="3"/>
@@ -3131,9 +3391,11 @@
       <c r="CL23" s="3"/>
       <c r="CM23" s="3"/>
       <c r="CN23" s="3"/>
-      <c r="CO23" s="1"/>
+      <c r="CO23" s="3"/>
+      <c r="CP23" s="3"/>
+      <c r="CQ23" s="1"/>
     </row>
-    <row r="24" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3153,7 +3415,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
+      <c r="T24" s="13"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -3166,20 +3428,20 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
       <c r="AI24" s="8"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
-      <c r="AN24" s="8"/>
-      <c r="AO24" s="8"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
       <c r="AP24" s="8"/>
       <c r="AQ24" s="8"/>
       <c r="AR24" s="8"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="8"/>
       <c r="AU24" s="3"/>
       <c r="AV24" s="3"/>
       <c r="AW24" s="3"/>
@@ -3198,13 +3460,13 @@
       <c r="BJ24" s="3"/>
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
-      <c r="BM24" s="9"/>
-      <c r="BN24" s="9"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
       <c r="BO24" s="9"/>
       <c r="BP24" s="9"/>
       <c r="BQ24" s="9"/>
-      <c r="BR24" s="3"/>
-      <c r="BS24" s="3"/>
+      <c r="BR24" s="9"/>
+      <c r="BS24" s="9"/>
       <c r="BT24" s="3"/>
       <c r="BU24" s="3"/>
       <c r="BV24" s="3"/>
@@ -3226,9 +3488,11 @@
       <c r="CL24" s="3"/>
       <c r="CM24" s="3"/>
       <c r="CN24" s="3"/>
-      <c r="CO24" s="1"/>
+      <c r="CO24" s="3"/>
+      <c r="CP24" s="3"/>
+      <c r="CQ24" s="1"/>
     </row>
-    <row r="25" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3248,7 +3512,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
+      <c r="T25" s="13"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
@@ -3261,20 +3525,20 @@
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
       <c r="AI25" s="8"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
-      <c r="AN25" s="8"/>
-      <c r="AO25" s="8"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
       <c r="AP25" s="8"/>
       <c r="AQ25" s="8"/>
       <c r="AR25" s="8"/>
-      <c r="AS25" s="3"/>
-      <c r="AT25" s="3"/>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="8"/>
       <c r="AU25" s="3"/>
       <c r="AV25" s="3"/>
       <c r="AW25" s="3"/>
@@ -3293,13 +3557,13 @@
       <c r="BJ25" s="3"/>
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
-      <c r="BM25" s="9"/>
-      <c r="BN25" s="9"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
       <c r="BO25" s="9"/>
       <c r="BP25" s="9"/>
       <c r="BQ25" s="9"/>
-      <c r="BR25" s="3"/>
-      <c r="BS25" s="3"/>
+      <c r="BR25" s="9"/>
+      <c r="BS25" s="9"/>
       <c r="BT25" s="3"/>
       <c r="BU25" s="3"/>
       <c r="BV25" s="3"/>
@@ -3321,9 +3585,11 @@
       <c r="CL25" s="3"/>
       <c r="CM25" s="3"/>
       <c r="CN25" s="3"/>
-      <c r="CO25" s="1"/>
+      <c r="CO25" s="3"/>
+      <c r="CP25" s="3"/>
+      <c r="CQ25" s="1"/>
     </row>
-    <row r="26" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3343,7 +3609,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="T26" s="13"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
@@ -3356,20 +3622,20 @@
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
       <c r="AI26" s="8"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
-      <c r="AN26" s="8"/>
-      <c r="AO26" s="8"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
       <c r="AP26" s="8"/>
       <c r="AQ26" s="8"/>
       <c r="AR26" s="8"/>
-      <c r="AS26" s="3"/>
-      <c r="AT26" s="3"/>
+      <c r="AS26" s="8"/>
+      <c r="AT26" s="8"/>
       <c r="AU26" s="3"/>
       <c r="AV26" s="3"/>
       <c r="AW26" s="3"/>
@@ -3388,13 +3654,13 @@
       <c r="BJ26" s="3"/>
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
-      <c r="BM26" s="9"/>
-      <c r="BN26" s="9"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
       <c r="BO26" s="9"/>
       <c r="BP26" s="9"/>
       <c r="BQ26" s="9"/>
-      <c r="BR26" s="3"/>
-      <c r="BS26" s="3"/>
+      <c r="BR26" s="9"/>
+      <c r="BS26" s="9"/>
       <c r="BT26" s="3"/>
       <c r="BU26" s="3"/>
       <c r="BV26" s="3"/>
@@ -3416,9 +3682,11 @@
       <c r="CL26" s="3"/>
       <c r="CM26" s="3"/>
       <c r="CN26" s="3"/>
-      <c r="CO26" s="1"/>
+      <c r="CO26" s="3"/>
+      <c r="CP26" s="3"/>
+      <c r="CQ26" s="1"/>
     </row>
-    <row r="27" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3438,7 +3706,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
+      <c r="T27" s="13"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -3451,20 +3719,20 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="8"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
       <c r="AI27" s="8"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
-      <c r="AN27" s="8"/>
-      <c r="AO27" s="8"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
       <c r="AP27" s="8"/>
       <c r="AQ27" s="8"/>
       <c r="AR27" s="8"/>
-      <c r="AS27" s="3"/>
-      <c r="AT27" s="3"/>
+      <c r="AS27" s="8"/>
+      <c r="AT27" s="8"/>
       <c r="AU27" s="3"/>
       <c r="AV27" s="3"/>
       <c r="AW27" s="3"/>
@@ -3483,13 +3751,13 @@
       <c r="BJ27" s="3"/>
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
-      <c r="BM27" s="9"/>
-      <c r="BN27" s="9"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="3"/>
       <c r="BO27" s="9"/>
       <c r="BP27" s="9"/>
       <c r="BQ27" s="9"/>
-      <c r="BR27" s="3"/>
-      <c r="BS27" s="3"/>
+      <c r="BR27" s="9"/>
+      <c r="BS27" s="9"/>
       <c r="BT27" s="3"/>
       <c r="BU27" s="3"/>
       <c r="BV27" s="3"/>
@@ -3511,9 +3779,11 @@
       <c r="CL27" s="3"/>
       <c r="CM27" s="3"/>
       <c r="CN27" s="3"/>
-      <c r="CO27" s="1"/>
+      <c r="CO27" s="3"/>
+      <c r="CP27" s="3"/>
+      <c r="CQ27" s="1"/>
     </row>
-    <row r="28" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3533,7 +3803,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
+      <c r="T28" s="13"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -3546,20 +3816,20 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
-      <c r="AG28" s="8"/>
-      <c r="AH28" s="8"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
       <c r="AI28" s="8"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
-      <c r="AN28" s="8"/>
-      <c r="AO28" s="8"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
       <c r="AP28" s="8"/>
       <c r="AQ28" s="8"/>
       <c r="AR28" s="8"/>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="3"/>
+      <c r="AS28" s="8"/>
+      <c r="AT28" s="8"/>
       <c r="AU28" s="3"/>
       <c r="AV28" s="3"/>
       <c r="AW28" s="3"/>
@@ -3578,13 +3848,13 @@
       <c r="BJ28" s="3"/>
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
-      <c r="BM28" s="9"/>
-      <c r="BN28" s="9"/>
+      <c r="BM28" s="3"/>
+      <c r="BN28" s="3"/>
       <c r="BO28" s="9"/>
       <c r="BP28" s="9"/>
       <c r="BQ28" s="9"/>
-      <c r="BR28" s="3"/>
-      <c r="BS28" s="3"/>
+      <c r="BR28" s="9"/>
+      <c r="BS28" s="9"/>
       <c r="BT28" s="3"/>
       <c r="BU28" s="3"/>
       <c r="BV28" s="3"/>
@@ -3606,9 +3876,11 @@
       <c r="CL28" s="3"/>
       <c r="CM28" s="3"/>
       <c r="CN28" s="3"/>
-      <c r="CO28" s="1"/>
+      <c r="CO28" s="3"/>
+      <c r="CP28" s="3"/>
+      <c r="CQ28" s="1"/>
     </row>
-    <row r="29" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3628,7 +3900,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="T29" s="13"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
@@ -3641,20 +3913,20 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
-      <c r="AG29" s="8"/>
-      <c r="AH29" s="8"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
       <c r="AI29" s="8"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
       <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
-      <c r="AN29" s="8"/>
-      <c r="AO29" s="8"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
       <c r="AP29" s="8"/>
       <c r="AQ29" s="8"/>
       <c r="AR29" s="8"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
+      <c r="AS29" s="8"/>
+      <c r="AT29" s="8"/>
       <c r="AU29" s="3"/>
       <c r="AV29" s="3"/>
       <c r="AW29" s="3"/>
@@ -3673,13 +3945,13 @@
       <c r="BJ29" s="3"/>
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
-      <c r="BM29" s="9"/>
-      <c r="BN29" s="9"/>
+      <c r="BM29" s="3"/>
+      <c r="BN29" s="3"/>
       <c r="BO29" s="9"/>
       <c r="BP29" s="9"/>
       <c r="BQ29" s="9"/>
-      <c r="BR29" s="3"/>
-      <c r="BS29" s="3"/>
+      <c r="BR29" s="9"/>
+      <c r="BS29" s="9"/>
       <c r="BT29" s="3"/>
       <c r="BU29" s="3"/>
       <c r="BV29" s="3"/>
@@ -3701,9 +3973,11 @@
       <c r="CL29" s="3"/>
       <c r="CM29" s="3"/>
       <c r="CN29" s="3"/>
-      <c r="CO29" s="1"/>
+      <c r="CO29" s="3"/>
+      <c r="CP29" s="3"/>
+      <c r="CQ29" s="1"/>
     </row>
-    <row r="30" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3723,7 +3997,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
+      <c r="T30" s="13"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
@@ -3736,20 +4010,20 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
-      <c r="AG30" s="8"/>
-      <c r="AH30" s="8"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
       <c r="AI30" s="8"/>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="3"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
       <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
-      <c r="AN30" s="8"/>
-      <c r="AO30" s="8"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
       <c r="AP30" s="8"/>
       <c r="AQ30" s="8"/>
       <c r="AR30" s="8"/>
-      <c r="AS30" s="3"/>
-      <c r="AT30" s="3"/>
+      <c r="AS30" s="8"/>
+      <c r="AT30" s="8"/>
       <c r="AU30" s="3"/>
       <c r="AV30" s="3"/>
       <c r="AW30" s="3"/>
@@ -3768,13 +4042,13 @@
       <c r="BJ30" s="3"/>
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
-      <c r="BM30" s="9"/>
-      <c r="BN30" s="9"/>
+      <c r="BM30" s="3"/>
+      <c r="BN30" s="3"/>
       <c r="BO30" s="9"/>
       <c r="BP30" s="9"/>
       <c r="BQ30" s="9"/>
-      <c r="BR30" s="3"/>
-      <c r="BS30" s="3"/>
+      <c r="BR30" s="9"/>
+      <c r="BS30" s="9"/>
       <c r="BT30" s="3"/>
       <c r="BU30" s="3"/>
       <c r="BV30" s="3"/>
@@ -3796,9 +4070,11 @@
       <c r="CL30" s="3"/>
       <c r="CM30" s="3"/>
       <c r="CN30" s="3"/>
-      <c r="CO30" s="1"/>
+      <c r="CO30" s="3"/>
+      <c r="CP30" s="3"/>
+      <c r="CQ30" s="1"/>
     </row>
-    <row r="31" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3818,7 +4094,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
+      <c r="T31" s="13"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
@@ -3831,20 +4107,20 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
-      <c r="AG31" s="8"/>
-      <c r="AH31" s="8"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
       <c r="AI31" s="8"/>
-      <c r="AJ31" s="3"/>
-      <c r="AK31" s="3"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
       <c r="AL31" s="3"/>
       <c r="AM31" s="3"/>
-      <c r="AN31" s="8"/>
-      <c r="AO31" s="8"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
       <c r="AP31" s="8"/>
       <c r="AQ31" s="8"/>
       <c r="AR31" s="8"/>
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="3"/>
+      <c r="AS31" s="8"/>
+      <c r="AT31" s="8"/>
       <c r="AU31" s="3"/>
       <c r="AV31" s="3"/>
       <c r="AW31" s="3"/>
@@ -3863,13 +4139,13 @@
       <c r="BJ31" s="3"/>
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
-      <c r="BM31" s="9"/>
-      <c r="BN31" s="9"/>
+      <c r="BM31" s="3"/>
+      <c r="BN31" s="3"/>
       <c r="BO31" s="9"/>
       <c r="BP31" s="9"/>
       <c r="BQ31" s="9"/>
-      <c r="BR31" s="3"/>
-      <c r="BS31" s="3"/>
+      <c r="BR31" s="9"/>
+      <c r="BS31" s="9"/>
       <c r="BT31" s="3"/>
       <c r="BU31" s="3"/>
       <c r="BV31" s="3"/>
@@ -3891,9 +4167,11 @@
       <c r="CL31" s="3"/>
       <c r="CM31" s="3"/>
       <c r="CN31" s="3"/>
-      <c r="CO31" s="1"/>
+      <c r="CO31" s="3"/>
+      <c r="CP31" s="3"/>
+      <c r="CQ31" s="1"/>
     </row>
-    <row r="32" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3913,7 +4191,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
+      <c r="T32" s="13"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
@@ -3926,20 +4204,20 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="8"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
       <c r="AI32" s="8"/>
-      <c r="AJ32" s="3"/>
-      <c r="AK32" s="3"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
       <c r="AL32" s="3"/>
       <c r="AM32" s="3"/>
-      <c r="AN32" s="8"/>
-      <c r="AO32" s="8"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
       <c r="AP32" s="8"/>
       <c r="AQ32" s="8"/>
       <c r="AR32" s="8"/>
-      <c r="AS32" s="3"/>
-      <c r="AT32" s="3"/>
+      <c r="AS32" s="8"/>
+      <c r="AT32" s="8"/>
       <c r="AU32" s="3"/>
       <c r="AV32" s="3"/>
       <c r="AW32" s="3"/>
@@ -3958,13 +4236,13 @@
       <c r="BJ32" s="3"/>
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
-      <c r="BM32" s="9"/>
-      <c r="BN32" s="9"/>
+      <c r="BM32" s="3"/>
+      <c r="BN32" s="3"/>
       <c r="BO32" s="9"/>
       <c r="BP32" s="9"/>
       <c r="BQ32" s="9"/>
-      <c r="BR32" s="3"/>
-      <c r="BS32" s="3"/>
+      <c r="BR32" s="9"/>
+      <c r="BS32" s="9"/>
       <c r="BT32" s="3"/>
       <c r="BU32" s="3"/>
       <c r="BV32" s="3"/>
@@ -3986,9 +4264,11 @@
       <c r="CL32" s="3"/>
       <c r="CM32" s="3"/>
       <c r="CN32" s="3"/>
-      <c r="CO32" s="1"/>
+      <c r="CO32" s="3"/>
+      <c r="CP32" s="3"/>
+      <c r="CQ32" s="1"/>
     </row>
-    <row r="33" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4008,7 +4288,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
+      <c r="T33" s="13"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
@@ -4021,20 +4301,20 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="8"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
       <c r="AI33" s="8"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
       <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
-      <c r="AN33" s="8"/>
-      <c r="AO33" s="8"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
       <c r="AP33" s="8"/>
       <c r="AQ33" s="8"/>
       <c r="AR33" s="8"/>
-      <c r="AS33" s="3"/>
-      <c r="AT33" s="3"/>
+      <c r="AS33" s="8"/>
+      <c r="AT33" s="8"/>
       <c r="AU33" s="3"/>
       <c r="AV33" s="3"/>
       <c r="AW33" s="3"/>
@@ -4053,13 +4333,13 @@
       <c r="BJ33" s="3"/>
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
-      <c r="BM33" s="9"/>
-      <c r="BN33" s="9"/>
+      <c r="BM33" s="3"/>
+      <c r="BN33" s="3"/>
       <c r="BO33" s="9"/>
       <c r="BP33" s="9"/>
       <c r="BQ33" s="9"/>
-      <c r="BR33" s="3"/>
-      <c r="BS33" s="3"/>
+      <c r="BR33" s="9"/>
+      <c r="BS33" s="9"/>
       <c r="BT33" s="3"/>
       <c r="BU33" s="3"/>
       <c r="BV33" s="3"/>
@@ -4081,9 +4361,11 @@
       <c r="CL33" s="3"/>
       <c r="CM33" s="3"/>
       <c r="CN33" s="3"/>
-      <c r="CO33" s="1"/>
+      <c r="CO33" s="3"/>
+      <c r="CP33" s="3"/>
+      <c r="CQ33" s="1"/>
     </row>
-    <row r="34" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4103,7 +4385,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
+      <c r="T34" s="13"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
@@ -4116,20 +4398,20 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
-      <c r="AG34" s="8"/>
-      <c r="AH34" s="8"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
       <c r="AI34" s="8"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
       <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
-      <c r="AN34" s="8"/>
-      <c r="AO34" s="8"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
       <c r="AP34" s="8"/>
       <c r="AQ34" s="8"/>
       <c r="AR34" s="8"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
+      <c r="AS34" s="8"/>
+      <c r="AT34" s="8"/>
       <c r="AU34" s="3"/>
       <c r="AV34" s="3"/>
       <c r="AW34" s="3"/>
@@ -4148,13 +4430,13 @@
       <c r="BJ34" s="3"/>
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
-      <c r="BM34" s="9"/>
-      <c r="BN34" s="9"/>
+      <c r="BM34" s="3"/>
+      <c r="BN34" s="3"/>
       <c r="BO34" s="9"/>
       <c r="BP34" s="9"/>
       <c r="BQ34" s="9"/>
-      <c r="BR34" s="3"/>
-      <c r="BS34" s="3"/>
+      <c r="BR34" s="9"/>
+      <c r="BS34" s="9"/>
       <c r="BT34" s="3"/>
       <c r="BU34" s="3"/>
       <c r="BV34" s="3"/>
@@ -4176,9 +4458,11 @@
       <c r="CL34" s="3"/>
       <c r="CM34" s="3"/>
       <c r="CN34" s="3"/>
-      <c r="CO34" s="1"/>
+      <c r="CO34" s="3"/>
+      <c r="CP34" s="3"/>
+      <c r="CQ34" s="1"/>
     </row>
-    <row r="35" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4198,7 +4482,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
+      <c r="T35" s="13"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
@@ -4211,20 +4495,20 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
       <c r="AI35" s="8"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
       <c r="AL35" s="3"/>
       <c r="AM35" s="3"/>
-      <c r="AN35" s="8"/>
-      <c r="AO35" s="8"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
       <c r="AP35" s="8"/>
       <c r="AQ35" s="8"/>
       <c r="AR35" s="8"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="3"/>
+      <c r="AS35" s="8"/>
+      <c r="AT35" s="8"/>
       <c r="AU35" s="3"/>
       <c r="AV35" s="3"/>
       <c r="AW35" s="3"/>
@@ -4243,13 +4527,13 @@
       <c r="BJ35" s="3"/>
       <c r="BK35" s="3"/>
       <c r="BL35" s="3"/>
-      <c r="BM35" s="9"/>
-      <c r="BN35" s="9"/>
+      <c r="BM35" s="3"/>
+      <c r="BN35" s="3"/>
       <c r="BO35" s="9"/>
       <c r="BP35" s="9"/>
       <c r="BQ35" s="9"/>
-      <c r="BR35" s="3"/>
-      <c r="BS35" s="3"/>
+      <c r="BR35" s="9"/>
+      <c r="BS35" s="9"/>
       <c r="BT35" s="3"/>
       <c r="BU35" s="3"/>
       <c r="BV35" s="3"/>
@@ -4271,9 +4555,11 @@
       <c r="CL35" s="3"/>
       <c r="CM35" s="3"/>
       <c r="CN35" s="3"/>
-      <c r="CO35" s="1"/>
+      <c r="CO35" s="3"/>
+      <c r="CP35" s="3"/>
+      <c r="CQ35" s="1"/>
     </row>
-    <row r="36" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4293,7 +4579,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
+      <c r="T36" s="13"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
@@ -4306,20 +4592,20 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
       <c r="AI36" s="8"/>
-      <c r="AJ36" s="3"/>
-      <c r="AK36" s="3"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
       <c r="AL36" s="3"/>
       <c r="AM36" s="3"/>
-      <c r="AN36" s="8"/>
-      <c r="AO36" s="8"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
       <c r="AP36" s="8"/>
       <c r="AQ36" s="8"/>
       <c r="AR36" s="8"/>
-      <c r="AS36" s="3"/>
-      <c r="AT36" s="3"/>
+      <c r="AS36" s="8"/>
+      <c r="AT36" s="8"/>
       <c r="AU36" s="3"/>
       <c r="AV36" s="3"/>
       <c r="AW36" s="3"/>
@@ -4338,13 +4624,13 @@
       <c r="BJ36" s="3"/>
       <c r="BK36" s="3"/>
       <c r="BL36" s="3"/>
-      <c r="BM36" s="9"/>
-      <c r="BN36" s="9"/>
+      <c r="BM36" s="3"/>
+      <c r="BN36" s="3"/>
       <c r="BO36" s="9"/>
       <c r="BP36" s="9"/>
       <c r="BQ36" s="9"/>
-      <c r="BR36" s="3"/>
-      <c r="BS36" s="3"/>
+      <c r="BR36" s="9"/>
+      <c r="BS36" s="9"/>
       <c r="BT36" s="3"/>
       <c r="BU36" s="3"/>
       <c r="BV36" s="3"/>
@@ -4366,9 +4652,11 @@
       <c r="CL36" s="3"/>
       <c r="CM36" s="3"/>
       <c r="CN36" s="3"/>
-      <c r="CO36" s="1"/>
+      <c r="CO36" s="3"/>
+      <c r="CP36" s="3"/>
+      <c r="CQ36" s="1"/>
     </row>
-    <row r="37" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4388,7 +4676,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
+      <c r="T37" s="13"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
@@ -4401,20 +4689,20 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
-      <c r="AG37" s="8"/>
-      <c r="AH37" s="8"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
       <c r="AI37" s="8"/>
-      <c r="AJ37" s="3"/>
-      <c r="AK37" s="3"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
       <c r="AL37" s="3"/>
       <c r="AM37" s="3"/>
-      <c r="AN37" s="8"/>
-      <c r="AO37" s="8"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
       <c r="AP37" s="8"/>
       <c r="AQ37" s="8"/>
       <c r="AR37" s="8"/>
-      <c r="AS37" s="3"/>
-      <c r="AT37" s="3"/>
+      <c r="AS37" s="8"/>
+      <c r="AT37" s="8"/>
       <c r="AU37" s="3"/>
       <c r="AV37" s="3"/>
       <c r="AW37" s="3"/>
@@ -4433,13 +4721,13 @@
       <c r="BJ37" s="3"/>
       <c r="BK37" s="3"/>
       <c r="BL37" s="3"/>
-      <c r="BM37" s="9"/>
-      <c r="BN37" s="9"/>
+      <c r="BM37" s="3"/>
+      <c r="BN37" s="3"/>
       <c r="BO37" s="9"/>
       <c r="BP37" s="9"/>
       <c r="BQ37" s="9"/>
-      <c r="BR37" s="3"/>
-      <c r="BS37" s="3"/>
+      <c r="BR37" s="9"/>
+      <c r="BS37" s="9"/>
       <c r="BT37" s="3"/>
       <c r="BU37" s="3"/>
       <c r="BV37" s="3"/>
@@ -4461,9 +4749,11 @@
       <c r="CL37" s="3"/>
       <c r="CM37" s="3"/>
       <c r="CN37" s="3"/>
-      <c r="CO37" s="1"/>
+      <c r="CO37" s="3"/>
+      <c r="CP37" s="3"/>
+      <c r="CQ37" s="1"/>
     </row>
-    <row r="38" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4483,7 +4773,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
+      <c r="T38" s="13"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
@@ -4496,20 +4786,20 @@
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
-      <c r="AG38" s="8"/>
-      <c r="AH38" s="8"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
       <c r="AI38" s="8"/>
-      <c r="AJ38" s="3"/>
-      <c r="AK38" s="3"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
       <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
-      <c r="AN38" s="8"/>
-      <c r="AO38" s="8"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
       <c r="AP38" s="8"/>
       <c r="AQ38" s="8"/>
       <c r="AR38" s="8"/>
-      <c r="AS38" s="3"/>
-      <c r="AT38" s="3"/>
+      <c r="AS38" s="8"/>
+      <c r="AT38" s="8"/>
       <c r="AU38" s="3"/>
       <c r="AV38" s="3"/>
       <c r="AW38" s="3"/>
@@ -4528,13 +4818,13 @@
       <c r="BJ38" s="3"/>
       <c r="BK38" s="3"/>
       <c r="BL38" s="3"/>
-      <c r="BM38" s="9"/>
-      <c r="BN38" s="9"/>
+      <c r="BM38" s="3"/>
+      <c r="BN38" s="3"/>
       <c r="BO38" s="9"/>
       <c r="BP38" s="9"/>
       <c r="BQ38" s="9"/>
-      <c r="BR38" s="3"/>
-      <c r="BS38" s="3"/>
+      <c r="BR38" s="9"/>
+      <c r="BS38" s="9"/>
       <c r="BT38" s="3"/>
       <c r="BU38" s="3"/>
       <c r="BV38" s="3"/>
@@ -4556,9 +4846,11 @@
       <c r="CL38" s="3"/>
       <c r="CM38" s="3"/>
       <c r="CN38" s="3"/>
-      <c r="CO38" s="1"/>
+      <c r="CO38" s="3"/>
+      <c r="CP38" s="3"/>
+      <c r="CQ38" s="1"/>
     </row>
-    <row r="39" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4578,7 +4870,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
+      <c r="T39" s="13"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
@@ -4591,20 +4883,20 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
-      <c r="AG39" s="8"/>
-      <c r="AH39" s="8"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
       <c r="AI39" s="8"/>
-      <c r="AJ39" s="3"/>
-      <c r="AK39" s="3"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
-      <c r="AN39" s="8"/>
-      <c r="AO39" s="8"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
       <c r="AP39" s="8"/>
       <c r="AQ39" s="8"/>
       <c r="AR39" s="8"/>
-      <c r="AS39" s="3"/>
-      <c r="AT39" s="3"/>
+      <c r="AS39" s="8"/>
+      <c r="AT39" s="8"/>
       <c r="AU39" s="3"/>
       <c r="AV39" s="3"/>
       <c r="AW39" s="3"/>
@@ -4623,13 +4915,13 @@
       <c r="BJ39" s="3"/>
       <c r="BK39" s="3"/>
       <c r="BL39" s="3"/>
-      <c r="BM39" s="9"/>
-      <c r="BN39" s="9"/>
+      <c r="BM39" s="3"/>
+      <c r="BN39" s="3"/>
       <c r="BO39" s="9"/>
       <c r="BP39" s="9"/>
       <c r="BQ39" s="9"/>
-      <c r="BR39" s="3"/>
-      <c r="BS39" s="3"/>
+      <c r="BR39" s="9"/>
+      <c r="BS39" s="9"/>
       <c r="BT39" s="3"/>
       <c r="BU39" s="3"/>
       <c r="BV39" s="3"/>
@@ -4651,9 +4943,11 @@
       <c r="CL39" s="3"/>
       <c r="CM39" s="3"/>
       <c r="CN39" s="3"/>
-      <c r="CO39" s="1"/>
+      <c r="CO39" s="3"/>
+      <c r="CP39" s="3"/>
+      <c r="CQ39" s="1"/>
     </row>
-    <row r="40" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4673,7 +4967,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
+      <c r="T40" s="13"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
@@ -4686,20 +4980,20 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
-      <c r="AG40" s="8"/>
-      <c r="AH40" s="8"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
       <c r="AI40" s="8"/>
-      <c r="AJ40" s="3"/>
-      <c r="AK40" s="3"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
       <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
-      <c r="AN40" s="8"/>
-      <c r="AO40" s="8"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
       <c r="AP40" s="8"/>
       <c r="AQ40" s="8"/>
       <c r="AR40" s="8"/>
-      <c r="AS40" s="3"/>
-      <c r="AT40" s="3"/>
+      <c r="AS40" s="8"/>
+      <c r="AT40" s="8"/>
       <c r="AU40" s="3"/>
       <c r="AV40" s="3"/>
       <c r="AW40" s="3"/>
@@ -4718,13 +5012,13 @@
       <c r="BJ40" s="3"/>
       <c r="BK40" s="3"/>
       <c r="BL40" s="3"/>
-      <c r="BM40" s="9"/>
-      <c r="BN40" s="9"/>
+      <c r="BM40" s="3"/>
+      <c r="BN40" s="3"/>
       <c r="BO40" s="9"/>
       <c r="BP40" s="9"/>
       <c r="BQ40" s="9"/>
-      <c r="BR40" s="3"/>
-      <c r="BS40" s="3"/>
+      <c r="BR40" s="9"/>
+      <c r="BS40" s="9"/>
       <c r="BT40" s="3"/>
       <c r="BU40" s="3"/>
       <c r="BV40" s="3"/>
@@ -4746,9 +5040,11 @@
       <c r="CL40" s="3"/>
       <c r="CM40" s="3"/>
       <c r="CN40" s="3"/>
-      <c r="CO40" s="1"/>
+      <c r="CO40" s="3"/>
+      <c r="CP40" s="3"/>
+      <c r="CQ40" s="1"/>
     </row>
-    <row r="41" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4768,7 +5064,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
+      <c r="T41" s="13"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
@@ -4781,20 +5077,20 @@
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
-      <c r="AG41" s="8"/>
-      <c r="AH41" s="8"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
       <c r="AI41" s="8"/>
-      <c r="AJ41" s="3"/>
-      <c r="AK41" s="3"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
       <c r="AL41" s="3"/>
       <c r="AM41" s="3"/>
-      <c r="AN41" s="8"/>
-      <c r="AO41" s="8"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
       <c r="AP41" s="8"/>
       <c r="AQ41" s="8"/>
       <c r="AR41" s="8"/>
-      <c r="AS41" s="3"/>
-      <c r="AT41" s="3"/>
+      <c r="AS41" s="8"/>
+      <c r="AT41" s="8"/>
       <c r="AU41" s="3"/>
       <c r="AV41" s="3"/>
       <c r="AW41" s="3"/>
@@ -4813,13 +5109,13 @@
       <c r="BJ41" s="3"/>
       <c r="BK41" s="3"/>
       <c r="BL41" s="3"/>
-      <c r="BM41" s="9"/>
-      <c r="BN41" s="9"/>
+      <c r="BM41" s="3"/>
+      <c r="BN41" s="3"/>
       <c r="BO41" s="9"/>
       <c r="BP41" s="9"/>
       <c r="BQ41" s="9"/>
-      <c r="BR41" s="3"/>
-      <c r="BS41" s="3"/>
+      <c r="BR41" s="9"/>
+      <c r="BS41" s="9"/>
       <c r="BT41" s="3"/>
       <c r="BU41" s="3"/>
       <c r="BV41" s="3"/>
@@ -4841,9 +5137,11 @@
       <c r="CL41" s="3"/>
       <c r="CM41" s="3"/>
       <c r="CN41" s="3"/>
-      <c r="CO41" s="1"/>
+      <c r="CO41" s="3"/>
+      <c r="CP41" s="3"/>
+      <c r="CQ41" s="1"/>
     </row>
-    <row r="42" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4863,7 +5161,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
+      <c r="T42" s="13"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
@@ -4876,20 +5174,20 @@
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
-      <c r="AG42" s="8"/>
-      <c r="AH42" s="8"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
       <c r="AI42" s="8"/>
-      <c r="AJ42" s="3"/>
-      <c r="AK42" s="3"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
       <c r="AL42" s="3"/>
       <c r="AM42" s="3"/>
-      <c r="AN42" s="8"/>
-      <c r="AO42" s="8"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
       <c r="AP42" s="8"/>
       <c r="AQ42" s="8"/>
       <c r="AR42" s="8"/>
-      <c r="AS42" s="3"/>
-      <c r="AT42" s="3"/>
+      <c r="AS42" s="8"/>
+      <c r="AT42" s="8"/>
       <c r="AU42" s="3"/>
       <c r="AV42" s="3"/>
       <c r="AW42" s="3"/>
@@ -4908,13 +5206,13 @@
       <c r="BJ42" s="3"/>
       <c r="BK42" s="3"/>
       <c r="BL42" s="3"/>
-      <c r="BM42" s="9"/>
-      <c r="BN42" s="9"/>
+      <c r="BM42" s="3"/>
+      <c r="BN42" s="3"/>
       <c r="BO42" s="9"/>
       <c r="BP42" s="9"/>
       <c r="BQ42" s="9"/>
-      <c r="BR42" s="3"/>
-      <c r="BS42" s="3"/>
+      <c r="BR42" s="9"/>
+      <c r="BS42" s="9"/>
       <c r="BT42" s="3"/>
       <c r="BU42" s="3"/>
       <c r="BV42" s="3"/>
@@ -4936,9 +5234,11 @@
       <c r="CL42" s="3"/>
       <c r="CM42" s="3"/>
       <c r="CN42" s="3"/>
-      <c r="CO42" s="1"/>
+      <c r="CO42" s="3"/>
+      <c r="CP42" s="3"/>
+      <c r="CQ42" s="1"/>
     </row>
-    <row r="43" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4958,7 +5258,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
+      <c r="T43" s="13"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
@@ -4971,20 +5271,20 @@
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
-      <c r="AG43" s="8"/>
-      <c r="AH43" s="8"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
       <c r="AI43" s="8"/>
-      <c r="AJ43" s="3"/>
-      <c r="AK43" s="3"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
       <c r="AL43" s="3"/>
       <c r="AM43" s="3"/>
-      <c r="AN43" s="8"/>
-      <c r="AO43" s="8"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
       <c r="AP43" s="8"/>
       <c r="AQ43" s="8"/>
       <c r="AR43" s="8"/>
-      <c r="AS43" s="3"/>
-      <c r="AT43" s="3"/>
+      <c r="AS43" s="8"/>
+      <c r="AT43" s="8"/>
       <c r="AU43" s="3"/>
       <c r="AV43" s="3"/>
       <c r="AW43" s="3"/>
@@ -5003,13 +5303,13 @@
       <c r="BJ43" s="3"/>
       <c r="BK43" s="3"/>
       <c r="BL43" s="3"/>
-      <c r="BM43" s="9"/>
-      <c r="BN43" s="9"/>
+      <c r="BM43" s="3"/>
+      <c r="BN43" s="3"/>
       <c r="BO43" s="9"/>
       <c r="BP43" s="9"/>
       <c r="BQ43" s="9"/>
-      <c r="BR43" s="3"/>
-      <c r="BS43" s="3"/>
+      <c r="BR43" s="9"/>
+      <c r="BS43" s="9"/>
       <c r="BT43" s="3"/>
       <c r="BU43" s="3"/>
       <c r="BV43" s="3"/>
@@ -5031,9 +5331,11 @@
       <c r="CL43" s="3"/>
       <c r="CM43" s="3"/>
       <c r="CN43" s="3"/>
-      <c r="CO43" s="1"/>
+      <c r="CO43" s="3"/>
+      <c r="CP43" s="3"/>
+      <c r="CQ43" s="1"/>
     </row>
-    <row r="44" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -5053,7 +5355,7 @@
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
+      <c r="T44" s="13"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
@@ -5066,20 +5368,20 @@
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
-      <c r="AG44" s="8"/>
-      <c r="AH44" s="8"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
       <c r="AI44" s="8"/>
-      <c r="AJ44" s="3"/>
-      <c r="AK44" s="3"/>
+      <c r="AJ44" s="8"/>
+      <c r="AK44" s="8"/>
       <c r="AL44" s="3"/>
       <c r="AM44" s="3"/>
-      <c r="AN44" s="8"/>
-      <c r="AO44" s="8"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
       <c r="AP44" s="8"/>
       <c r="AQ44" s="8"/>
       <c r="AR44" s="8"/>
-      <c r="AS44" s="3"/>
-      <c r="AT44" s="3"/>
+      <c r="AS44" s="8"/>
+      <c r="AT44" s="8"/>
       <c r="AU44" s="3"/>
       <c r="AV44" s="3"/>
       <c r="AW44" s="3"/>
@@ -5098,13 +5400,13 @@
       <c r="BJ44" s="3"/>
       <c r="BK44" s="3"/>
       <c r="BL44" s="3"/>
-      <c r="BM44" s="9"/>
-      <c r="BN44" s="9"/>
+      <c r="BM44" s="3"/>
+      <c r="BN44" s="3"/>
       <c r="BO44" s="9"/>
       <c r="BP44" s="9"/>
       <c r="BQ44" s="9"/>
-      <c r="BR44" s="3"/>
-      <c r="BS44" s="3"/>
+      <c r="BR44" s="9"/>
+      <c r="BS44" s="9"/>
       <c r="BT44" s="3"/>
       <c r="BU44" s="3"/>
       <c r="BV44" s="3"/>
@@ -5126,9 +5428,11 @@
       <c r="CL44" s="3"/>
       <c r="CM44" s="3"/>
       <c r="CN44" s="3"/>
-      <c r="CO44" s="1"/>
+      <c r="CO44" s="3"/>
+      <c r="CP44" s="3"/>
+      <c r="CQ44" s="1"/>
     </row>
-    <row r="45" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -5148,7 +5452,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
+      <c r="T45" s="13"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
@@ -5161,20 +5465,20 @@
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
-      <c r="AG45" s="8"/>
-      <c r="AH45" s="8"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
       <c r="AI45" s="8"/>
-      <c r="AJ45" s="3"/>
-      <c r="AK45" s="3"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
       <c r="AL45" s="3"/>
       <c r="AM45" s="3"/>
-      <c r="AN45" s="8"/>
-      <c r="AO45" s="8"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
       <c r="AP45" s="8"/>
       <c r="AQ45" s="8"/>
       <c r="AR45" s="8"/>
-      <c r="AS45" s="3"/>
-      <c r="AT45" s="3"/>
+      <c r="AS45" s="8"/>
+      <c r="AT45" s="8"/>
       <c r="AU45" s="3"/>
       <c r="AV45" s="3"/>
       <c r="AW45" s="3"/>
@@ -5193,13 +5497,13 @@
       <c r="BJ45" s="3"/>
       <c r="BK45" s="3"/>
       <c r="BL45" s="3"/>
-      <c r="BM45" s="9"/>
-      <c r="BN45" s="9"/>
+      <c r="BM45" s="3"/>
+      <c r="BN45" s="3"/>
       <c r="BO45" s="9"/>
       <c r="BP45" s="9"/>
       <c r="BQ45" s="9"/>
-      <c r="BR45" s="3"/>
-      <c r="BS45" s="3"/>
+      <c r="BR45" s="9"/>
+      <c r="BS45" s="9"/>
       <c r="BT45" s="3"/>
       <c r="BU45" s="3"/>
       <c r="BV45" s="3"/>
@@ -5221,9 +5525,11 @@
       <c r="CL45" s="3"/>
       <c r="CM45" s="3"/>
       <c r="CN45" s="3"/>
-      <c r="CO45" s="1"/>
+      <c r="CO45" s="3"/>
+      <c r="CP45" s="3"/>
+      <c r="CQ45" s="1"/>
     </row>
-    <row r="46" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5243,7 +5549,7 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
+      <c r="T46" s="13"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -5256,20 +5562,20 @@
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
-      <c r="AG46" s="8"/>
-      <c r="AH46" s="8"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
       <c r="AI46" s="8"/>
-      <c r="AJ46" s="3"/>
-      <c r="AK46" s="3"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
       <c r="AL46" s="3"/>
       <c r="AM46" s="3"/>
-      <c r="AN46" s="8"/>
-      <c r="AO46" s="8"/>
+      <c r="AN46" s="3"/>
+      <c r="AO46" s="3"/>
       <c r="AP46" s="8"/>
       <c r="AQ46" s="8"/>
       <c r="AR46" s="8"/>
-      <c r="AS46" s="3"/>
-      <c r="AT46" s="3"/>
+      <c r="AS46" s="8"/>
+      <c r="AT46" s="8"/>
       <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
       <c r="AW46" s="3"/>
@@ -5288,13 +5594,13 @@
       <c r="BJ46" s="3"/>
       <c r="BK46" s="3"/>
       <c r="BL46" s="3"/>
-      <c r="BM46" s="9"/>
-      <c r="BN46" s="9"/>
+      <c r="BM46" s="3"/>
+      <c r="BN46" s="3"/>
       <c r="BO46" s="9"/>
       <c r="BP46" s="9"/>
       <c r="BQ46" s="9"/>
-      <c r="BR46" s="3"/>
-      <c r="BS46" s="3"/>
+      <c r="BR46" s="9"/>
+      <c r="BS46" s="9"/>
       <c r="BT46" s="3"/>
       <c r="BU46" s="3"/>
       <c r="BV46" s="3"/>
@@ -5316,9 +5622,11 @@
       <c r="CL46" s="3"/>
       <c r="CM46" s="3"/>
       <c r="CN46" s="3"/>
-      <c r="CO46" s="1"/>
+      <c r="CO46" s="3"/>
+      <c r="CP46" s="3"/>
+      <c r="CQ46" s="1"/>
     </row>
-    <row r="47" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -5338,7 +5646,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
+      <c r="T47" s="13"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
@@ -5351,20 +5659,20 @@
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
-      <c r="AG47" s="8"/>
-      <c r="AH47" s="8"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
       <c r="AI47" s="8"/>
-      <c r="AJ47" s="3"/>
-      <c r="AK47" s="3"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
       <c r="AL47" s="3"/>
       <c r="AM47" s="3"/>
-      <c r="AN47" s="8"/>
-      <c r="AO47" s="8"/>
+      <c r="AN47" s="3"/>
+      <c r="AO47" s="3"/>
       <c r="AP47" s="8"/>
       <c r="AQ47" s="8"/>
       <c r="AR47" s="8"/>
-      <c r="AS47" s="3"/>
-      <c r="AT47" s="3"/>
+      <c r="AS47" s="8"/>
+      <c r="AT47" s="8"/>
       <c r="AU47" s="3"/>
       <c r="AV47" s="3"/>
       <c r="AW47" s="3"/>
@@ -5383,13 +5691,13 @@
       <c r="BJ47" s="3"/>
       <c r="BK47" s="3"/>
       <c r="BL47" s="3"/>
-      <c r="BM47" s="9"/>
-      <c r="BN47" s="9"/>
+      <c r="BM47" s="3"/>
+      <c r="BN47" s="3"/>
       <c r="BO47" s="9"/>
       <c r="BP47" s="9"/>
       <c r="BQ47" s="9"/>
-      <c r="BR47" s="3"/>
-      <c r="BS47" s="3"/>
+      <c r="BR47" s="9"/>
+      <c r="BS47" s="9"/>
       <c r="BT47" s="3"/>
       <c r="BU47" s="3"/>
       <c r="BV47" s="3"/>
@@ -5411,9 +5719,11 @@
       <c r="CL47" s="3"/>
       <c r="CM47" s="3"/>
       <c r="CN47" s="3"/>
-      <c r="CO47" s="1"/>
+      <c r="CO47" s="3"/>
+      <c r="CP47" s="3"/>
+      <c r="CQ47" s="1"/>
     </row>
-    <row r="48" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -5433,7 +5743,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
+      <c r="T48" s="13"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
@@ -5446,20 +5756,20 @@
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
-      <c r="AG48" s="8"/>
-      <c r="AH48" s="8"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
       <c r="AI48" s="8"/>
-      <c r="AJ48" s="3"/>
-      <c r="AK48" s="3"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
       <c r="AL48" s="3"/>
       <c r="AM48" s="3"/>
-      <c r="AN48" s="8"/>
-      <c r="AO48" s="8"/>
+      <c r="AN48" s="3"/>
+      <c r="AO48" s="3"/>
       <c r="AP48" s="8"/>
       <c r="AQ48" s="8"/>
       <c r="AR48" s="8"/>
-      <c r="AS48" s="3"/>
-      <c r="AT48" s="3"/>
+      <c r="AS48" s="8"/>
+      <c r="AT48" s="8"/>
       <c r="AU48" s="3"/>
       <c r="AV48" s="3"/>
       <c r="AW48" s="3"/>
@@ -5478,13 +5788,13 @@
       <c r="BJ48" s="3"/>
       <c r="BK48" s="3"/>
       <c r="BL48" s="3"/>
-      <c r="BM48" s="9"/>
-      <c r="BN48" s="9"/>
+      <c r="BM48" s="3"/>
+      <c r="BN48" s="3"/>
       <c r="BO48" s="9"/>
       <c r="BP48" s="9"/>
       <c r="BQ48" s="9"/>
-      <c r="BR48" s="3"/>
-      <c r="BS48" s="3"/>
+      <c r="BR48" s="9"/>
+      <c r="BS48" s="9"/>
       <c r="BT48" s="3"/>
       <c r="BU48" s="3"/>
       <c r="BV48" s="3"/>
@@ -5506,9 +5816,11 @@
       <c r="CL48" s="3"/>
       <c r="CM48" s="3"/>
       <c r="CN48" s="3"/>
-      <c r="CO48" s="1"/>
+      <c r="CO48" s="3"/>
+      <c r="CP48" s="3"/>
+      <c r="CQ48" s="1"/>
     </row>
-    <row r="49" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -5528,7 +5840,7 @@
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
+      <c r="T49" s="13"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
@@ -5541,20 +5853,20 @@
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
-      <c r="AG49" s="8"/>
-      <c r="AH49" s="8"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
       <c r="AI49" s="8"/>
-      <c r="AJ49" s="3"/>
-      <c r="AK49" s="3"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8"/>
       <c r="AL49" s="3"/>
       <c r="AM49" s="3"/>
-      <c r="AN49" s="8"/>
-      <c r="AO49" s="8"/>
+      <c r="AN49" s="3"/>
+      <c r="AO49" s="3"/>
       <c r="AP49" s="8"/>
       <c r="AQ49" s="8"/>
       <c r="AR49" s="8"/>
-      <c r="AS49" s="3"/>
-      <c r="AT49" s="3"/>
+      <c r="AS49" s="8"/>
+      <c r="AT49" s="8"/>
       <c r="AU49" s="3"/>
       <c r="AV49" s="3"/>
       <c r="AW49" s="3"/>
@@ -5573,13 +5885,13 @@
       <c r="BJ49" s="3"/>
       <c r="BK49" s="3"/>
       <c r="BL49" s="3"/>
-      <c r="BM49" s="9"/>
-      <c r="BN49" s="9"/>
+      <c r="BM49" s="3"/>
+      <c r="BN49" s="3"/>
       <c r="BO49" s="9"/>
       <c r="BP49" s="9"/>
       <c r="BQ49" s="9"/>
-      <c r="BR49" s="3"/>
-      <c r="BS49" s="3"/>
+      <c r="BR49" s="9"/>
+      <c r="BS49" s="9"/>
       <c r="BT49" s="3"/>
       <c r="BU49" s="3"/>
       <c r="BV49" s="3"/>
@@ -5601,9 +5913,11 @@
       <c r="CL49" s="3"/>
       <c r="CM49" s="3"/>
       <c r="CN49" s="3"/>
-      <c r="CO49" s="1"/>
+      <c r="CO49" s="3"/>
+      <c r="CP49" s="3"/>
+      <c r="CQ49" s="1"/>
     </row>
-    <row r="50" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -5623,7 +5937,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
+      <c r="T50" s="13"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
@@ -5636,20 +5950,20 @@
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
-      <c r="AG50" s="8"/>
-      <c r="AH50" s="8"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
       <c r="AI50" s="8"/>
-      <c r="AJ50" s="3"/>
-      <c r="AK50" s="3"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
       <c r="AL50" s="3"/>
       <c r="AM50" s="3"/>
-      <c r="AN50" s="8"/>
-      <c r="AO50" s="8"/>
+      <c r="AN50" s="3"/>
+      <c r="AO50" s="3"/>
       <c r="AP50" s="8"/>
       <c r="AQ50" s="8"/>
       <c r="AR50" s="8"/>
-      <c r="AS50" s="3"/>
-      <c r="AT50" s="3"/>
+      <c r="AS50" s="8"/>
+      <c r="AT50" s="8"/>
       <c r="AU50" s="3"/>
       <c r="AV50" s="3"/>
       <c r="AW50" s="3"/>
@@ -5668,13 +5982,13 @@
       <c r="BJ50" s="3"/>
       <c r="BK50" s="3"/>
       <c r="BL50" s="3"/>
-      <c r="BM50" s="9"/>
-      <c r="BN50" s="9"/>
+      <c r="BM50" s="3"/>
+      <c r="BN50" s="3"/>
       <c r="BO50" s="9"/>
       <c r="BP50" s="9"/>
       <c r="BQ50" s="9"/>
-      <c r="BR50" s="3"/>
-      <c r="BS50" s="3"/>
+      <c r="BR50" s="9"/>
+      <c r="BS50" s="9"/>
       <c r="BT50" s="3"/>
       <c r="BU50" s="3"/>
       <c r="BV50" s="3"/>
@@ -5696,9 +6010,11 @@
       <c r="CL50" s="3"/>
       <c r="CM50" s="3"/>
       <c r="CN50" s="3"/>
-      <c r="CO50" s="1"/>
+      <c r="CO50" s="3"/>
+      <c r="CP50" s="3"/>
+      <c r="CQ50" s="1"/>
     </row>
-    <row r="51" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -5718,7 +6034,7 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
+      <c r="T51" s="13"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
@@ -5731,20 +6047,20 @@
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
-      <c r="AG51" s="8"/>
-      <c r="AH51" s="8"/>
+      <c r="AG51" s="3"/>
+      <c r="AH51" s="3"/>
       <c r="AI51" s="8"/>
-      <c r="AJ51" s="3"/>
-      <c r="AK51" s="3"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
       <c r="AL51" s="3"/>
       <c r="AM51" s="3"/>
-      <c r="AN51" s="8"/>
-      <c r="AO51" s="8"/>
+      <c r="AN51" s="3"/>
+      <c r="AO51" s="3"/>
       <c r="AP51" s="8"/>
       <c r="AQ51" s="8"/>
       <c r="AR51" s="8"/>
-      <c r="AS51" s="3"/>
-      <c r="AT51" s="3"/>
+      <c r="AS51" s="8"/>
+      <c r="AT51" s="8"/>
       <c r="AU51" s="3"/>
       <c r="AV51" s="3"/>
       <c r="AW51" s="3"/>
@@ -5763,13 +6079,13 @@
       <c r="BJ51" s="3"/>
       <c r="BK51" s="3"/>
       <c r="BL51" s="3"/>
-      <c r="BM51" s="9"/>
-      <c r="BN51" s="9"/>
+      <c r="BM51" s="3"/>
+      <c r="BN51" s="3"/>
       <c r="BO51" s="9"/>
       <c r="BP51" s="9"/>
       <c r="BQ51" s="9"/>
-      <c r="BR51" s="3"/>
-      <c r="BS51" s="3"/>
+      <c r="BR51" s="9"/>
+      <c r="BS51" s="9"/>
       <c r="BT51" s="3"/>
       <c r="BU51" s="3"/>
       <c r="BV51" s="3"/>
@@ -5791,9 +6107,11 @@
       <c r="CL51" s="3"/>
       <c r="CM51" s="3"/>
       <c r="CN51" s="3"/>
-      <c r="CO51" s="1"/>
+      <c r="CO51" s="3"/>
+      <c r="CP51" s="3"/>
+      <c r="CQ51" s="1"/>
     </row>
-    <row r="52" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -5813,7 +6131,7 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
+      <c r="T52" s="13"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
@@ -5826,20 +6144,20 @@
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
       <c r="AF52" s="3"/>
-      <c r="AG52" s="8"/>
-      <c r="AH52" s="8"/>
+      <c r="AG52" s="3"/>
+      <c r="AH52" s="3"/>
       <c r="AI52" s="8"/>
-      <c r="AJ52" s="3"/>
-      <c r="AK52" s="3"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
       <c r="AL52" s="3"/>
       <c r="AM52" s="3"/>
-      <c r="AN52" s="8"/>
-      <c r="AO52" s="8"/>
+      <c r="AN52" s="3"/>
+      <c r="AO52" s="3"/>
       <c r="AP52" s="8"/>
       <c r="AQ52" s="8"/>
       <c r="AR52" s="8"/>
-      <c r="AS52" s="3"/>
-      <c r="AT52" s="3"/>
+      <c r="AS52" s="8"/>
+      <c r="AT52" s="8"/>
       <c r="AU52" s="3"/>
       <c r="AV52" s="3"/>
       <c r="AW52" s="3"/>
@@ -5858,13 +6176,13 @@
       <c r="BJ52" s="3"/>
       <c r="BK52" s="3"/>
       <c r="BL52" s="3"/>
-      <c r="BM52" s="9"/>
-      <c r="BN52" s="9"/>
+      <c r="BM52" s="3"/>
+      <c r="BN52" s="3"/>
       <c r="BO52" s="9"/>
       <c r="BP52" s="9"/>
       <c r="BQ52" s="9"/>
-      <c r="BR52" s="3"/>
-      <c r="BS52" s="3"/>
+      <c r="BR52" s="9"/>
+      <c r="BS52" s="9"/>
       <c r="BT52" s="3"/>
       <c r="BU52" s="3"/>
       <c r="BV52" s="3"/>
@@ -5886,9 +6204,11 @@
       <c r="CL52" s="3"/>
       <c r="CM52" s="3"/>
       <c r="CN52" s="3"/>
-      <c r="CO52" s="1"/>
+      <c r="CO52" s="3"/>
+      <c r="CP52" s="3"/>
+      <c r="CQ52" s="1"/>
     </row>
-    <row r="53" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5908,7 +6228,7 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
+      <c r="T53" s="13"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
@@ -5921,20 +6241,20 @@
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
-      <c r="AG53" s="8"/>
-      <c r="AH53" s="8"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3"/>
       <c r="AI53" s="8"/>
-      <c r="AJ53" s="3"/>
-      <c r="AK53" s="3"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8"/>
       <c r="AL53" s="3"/>
       <c r="AM53" s="3"/>
-      <c r="AN53" s="8"/>
-      <c r="AO53" s="8"/>
+      <c r="AN53" s="3"/>
+      <c r="AO53" s="3"/>
       <c r="AP53" s="8"/>
       <c r="AQ53" s="8"/>
       <c r="AR53" s="8"/>
-      <c r="AS53" s="3"/>
-      <c r="AT53" s="3"/>
+      <c r="AS53" s="8"/>
+      <c r="AT53" s="8"/>
       <c r="AU53" s="3"/>
       <c r="AV53" s="3"/>
       <c r="AW53" s="3"/>
@@ -5953,13 +6273,13 @@
       <c r="BJ53" s="3"/>
       <c r="BK53" s="3"/>
       <c r="BL53" s="3"/>
-      <c r="BM53" s="9"/>
-      <c r="BN53" s="9"/>
+      <c r="BM53" s="3"/>
+      <c r="BN53" s="3"/>
       <c r="BO53" s="9"/>
       <c r="BP53" s="9"/>
       <c r="BQ53" s="9"/>
-      <c r="BR53" s="3"/>
-      <c r="BS53" s="3"/>
+      <c r="BR53" s="9"/>
+      <c r="BS53" s="9"/>
       <c r="BT53" s="3"/>
       <c r="BU53" s="3"/>
       <c r="BV53" s="3"/>
@@ -5981,9 +6301,11 @@
       <c r="CL53" s="3"/>
       <c r="CM53" s="3"/>
       <c r="CN53" s="3"/>
-      <c r="CO53" s="1"/>
+      <c r="CO53" s="3"/>
+      <c r="CP53" s="3"/>
+      <c r="CQ53" s="1"/>
     </row>
-    <row r="54" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -6003,7 +6325,7 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
+      <c r="T54" s="13"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
@@ -6016,20 +6338,20 @@
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
       <c r="AF54" s="3"/>
-      <c r="AG54" s="8"/>
-      <c r="AH54" s="8"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
       <c r="AI54" s="8"/>
-      <c r="AJ54" s="3"/>
-      <c r="AK54" s="3"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
       <c r="AL54" s="3"/>
       <c r="AM54" s="3"/>
-      <c r="AN54" s="8"/>
-      <c r="AO54" s="8"/>
+      <c r="AN54" s="3"/>
+      <c r="AO54" s="3"/>
       <c r="AP54" s="8"/>
       <c r="AQ54" s="8"/>
       <c r="AR54" s="8"/>
-      <c r="AS54" s="3"/>
-      <c r="AT54" s="3"/>
+      <c r="AS54" s="8"/>
+      <c r="AT54" s="8"/>
       <c r="AU54" s="3"/>
       <c r="AV54" s="3"/>
       <c r="AW54" s="3"/>
@@ -6048,13 +6370,13 @@
       <c r="BJ54" s="3"/>
       <c r="BK54" s="3"/>
       <c r="BL54" s="3"/>
-      <c r="BM54" s="9"/>
-      <c r="BN54" s="9"/>
+      <c r="BM54" s="3"/>
+      <c r="BN54" s="3"/>
       <c r="BO54" s="9"/>
       <c r="BP54" s="9"/>
       <c r="BQ54" s="9"/>
-      <c r="BR54" s="3"/>
-      <c r="BS54" s="3"/>
+      <c r="BR54" s="9"/>
+      <c r="BS54" s="9"/>
       <c r="BT54" s="3"/>
       <c r="BU54" s="3"/>
       <c r="BV54" s="3"/>
@@ -6076,9 +6398,11 @@
       <c r="CL54" s="3"/>
       <c r="CM54" s="3"/>
       <c r="CN54" s="3"/>
-      <c r="CO54" s="1"/>
+      <c r="CO54" s="3"/>
+      <c r="CP54" s="3"/>
+      <c r="CQ54" s="1"/>
     </row>
-    <row r="55" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -6098,7 +6422,7 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
+      <c r="T55" s="13"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
@@ -6111,20 +6435,20 @@
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
-      <c r="AG55" s="8"/>
-      <c r="AH55" s="8"/>
+      <c r="AG55" s="3"/>
+      <c r="AH55" s="3"/>
       <c r="AI55" s="8"/>
-      <c r="AJ55" s="3"/>
-      <c r="AK55" s="3"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
       <c r="AL55" s="3"/>
       <c r="AM55" s="3"/>
-      <c r="AN55" s="8"/>
-      <c r="AO55" s="8"/>
+      <c r="AN55" s="3"/>
+      <c r="AO55" s="3"/>
       <c r="AP55" s="8"/>
       <c r="AQ55" s="8"/>
       <c r="AR55" s="8"/>
-      <c r="AS55" s="3"/>
-      <c r="AT55" s="3"/>
+      <c r="AS55" s="8"/>
+      <c r="AT55" s="8"/>
       <c r="AU55" s="3"/>
       <c r="AV55" s="3"/>
       <c r="AW55" s="3"/>
@@ -6143,13 +6467,13 @@
       <c r="BJ55" s="3"/>
       <c r="BK55" s="3"/>
       <c r="BL55" s="3"/>
-      <c r="BM55" s="9"/>
-      <c r="BN55" s="9"/>
+      <c r="BM55" s="3"/>
+      <c r="BN55" s="3"/>
       <c r="BO55" s="9"/>
       <c r="BP55" s="9"/>
       <c r="BQ55" s="9"/>
-      <c r="BR55" s="3"/>
-      <c r="BS55" s="3"/>
+      <c r="BR55" s="9"/>
+      <c r="BS55" s="9"/>
       <c r="BT55" s="3"/>
       <c r="BU55" s="3"/>
       <c r="BV55" s="3"/>
@@ -6171,9 +6495,11 @@
       <c r="CL55" s="3"/>
       <c r="CM55" s="3"/>
       <c r="CN55" s="3"/>
-      <c r="CO55" s="1"/>
+      <c r="CO55" s="3"/>
+      <c r="CP55" s="3"/>
+      <c r="CQ55" s="1"/>
     </row>
-    <row r="56" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -6193,7 +6519,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
+      <c r="T56" s="13"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
@@ -6206,20 +6532,20 @@
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
-      <c r="AG56" s="8"/>
-      <c r="AH56" s="8"/>
+      <c r="AG56" s="3"/>
+      <c r="AH56" s="3"/>
       <c r="AI56" s="8"/>
-      <c r="AJ56" s="3"/>
-      <c r="AK56" s="3"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8"/>
       <c r="AL56" s="3"/>
       <c r="AM56" s="3"/>
-      <c r="AN56" s="8"/>
-      <c r="AO56" s="8"/>
+      <c r="AN56" s="3"/>
+      <c r="AO56" s="3"/>
       <c r="AP56" s="8"/>
       <c r="AQ56" s="8"/>
       <c r="AR56" s="8"/>
-      <c r="AS56" s="3"/>
-      <c r="AT56" s="3"/>
+      <c r="AS56" s="8"/>
+      <c r="AT56" s="8"/>
       <c r="AU56" s="3"/>
       <c r="AV56" s="3"/>
       <c r="AW56" s="3"/>
@@ -6238,13 +6564,13 @@
       <c r="BJ56" s="3"/>
       <c r="BK56" s="3"/>
       <c r="BL56" s="3"/>
-      <c r="BM56" s="9"/>
-      <c r="BN56" s="9"/>
+      <c r="BM56" s="3"/>
+      <c r="BN56" s="3"/>
       <c r="BO56" s="9"/>
       <c r="BP56" s="9"/>
       <c r="BQ56" s="9"/>
-      <c r="BR56" s="3"/>
-      <c r="BS56" s="3"/>
+      <c r="BR56" s="9"/>
+      <c r="BS56" s="9"/>
       <c r="BT56" s="3"/>
       <c r="BU56" s="3"/>
       <c r="BV56" s="3"/>
@@ -6266,9 +6592,11 @@
       <c r="CL56" s="3"/>
       <c r="CM56" s="3"/>
       <c r="CN56" s="3"/>
-      <c r="CO56" s="1"/>
+      <c r="CO56" s="3"/>
+      <c r="CP56" s="3"/>
+      <c r="CQ56" s="1"/>
     </row>
-    <row r="57" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -6288,7 +6616,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
+      <c r="T57" s="13"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
@@ -6301,20 +6629,20 @@
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
-      <c r="AG57" s="8"/>
-      <c r="AH57" s="8"/>
+      <c r="AG57" s="3"/>
+      <c r="AH57" s="3"/>
       <c r="AI57" s="8"/>
-      <c r="AJ57" s="3"/>
-      <c r="AK57" s="3"/>
+      <c r="AJ57" s="8"/>
+      <c r="AK57" s="8"/>
       <c r="AL57" s="3"/>
       <c r="AM57" s="3"/>
-      <c r="AN57" s="8"/>
-      <c r="AO57" s="8"/>
+      <c r="AN57" s="3"/>
+      <c r="AO57" s="3"/>
       <c r="AP57" s="8"/>
       <c r="AQ57" s="8"/>
       <c r="AR57" s="8"/>
-      <c r="AS57" s="3"/>
-      <c r="AT57" s="3"/>
+      <c r="AS57" s="8"/>
+      <c r="AT57" s="8"/>
       <c r="AU57" s="3"/>
       <c r="AV57" s="3"/>
       <c r="AW57" s="3"/>
@@ -6333,13 +6661,13 @@
       <c r="BJ57" s="3"/>
       <c r="BK57" s="3"/>
       <c r="BL57" s="3"/>
-      <c r="BM57" s="9"/>
-      <c r="BN57" s="9"/>
+      <c r="BM57" s="3"/>
+      <c r="BN57" s="3"/>
       <c r="BO57" s="9"/>
       <c r="BP57" s="9"/>
       <c r="BQ57" s="9"/>
-      <c r="BR57" s="3"/>
-      <c r="BS57" s="3"/>
+      <c r="BR57" s="9"/>
+      <c r="BS57" s="9"/>
       <c r="BT57" s="3"/>
       <c r="BU57" s="3"/>
       <c r="BV57" s="3"/>
@@ -6361,9 +6689,11 @@
       <c r="CL57" s="3"/>
       <c r="CM57" s="3"/>
       <c r="CN57" s="3"/>
-      <c r="CO57" s="1"/>
+      <c r="CO57" s="3"/>
+      <c r="CP57" s="3"/>
+      <c r="CQ57" s="1"/>
     </row>
-    <row r="58" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -6383,7 +6713,7 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
+      <c r="T58" s="13"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
@@ -6396,20 +6726,20 @@
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
-      <c r="AG58" s="8"/>
-      <c r="AH58" s="8"/>
+      <c r="AG58" s="3"/>
+      <c r="AH58" s="3"/>
       <c r="AI58" s="8"/>
-      <c r="AJ58" s="3"/>
-      <c r="AK58" s="3"/>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="8"/>
       <c r="AL58" s="3"/>
       <c r="AM58" s="3"/>
-      <c r="AN58" s="8"/>
-      <c r="AO58" s="8"/>
+      <c r="AN58" s="3"/>
+      <c r="AO58" s="3"/>
       <c r="AP58" s="8"/>
       <c r="AQ58" s="8"/>
       <c r="AR58" s="8"/>
-      <c r="AS58" s="3"/>
-      <c r="AT58" s="3"/>
+      <c r="AS58" s="8"/>
+      <c r="AT58" s="8"/>
       <c r="AU58" s="3"/>
       <c r="AV58" s="3"/>
       <c r="AW58" s="3"/>
@@ -6428,13 +6758,13 @@
       <c r="BJ58" s="3"/>
       <c r="BK58" s="3"/>
       <c r="BL58" s="3"/>
-      <c r="BM58" s="9"/>
-      <c r="BN58" s="9"/>
+      <c r="BM58" s="3"/>
+      <c r="BN58" s="3"/>
       <c r="BO58" s="9"/>
       <c r="BP58" s="9"/>
       <c r="BQ58" s="9"/>
-      <c r="BR58" s="3"/>
-      <c r="BS58" s="3"/>
+      <c r="BR58" s="9"/>
+      <c r="BS58" s="9"/>
       <c r="BT58" s="3"/>
       <c r="BU58" s="3"/>
       <c r="BV58" s="3"/>
@@ -6456,9 +6786,11 @@
       <c r="CL58" s="3"/>
       <c r="CM58" s="3"/>
       <c r="CN58" s="3"/>
-      <c r="CO58" s="1"/>
+      <c r="CO58" s="3"/>
+      <c r="CP58" s="3"/>
+      <c r="CQ58" s="1"/>
     </row>
-    <row r="59" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -6478,7 +6810,7 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
+      <c r="T59" s="13"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
@@ -6491,20 +6823,20 @@
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
       <c r="AF59" s="3"/>
-      <c r="AG59" s="8"/>
-      <c r="AH59" s="8"/>
+      <c r="AG59" s="3"/>
+      <c r="AH59" s="3"/>
       <c r="AI59" s="8"/>
-      <c r="AJ59" s="3"/>
-      <c r="AK59" s="3"/>
+      <c r="AJ59" s="8"/>
+      <c r="AK59" s="8"/>
       <c r="AL59" s="3"/>
       <c r="AM59" s="3"/>
-      <c r="AN59" s="8"/>
-      <c r="AO59" s="8"/>
+      <c r="AN59" s="3"/>
+      <c r="AO59" s="3"/>
       <c r="AP59" s="8"/>
       <c r="AQ59" s="8"/>
       <c r="AR59" s="8"/>
-      <c r="AS59" s="3"/>
-      <c r="AT59" s="3"/>
+      <c r="AS59" s="8"/>
+      <c r="AT59" s="8"/>
       <c r="AU59" s="3"/>
       <c r="AV59" s="3"/>
       <c r="AW59" s="3"/>
@@ -6523,13 +6855,13 @@
       <c r="BJ59" s="3"/>
       <c r="BK59" s="3"/>
       <c r="BL59" s="3"/>
-      <c r="BM59" s="9"/>
-      <c r="BN59" s="9"/>
+      <c r="BM59" s="3"/>
+      <c r="BN59" s="3"/>
       <c r="BO59" s="9"/>
       <c r="BP59" s="9"/>
       <c r="BQ59" s="9"/>
-      <c r="BR59" s="3"/>
-      <c r="BS59" s="3"/>
+      <c r="BR59" s="9"/>
+      <c r="BS59" s="9"/>
       <c r="BT59" s="3"/>
       <c r="BU59" s="3"/>
       <c r="BV59" s="3"/>
@@ -6551,9 +6883,11 @@
       <c r="CL59" s="3"/>
       <c r="CM59" s="3"/>
       <c r="CN59" s="3"/>
-      <c r="CO59" s="1"/>
+      <c r="CO59" s="3"/>
+      <c r="CP59" s="3"/>
+      <c r="CQ59" s="1"/>
     </row>
-    <row r="60" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -6573,7 +6907,7 @@
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
+      <c r="T60" s="13"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
@@ -6586,20 +6920,20 @@
       <c r="AD60" s="3"/>
       <c r="AE60" s="3"/>
       <c r="AF60" s="3"/>
-      <c r="AG60" s="8"/>
-      <c r="AH60" s="8"/>
+      <c r="AG60" s="3"/>
+      <c r="AH60" s="3"/>
       <c r="AI60" s="8"/>
-      <c r="AJ60" s="3"/>
-      <c r="AK60" s="3"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="8"/>
       <c r="AL60" s="3"/>
       <c r="AM60" s="3"/>
-      <c r="AN60" s="8"/>
-      <c r="AO60" s="8"/>
+      <c r="AN60" s="3"/>
+      <c r="AO60" s="3"/>
       <c r="AP60" s="8"/>
       <c r="AQ60" s="8"/>
       <c r="AR60" s="8"/>
-      <c r="AS60" s="3"/>
-      <c r="AT60" s="3"/>
+      <c r="AS60" s="8"/>
+      <c r="AT60" s="8"/>
       <c r="AU60" s="3"/>
       <c r="AV60" s="3"/>
       <c r="AW60" s="3"/>
@@ -6618,13 +6952,13 @@
       <c r="BJ60" s="3"/>
       <c r="BK60" s="3"/>
       <c r="BL60" s="3"/>
-      <c r="BM60" s="9"/>
-      <c r="BN60" s="9"/>
+      <c r="BM60" s="3"/>
+      <c r="BN60" s="3"/>
       <c r="BO60" s="9"/>
       <c r="BP60" s="9"/>
       <c r="BQ60" s="9"/>
-      <c r="BR60" s="3"/>
-      <c r="BS60" s="3"/>
+      <c r="BR60" s="9"/>
+      <c r="BS60" s="9"/>
       <c r="BT60" s="3"/>
       <c r="BU60" s="3"/>
       <c r="BV60" s="3"/>
@@ -6646,9 +6980,11 @@
       <c r="CL60" s="3"/>
       <c r="CM60" s="3"/>
       <c r="CN60" s="3"/>
-      <c r="CO60" s="1"/>
+      <c r="CO60" s="3"/>
+      <c r="CP60" s="3"/>
+      <c r="CQ60" s="1"/>
     </row>
-    <row r="61" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -6668,7 +7004,7 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
+      <c r="T61" s="13"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
@@ -6681,20 +7017,20 @@
       <c r="AD61" s="3"/>
       <c r="AE61" s="3"/>
       <c r="AF61" s="3"/>
-      <c r="AG61" s="8"/>
-      <c r="AH61" s="8"/>
+      <c r="AG61" s="3"/>
+      <c r="AH61" s="3"/>
       <c r="AI61" s="8"/>
-      <c r="AJ61" s="3"/>
-      <c r="AK61" s="3"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="8"/>
       <c r="AL61" s="3"/>
       <c r="AM61" s="3"/>
-      <c r="AN61" s="8"/>
-      <c r="AO61" s="8"/>
+      <c r="AN61" s="3"/>
+      <c r="AO61" s="3"/>
       <c r="AP61" s="8"/>
       <c r="AQ61" s="8"/>
       <c r="AR61" s="8"/>
-      <c r="AS61" s="3"/>
-      <c r="AT61" s="3"/>
+      <c r="AS61" s="8"/>
+      <c r="AT61" s="8"/>
       <c r="AU61" s="3"/>
       <c r="AV61" s="3"/>
       <c r="AW61" s="3"/>
@@ -6713,13 +7049,13 @@
       <c r="BJ61" s="3"/>
       <c r="BK61" s="3"/>
       <c r="BL61" s="3"/>
-      <c r="BM61" s="9"/>
-      <c r="BN61" s="9"/>
+      <c r="BM61" s="3"/>
+      <c r="BN61" s="3"/>
       <c r="BO61" s="9"/>
       <c r="BP61" s="9"/>
       <c r="BQ61" s="9"/>
-      <c r="BR61" s="3"/>
-      <c r="BS61" s="3"/>
+      <c r="BR61" s="9"/>
+      <c r="BS61" s="9"/>
       <c r="BT61" s="3"/>
       <c r="BU61" s="3"/>
       <c r="BV61" s="3"/>
@@ -6741,9 +7077,11 @@
       <c r="CL61" s="3"/>
       <c r="CM61" s="3"/>
       <c r="CN61" s="3"/>
-      <c r="CO61" s="1"/>
+      <c r="CO61" s="3"/>
+      <c r="CP61" s="3"/>
+      <c r="CQ61" s="1"/>
     </row>
-    <row r="62" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -6763,7 +7101,7 @@
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
+      <c r="T62" s="13"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
@@ -6776,20 +7114,20 @@
       <c r="AD62" s="3"/>
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
-      <c r="AG62" s="8"/>
-      <c r="AH62" s="8"/>
+      <c r="AG62" s="3"/>
+      <c r="AH62" s="3"/>
       <c r="AI62" s="8"/>
-      <c r="AJ62" s="3"/>
-      <c r="AK62" s="3"/>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="8"/>
       <c r="AL62" s="3"/>
       <c r="AM62" s="3"/>
-      <c r="AN62" s="8"/>
-      <c r="AO62" s="8"/>
+      <c r="AN62" s="3"/>
+      <c r="AO62" s="3"/>
       <c r="AP62" s="8"/>
       <c r="AQ62" s="8"/>
       <c r="AR62" s="8"/>
-      <c r="AS62" s="3"/>
-      <c r="AT62" s="3"/>
+      <c r="AS62" s="8"/>
+      <c r="AT62" s="8"/>
       <c r="AU62" s="3"/>
       <c r="AV62" s="3"/>
       <c r="AW62" s="3"/>
@@ -6808,13 +7146,13 @@
       <c r="BJ62" s="3"/>
       <c r="BK62" s="3"/>
       <c r="BL62" s="3"/>
-      <c r="BM62" s="9"/>
-      <c r="BN62" s="9"/>
+      <c r="BM62" s="3"/>
+      <c r="BN62" s="3"/>
       <c r="BO62" s="9"/>
       <c r="BP62" s="9"/>
       <c r="BQ62" s="9"/>
-      <c r="BR62" s="3"/>
-      <c r="BS62" s="3"/>
+      <c r="BR62" s="9"/>
+      <c r="BS62" s="9"/>
       <c r="BT62" s="3"/>
       <c r="BU62" s="3"/>
       <c r="BV62" s="3"/>
@@ -6836,9 +7174,11 @@
       <c r="CL62" s="3"/>
       <c r="CM62" s="3"/>
       <c r="CN62" s="3"/>
-      <c r="CO62" s="1"/>
+      <c r="CO62" s="3"/>
+      <c r="CP62" s="3"/>
+      <c r="CQ62" s="1"/>
     </row>
-    <row r="63" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -6858,7 +7198,7 @@
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
+      <c r="T63" s="13"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
@@ -6871,20 +7211,20 @@
       <c r="AD63" s="3"/>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
-      <c r="AG63" s="8"/>
-      <c r="AH63" s="8"/>
+      <c r="AG63" s="3"/>
+      <c r="AH63" s="3"/>
       <c r="AI63" s="8"/>
-      <c r="AJ63" s="3"/>
-      <c r="AK63" s="3"/>
+      <c r="AJ63" s="8"/>
+      <c r="AK63" s="8"/>
       <c r="AL63" s="3"/>
       <c r="AM63" s="3"/>
-      <c r="AN63" s="8"/>
-      <c r="AO63" s="8"/>
+      <c r="AN63" s="3"/>
+      <c r="AO63" s="3"/>
       <c r="AP63" s="8"/>
       <c r="AQ63" s="8"/>
       <c r="AR63" s="8"/>
-      <c r="AS63" s="3"/>
-      <c r="AT63" s="3"/>
+      <c r="AS63" s="8"/>
+      <c r="AT63" s="8"/>
       <c r="AU63" s="3"/>
       <c r="AV63" s="3"/>
       <c r="AW63" s="3"/>
@@ -6903,13 +7243,13 @@
       <c r="BJ63" s="3"/>
       <c r="BK63" s="3"/>
       <c r="BL63" s="3"/>
-      <c r="BM63" s="9"/>
-      <c r="BN63" s="9"/>
+      <c r="BM63" s="3"/>
+      <c r="BN63" s="3"/>
       <c r="BO63" s="9"/>
       <c r="BP63" s="9"/>
       <c r="BQ63" s="9"/>
-      <c r="BR63" s="3"/>
-      <c r="BS63" s="3"/>
+      <c r="BR63" s="9"/>
+      <c r="BS63" s="9"/>
       <c r="BT63" s="3"/>
       <c r="BU63" s="3"/>
       <c r="BV63" s="3"/>
@@ -6931,9 +7271,11 @@
       <c r="CL63" s="3"/>
       <c r="CM63" s="3"/>
       <c r="CN63" s="3"/>
-      <c r="CO63" s="1"/>
+      <c r="CO63" s="3"/>
+      <c r="CP63" s="3"/>
+      <c r="CQ63" s="1"/>
     </row>
-    <row r="64" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -6953,7 +7295,7 @@
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
+      <c r="T64" s="13"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
@@ -6966,20 +7308,20 @@
       <c r="AD64" s="3"/>
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
-      <c r="AG64" s="8"/>
-      <c r="AH64" s="8"/>
+      <c r="AG64" s="3"/>
+      <c r="AH64" s="3"/>
       <c r="AI64" s="8"/>
-      <c r="AJ64" s="3"/>
-      <c r="AK64" s="3"/>
+      <c r="AJ64" s="8"/>
+      <c r="AK64" s="8"/>
       <c r="AL64" s="3"/>
       <c r="AM64" s="3"/>
-      <c r="AN64" s="8"/>
-      <c r="AO64" s="8"/>
+      <c r="AN64" s="3"/>
+      <c r="AO64" s="3"/>
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
       <c r="AR64" s="8"/>
-      <c r="AS64" s="3"/>
-      <c r="AT64" s="3"/>
+      <c r="AS64" s="8"/>
+      <c r="AT64" s="8"/>
       <c r="AU64" s="3"/>
       <c r="AV64" s="3"/>
       <c r="AW64" s="3"/>
@@ -6998,13 +7340,13 @@
       <c r="BJ64" s="3"/>
       <c r="BK64" s="3"/>
       <c r="BL64" s="3"/>
-      <c r="BM64" s="9"/>
-      <c r="BN64" s="9"/>
+      <c r="BM64" s="3"/>
+      <c r="BN64" s="3"/>
       <c r="BO64" s="9"/>
       <c r="BP64" s="9"/>
       <c r="BQ64" s="9"/>
-      <c r="BR64" s="3"/>
-      <c r="BS64" s="3"/>
+      <c r="BR64" s="9"/>
+      <c r="BS64" s="9"/>
       <c r="BT64" s="3"/>
       <c r="BU64" s="3"/>
       <c r="BV64" s="3"/>
@@ -7026,9 +7368,11 @@
       <c r="CL64" s="3"/>
       <c r="CM64" s="3"/>
       <c r="CN64" s="3"/>
-      <c r="CO64" s="1"/>
+      <c r="CO64" s="3"/>
+      <c r="CP64" s="3"/>
+      <c r="CQ64" s="1"/>
     </row>
-    <row r="65" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -7048,7 +7392,7 @@
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
+      <c r="T65" s="13"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
@@ -7061,20 +7405,20 @@
       <c r="AD65" s="3"/>
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
-      <c r="AG65" s="8"/>
-      <c r="AH65" s="8"/>
+      <c r="AG65" s="3"/>
+      <c r="AH65" s="3"/>
       <c r="AI65" s="8"/>
-      <c r="AJ65" s="3"/>
-      <c r="AK65" s="3"/>
+      <c r="AJ65" s="8"/>
+      <c r="AK65" s="8"/>
       <c r="AL65" s="3"/>
       <c r="AM65" s="3"/>
-      <c r="AN65" s="8"/>
-      <c r="AO65" s="8"/>
+      <c r="AN65" s="3"/>
+      <c r="AO65" s="3"/>
       <c r="AP65" s="8"/>
       <c r="AQ65" s="8"/>
       <c r="AR65" s="8"/>
-      <c r="AS65" s="3"/>
-      <c r="AT65" s="3"/>
+      <c r="AS65" s="8"/>
+      <c r="AT65" s="8"/>
       <c r="AU65" s="3"/>
       <c r="AV65" s="3"/>
       <c r="AW65" s="3"/>
@@ -7093,13 +7437,13 @@
       <c r="BJ65" s="3"/>
       <c r="BK65" s="3"/>
       <c r="BL65" s="3"/>
-      <c r="BM65" s="9"/>
-      <c r="BN65" s="9"/>
+      <c r="BM65" s="3"/>
+      <c r="BN65" s="3"/>
       <c r="BO65" s="9"/>
       <c r="BP65" s="9"/>
       <c r="BQ65" s="9"/>
-      <c r="BR65" s="3"/>
-      <c r="BS65" s="3"/>
+      <c r="BR65" s="9"/>
+      <c r="BS65" s="9"/>
       <c r="BT65" s="3"/>
       <c r="BU65" s="3"/>
       <c r="BV65" s="3"/>
@@ -7121,9 +7465,11 @@
       <c r="CL65" s="3"/>
       <c r="CM65" s="3"/>
       <c r="CN65" s="3"/>
-      <c r="CO65" s="1"/>
+      <c r="CO65" s="3"/>
+      <c r="CP65" s="3"/>
+      <c r="CQ65" s="1"/>
     </row>
-    <row r="66" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -7143,7 +7489,7 @@
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
+      <c r="T66" s="13"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
@@ -7156,20 +7502,20 @@
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
-      <c r="AG66" s="8"/>
-      <c r="AH66" s="8"/>
+      <c r="AG66" s="3"/>
+      <c r="AH66" s="3"/>
       <c r="AI66" s="8"/>
-      <c r="AJ66" s="3"/>
-      <c r="AK66" s="3"/>
+      <c r="AJ66" s="8"/>
+      <c r="AK66" s="8"/>
       <c r="AL66" s="3"/>
       <c r="AM66" s="3"/>
-      <c r="AN66" s="8"/>
-      <c r="AO66" s="8"/>
+      <c r="AN66" s="3"/>
+      <c r="AO66" s="3"/>
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
       <c r="AR66" s="8"/>
-      <c r="AS66" s="3"/>
-      <c r="AT66" s="3"/>
+      <c r="AS66" s="8"/>
+      <c r="AT66" s="8"/>
       <c r="AU66" s="3"/>
       <c r="AV66" s="3"/>
       <c r="AW66" s="3"/>
@@ -7188,13 +7534,13 @@
       <c r="BJ66" s="3"/>
       <c r="BK66" s="3"/>
       <c r="BL66" s="3"/>
-      <c r="BM66" s="9"/>
-      <c r="BN66" s="9"/>
+      <c r="BM66" s="3"/>
+      <c r="BN66" s="3"/>
       <c r="BO66" s="9"/>
       <c r="BP66" s="9"/>
       <c r="BQ66" s="9"/>
-      <c r="BR66" s="3"/>
-      <c r="BS66" s="3"/>
+      <c r="BR66" s="9"/>
+      <c r="BS66" s="9"/>
       <c r="BT66" s="3"/>
       <c r="BU66" s="3"/>
       <c r="BV66" s="3"/>
@@ -7216,9 +7562,11 @@
       <c r="CL66" s="3"/>
       <c r="CM66" s="3"/>
       <c r="CN66" s="3"/>
-      <c r="CO66" s="1"/>
+      <c r="CO66" s="3"/>
+      <c r="CP66" s="3"/>
+      <c r="CQ66" s="1"/>
     </row>
-    <row r="67" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7238,7 +7586,7 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
+      <c r="T67" s="13"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
@@ -7251,20 +7599,20 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
-      <c r="AG67" s="8"/>
-      <c r="AH67" s="8"/>
+      <c r="AG67" s="3"/>
+      <c r="AH67" s="3"/>
       <c r="AI67" s="8"/>
-      <c r="AJ67" s="3"/>
-      <c r="AK67" s="3"/>
+      <c r="AJ67" s="8"/>
+      <c r="AK67" s="8"/>
       <c r="AL67" s="3"/>
       <c r="AM67" s="3"/>
-      <c r="AN67" s="8"/>
-      <c r="AO67" s="8"/>
+      <c r="AN67" s="3"/>
+      <c r="AO67" s="3"/>
       <c r="AP67" s="8"/>
       <c r="AQ67" s="8"/>
       <c r="AR67" s="8"/>
-      <c r="AS67" s="3"/>
-      <c r="AT67" s="3"/>
+      <c r="AS67" s="8"/>
+      <c r="AT67" s="8"/>
       <c r="AU67" s="3"/>
       <c r="AV67" s="3"/>
       <c r="AW67" s="3"/>
@@ -7283,13 +7631,13 @@
       <c r="BJ67" s="3"/>
       <c r="BK67" s="3"/>
       <c r="BL67" s="3"/>
-      <c r="BM67" s="9"/>
-      <c r="BN67" s="9"/>
+      <c r="BM67" s="3"/>
+      <c r="BN67" s="3"/>
       <c r="BO67" s="9"/>
       <c r="BP67" s="9"/>
       <c r="BQ67" s="9"/>
-      <c r="BR67" s="3"/>
-      <c r="BS67" s="3"/>
+      <c r="BR67" s="9"/>
+      <c r="BS67" s="9"/>
       <c r="BT67" s="3"/>
       <c r="BU67" s="3"/>
       <c r="BV67" s="3"/>
@@ -7311,9 +7659,11 @@
       <c r="CL67" s="3"/>
       <c r="CM67" s="3"/>
       <c r="CN67" s="3"/>
-      <c r="CO67" s="1"/>
+      <c r="CO67" s="3"/>
+      <c r="CP67" s="3"/>
+      <c r="CQ67" s="1"/>
     </row>
-    <row r="68" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -7333,7 +7683,7 @@
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
+      <c r="T68" s="13"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
@@ -7346,20 +7696,20 @@
       <c r="AD68" s="3"/>
       <c r="AE68" s="3"/>
       <c r="AF68" s="3"/>
-      <c r="AG68" s="8"/>
-      <c r="AH68" s="8"/>
+      <c r="AG68" s="3"/>
+      <c r="AH68" s="3"/>
       <c r="AI68" s="8"/>
-      <c r="AJ68" s="3"/>
-      <c r="AK68" s="3"/>
+      <c r="AJ68" s="8"/>
+      <c r="AK68" s="8"/>
       <c r="AL68" s="3"/>
       <c r="AM68" s="3"/>
-      <c r="AN68" s="8"/>
-      <c r="AO68" s="8"/>
+      <c r="AN68" s="3"/>
+      <c r="AO68" s="3"/>
       <c r="AP68" s="8"/>
       <c r="AQ68" s="8"/>
       <c r="AR68" s="8"/>
-      <c r="AS68" s="3"/>
-      <c r="AT68" s="3"/>
+      <c r="AS68" s="8"/>
+      <c r="AT68" s="8"/>
       <c r="AU68" s="3"/>
       <c r="AV68" s="3"/>
       <c r="AW68" s="3"/>
@@ -7378,13 +7728,13 @@
       <c r="BJ68" s="3"/>
       <c r="BK68" s="3"/>
       <c r="BL68" s="3"/>
-      <c r="BM68" s="9"/>
-      <c r="BN68" s="9"/>
+      <c r="BM68" s="3"/>
+      <c r="BN68" s="3"/>
       <c r="BO68" s="9"/>
       <c r="BP68" s="9"/>
       <c r="BQ68" s="9"/>
-      <c r="BR68" s="3"/>
-      <c r="BS68" s="3"/>
+      <c r="BR68" s="9"/>
+      <c r="BS68" s="9"/>
       <c r="BT68" s="3"/>
       <c r="BU68" s="3"/>
       <c r="BV68" s="3"/>
@@ -7406,9 +7756,11 @@
       <c r="CL68" s="3"/>
       <c r="CM68" s="3"/>
       <c r="CN68" s="3"/>
-      <c r="CO68" s="1"/>
+      <c r="CO68" s="3"/>
+      <c r="CP68" s="3"/>
+      <c r="CQ68" s="1"/>
     </row>
-    <row r="69" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -7428,7 +7780,7 @@
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
+      <c r="T69" s="13"/>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
@@ -7441,20 +7793,20 @@
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
-      <c r="AG69" s="8"/>
-      <c r="AH69" s="8"/>
+      <c r="AG69" s="3"/>
+      <c r="AH69" s="3"/>
       <c r="AI69" s="8"/>
-      <c r="AJ69" s="3"/>
-      <c r="AK69" s="3"/>
+      <c r="AJ69" s="8"/>
+      <c r="AK69" s="8"/>
       <c r="AL69" s="3"/>
       <c r="AM69" s="3"/>
-      <c r="AN69" s="8"/>
-      <c r="AO69" s="8"/>
+      <c r="AN69" s="3"/>
+      <c r="AO69" s="3"/>
       <c r="AP69" s="8"/>
       <c r="AQ69" s="8"/>
       <c r="AR69" s="8"/>
-      <c r="AS69" s="3"/>
-      <c r="AT69" s="3"/>
+      <c r="AS69" s="8"/>
+      <c r="AT69" s="8"/>
       <c r="AU69" s="3"/>
       <c r="AV69" s="3"/>
       <c r="AW69" s="3"/>
@@ -7473,13 +7825,13 @@
       <c r="BJ69" s="3"/>
       <c r="BK69" s="3"/>
       <c r="BL69" s="3"/>
-      <c r="BM69" s="9"/>
-      <c r="BN69" s="9"/>
+      <c r="BM69" s="3"/>
+      <c r="BN69" s="3"/>
       <c r="BO69" s="9"/>
       <c r="BP69" s="9"/>
       <c r="BQ69" s="9"/>
-      <c r="BR69" s="3"/>
-      <c r="BS69" s="3"/>
+      <c r="BR69" s="9"/>
+      <c r="BS69" s="9"/>
       <c r="BT69" s="3"/>
       <c r="BU69" s="3"/>
       <c r="BV69" s="3"/>
@@ -7501,9 +7853,11 @@
       <c r="CL69" s="3"/>
       <c r="CM69" s="3"/>
       <c r="CN69" s="3"/>
-      <c r="CO69" s="1"/>
+      <c r="CO69" s="3"/>
+      <c r="CP69" s="3"/>
+      <c r="CQ69" s="1"/>
     </row>
-    <row r="70" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -7523,7 +7877,7 @@
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
+      <c r="T70" s="13"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
@@ -7536,20 +7890,20 @@
       <c r="AD70" s="3"/>
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
-      <c r="AG70" s="8"/>
-      <c r="AH70" s="8"/>
+      <c r="AG70" s="3"/>
+      <c r="AH70" s="3"/>
       <c r="AI70" s="8"/>
-      <c r="AJ70" s="3"/>
-      <c r="AK70" s="3"/>
+      <c r="AJ70" s="8"/>
+      <c r="AK70" s="8"/>
       <c r="AL70" s="3"/>
       <c r="AM70" s="3"/>
-      <c r="AN70" s="8"/>
-      <c r="AO70" s="8"/>
+      <c r="AN70" s="3"/>
+      <c r="AO70" s="3"/>
       <c r="AP70" s="8"/>
       <c r="AQ70" s="8"/>
       <c r="AR70" s="8"/>
-      <c r="AS70" s="3"/>
-      <c r="AT70" s="3"/>
+      <c r="AS70" s="8"/>
+      <c r="AT70" s="8"/>
       <c r="AU70" s="3"/>
       <c r="AV70" s="3"/>
       <c r="AW70" s="3"/>
@@ -7568,13 +7922,13 @@
       <c r="BJ70" s="3"/>
       <c r="BK70" s="3"/>
       <c r="BL70" s="3"/>
-      <c r="BM70" s="9"/>
-      <c r="BN70" s="9"/>
+      <c r="BM70" s="3"/>
+      <c r="BN70" s="3"/>
       <c r="BO70" s="9"/>
       <c r="BP70" s="9"/>
       <c r="BQ70" s="9"/>
-      <c r="BR70" s="3"/>
-      <c r="BS70" s="3"/>
+      <c r="BR70" s="9"/>
+      <c r="BS70" s="9"/>
       <c r="BT70" s="3"/>
       <c r="BU70" s="3"/>
       <c r="BV70" s="3"/>
@@ -7596,9 +7950,11 @@
       <c r="CL70" s="3"/>
       <c r="CM70" s="3"/>
       <c r="CN70" s="3"/>
-      <c r="CO70" s="1"/>
+      <c r="CO70" s="3"/>
+      <c r="CP70" s="3"/>
+      <c r="CQ70" s="1"/>
     </row>
-    <row r="71" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -7618,7 +7974,7 @@
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
+      <c r="T71" s="13"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
@@ -7631,20 +7987,20 @@
       <c r="AD71" s="3"/>
       <c r="AE71" s="3"/>
       <c r="AF71" s="3"/>
-      <c r="AG71" s="8"/>
-      <c r="AH71" s="8"/>
+      <c r="AG71" s="3"/>
+      <c r="AH71" s="3"/>
       <c r="AI71" s="8"/>
-      <c r="AJ71" s="3"/>
-      <c r="AK71" s="3"/>
+      <c r="AJ71" s="8"/>
+      <c r="AK71" s="8"/>
       <c r="AL71" s="3"/>
       <c r="AM71" s="3"/>
-      <c r="AN71" s="8"/>
-      <c r="AO71" s="8"/>
+      <c r="AN71" s="3"/>
+      <c r="AO71" s="3"/>
       <c r="AP71" s="8"/>
       <c r="AQ71" s="8"/>
       <c r="AR71" s="8"/>
-      <c r="AS71" s="3"/>
-      <c r="AT71" s="3"/>
+      <c r="AS71" s="8"/>
+      <c r="AT71" s="8"/>
       <c r="AU71" s="3"/>
       <c r="AV71" s="3"/>
       <c r="AW71" s="3"/>
@@ -7663,13 +8019,13 @@
       <c r="BJ71" s="3"/>
       <c r="BK71" s="3"/>
       <c r="BL71" s="3"/>
-      <c r="BM71" s="9"/>
-      <c r="BN71" s="9"/>
+      <c r="BM71" s="3"/>
+      <c r="BN71" s="3"/>
       <c r="BO71" s="9"/>
       <c r="BP71" s="9"/>
       <c r="BQ71" s="9"/>
-      <c r="BR71" s="3"/>
-      <c r="BS71" s="3"/>
+      <c r="BR71" s="9"/>
+      <c r="BS71" s="9"/>
       <c r="BT71" s="3"/>
       <c r="BU71" s="3"/>
       <c r="BV71" s="3"/>
@@ -7691,9 +8047,11 @@
       <c r="CL71" s="3"/>
       <c r="CM71" s="3"/>
       <c r="CN71" s="3"/>
-      <c r="CO71" s="1"/>
+      <c r="CO71" s="3"/>
+      <c r="CP71" s="3"/>
+      <c r="CQ71" s="1"/>
     </row>
-    <row r="72" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -7713,7 +8071,7 @@
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
+      <c r="T72" s="13"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
@@ -7726,20 +8084,20 @@
       <c r="AD72" s="3"/>
       <c r="AE72" s="3"/>
       <c r="AF72" s="3"/>
-      <c r="AG72" s="8"/>
-      <c r="AH72" s="8"/>
+      <c r="AG72" s="3"/>
+      <c r="AH72" s="3"/>
       <c r="AI72" s="8"/>
-      <c r="AJ72" s="3"/>
-      <c r="AK72" s="3"/>
+      <c r="AJ72" s="8"/>
+      <c r="AK72" s="8"/>
       <c r="AL72" s="3"/>
       <c r="AM72" s="3"/>
-      <c r="AN72" s="8"/>
-      <c r="AO72" s="8"/>
+      <c r="AN72" s="3"/>
+      <c r="AO72" s="3"/>
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
       <c r="AR72" s="8"/>
-      <c r="AS72" s="3"/>
-      <c r="AT72" s="3"/>
+      <c r="AS72" s="8"/>
+      <c r="AT72" s="8"/>
       <c r="AU72" s="3"/>
       <c r="AV72" s="3"/>
       <c r="AW72" s="3"/>
@@ -7758,13 +8116,13 @@
       <c r="BJ72" s="3"/>
       <c r="BK72" s="3"/>
       <c r="BL72" s="3"/>
-      <c r="BM72" s="9"/>
-      <c r="BN72" s="9"/>
+      <c r="BM72" s="3"/>
+      <c r="BN72" s="3"/>
       <c r="BO72" s="9"/>
       <c r="BP72" s="9"/>
       <c r="BQ72" s="9"/>
-      <c r="BR72" s="3"/>
-      <c r="BS72" s="3"/>
+      <c r="BR72" s="9"/>
+      <c r="BS72" s="9"/>
       <c r="BT72" s="3"/>
       <c r="BU72" s="3"/>
       <c r="BV72" s="3"/>
@@ -7786,9 +8144,11 @@
       <c r="CL72" s="3"/>
       <c r="CM72" s="3"/>
       <c r="CN72" s="3"/>
-      <c r="CO72" s="1"/>
+      <c r="CO72" s="3"/>
+      <c r="CP72" s="3"/>
+      <c r="CQ72" s="1"/>
     </row>
-    <row r="73" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -7808,7 +8168,7 @@
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
+      <c r="T73" s="13"/>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
@@ -7821,20 +8181,20 @@
       <c r="AD73" s="3"/>
       <c r="AE73" s="3"/>
       <c r="AF73" s="3"/>
-      <c r="AG73" s="8"/>
-      <c r="AH73" s="8"/>
+      <c r="AG73" s="3"/>
+      <c r="AH73" s="3"/>
       <c r="AI73" s="8"/>
-      <c r="AJ73" s="3"/>
-      <c r="AK73" s="3"/>
+      <c r="AJ73" s="8"/>
+      <c r="AK73" s="8"/>
       <c r="AL73" s="3"/>
       <c r="AM73" s="3"/>
-      <c r="AN73" s="8"/>
-      <c r="AO73" s="8"/>
+      <c r="AN73" s="3"/>
+      <c r="AO73" s="3"/>
       <c r="AP73" s="8"/>
       <c r="AQ73" s="8"/>
       <c r="AR73" s="8"/>
-      <c r="AS73" s="3"/>
-      <c r="AT73" s="3"/>
+      <c r="AS73" s="8"/>
+      <c r="AT73" s="8"/>
       <c r="AU73" s="3"/>
       <c r="AV73" s="3"/>
       <c r="AW73" s="3"/>
@@ -7853,13 +8213,13 @@
       <c r="BJ73" s="3"/>
       <c r="BK73" s="3"/>
       <c r="BL73" s="3"/>
-      <c r="BM73" s="9"/>
-      <c r="BN73" s="9"/>
+      <c r="BM73" s="3"/>
+      <c r="BN73" s="3"/>
       <c r="BO73" s="9"/>
       <c r="BP73" s="9"/>
       <c r="BQ73" s="9"/>
-      <c r="BR73" s="3"/>
-      <c r="BS73" s="3"/>
+      <c r="BR73" s="9"/>
+      <c r="BS73" s="9"/>
       <c r="BT73" s="3"/>
       <c r="BU73" s="3"/>
       <c r="BV73" s="3"/>
@@ -7881,9 +8241,11 @@
       <c r="CL73" s="3"/>
       <c r="CM73" s="3"/>
       <c r="CN73" s="3"/>
-      <c r="CO73" s="1"/>
+      <c r="CO73" s="3"/>
+      <c r="CP73" s="3"/>
+      <c r="CQ73" s="1"/>
     </row>
-    <row r="74" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -7903,7 +8265,7 @@
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
+      <c r="T74" s="13"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
@@ -7916,20 +8278,20 @@
       <c r="AD74" s="3"/>
       <c r="AE74" s="3"/>
       <c r="AF74" s="3"/>
-      <c r="AG74" s="8"/>
-      <c r="AH74" s="8"/>
+      <c r="AG74" s="3"/>
+      <c r="AH74" s="3"/>
       <c r="AI74" s="8"/>
-      <c r="AJ74" s="3"/>
-      <c r="AK74" s="3"/>
+      <c r="AJ74" s="8"/>
+      <c r="AK74" s="8"/>
       <c r="AL74" s="3"/>
       <c r="AM74" s="3"/>
-      <c r="AN74" s="8"/>
-      <c r="AO74" s="8"/>
+      <c r="AN74" s="3"/>
+      <c r="AO74" s="3"/>
       <c r="AP74" s="8"/>
       <c r="AQ74" s="8"/>
       <c r="AR74" s="8"/>
-      <c r="AS74" s="3"/>
-      <c r="AT74" s="3"/>
+      <c r="AS74" s="8"/>
+      <c r="AT74" s="8"/>
       <c r="AU74" s="3"/>
       <c r="AV74" s="3"/>
       <c r="AW74" s="3"/>
@@ -7948,13 +8310,13 @@
       <c r="BJ74" s="3"/>
       <c r="BK74" s="3"/>
       <c r="BL74" s="3"/>
-      <c r="BM74" s="9"/>
-      <c r="BN74" s="9"/>
+      <c r="BM74" s="3"/>
+      <c r="BN74" s="3"/>
       <c r="BO74" s="9"/>
       <c r="BP74" s="9"/>
       <c r="BQ74" s="9"/>
-      <c r="BR74" s="3"/>
-      <c r="BS74" s="3"/>
+      <c r="BR74" s="9"/>
+      <c r="BS74" s="9"/>
       <c r="BT74" s="3"/>
       <c r="BU74" s="3"/>
       <c r="BV74" s="3"/>
@@ -7976,9 +8338,11 @@
       <c r="CL74" s="3"/>
       <c r="CM74" s="3"/>
       <c r="CN74" s="3"/>
-      <c r="CO74" s="1"/>
+      <c r="CO74" s="3"/>
+      <c r="CP74" s="3"/>
+      <c r="CQ74" s="1"/>
     </row>
-    <row r="75" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -7998,7 +8362,7 @@
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
+      <c r="T75" s="13"/>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
@@ -8011,20 +8375,20 @@
       <c r="AD75" s="3"/>
       <c r="AE75" s="3"/>
       <c r="AF75" s="3"/>
-      <c r="AG75" s="8"/>
-      <c r="AH75" s="8"/>
+      <c r="AG75" s="3"/>
+      <c r="AH75" s="3"/>
       <c r="AI75" s="8"/>
-      <c r="AJ75" s="3"/>
-      <c r="AK75" s="3"/>
+      <c r="AJ75" s="8"/>
+      <c r="AK75" s="8"/>
       <c r="AL75" s="3"/>
       <c r="AM75" s="3"/>
-      <c r="AN75" s="8"/>
-      <c r="AO75" s="8"/>
+      <c r="AN75" s="3"/>
+      <c r="AO75" s="3"/>
       <c r="AP75" s="8"/>
       <c r="AQ75" s="8"/>
       <c r="AR75" s="8"/>
-      <c r="AS75" s="3"/>
-      <c r="AT75" s="3"/>
+      <c r="AS75" s="8"/>
+      <c r="AT75" s="8"/>
       <c r="AU75" s="3"/>
       <c r="AV75" s="3"/>
       <c r="AW75" s="3"/>
@@ -8043,13 +8407,13 @@
       <c r="BJ75" s="3"/>
       <c r="BK75" s="3"/>
       <c r="BL75" s="3"/>
-      <c r="BM75" s="9"/>
-      <c r="BN75" s="9"/>
+      <c r="BM75" s="3"/>
+      <c r="BN75" s="3"/>
       <c r="BO75" s="9"/>
       <c r="BP75" s="9"/>
       <c r="BQ75" s="9"/>
-      <c r="BR75" s="3"/>
-      <c r="BS75" s="3"/>
+      <c r="BR75" s="9"/>
+      <c r="BS75" s="9"/>
       <c r="BT75" s="3"/>
       <c r="BU75" s="3"/>
       <c r="BV75" s="3"/>
@@ -8071,9 +8435,11 @@
       <c r="CL75" s="3"/>
       <c r="CM75" s="3"/>
       <c r="CN75" s="3"/>
-      <c r="CO75" s="1"/>
+      <c r="CO75" s="3"/>
+      <c r="CP75" s="3"/>
+      <c r="CQ75" s="1"/>
     </row>
-    <row r="76" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -8093,7 +8459,7 @@
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
+      <c r="T76" s="13"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
@@ -8106,20 +8472,20 @@
       <c r="AD76" s="3"/>
       <c r="AE76" s="3"/>
       <c r="AF76" s="3"/>
-      <c r="AG76" s="8"/>
-      <c r="AH76" s="8"/>
+      <c r="AG76" s="3"/>
+      <c r="AH76" s="3"/>
       <c r="AI76" s="8"/>
-      <c r="AJ76" s="3"/>
-      <c r="AK76" s="3"/>
+      <c r="AJ76" s="8"/>
+      <c r="AK76" s="8"/>
       <c r="AL76" s="3"/>
       <c r="AM76" s="3"/>
-      <c r="AN76" s="8"/>
-      <c r="AO76" s="8"/>
+      <c r="AN76" s="3"/>
+      <c r="AO76" s="3"/>
       <c r="AP76" s="8"/>
       <c r="AQ76" s="8"/>
       <c r="AR76" s="8"/>
-      <c r="AS76" s="3"/>
-      <c r="AT76" s="3"/>
+      <c r="AS76" s="8"/>
+      <c r="AT76" s="8"/>
       <c r="AU76" s="3"/>
       <c r="AV76" s="3"/>
       <c r="AW76" s="3"/>
@@ -8138,13 +8504,13 @@
       <c r="BJ76" s="3"/>
       <c r="BK76" s="3"/>
       <c r="BL76" s="3"/>
-      <c r="BM76" s="9"/>
-      <c r="BN76" s="9"/>
+      <c r="BM76" s="3"/>
+      <c r="BN76" s="3"/>
       <c r="BO76" s="9"/>
       <c r="BP76" s="9"/>
       <c r="BQ76" s="9"/>
-      <c r="BR76" s="3"/>
-      <c r="BS76" s="3"/>
+      <c r="BR76" s="9"/>
+      <c r="BS76" s="9"/>
       <c r="BT76" s="3"/>
       <c r="BU76" s="3"/>
       <c r="BV76" s="3"/>
@@ -8166,9 +8532,11 @@
       <c r="CL76" s="3"/>
       <c r="CM76" s="3"/>
       <c r="CN76" s="3"/>
-      <c r="CO76" s="1"/>
+      <c r="CO76" s="3"/>
+      <c r="CP76" s="3"/>
+      <c r="CQ76" s="1"/>
     </row>
-    <row r="77" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -8188,7 +8556,7 @@
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
+      <c r="T77" s="13"/>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
@@ -8201,20 +8569,20 @@
       <c r="AD77" s="3"/>
       <c r="AE77" s="3"/>
       <c r="AF77" s="3"/>
-      <c r="AG77" s="8"/>
-      <c r="AH77" s="8"/>
+      <c r="AG77" s="3"/>
+      <c r="AH77" s="3"/>
       <c r="AI77" s="8"/>
-      <c r="AJ77" s="3"/>
-      <c r="AK77" s="3"/>
+      <c r="AJ77" s="8"/>
+      <c r="AK77" s="8"/>
       <c r="AL77" s="3"/>
       <c r="AM77" s="3"/>
-      <c r="AN77" s="8"/>
-      <c r="AO77" s="8"/>
+      <c r="AN77" s="3"/>
+      <c r="AO77" s="3"/>
       <c r="AP77" s="8"/>
       <c r="AQ77" s="8"/>
       <c r="AR77" s="8"/>
-      <c r="AS77" s="3"/>
-      <c r="AT77" s="3"/>
+      <c r="AS77" s="8"/>
+      <c r="AT77" s="8"/>
       <c r="AU77" s="3"/>
       <c r="AV77" s="3"/>
       <c r="AW77" s="3"/>
@@ -8233,13 +8601,13 @@
       <c r="BJ77" s="3"/>
       <c r="BK77" s="3"/>
       <c r="BL77" s="3"/>
-      <c r="BM77" s="9"/>
-      <c r="BN77" s="9"/>
+      <c r="BM77" s="3"/>
+      <c r="BN77" s="3"/>
       <c r="BO77" s="9"/>
       <c r="BP77" s="9"/>
       <c r="BQ77" s="9"/>
-      <c r="BR77" s="3"/>
-      <c r="BS77" s="3"/>
+      <c r="BR77" s="9"/>
+      <c r="BS77" s="9"/>
       <c r="BT77" s="3"/>
       <c r="BU77" s="3"/>
       <c r="BV77" s="3"/>
@@ -8261,9 +8629,11 @@
       <c r="CL77" s="3"/>
       <c r="CM77" s="3"/>
       <c r="CN77" s="3"/>
-      <c r="CO77" s="1"/>
+      <c r="CO77" s="3"/>
+      <c r="CP77" s="3"/>
+      <c r="CQ77" s="1"/>
     </row>
-    <row r="78" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -8283,7 +8653,7 @@
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
+      <c r="T78" s="13"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
@@ -8296,20 +8666,20 @@
       <c r="AD78" s="3"/>
       <c r="AE78" s="3"/>
       <c r="AF78" s="3"/>
-      <c r="AG78" s="8"/>
-      <c r="AH78" s="8"/>
+      <c r="AG78" s="3"/>
+      <c r="AH78" s="3"/>
       <c r="AI78" s="8"/>
-      <c r="AJ78" s="3"/>
-      <c r="AK78" s="3"/>
+      <c r="AJ78" s="8"/>
+      <c r="AK78" s="8"/>
       <c r="AL78" s="3"/>
       <c r="AM78" s="3"/>
-      <c r="AN78" s="8"/>
-      <c r="AO78" s="8"/>
+      <c r="AN78" s="3"/>
+      <c r="AO78" s="3"/>
       <c r="AP78" s="8"/>
       <c r="AQ78" s="8"/>
       <c r="AR78" s="8"/>
-      <c r="AS78" s="3"/>
-      <c r="AT78" s="3"/>
+      <c r="AS78" s="8"/>
+      <c r="AT78" s="8"/>
       <c r="AU78" s="3"/>
       <c r="AV78" s="3"/>
       <c r="AW78" s="3"/>
@@ -8328,13 +8698,13 @@
       <c r="BJ78" s="3"/>
       <c r="BK78" s="3"/>
       <c r="BL78" s="3"/>
-      <c r="BM78" s="9"/>
-      <c r="BN78" s="9"/>
+      <c r="BM78" s="3"/>
+      <c r="BN78" s="3"/>
       <c r="BO78" s="9"/>
       <c r="BP78" s="9"/>
       <c r="BQ78" s="9"/>
-      <c r="BR78" s="3"/>
-      <c r="BS78" s="3"/>
+      <c r="BR78" s="9"/>
+      <c r="BS78" s="9"/>
       <c r="BT78" s="3"/>
       <c r="BU78" s="3"/>
       <c r="BV78" s="3"/>
@@ -8356,9 +8726,11 @@
       <c r="CL78" s="3"/>
       <c r="CM78" s="3"/>
       <c r="CN78" s="3"/>
-      <c r="CO78" s="1"/>
+      <c r="CO78" s="3"/>
+      <c r="CP78" s="3"/>
+      <c r="CQ78" s="1"/>
     </row>
-    <row r="79" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -8378,7 +8750,7 @@
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
+      <c r="T79" s="13"/>
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
@@ -8391,20 +8763,20 @@
       <c r="AD79" s="3"/>
       <c r="AE79" s="3"/>
       <c r="AF79" s="3"/>
-      <c r="AG79" s="8"/>
-      <c r="AH79" s="8"/>
+      <c r="AG79" s="3"/>
+      <c r="AH79" s="3"/>
       <c r="AI79" s="8"/>
-      <c r="AJ79" s="3"/>
-      <c r="AK79" s="3"/>
+      <c r="AJ79" s="8"/>
+      <c r="AK79" s="8"/>
       <c r="AL79" s="3"/>
       <c r="AM79" s="3"/>
-      <c r="AN79" s="8"/>
-      <c r="AO79" s="8"/>
+      <c r="AN79" s="3"/>
+      <c r="AO79" s="3"/>
       <c r="AP79" s="8"/>
       <c r="AQ79" s="8"/>
       <c r="AR79" s="8"/>
-      <c r="AS79" s="3"/>
-      <c r="AT79" s="3"/>
+      <c r="AS79" s="8"/>
+      <c r="AT79" s="8"/>
       <c r="AU79" s="3"/>
       <c r="AV79" s="3"/>
       <c r="AW79" s="3"/>
@@ -8423,13 +8795,13 @@
       <c r="BJ79" s="3"/>
       <c r="BK79" s="3"/>
       <c r="BL79" s="3"/>
-      <c r="BM79" s="9"/>
-      <c r="BN79" s="9"/>
+      <c r="BM79" s="3"/>
+      <c r="BN79" s="3"/>
       <c r="BO79" s="9"/>
       <c r="BP79" s="9"/>
       <c r="BQ79" s="9"/>
-      <c r="BR79" s="3"/>
-      <c r="BS79" s="3"/>
+      <c r="BR79" s="9"/>
+      <c r="BS79" s="9"/>
       <c r="BT79" s="3"/>
       <c r="BU79" s="3"/>
       <c r="BV79" s="3"/>
@@ -8451,9 +8823,11 @@
       <c r="CL79" s="3"/>
       <c r="CM79" s="3"/>
       <c r="CN79" s="3"/>
-      <c r="CO79" s="1"/>
+      <c r="CO79" s="3"/>
+      <c r="CP79" s="3"/>
+      <c r="CQ79" s="1"/>
     </row>
-    <row r="80" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -8473,7 +8847,7 @@
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
+      <c r="T80" s="13"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
@@ -8486,20 +8860,20 @@
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
       <c r="AF80" s="3"/>
-      <c r="AG80" s="8"/>
-      <c r="AH80" s="8"/>
+      <c r="AG80" s="3"/>
+      <c r="AH80" s="3"/>
       <c r="AI80" s="8"/>
-      <c r="AJ80" s="3"/>
-      <c r="AK80" s="3"/>
+      <c r="AJ80" s="8"/>
+      <c r="AK80" s="8"/>
       <c r="AL80" s="3"/>
       <c r="AM80" s="3"/>
-      <c r="AN80" s="8"/>
-      <c r="AO80" s="8"/>
+      <c r="AN80" s="3"/>
+      <c r="AO80" s="3"/>
       <c r="AP80" s="8"/>
       <c r="AQ80" s="8"/>
       <c r="AR80" s="8"/>
-      <c r="AS80" s="3"/>
-      <c r="AT80" s="3"/>
+      <c r="AS80" s="8"/>
+      <c r="AT80" s="8"/>
       <c r="AU80" s="3"/>
       <c r="AV80" s="3"/>
       <c r="AW80" s="3"/>
@@ -8518,13 +8892,13 @@
       <c r="BJ80" s="3"/>
       <c r="BK80" s="3"/>
       <c r="BL80" s="3"/>
-      <c r="BM80" s="9"/>
-      <c r="BN80" s="9"/>
+      <c r="BM80" s="3"/>
+      <c r="BN80" s="3"/>
       <c r="BO80" s="9"/>
       <c r="BP80" s="9"/>
       <c r="BQ80" s="9"/>
-      <c r="BR80" s="3"/>
-      <c r="BS80" s="3"/>
+      <c r="BR80" s="9"/>
+      <c r="BS80" s="9"/>
       <c r="BT80" s="3"/>
       <c r="BU80" s="3"/>
       <c r="BV80" s="3"/>
@@ -8546,9 +8920,11 @@
       <c r="CL80" s="3"/>
       <c r="CM80" s="3"/>
       <c r="CN80" s="3"/>
-      <c r="CO80" s="1"/>
+      <c r="CO80" s="3"/>
+      <c r="CP80" s="3"/>
+      <c r="CQ80" s="1"/>
     </row>
-    <row r="81" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -8568,7 +8944,7 @@
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
+      <c r="T81" s="13"/>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
@@ -8581,20 +8957,20 @@
       <c r="AD81" s="3"/>
       <c r="AE81" s="3"/>
       <c r="AF81" s="3"/>
-      <c r="AG81" s="8"/>
-      <c r="AH81" s="8"/>
+      <c r="AG81" s="3"/>
+      <c r="AH81" s="3"/>
       <c r="AI81" s="8"/>
-      <c r="AJ81" s="3"/>
-      <c r="AK81" s="3"/>
+      <c r="AJ81" s="8"/>
+      <c r="AK81" s="8"/>
       <c r="AL81" s="3"/>
       <c r="AM81" s="3"/>
-      <c r="AN81" s="8"/>
-      <c r="AO81" s="8"/>
+      <c r="AN81" s="3"/>
+      <c r="AO81" s="3"/>
       <c r="AP81" s="8"/>
       <c r="AQ81" s="8"/>
       <c r="AR81" s="8"/>
-      <c r="AS81" s="3"/>
-      <c r="AT81" s="3"/>
+      <c r="AS81" s="8"/>
+      <c r="AT81" s="8"/>
       <c r="AU81" s="3"/>
       <c r="AV81" s="3"/>
       <c r="AW81" s="3"/>
@@ -8613,13 +8989,13 @@
       <c r="BJ81" s="3"/>
       <c r="BK81" s="3"/>
       <c r="BL81" s="3"/>
-      <c r="BM81" s="9"/>
-      <c r="BN81" s="9"/>
+      <c r="BM81" s="3"/>
+      <c r="BN81" s="3"/>
       <c r="BO81" s="9"/>
       <c r="BP81" s="9"/>
       <c r="BQ81" s="9"/>
-      <c r="BR81" s="3"/>
-      <c r="BS81" s="3"/>
+      <c r="BR81" s="9"/>
+      <c r="BS81" s="9"/>
       <c r="BT81" s="3"/>
       <c r="BU81" s="3"/>
       <c r="BV81" s="3"/>
@@ -8641,9 +9017,11 @@
       <c r="CL81" s="3"/>
       <c r="CM81" s="3"/>
       <c r="CN81" s="3"/>
-      <c r="CO81" s="1"/>
+      <c r="CO81" s="3"/>
+      <c r="CP81" s="3"/>
+      <c r="CQ81" s="1"/>
     </row>
-    <row r="82" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -8663,7 +9041,7 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
+      <c r="T82" s="13"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
@@ -8676,20 +9054,20 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
-      <c r="AG82" s="8"/>
-      <c r="AH82" s="8"/>
+      <c r="AG82" s="3"/>
+      <c r="AH82" s="3"/>
       <c r="AI82" s="8"/>
-      <c r="AJ82" s="3"/>
-      <c r="AK82" s="3"/>
+      <c r="AJ82" s="8"/>
+      <c r="AK82" s="8"/>
       <c r="AL82" s="3"/>
       <c r="AM82" s="3"/>
-      <c r="AN82" s="8"/>
-      <c r="AO82" s="8"/>
+      <c r="AN82" s="3"/>
+      <c r="AO82" s="3"/>
       <c r="AP82" s="8"/>
       <c r="AQ82" s="8"/>
       <c r="AR82" s="8"/>
-      <c r="AS82" s="3"/>
-      <c r="AT82" s="3"/>
+      <c r="AS82" s="8"/>
+      <c r="AT82" s="8"/>
       <c r="AU82" s="3"/>
       <c r="AV82" s="3"/>
       <c r="AW82" s="3"/>
@@ -8708,13 +9086,13 @@
       <c r="BJ82" s="3"/>
       <c r="BK82" s="3"/>
       <c r="BL82" s="3"/>
-      <c r="BM82" s="9"/>
-      <c r="BN82" s="9"/>
+      <c r="BM82" s="3"/>
+      <c r="BN82" s="3"/>
       <c r="BO82" s="9"/>
       <c r="BP82" s="9"/>
       <c r="BQ82" s="9"/>
-      <c r="BR82" s="3"/>
-      <c r="BS82" s="3"/>
+      <c r="BR82" s="9"/>
+      <c r="BS82" s="9"/>
       <c r="BT82" s="3"/>
       <c r="BU82" s="3"/>
       <c r="BV82" s="3"/>
@@ -8736,9 +9114,11 @@
       <c r="CL82" s="3"/>
       <c r="CM82" s="3"/>
       <c r="CN82" s="3"/>
-      <c r="CO82" s="1"/>
+      <c r="CO82" s="3"/>
+      <c r="CP82" s="3"/>
+      <c r="CQ82" s="1"/>
     </row>
-    <row r="83" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -8758,7 +9138,7 @@
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
+      <c r="T83" s="13"/>
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
@@ -8773,67 +9153,69 @@
       <c r="AF83" s="3"/>
       <c r="AG83" s="3"/>
       <c r="AH83" s="3"/>
-      <c r="AI83" s="3"/>
-      <c r="AJ83" s="3"/>
-      <c r="AK83" s="3"/>
-      <c r="AL83" s="9"/>
-      <c r="AM83" s="10"/>
+      <c r="AI83" s="8"/>
+      <c r="AJ83" s="8"/>
+      <c r="AK83" s="8"/>
+      <c r="AL83" s="3"/>
+      <c r="AM83" s="3"/>
       <c r="AN83" s="3"/>
       <c r="AO83" s="3"/>
-      <c r="AP83" s="3"/>
-      <c r="AQ83" s="3"/>
-      <c r="AR83" s="3"/>
-      <c r="AS83" s="9"/>
-      <c r="AT83" s="9"/>
-      <c r="AU83" s="9"/>
-      <c r="AV83" s="9"/>
-      <c r="AW83" s="9"/>
-      <c r="AX83" s="9"/>
-      <c r="AY83" s="9"/>
-      <c r="AZ83" s="9"/>
-      <c r="BA83" s="9"/>
-      <c r="BB83" s="9"/>
-      <c r="BC83" s="9"/>
-      <c r="BD83" s="9"/>
-      <c r="BE83" s="9"/>
-      <c r="BF83" s="9"/>
-      <c r="BG83" s="9"/>
-      <c r="BH83" s="9"/>
-      <c r="BI83" s="9"/>
-      <c r="BJ83" s="9"/>
-      <c r="BK83" s="9"/>
-      <c r="BL83" s="9"/>
-      <c r="BM83" s="9"/>
-      <c r="BN83" s="9"/>
+      <c r="AP83" s="8"/>
+      <c r="AQ83" s="8"/>
+      <c r="AR83" s="8"/>
+      <c r="AS83" s="8"/>
+      <c r="AT83" s="8"/>
+      <c r="AU83" s="3"/>
+      <c r="AV83" s="3"/>
+      <c r="AW83" s="3"/>
+      <c r="AX83" s="3"/>
+      <c r="AY83" s="3"/>
+      <c r="AZ83" s="3"/>
+      <c r="BA83" s="3"/>
+      <c r="BB83" s="3"/>
+      <c r="BC83" s="3"/>
+      <c r="BD83" s="3"/>
+      <c r="BE83" s="3"/>
+      <c r="BF83" s="3"/>
+      <c r="BG83" s="3"/>
+      <c r="BH83" s="3"/>
+      <c r="BI83" s="3"/>
+      <c r="BJ83" s="3"/>
+      <c r="BK83" s="3"/>
+      <c r="BL83" s="3"/>
+      <c r="BM83" s="3"/>
+      <c r="BN83" s="3"/>
       <c r="BO83" s="9"/>
       <c r="BP83" s="9"/>
       <c r="BQ83" s="9"/>
       <c r="BR83" s="9"/>
       <c r="BS83" s="9"/>
-      <c r="BT83" s="9"/>
-      <c r="BU83" s="9"/>
-      <c r="BV83" s="9"/>
-      <c r="BW83" s="9"/>
-      <c r="BX83" s="9"/>
-      <c r="BY83" s="9"/>
-      <c r="BZ83" s="9"/>
-      <c r="CA83" s="9"/>
-      <c r="CB83" s="9"/>
-      <c r="CC83" s="9"/>
-      <c r="CD83" s="9"/>
-      <c r="CE83" s="9"/>
-      <c r="CF83" s="9"/>
-      <c r="CG83" s="9"/>
-      <c r="CH83" s="9"/>
-      <c r="CI83" s="9"/>
-      <c r="CJ83" s="9"/>
-      <c r="CK83" s="9"/>
-      <c r="CL83" s="9"/>
-      <c r="CM83" s="9"/>
+      <c r="BT83" s="3"/>
+      <c r="BU83" s="3"/>
+      <c r="BV83" s="3"/>
+      <c r="BW83" s="3"/>
+      <c r="BX83" s="3"/>
+      <c r="BY83" s="3"/>
+      <c r="BZ83" s="3"/>
+      <c r="CA83" s="3"/>
+      <c r="CB83" s="3"/>
+      <c r="CC83" s="3"/>
+      <c r="CD83" s="3"/>
+      <c r="CE83" s="3"/>
+      <c r="CF83" s="3"/>
+      <c r="CG83" s="3"/>
+      <c r="CH83" s="3"/>
+      <c r="CI83" s="3"/>
+      <c r="CJ83" s="3"/>
+      <c r="CK83" s="3"/>
+      <c r="CL83" s="3"/>
+      <c r="CM83" s="3"/>
       <c r="CN83" s="3"/>
-      <c r="CO83" s="1"/>
+      <c r="CO83" s="3"/>
+      <c r="CP83" s="3"/>
+      <c r="CQ83" s="1"/>
     </row>
-    <row r="84" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -8853,7 +9235,7 @@
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
+      <c r="T84" s="13"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
@@ -8873,62 +9255,64 @@
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
       <c r="AM84" s="3"/>
-      <c r="AN84" s="3"/>
-      <c r="AO84" s="3"/>
+      <c r="AN84" s="9"/>
+      <c r="AO84" s="10"/>
       <c r="AP84" s="3"/>
       <c r="AQ84" s="3"/>
       <c r="AR84" s="3"/>
       <c r="AS84" s="3"/>
       <c r="AT84" s="3"/>
-      <c r="AU84" s="3"/>
-      <c r="AV84" s="3"/>
-      <c r="AW84" s="3"/>
-      <c r="AX84" s="3"/>
-      <c r="AY84" s="3"/>
-      <c r="AZ84" s="3"/>
-      <c r="BA84" s="3"/>
-      <c r="BB84" s="3"/>
-      <c r="BC84" s="3"/>
-      <c r="BD84" s="3"/>
-      <c r="BE84" s="3"/>
-      <c r="BF84" s="3"/>
-      <c r="BG84" s="3"/>
-      <c r="BH84" s="3"/>
-      <c r="BI84" s="3"/>
-      <c r="BJ84" s="3"/>
-      <c r="BK84" s="3"/>
-      <c r="BL84" s="11"/>
+      <c r="AU84" s="9"/>
+      <c r="AV84" s="9"/>
+      <c r="AW84" s="9"/>
+      <c r="AX84" s="9"/>
+      <c r="AY84" s="9"/>
+      <c r="AZ84" s="9"/>
+      <c r="BA84" s="9"/>
+      <c r="BB84" s="9"/>
+      <c r="BC84" s="9"/>
+      <c r="BD84" s="9"/>
+      <c r="BE84" s="9"/>
+      <c r="BF84" s="9"/>
+      <c r="BG84" s="9"/>
+      <c r="BH84" s="9"/>
+      <c r="BI84" s="9"/>
+      <c r="BJ84" s="9"/>
+      <c r="BK84" s="9"/>
+      <c r="BL84" s="9"/>
       <c r="BM84" s="9"/>
       <c r="BN84" s="9"/>
       <c r="BO84" s="9"/>
       <c r="BP84" s="9"/>
       <c r="BQ84" s="9"/>
       <c r="BR84" s="9"/>
-      <c r="BS84" s="3"/>
-      <c r="BT84" s="3"/>
-      <c r="BU84" s="3"/>
-      <c r="BV84" s="3"/>
-      <c r="BW84" s="3"/>
-      <c r="BX84" s="3"/>
-      <c r="BY84" s="3"/>
-      <c r="BZ84" s="3"/>
-      <c r="CA84" s="3"/>
-      <c r="CB84" s="3"/>
-      <c r="CC84" s="3"/>
-      <c r="CD84" s="3"/>
-      <c r="CE84" s="3"/>
-      <c r="CF84" s="3"/>
-      <c r="CG84" s="3"/>
-      <c r="CH84" s="3"/>
-      <c r="CI84" s="3"/>
-      <c r="CJ84" s="3"/>
-      <c r="CK84" s="3"/>
-      <c r="CL84" s="3"/>
-      <c r="CM84" s="3"/>
-      <c r="CN84" s="3"/>
-      <c r="CO84" s="1"/>
+      <c r="BS84" s="9"/>
+      <c r="BT84" s="9"/>
+      <c r="BU84" s="9"/>
+      <c r="BV84" s="9"/>
+      <c r="BW84" s="9"/>
+      <c r="BX84" s="9"/>
+      <c r="BY84" s="9"/>
+      <c r="BZ84" s="9"/>
+      <c r="CA84" s="9"/>
+      <c r="CB84" s="9"/>
+      <c r="CC84" s="9"/>
+      <c r="CD84" s="9"/>
+      <c r="CE84" s="9"/>
+      <c r="CF84" s="9"/>
+      <c r="CG84" s="9"/>
+      <c r="CH84" s="9"/>
+      <c r="CI84" s="9"/>
+      <c r="CJ84" s="9"/>
+      <c r="CK84" s="9"/>
+      <c r="CL84" s="9"/>
+      <c r="CM84" s="9"/>
+      <c r="CN84" s="9"/>
+      <c r="CO84" s="9"/>
+      <c r="CP84" s="3"/>
+      <c r="CQ84" s="1"/>
     </row>
-    <row r="85" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -8948,7 +9332,7 @@
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
+      <c r="T85" s="13"/>
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
@@ -8993,14 +9377,14 @@
       <c r="BJ85" s="3"/>
       <c r="BK85" s="3"/>
       <c r="BL85" s="3"/>
-      <c r="BM85" s="9"/>
-      <c r="BN85" s="9"/>
+      <c r="BM85" s="3"/>
+      <c r="BN85" s="11"/>
       <c r="BO85" s="9"/>
       <c r="BP85" s="9"/>
       <c r="BQ85" s="9"/>
       <c r="BR85" s="9"/>
-      <c r="BS85" s="3"/>
-      <c r="BT85" s="3"/>
+      <c r="BS85" s="9"/>
+      <c r="BT85" s="9"/>
       <c r="BU85" s="3"/>
       <c r="BV85" s="3"/>
       <c r="BW85" s="3"/>
@@ -9021,9 +9405,11 @@
       <c r="CL85" s="3"/>
       <c r="CM85" s="3"/>
       <c r="CN85" s="3"/>
-      <c r="CO85" s="1"/>
+      <c r="CO85" s="3"/>
+      <c r="CP85" s="3"/>
+      <c r="CQ85" s="1"/>
     </row>
-    <row r="86" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -9043,7 +9429,7 @@
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
       <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
+      <c r="T86" s="13"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
@@ -9088,14 +9474,14 @@
       <c r="BJ86" s="3"/>
       <c r="BK86" s="3"/>
       <c r="BL86" s="3"/>
-      <c r="BM86" s="9"/>
-      <c r="BN86" s="9"/>
+      <c r="BM86" s="3"/>
+      <c r="BN86" s="3"/>
       <c r="BO86" s="9"/>
       <c r="BP86" s="9"/>
       <c r="BQ86" s="9"/>
       <c r="BR86" s="9"/>
-      <c r="BS86" s="3"/>
-      <c r="BT86" s="3"/>
+      <c r="BS86" s="9"/>
+      <c r="BT86" s="9"/>
       <c r="BU86" s="3"/>
       <c r="BV86" s="3"/>
       <c r="BW86" s="3"/>
@@ -9116,9 +9502,11 @@
       <c r="CL86" s="3"/>
       <c r="CM86" s="3"/>
       <c r="CN86" s="3"/>
-      <c r="CO86" s="1"/>
+      <c r="CO86" s="3"/>
+      <c r="CP86" s="3"/>
+      <c r="CQ86" s="1"/>
     </row>
-    <row r="87" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -9138,7 +9526,7 @@
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
+      <c r="T87" s="13"/>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
@@ -9183,14 +9571,14 @@
       <c r="BJ87" s="3"/>
       <c r="BK87" s="3"/>
       <c r="BL87" s="3"/>
-      <c r="BM87" s="9"/>
-      <c r="BN87" s="9"/>
+      <c r="BM87" s="3"/>
+      <c r="BN87" s="3"/>
       <c r="BO87" s="9"/>
       <c r="BP87" s="9"/>
       <c r="BQ87" s="9"/>
       <c r="BR87" s="9"/>
-      <c r="BS87" s="3"/>
-      <c r="BT87" s="3"/>
+      <c r="BS87" s="9"/>
+      <c r="BT87" s="9"/>
       <c r="BU87" s="3"/>
       <c r="BV87" s="3"/>
       <c r="BW87" s="3"/>
@@ -9211,9 +9599,11 @@
       <c r="CL87" s="3"/>
       <c r="CM87" s="3"/>
       <c r="CN87" s="3"/>
-      <c r="CO87" s="1"/>
+      <c r="CO87" s="3"/>
+      <c r="CP87" s="3"/>
+      <c r="CQ87" s="1"/>
     </row>
-    <row r="88" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -9233,7 +9623,7 @@
       <c r="Q88" s="3"/>
       <c r="R88" s="3"/>
       <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
+      <c r="T88" s="13"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
@@ -9278,14 +9668,14 @@
       <c r="BJ88" s="3"/>
       <c r="BK88" s="3"/>
       <c r="BL88" s="3"/>
-      <c r="BM88" s="9"/>
-      <c r="BN88" s="9"/>
+      <c r="BM88" s="3"/>
+      <c r="BN88" s="3"/>
       <c r="BO88" s="9"/>
       <c r="BP88" s="9"/>
       <c r="BQ88" s="9"/>
       <c r="BR88" s="9"/>
-      <c r="BS88" s="3"/>
-      <c r="BT88" s="3"/>
+      <c r="BS88" s="9"/>
+      <c r="BT88" s="9"/>
       <c r="BU88" s="3"/>
       <c r="BV88" s="3"/>
       <c r="BW88" s="3"/>
@@ -9306,9 +9696,11 @@
       <c r="CL88" s="3"/>
       <c r="CM88" s="3"/>
       <c r="CN88" s="3"/>
-      <c r="CO88" s="1"/>
+      <c r="CO88" s="3"/>
+      <c r="CP88" s="3"/>
+      <c r="CQ88" s="1"/>
     </row>
-    <row r="89" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -9328,7 +9720,7 @@
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
-      <c r="T89" s="3"/>
+      <c r="T89" s="13"/>
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
@@ -9373,14 +9765,14 @@
       <c r="BJ89" s="3"/>
       <c r="BK89" s="3"/>
       <c r="BL89" s="3"/>
-      <c r="BM89" s="9"/>
-      <c r="BN89" s="9"/>
+      <c r="BM89" s="3"/>
+      <c r="BN89" s="3"/>
       <c r="BO89" s="9"/>
       <c r="BP89" s="9"/>
       <c r="BQ89" s="9"/>
       <c r="BR89" s="9"/>
-      <c r="BS89" s="3"/>
-      <c r="BT89" s="3"/>
+      <c r="BS89" s="9"/>
+      <c r="BT89" s="9"/>
       <c r="BU89" s="3"/>
       <c r="BV89" s="3"/>
       <c r="BW89" s="3"/>
@@ -9401,9 +9793,11 @@
       <c r="CL89" s="3"/>
       <c r="CM89" s="3"/>
       <c r="CN89" s="3"/>
-      <c r="CO89" s="1"/>
+      <c r="CO89" s="3"/>
+      <c r="CP89" s="3"/>
+      <c r="CQ89" s="1"/>
     </row>
-    <row r="90" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -9423,7 +9817,7 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-      <c r="T90" s="3"/>
+      <c r="T90" s="13"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
@@ -9468,14 +9862,14 @@
       <c r="BJ90" s="3"/>
       <c r="BK90" s="3"/>
       <c r="BL90" s="3"/>
-      <c r="BM90" s="9"/>
-      <c r="BN90" s="9"/>
+      <c r="BM90" s="3"/>
+      <c r="BN90" s="3"/>
       <c r="BO90" s="9"/>
       <c r="BP90" s="9"/>
       <c r="BQ90" s="9"/>
       <c r="BR90" s="9"/>
-      <c r="BS90" s="3"/>
-      <c r="BT90" s="3"/>
+      <c r="BS90" s="9"/>
+      <c r="BT90" s="9"/>
       <c r="BU90" s="3"/>
       <c r="BV90" s="3"/>
       <c r="BW90" s="3"/>
@@ -9496,9 +9890,11 @@
       <c r="CL90" s="3"/>
       <c r="CM90" s="3"/>
       <c r="CN90" s="3"/>
-      <c r="CO90" s="1"/>
+      <c r="CO90" s="3"/>
+      <c r="CP90" s="3"/>
+      <c r="CQ90" s="1"/>
     </row>
-    <row r="91" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -9518,7 +9914,7 @@
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
-      <c r="T91" s="3"/>
+      <c r="T91" s="13"/>
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
@@ -9536,64 +9932,66 @@
       <c r="AI91" s="3"/>
       <c r="AJ91" s="3"/>
       <c r="AK91" s="3"/>
-      <c r="AL91" s="9"/>
-      <c r="AM91" s="9"/>
+      <c r="AL91" s="3"/>
+      <c r="AM91" s="3"/>
       <c r="AN91" s="3"/>
       <c r="AO91" s="3"/>
       <c r="AP91" s="3"/>
       <c r="AQ91" s="3"/>
       <c r="AR91" s="3"/>
-      <c r="AS91" s="9"/>
-      <c r="AT91" s="9"/>
-      <c r="AU91" s="9"/>
-      <c r="AV91" s="9"/>
-      <c r="AW91" s="9"/>
-      <c r="AX91" s="9"/>
-      <c r="AY91" s="9"/>
-      <c r="AZ91" s="9"/>
-      <c r="BA91" s="9"/>
-      <c r="BB91" s="9"/>
-      <c r="BC91" s="9"/>
-      <c r="BD91" s="9"/>
-      <c r="BE91" s="9"/>
-      <c r="BF91" s="9"/>
-      <c r="BG91" s="9"/>
-      <c r="BH91" s="9"/>
-      <c r="BI91" s="9"/>
-      <c r="BJ91" s="9"/>
-      <c r="BK91" s="9"/>
-      <c r="BL91" s="10"/>
-      <c r="BM91" s="9"/>
-      <c r="BN91" s="9"/>
+      <c r="AS91" s="3"/>
+      <c r="AT91" s="3"/>
+      <c r="AU91" s="3"/>
+      <c r="AV91" s="3"/>
+      <c r="AW91" s="3"/>
+      <c r="AX91" s="3"/>
+      <c r="AY91" s="3"/>
+      <c r="AZ91" s="3"/>
+      <c r="BA91" s="3"/>
+      <c r="BB91" s="3"/>
+      <c r="BC91" s="3"/>
+      <c r="BD91" s="3"/>
+      <c r="BE91" s="3"/>
+      <c r="BF91" s="3"/>
+      <c r="BG91" s="3"/>
+      <c r="BH91" s="3"/>
+      <c r="BI91" s="3"/>
+      <c r="BJ91" s="3"/>
+      <c r="BK91" s="3"/>
+      <c r="BL91" s="3"/>
+      <c r="BM91" s="3"/>
+      <c r="BN91" s="3"/>
       <c r="BO91" s="9"/>
       <c r="BP91" s="9"/>
       <c r="BQ91" s="9"/>
       <c r="BR91" s="9"/>
       <c r="BS91" s="9"/>
       <c r="BT91" s="9"/>
-      <c r="BU91" s="9"/>
-      <c r="BV91" s="9"/>
-      <c r="BW91" s="9"/>
-      <c r="BX91" s="9"/>
-      <c r="BY91" s="9"/>
-      <c r="BZ91" s="9"/>
-      <c r="CA91" s="9"/>
-      <c r="CB91" s="9"/>
-      <c r="CC91" s="9"/>
-      <c r="CD91" s="9"/>
-      <c r="CE91" s="9"/>
-      <c r="CF91" s="9"/>
-      <c r="CG91" s="9"/>
-      <c r="CH91" s="9"/>
-      <c r="CI91" s="9"/>
-      <c r="CJ91" s="9"/>
-      <c r="CK91" s="9"/>
-      <c r="CL91" s="9"/>
-      <c r="CM91" s="9"/>
+      <c r="BU91" s="3"/>
+      <c r="BV91" s="3"/>
+      <c r="BW91" s="3"/>
+      <c r="BX91" s="3"/>
+      <c r="BY91" s="3"/>
+      <c r="BZ91" s="3"/>
+      <c r="CA91" s="3"/>
+      <c r="CB91" s="3"/>
+      <c r="CC91" s="3"/>
+      <c r="CD91" s="3"/>
+      <c r="CE91" s="3"/>
+      <c r="CF91" s="3"/>
+      <c r="CG91" s="3"/>
+      <c r="CH91" s="3"/>
+      <c r="CI91" s="3"/>
+      <c r="CJ91" s="3"/>
+      <c r="CK91" s="3"/>
+      <c r="CL91" s="3"/>
+      <c r="CM91" s="3"/>
       <c r="CN91" s="3"/>
-      <c r="CO91" s="1"/>
+      <c r="CO91" s="3"/>
+      <c r="CP91" s="3"/>
+      <c r="CQ91" s="1"/>
     </row>
-    <row r="92" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -9613,7 +10011,7 @@
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
-      <c r="T92" s="3"/>
+      <c r="T92" s="13"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
@@ -9633,62 +10031,64 @@
       <c r="AK92" s="3"/>
       <c r="AL92" s="3"/>
       <c r="AM92" s="3"/>
-      <c r="AN92" s="3"/>
-      <c r="AO92" s="3"/>
+      <c r="AN92" s="9"/>
+      <c r="AO92" s="9"/>
       <c r="AP92" s="3"/>
       <c r="AQ92" s="3"/>
       <c r="AR92" s="3"/>
       <c r="AS92" s="3"/>
       <c r="AT92" s="3"/>
-      <c r="AU92" s="3"/>
-      <c r="AV92" s="3"/>
-      <c r="AW92" s="3"/>
-      <c r="AX92" s="3"/>
-      <c r="AY92" s="3"/>
-      <c r="AZ92" s="3"/>
-      <c r="BA92" s="3"/>
-      <c r="BB92" s="3"/>
-      <c r="BC92" s="3"/>
-      <c r="BD92" s="3"/>
-      <c r="BE92" s="3"/>
-      <c r="BF92" s="3"/>
-      <c r="BG92" s="3"/>
-      <c r="BH92" s="3"/>
-      <c r="BI92" s="3"/>
-      <c r="BJ92" s="3"/>
-      <c r="BK92" s="3"/>
-      <c r="BL92" s="11"/>
+      <c r="AU92" s="9"/>
+      <c r="AV92" s="9"/>
+      <c r="AW92" s="9"/>
+      <c r="AX92" s="9"/>
+      <c r="AY92" s="9"/>
+      <c r="AZ92" s="9"/>
+      <c r="BA92" s="9"/>
+      <c r="BB92" s="9"/>
+      <c r="BC92" s="9"/>
+      <c r="BD92" s="9"/>
+      <c r="BE92" s="9"/>
+      <c r="BF92" s="9"/>
+      <c r="BG92" s="9"/>
+      <c r="BH92" s="9"/>
+      <c r="BI92" s="9"/>
+      <c r="BJ92" s="9"/>
+      <c r="BK92" s="9"/>
+      <c r="BL92" s="9"/>
       <c r="BM92" s="9"/>
-      <c r="BN92" s="9"/>
+      <c r="BN92" s="10"/>
       <c r="BO92" s="9"/>
       <c r="BP92" s="9"/>
       <c r="BQ92" s="9"/>
       <c r="BR92" s="9"/>
-      <c r="BS92" s="3"/>
-      <c r="BT92" s="3"/>
-      <c r="BU92" s="3"/>
-      <c r="BV92" s="3"/>
-      <c r="BW92" s="3"/>
-      <c r="BX92" s="3"/>
-      <c r="BY92" s="3"/>
-      <c r="BZ92" s="3"/>
-      <c r="CA92" s="3"/>
-      <c r="CB92" s="3"/>
-      <c r="CC92" s="3"/>
-      <c r="CD92" s="3"/>
-      <c r="CE92" s="3"/>
-      <c r="CF92" s="3"/>
-      <c r="CG92" s="3"/>
-      <c r="CH92" s="3"/>
-      <c r="CI92" s="3"/>
-      <c r="CJ92" s="3"/>
-      <c r="CK92" s="3"/>
-      <c r="CL92" s="3"/>
-      <c r="CM92" s="3"/>
-      <c r="CN92" s="3"/>
-      <c r="CO92" s="1"/>
+      <c r="BS92" s="9"/>
+      <c r="BT92" s="9"/>
+      <c r="BU92" s="9"/>
+      <c r="BV92" s="9"/>
+      <c r="BW92" s="9"/>
+      <c r="BX92" s="9"/>
+      <c r="BY92" s="9"/>
+      <c r="BZ92" s="9"/>
+      <c r="CA92" s="9"/>
+      <c r="CB92" s="9"/>
+      <c r="CC92" s="9"/>
+      <c r="CD92" s="9"/>
+      <c r="CE92" s="9"/>
+      <c r="CF92" s="9"/>
+      <c r="CG92" s="9"/>
+      <c r="CH92" s="9"/>
+      <c r="CI92" s="9"/>
+      <c r="CJ92" s="9"/>
+      <c r="CK92" s="9"/>
+      <c r="CL92" s="9"/>
+      <c r="CM92" s="9"/>
+      <c r="CN92" s="9"/>
+      <c r="CO92" s="9"/>
+      <c r="CP92" s="3"/>
+      <c r="CQ92" s="1"/>
     </row>
-    <row r="93" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -9708,7 +10108,7 @@
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
-      <c r="T93" s="3"/>
+      <c r="T93" s="13"/>
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
@@ -9752,15 +10152,15 @@
       <c r="BI93" s="3"/>
       <c r="BJ93" s="3"/>
       <c r="BK93" s="3"/>
-      <c r="BL93" s="11"/>
-      <c r="BM93" s="9"/>
-      <c r="BN93" s="9"/>
+      <c r="BL93" s="3"/>
+      <c r="BM93" s="3"/>
+      <c r="BN93" s="11"/>
       <c r="BO93" s="9"/>
       <c r="BP93" s="9"/>
       <c r="BQ93" s="9"/>
       <c r="BR93" s="9"/>
-      <c r="BS93" s="3"/>
-      <c r="BT93" s="3"/>
+      <c r="BS93" s="9"/>
+      <c r="BT93" s="9"/>
       <c r="BU93" s="3"/>
       <c r="BV93" s="3"/>
       <c r="BW93" s="3"/>
@@ -9781,9 +10181,11 @@
       <c r="CL93" s="3"/>
       <c r="CM93" s="3"/>
       <c r="CN93" s="3"/>
-      <c r="CO93" s="1"/>
+      <c r="CO93" s="3"/>
+      <c r="CP93" s="3"/>
+      <c r="CQ93" s="1"/>
     </row>
-    <row r="94" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -9803,7 +10205,7 @@
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
       <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
+      <c r="T94" s="13"/>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
@@ -9848,14 +10250,14 @@
       <c r="BJ94" s="3"/>
       <c r="BK94" s="3"/>
       <c r="BL94" s="3"/>
-      <c r="BM94" s="9"/>
-      <c r="BN94" s="9"/>
+      <c r="BM94" s="3"/>
+      <c r="BN94" s="11"/>
       <c r="BO94" s="9"/>
       <c r="BP94" s="9"/>
       <c r="BQ94" s="9"/>
-      <c r="BR94" s="3"/>
-      <c r="BS94" s="3"/>
-      <c r="BT94" s="3"/>
+      <c r="BR94" s="9"/>
+      <c r="BS94" s="9"/>
+      <c r="BT94" s="9"/>
       <c r="BU94" s="3"/>
       <c r="BV94" s="3"/>
       <c r="BW94" s="3"/>
@@ -9876,9 +10278,11 @@
       <c r="CL94" s="3"/>
       <c r="CM94" s="3"/>
       <c r="CN94" s="3"/>
-      <c r="CO94" s="1"/>
+      <c r="CO94" s="3"/>
+      <c r="CP94" s="3"/>
+      <c r="CQ94" s="1"/>
     </row>
-    <row r="95" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -9898,7 +10302,7 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
+      <c r="T95" s="13"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
@@ -9943,13 +10347,13 @@
       <c r="BJ95" s="3"/>
       <c r="BK95" s="3"/>
       <c r="BL95" s="3"/>
-      <c r="BM95" s="9"/>
-      <c r="BN95" s="9"/>
+      <c r="BM95" s="3"/>
+      <c r="BN95" s="3"/>
       <c r="BO95" s="9"/>
       <c r="BP95" s="9"/>
       <c r="BQ95" s="9"/>
-      <c r="BR95" s="3"/>
-      <c r="BS95" s="3"/>
+      <c r="BR95" s="9"/>
+      <c r="BS95" s="9"/>
       <c r="BT95" s="3"/>
       <c r="BU95" s="3"/>
       <c r="BV95" s="3"/>
@@ -9971,9 +10375,11 @@
       <c r="CL95" s="3"/>
       <c r="CM95" s="3"/>
       <c r="CN95" s="3"/>
-      <c r="CO95" s="1"/>
+      <c r="CO95" s="3"/>
+      <c r="CP95" s="3"/>
+      <c r="CQ95" s="1"/>
     </row>
-    <row r="96" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -9981,7 +10387,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="11"/>
+      <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
@@ -9993,7 +10399,7 @@
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
+      <c r="T96" s="13"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
@@ -10038,13 +10444,13 @@
       <c r="BJ96" s="3"/>
       <c r="BK96" s="3"/>
       <c r="BL96" s="3"/>
-      <c r="BM96" s="9"/>
-      <c r="BN96" s="9"/>
+      <c r="BM96" s="3"/>
+      <c r="BN96" s="3"/>
       <c r="BO96" s="9"/>
       <c r="BP96" s="9"/>
       <c r="BQ96" s="9"/>
-      <c r="BR96" s="3"/>
-      <c r="BS96" s="3"/>
+      <c r="BR96" s="9"/>
+      <c r="BS96" s="9"/>
       <c r="BT96" s="3"/>
       <c r="BU96" s="3"/>
       <c r="BV96" s="3"/>
@@ -10066,9 +10472,11 @@
       <c r="CL96" s="3"/>
       <c r="CM96" s="3"/>
       <c r="CN96" s="3"/>
-      <c r="CO96" s="1"/>
+      <c r="CO96" s="3"/>
+      <c r="CP96" s="3"/>
+      <c r="CQ96" s="1"/>
     </row>
-    <row r="97" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -10088,7 +10496,7 @@
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
+      <c r="T97" s="13"/>
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
@@ -10133,13 +10541,13 @@
       <c r="BJ97" s="3"/>
       <c r="BK97" s="3"/>
       <c r="BL97" s="3"/>
-      <c r="BM97" s="9"/>
-      <c r="BN97" s="9"/>
+      <c r="BM97" s="3"/>
+      <c r="BN97" s="3"/>
       <c r="BO97" s="9"/>
       <c r="BP97" s="9"/>
       <c r="BQ97" s="9"/>
-      <c r="BR97" s="3"/>
-      <c r="BS97" s="3"/>
+      <c r="BR97" s="9"/>
+      <c r="BS97" s="9"/>
       <c r="BT97" s="3"/>
       <c r="BU97" s="3"/>
       <c r="BV97" s="3"/>
@@ -10161,9 +10569,11 @@
       <c r="CL97" s="3"/>
       <c r="CM97" s="3"/>
       <c r="CN97" s="3"/>
-      <c r="CO97" s="1"/>
+      <c r="CO97" s="3"/>
+      <c r="CP97" s="3"/>
+      <c r="CQ97" s="1"/>
     </row>
-    <row r="98" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -10183,7 +10593,7 @@
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
       <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
+      <c r="T98" s="13"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
@@ -10201,64 +10611,66 @@
       <c r="AI98" s="3"/>
       <c r="AJ98" s="3"/>
       <c r="AK98" s="3"/>
-      <c r="AL98" s="9"/>
-      <c r="AM98" s="9"/>
+      <c r="AL98" s="3"/>
+      <c r="AM98" s="3"/>
       <c r="AN98" s="3"/>
       <c r="AO98" s="3"/>
       <c r="AP98" s="3"/>
       <c r="AQ98" s="3"/>
       <c r="AR98" s="3"/>
-      <c r="AS98" s="9"/>
-      <c r="AT98" s="9"/>
-      <c r="AU98" s="9"/>
-      <c r="AV98" s="9"/>
-      <c r="AW98" s="9"/>
-      <c r="AX98" s="9"/>
-      <c r="AY98" s="9"/>
-      <c r="AZ98" s="9"/>
-      <c r="BA98" s="9"/>
-      <c r="BB98" s="9"/>
-      <c r="BC98" s="9"/>
-      <c r="BD98" s="9"/>
-      <c r="BE98" s="9"/>
-      <c r="BF98" s="9"/>
-      <c r="BG98" s="9"/>
-      <c r="BH98" s="9"/>
-      <c r="BI98" s="9"/>
-      <c r="BJ98" s="9"/>
-      <c r="BK98" s="9"/>
-      <c r="BL98" s="9"/>
-      <c r="BM98" s="9"/>
-      <c r="BN98" s="9"/>
+      <c r="AS98" s="3"/>
+      <c r="AT98" s="3"/>
+      <c r="AU98" s="3"/>
+      <c r="AV98" s="3"/>
+      <c r="AW98" s="3"/>
+      <c r="AX98" s="3"/>
+      <c r="AY98" s="3"/>
+      <c r="AZ98" s="3"/>
+      <c r="BA98" s="3"/>
+      <c r="BB98" s="3"/>
+      <c r="BC98" s="3"/>
+      <c r="BD98" s="3"/>
+      <c r="BE98" s="3"/>
+      <c r="BF98" s="3"/>
+      <c r="BG98" s="3"/>
+      <c r="BH98" s="3"/>
+      <c r="BI98" s="3"/>
+      <c r="BJ98" s="3"/>
+      <c r="BK98" s="3"/>
+      <c r="BL98" s="3"/>
+      <c r="BM98" s="3"/>
+      <c r="BN98" s="3"/>
       <c r="BO98" s="9"/>
       <c r="BP98" s="9"/>
       <c r="BQ98" s="9"/>
       <c r="BR98" s="9"/>
       <c r="BS98" s="9"/>
-      <c r="BT98" s="9"/>
-      <c r="BU98" s="9"/>
-      <c r="BV98" s="9"/>
-      <c r="BW98" s="9"/>
-      <c r="BX98" s="9"/>
-      <c r="BY98" s="9"/>
-      <c r="BZ98" s="9"/>
-      <c r="CA98" s="9"/>
-      <c r="CB98" s="9"/>
-      <c r="CC98" s="9"/>
-      <c r="CD98" s="9"/>
-      <c r="CE98" s="9"/>
-      <c r="CF98" s="9"/>
-      <c r="CG98" s="9"/>
-      <c r="CH98" s="9"/>
-      <c r="CI98" s="9"/>
-      <c r="CJ98" s="9"/>
-      <c r="CK98" s="9"/>
-      <c r="CL98" s="9"/>
-      <c r="CM98" s="9"/>
+      <c r="BT98" s="3"/>
+      <c r="BU98" s="3"/>
+      <c r="BV98" s="3"/>
+      <c r="BW98" s="3"/>
+      <c r="BX98" s="3"/>
+      <c r="BY98" s="3"/>
+      <c r="BZ98" s="3"/>
+      <c r="CA98" s="3"/>
+      <c r="CB98" s="3"/>
+      <c r="CC98" s="3"/>
+      <c r="CD98" s="3"/>
+      <c r="CE98" s="3"/>
+      <c r="CF98" s="3"/>
+      <c r="CG98" s="3"/>
+      <c r="CH98" s="3"/>
+      <c r="CI98" s="3"/>
+      <c r="CJ98" s="3"/>
+      <c r="CK98" s="3"/>
+      <c r="CL98" s="3"/>
+      <c r="CM98" s="3"/>
       <c r="CN98" s="3"/>
-      <c r="CO98" s="1"/>
+      <c r="CO98" s="3"/>
+      <c r="CP98" s="3"/>
+      <c r="CQ98" s="1"/>
     </row>
-    <row r="99" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -10278,7 +10690,7 @@
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
+      <c r="T99" s="13"/>
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
@@ -10296,15 +10708,15 @@
       <c r="AI99" s="3"/>
       <c r="AJ99" s="3"/>
       <c r="AK99" s="3"/>
-      <c r="AL99" s="9"/>
-      <c r="AM99" s="9"/>
-      <c r="AN99" s="3"/>
-      <c r="AO99" s="3"/>
+      <c r="AL99" s="3"/>
+      <c r="AM99" s="3"/>
+      <c r="AN99" s="9"/>
+      <c r="AO99" s="9"/>
       <c r="AP99" s="3"/>
       <c r="AQ99" s="3"/>
       <c r="AR99" s="3"/>
-      <c r="AS99" s="9"/>
-      <c r="AT99" s="9"/>
+      <c r="AS99" s="3"/>
+      <c r="AT99" s="3"/>
       <c r="AU99" s="9"/>
       <c r="AV99" s="9"/>
       <c r="AW99" s="9"/>
@@ -10350,10 +10762,12 @@
       <c r="CK99" s="9"/>
       <c r="CL99" s="9"/>
       <c r="CM99" s="9"/>
-      <c r="CN99" s="3"/>
-      <c r="CO99" s="1"/>
+      <c r="CN99" s="9"/>
+      <c r="CO99" s="9"/>
+      <c r="CP99" s="3"/>
+      <c r="CQ99" s="1"/>
     </row>
-    <row r="100" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -10373,7 +10787,7 @@
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
+      <c r="T100" s="13"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
@@ -10391,15 +10805,15 @@
       <c r="AI100" s="3"/>
       <c r="AJ100" s="3"/>
       <c r="AK100" s="3"/>
-      <c r="AL100" s="9"/>
-      <c r="AM100" s="9"/>
-      <c r="AN100" s="3"/>
-      <c r="AO100" s="3"/>
+      <c r="AL100" s="3"/>
+      <c r="AM100" s="3"/>
+      <c r="AN100" s="9"/>
+      <c r="AO100" s="9"/>
       <c r="AP100" s="3"/>
       <c r="AQ100" s="3"/>
       <c r="AR100" s="3"/>
-      <c r="AS100" s="9"/>
-      <c r="AT100" s="9"/>
+      <c r="AS100" s="3"/>
+      <c r="AT100" s="3"/>
       <c r="AU100" s="9"/>
       <c r="AV100" s="9"/>
       <c r="AW100" s="9"/>
@@ -10445,10 +10859,12 @@
       <c r="CK100" s="9"/>
       <c r="CL100" s="9"/>
       <c r="CM100" s="9"/>
-      <c r="CN100" s="3"/>
-      <c r="CO100" s="1"/>
+      <c r="CN100" s="9"/>
+      <c r="CO100" s="9"/>
+      <c r="CP100" s="3"/>
+      <c r="CQ100" s="1"/>
     </row>
-    <row r="101" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -10468,7 +10884,7 @@
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
       <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
+      <c r="T101" s="13"/>
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
@@ -10488,62 +10904,64 @@
       <c r="AK101" s="3"/>
       <c r="AL101" s="3"/>
       <c r="AM101" s="3"/>
-      <c r="AN101" s="3"/>
-      <c r="AO101" s="3"/>
+      <c r="AN101" s="9"/>
+      <c r="AO101" s="9"/>
       <c r="AP101" s="3"/>
       <c r="AQ101" s="3"/>
       <c r="AR101" s="3"/>
       <c r="AS101" s="3"/>
       <c r="AT101" s="3"/>
-      <c r="AU101" s="3"/>
-      <c r="AV101" s="3"/>
-      <c r="AW101" s="3"/>
-      <c r="AX101" s="3"/>
-      <c r="AY101" s="3"/>
-      <c r="AZ101" s="3"/>
-      <c r="BA101" s="3"/>
-      <c r="BB101" s="3"/>
-      <c r="BC101" s="3"/>
-      <c r="BD101" s="3"/>
-      <c r="BE101" s="3"/>
-      <c r="BF101" s="3"/>
-      <c r="BG101" s="3"/>
-      <c r="BH101" s="3"/>
-      <c r="BI101" s="3"/>
-      <c r="BJ101" s="3"/>
-      <c r="BK101" s="3"/>
-      <c r="BL101" s="3"/>
-      <c r="BM101" s="3"/>
-      <c r="BN101" s="3"/>
-      <c r="BO101" s="3"/>
-      <c r="BP101" s="3"/>
-      <c r="BQ101" s="3"/>
-      <c r="BR101" s="3"/>
-      <c r="BS101" s="3"/>
-      <c r="BT101" s="3"/>
-      <c r="BU101" s="3"/>
-      <c r="BV101" s="3"/>
-      <c r="BW101" s="3"/>
-      <c r="BX101" s="3"/>
-      <c r="BY101" s="3"/>
-      <c r="BZ101" s="3"/>
-      <c r="CA101" s="3"/>
-      <c r="CB101" s="3"/>
-      <c r="CC101" s="3"/>
-      <c r="CD101" s="3"/>
-      <c r="CE101" s="3"/>
-      <c r="CF101" s="3"/>
-      <c r="CG101" s="3"/>
-      <c r="CH101" s="3"/>
-      <c r="CI101" s="3"/>
-      <c r="CJ101" s="3"/>
-      <c r="CK101" s="3"/>
-      <c r="CL101" s="3"/>
-      <c r="CM101" s="3"/>
-      <c r="CN101" s="3"/>
-      <c r="CO101" s="1"/>
+      <c r="AU101" s="9"/>
+      <c r="AV101" s="9"/>
+      <c r="AW101" s="9"/>
+      <c r="AX101" s="9"/>
+      <c r="AY101" s="9"/>
+      <c r="AZ101" s="9"/>
+      <c r="BA101" s="9"/>
+      <c r="BB101" s="9"/>
+      <c r="BC101" s="9"/>
+      <c r="BD101" s="9"/>
+      <c r="BE101" s="9"/>
+      <c r="BF101" s="9"/>
+      <c r="BG101" s="9"/>
+      <c r="BH101" s="9"/>
+      <c r="BI101" s="9"/>
+      <c r="BJ101" s="9"/>
+      <c r="BK101" s="9"/>
+      <c r="BL101" s="9"/>
+      <c r="BM101" s="9"/>
+      <c r="BN101" s="9"/>
+      <c r="BO101" s="9"/>
+      <c r="BP101" s="9"/>
+      <c r="BQ101" s="9"/>
+      <c r="BR101" s="9"/>
+      <c r="BS101" s="9"/>
+      <c r="BT101" s="9"/>
+      <c r="BU101" s="9"/>
+      <c r="BV101" s="9"/>
+      <c r="BW101" s="9"/>
+      <c r="BX101" s="9"/>
+      <c r="BY101" s="9"/>
+      <c r="BZ101" s="9"/>
+      <c r="CA101" s="9"/>
+      <c r="CB101" s="9"/>
+      <c r="CC101" s="9"/>
+      <c r="CD101" s="9"/>
+      <c r="CE101" s="9"/>
+      <c r="CF101" s="9"/>
+      <c r="CG101" s="9"/>
+      <c r="CH101" s="9"/>
+      <c r="CI101" s="9"/>
+      <c r="CJ101" s="9"/>
+      <c r="CK101" s="9"/>
+      <c r="CL101" s="9"/>
+      <c r="CM101" s="9"/>
+      <c r="CN101" s="9"/>
+      <c r="CO101" s="9"/>
+      <c r="CP101" s="3"/>
+      <c r="CQ101" s="1"/>
     </row>
-    <row r="102" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -10563,7 +10981,7 @@
       <c r="Q102" s="3"/>
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
+      <c r="T102" s="13"/>
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
@@ -10636,9 +11054,11 @@
       <c r="CL102" s="3"/>
       <c r="CM102" s="3"/>
       <c r="CN102" s="3"/>
-      <c r="CO102" s="1"/>
+      <c r="CO102" s="3"/>
+      <c r="CP102" s="3"/>
+      <c r="CQ102" s="1"/>
     </row>
-    <row r="103" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -10658,7 +11078,7 @@
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
-      <c r="T103" s="3"/>
+      <c r="T103" s="13"/>
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
@@ -10731,9 +11151,11 @@
       <c r="CL103" s="3"/>
       <c r="CM103" s="3"/>
       <c r="CN103" s="3"/>
-      <c r="CO103" s="1"/>
+      <c r="CO103" s="3"/>
+      <c r="CP103" s="3"/>
+      <c r="CQ103" s="1"/>
     </row>
-    <row r="104" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -10753,7 +11175,7 @@
       <c r="Q104" s="3"/>
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
-      <c r="T104" s="3"/>
+      <c r="T104" s="13"/>
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
@@ -10826,9 +11248,11 @@
       <c r="CL104" s="3"/>
       <c r="CM104" s="3"/>
       <c r="CN104" s="3"/>
-      <c r="CO104" s="1"/>
+      <c r="CO104" s="3"/>
+      <c r="CP104" s="3"/>
+      <c r="CQ104" s="1"/>
     </row>
-    <row r="105" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -10836,7 +11260,7 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
+      <c r="H105" s="11"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
@@ -10848,7 +11272,7 @@
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
       <c r="S105" s="3"/>
-      <c r="T105" s="3"/>
+      <c r="T105" s="13"/>
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3"/>
@@ -10921,9 +11345,11 @@
       <c r="CL105" s="3"/>
       <c r="CM105" s="3"/>
       <c r="CN105" s="3"/>
-      <c r="CO105" s="1"/>
+      <c r="CO105" s="3"/>
+      <c r="CP105" s="3"/>
+      <c r="CQ105" s="1"/>
     </row>
-    <row r="106" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -10943,7 +11369,7 @@
       <c r="Q106" s="3"/>
       <c r="R106" s="3"/>
       <c r="S106" s="3"/>
-      <c r="T106" s="3"/>
+      <c r="T106" s="13"/>
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
@@ -11016,9 +11442,11 @@
       <c r="CL106" s="3"/>
       <c r="CM106" s="3"/>
       <c r="CN106" s="3"/>
-      <c r="CO106" s="1"/>
+      <c r="CO106" s="3"/>
+      <c r="CP106" s="3"/>
+      <c r="CQ106" s="1"/>
     </row>
-    <row r="107" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -11038,7 +11466,7 @@
       <c r="Q107" s="3"/>
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
-      <c r="T107" s="3"/>
+      <c r="T107" s="13"/>
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
@@ -11111,9 +11539,11 @@
       <c r="CL107" s="3"/>
       <c r="CM107" s="3"/>
       <c r="CN107" s="3"/>
-      <c r="CO107" s="1"/>
+      <c r="CO107" s="3"/>
+      <c r="CP107" s="3"/>
+      <c r="CQ107" s="1"/>
     </row>
-    <row r="108" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -11133,7 +11563,7 @@
       <c r="Q108" s="3"/>
       <c r="R108" s="3"/>
       <c r="S108" s="3"/>
-      <c r="T108" s="3"/>
+      <c r="T108" s="13"/>
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
       <c r="W108" s="3"/>
@@ -11206,9 +11636,11 @@
       <c r="CL108" s="3"/>
       <c r="CM108" s="3"/>
       <c r="CN108" s="3"/>
-      <c r="CO108" s="1"/>
+      <c r="CO108" s="3"/>
+      <c r="CP108" s="3"/>
+      <c r="CQ108" s="1"/>
     </row>
-    <row r="109" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -11228,7 +11660,7 @@
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
-      <c r="T109" s="3"/>
+      <c r="T109" s="13"/>
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
@@ -11301,9 +11733,11 @@
       <c r="CL109" s="3"/>
       <c r="CM109" s="3"/>
       <c r="CN109" s="3"/>
-      <c r="CO109" s="1"/>
+      <c r="CO109" s="3"/>
+      <c r="CP109" s="3"/>
+      <c r="CQ109" s="1"/>
     </row>
-    <row r="110" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -11323,7 +11757,7 @@
       <c r="Q110" s="3"/>
       <c r="R110" s="3"/>
       <c r="S110" s="3"/>
-      <c r="T110" s="3"/>
+      <c r="T110" s="13"/>
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
@@ -11396,9 +11830,11 @@
       <c r="CL110" s="3"/>
       <c r="CM110" s="3"/>
       <c r="CN110" s="3"/>
-      <c r="CO110" s="1"/>
+      <c r="CO110" s="3"/>
+      <c r="CP110" s="3"/>
+      <c r="CQ110" s="1"/>
     </row>
-    <row r="111" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -11418,7 +11854,7 @@
       <c r="Q111" s="3"/>
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
-      <c r="T111" s="3"/>
+      <c r="T111" s="13"/>
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
       <c r="W111" s="3"/>
@@ -11491,9 +11927,11 @@
       <c r="CL111" s="3"/>
       <c r="CM111" s="3"/>
       <c r="CN111" s="3"/>
-      <c r="CO111" s="1"/>
+      <c r="CO111" s="3"/>
+      <c r="CP111" s="3"/>
+      <c r="CQ111" s="1"/>
     </row>
-    <row r="112" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -11513,7 +11951,7 @@
       <c r="Q112" s="3"/>
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
-      <c r="T112" s="3"/>
+      <c r="T112" s="13"/>
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
       <c r="W112" s="3"/>
@@ -11586,9 +12024,11 @@
       <c r="CL112" s="3"/>
       <c r="CM112" s="3"/>
       <c r="CN112" s="3"/>
-      <c r="CO112" s="1"/>
+      <c r="CO112" s="3"/>
+      <c r="CP112" s="3"/>
+      <c r="CQ112" s="1"/>
     </row>
-    <row r="113" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -11608,7 +12048,7 @@
       <c r="Q113" s="3"/>
       <c r="R113" s="3"/>
       <c r="S113" s="3"/>
-      <c r="T113" s="3"/>
+      <c r="T113" s="13"/>
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
       <c r="W113" s="3"/>
@@ -11681,9 +12121,11 @@
       <c r="CL113" s="3"/>
       <c r="CM113" s="3"/>
       <c r="CN113" s="3"/>
-      <c r="CO113" s="1"/>
+      <c r="CO113" s="3"/>
+      <c r="CP113" s="3"/>
+      <c r="CQ113" s="1"/>
     </row>
-    <row r="114" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -11703,7 +12145,7 @@
       <c r="Q114" s="3"/>
       <c r="R114" s="3"/>
       <c r="S114" s="3"/>
-      <c r="T114" s="3"/>
+      <c r="T114" s="13"/>
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
       <c r="W114" s="3"/>
@@ -11776,9 +12218,11 @@
       <c r="CL114" s="3"/>
       <c r="CM114" s="3"/>
       <c r="CN114" s="3"/>
-      <c r="CO114" s="1"/>
+      <c r="CO114" s="3"/>
+      <c r="CP114" s="3"/>
+      <c r="CQ114" s="1"/>
     </row>
-    <row r="115" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -11798,7 +12242,7 @@
       <c r="Q115" s="3"/>
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
-      <c r="T115" s="3"/>
+      <c r="T115" s="13"/>
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
       <c r="W115" s="3"/>
@@ -11871,9 +12315,11 @@
       <c r="CL115" s="3"/>
       <c r="CM115" s="3"/>
       <c r="CN115" s="3"/>
-      <c r="CO115" s="1"/>
+      <c r="CO115" s="3"/>
+      <c r="CP115" s="3"/>
+      <c r="CQ115" s="1"/>
     </row>
-    <row r="116" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -11893,7 +12339,7 @@
       <c r="Q116" s="3"/>
       <c r="R116" s="3"/>
       <c r="S116" s="3"/>
-      <c r="T116" s="3"/>
+      <c r="T116" s="13"/>
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
       <c r="W116" s="3"/>
@@ -11966,9 +12412,11 @@
       <c r="CL116" s="3"/>
       <c r="CM116" s="3"/>
       <c r="CN116" s="3"/>
-      <c r="CO116" s="1"/>
+      <c r="CO116" s="3"/>
+      <c r="CP116" s="3"/>
+      <c r="CQ116" s="1"/>
     </row>
-    <row r="117" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -11988,7 +12436,7 @@
       <c r="Q117" s="3"/>
       <c r="R117" s="3"/>
       <c r="S117" s="3"/>
-      <c r="T117" s="3"/>
+      <c r="T117" s="13"/>
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
@@ -12061,9 +12509,11 @@
       <c r="CL117" s="3"/>
       <c r="CM117" s="3"/>
       <c r="CN117" s="3"/>
-      <c r="CO117" s="1"/>
+      <c r="CO117" s="3"/>
+      <c r="CP117" s="3"/>
+      <c r="CQ117" s="1"/>
     </row>
-    <row r="118" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -12083,7 +12533,7 @@
       <c r="Q118" s="3"/>
       <c r="R118" s="3"/>
       <c r="S118" s="3"/>
-      <c r="T118" s="3"/>
+      <c r="T118" s="13"/>
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
       <c r="W118" s="3"/>
@@ -12156,9 +12606,11 @@
       <c r="CL118" s="3"/>
       <c r="CM118" s="3"/>
       <c r="CN118" s="3"/>
-      <c r="CO118" s="1"/>
+      <c r="CO118" s="3"/>
+      <c r="CP118" s="3"/>
+      <c r="CQ118" s="1"/>
     </row>
-    <row r="119" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -12178,7 +12630,7 @@
       <c r="Q119" s="3"/>
       <c r="R119" s="3"/>
       <c r="S119" s="3"/>
-      <c r="T119" s="3"/>
+      <c r="T119" s="13"/>
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
       <c r="W119" s="3"/>
@@ -12251,9 +12703,11 @@
       <c r="CL119" s="3"/>
       <c r="CM119" s="3"/>
       <c r="CN119" s="3"/>
-      <c r="CO119" s="1"/>
+      <c r="CO119" s="3"/>
+      <c r="CP119" s="3"/>
+      <c r="CQ119" s="1"/>
     </row>
-    <row r="120" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -12273,7 +12727,7 @@
       <c r="Q120" s="3"/>
       <c r="R120" s="3"/>
       <c r="S120" s="3"/>
-      <c r="T120" s="3"/>
+      <c r="T120" s="13"/>
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
       <c r="W120" s="3"/>
@@ -12346,9 +12800,11 @@
       <c r="CL120" s="3"/>
       <c r="CM120" s="3"/>
       <c r="CN120" s="3"/>
-      <c r="CO120" s="1"/>
+      <c r="CO120" s="3"/>
+      <c r="CP120" s="3"/>
+      <c r="CQ120" s="1"/>
     </row>
-    <row r="121" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -12368,7 +12824,7 @@
       <c r="Q121" s="3"/>
       <c r="R121" s="3"/>
       <c r="S121" s="3"/>
-      <c r="T121" s="3"/>
+      <c r="T121" s="13"/>
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
       <c r="W121" s="3"/>
@@ -12441,9 +12897,11 @@
       <c r="CL121" s="3"/>
       <c r="CM121" s="3"/>
       <c r="CN121" s="3"/>
-      <c r="CO121" s="1"/>
+      <c r="CO121" s="3"/>
+      <c r="CP121" s="3"/>
+      <c r="CQ121" s="1"/>
     </row>
-    <row r="122" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -12463,7 +12921,7 @@
       <c r="Q122" s="3"/>
       <c r="R122" s="3"/>
       <c r="S122" s="3"/>
-      <c r="T122" s="3"/>
+      <c r="T122" s="13"/>
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
       <c r="W122" s="3"/>
@@ -12536,9 +12994,11 @@
       <c r="CL122" s="3"/>
       <c r="CM122" s="3"/>
       <c r="CN122" s="3"/>
-      <c r="CO122" s="1"/>
+      <c r="CO122" s="3"/>
+      <c r="CP122" s="3"/>
+      <c r="CQ122" s="1"/>
     </row>
-    <row r="123" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -12558,7 +13018,7 @@
       <c r="Q123" s="3"/>
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
-      <c r="T123" s="3"/>
+      <c r="T123" s="13"/>
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
       <c r="W123" s="3"/>
@@ -12631,9 +13091,11 @@
       <c r="CL123" s="3"/>
       <c r="CM123" s="3"/>
       <c r="CN123" s="3"/>
-      <c r="CO123" s="1"/>
+      <c r="CO123" s="3"/>
+      <c r="CP123" s="3"/>
+      <c r="CQ123" s="1"/>
     </row>
-    <row r="124" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -12653,7 +13115,7 @@
       <c r="Q124" s="3"/>
       <c r="R124" s="3"/>
       <c r="S124" s="3"/>
-      <c r="T124" s="3"/>
+      <c r="T124" s="13"/>
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
       <c r="W124" s="3"/>
@@ -12726,9 +13188,11 @@
       <c r="CL124" s="3"/>
       <c r="CM124" s="3"/>
       <c r="CN124" s="3"/>
-      <c r="CO124" s="1"/>
+      <c r="CO124" s="3"/>
+      <c r="CP124" s="3"/>
+      <c r="CQ124" s="1"/>
     </row>
-    <row r="125" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -12748,7 +13212,7 @@
       <c r="Q125" s="3"/>
       <c r="R125" s="3"/>
       <c r="S125" s="3"/>
-      <c r="T125" s="3"/>
+      <c r="T125" s="13"/>
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
       <c r="W125" s="3"/>
@@ -12821,9 +13285,11 @@
       <c r="CL125" s="3"/>
       <c r="CM125" s="3"/>
       <c r="CN125" s="3"/>
-      <c r="CO125" s="1"/>
+      <c r="CO125" s="3"/>
+      <c r="CP125" s="3"/>
+      <c r="CQ125" s="1"/>
     </row>
-    <row r="126" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -12843,7 +13309,7 @@
       <c r="Q126" s="3"/>
       <c r="R126" s="3"/>
       <c r="S126" s="3"/>
-      <c r="T126" s="3"/>
+      <c r="T126" s="13"/>
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
       <c r="W126" s="3"/>
@@ -12916,9 +13382,11 @@
       <c r="CL126" s="3"/>
       <c r="CM126" s="3"/>
       <c r="CN126" s="3"/>
-      <c r="CO126" s="1"/>
+      <c r="CO126" s="3"/>
+      <c r="CP126" s="3"/>
+      <c r="CQ126" s="1"/>
     </row>
-    <row r="127" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -12938,7 +13406,7 @@
       <c r="Q127" s="3"/>
       <c r="R127" s="3"/>
       <c r="S127" s="3"/>
-      <c r="T127" s="3"/>
+      <c r="T127" s="13"/>
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
       <c r="W127" s="3"/>
@@ -13011,9 +13479,11 @@
       <c r="CL127" s="3"/>
       <c r="CM127" s="3"/>
       <c r="CN127" s="3"/>
-      <c r="CO127" s="1"/>
+      <c r="CO127" s="3"/>
+      <c r="CP127" s="3"/>
+      <c r="CQ127" s="1"/>
     </row>
-    <row r="128" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -13033,7 +13503,7 @@
       <c r="Q128" s="3"/>
       <c r="R128" s="3"/>
       <c r="S128" s="3"/>
-      <c r="T128" s="3"/>
+      <c r="T128" s="13"/>
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
       <c r="W128" s="3"/>
@@ -13106,9 +13576,11 @@
       <c r="CL128" s="3"/>
       <c r="CM128" s="3"/>
       <c r="CN128" s="3"/>
-      <c r="CO128" s="1"/>
+      <c r="CO128" s="3"/>
+      <c r="CP128" s="3"/>
+      <c r="CQ128" s="1"/>
     </row>
-    <row r="129" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -13128,7 +13600,7 @@
       <c r="Q129" s="3"/>
       <c r="R129" s="3"/>
       <c r="S129" s="3"/>
-      <c r="T129" s="3"/>
+      <c r="T129" s="13"/>
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
       <c r="W129" s="3"/>
@@ -13201,9 +13673,11 @@
       <c r="CL129" s="3"/>
       <c r="CM129" s="3"/>
       <c r="CN129" s="3"/>
-      <c r="CO129" s="1"/>
+      <c r="CO129" s="3"/>
+      <c r="CP129" s="3"/>
+      <c r="CQ129" s="1"/>
     </row>
-    <row r="130" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -13223,7 +13697,7 @@
       <c r="Q130" s="3"/>
       <c r="R130" s="3"/>
       <c r="S130" s="3"/>
-      <c r="T130" s="3"/>
+      <c r="T130" s="13"/>
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
       <c r="W130" s="3"/>
@@ -13296,9 +13770,11 @@
       <c r="CL130" s="3"/>
       <c r="CM130" s="3"/>
       <c r="CN130" s="3"/>
-      <c r="CO130" s="1"/>
+      <c r="CO130" s="3"/>
+      <c r="CP130" s="3"/>
+      <c r="CQ130" s="1"/>
     </row>
-    <row r="131" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -13318,7 +13794,7 @@
       <c r="Q131" s="3"/>
       <c r="R131" s="3"/>
       <c r="S131" s="3"/>
-      <c r="T131" s="3"/>
+      <c r="T131" s="13"/>
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
       <c r="W131" s="3"/>
@@ -13391,9 +13867,11 @@
       <c r="CL131" s="3"/>
       <c r="CM131" s="3"/>
       <c r="CN131" s="3"/>
-      <c r="CO131" s="1"/>
+      <c r="CO131" s="3"/>
+      <c r="CP131" s="3"/>
+      <c r="CQ131" s="1"/>
     </row>
-    <row r="132" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -13413,7 +13891,7 @@
       <c r="Q132" s="3"/>
       <c r="R132" s="3"/>
       <c r="S132" s="3"/>
-      <c r="T132" s="3"/>
+      <c r="T132" s="13"/>
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
       <c r="W132" s="3"/>
@@ -13486,9 +13964,11 @@
       <c r="CL132" s="3"/>
       <c r="CM132" s="3"/>
       <c r="CN132" s="3"/>
-      <c r="CO132" s="1"/>
+      <c r="CO132" s="3"/>
+      <c r="CP132" s="3"/>
+      <c r="CQ132" s="1"/>
     </row>
-    <row r="133" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -13508,7 +13988,7 @@
       <c r="Q133" s="3"/>
       <c r="R133" s="3"/>
       <c r="S133" s="3"/>
-      <c r="T133" s="3"/>
+      <c r="T133" s="13"/>
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
       <c r="W133" s="3"/>
@@ -13581,9 +14061,11 @@
       <c r="CL133" s="3"/>
       <c r="CM133" s="3"/>
       <c r="CN133" s="3"/>
-      <c r="CO133" s="1"/>
+      <c r="CO133" s="3"/>
+      <c r="CP133" s="3"/>
+      <c r="CQ133" s="1"/>
     </row>
-    <row r="134" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -13603,7 +14085,7 @@
       <c r="Q134" s="3"/>
       <c r="R134" s="3"/>
       <c r="S134" s="3"/>
-      <c r="T134" s="3"/>
+      <c r="T134" s="13"/>
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
       <c r="W134" s="3"/>
@@ -13676,9 +14158,11 @@
       <c r="CL134" s="3"/>
       <c r="CM134" s="3"/>
       <c r="CN134" s="3"/>
-      <c r="CO134" s="1"/>
+      <c r="CO134" s="3"/>
+      <c r="CP134" s="3"/>
+      <c r="CQ134" s="1"/>
     </row>
-    <row r="135" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -13698,7 +14182,7 @@
       <c r="Q135" s="3"/>
       <c r="R135" s="3"/>
       <c r="S135" s="3"/>
-      <c r="T135" s="3"/>
+      <c r="T135" s="13"/>
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
       <c r="W135" s="3"/>
@@ -13771,9 +14255,11 @@
       <c r="CL135" s="3"/>
       <c r="CM135" s="3"/>
       <c r="CN135" s="3"/>
-      <c r="CO135" s="1"/>
+      <c r="CO135" s="3"/>
+      <c r="CP135" s="3"/>
+      <c r="CQ135" s="1"/>
     </row>
-    <row r="136" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -13793,7 +14279,7 @@
       <c r="Q136" s="3"/>
       <c r="R136" s="3"/>
       <c r="S136" s="3"/>
-      <c r="T136" s="3"/>
+      <c r="T136" s="13"/>
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
       <c r="W136" s="3"/>
@@ -13866,9 +14352,11 @@
       <c r="CL136" s="3"/>
       <c r="CM136" s="3"/>
       <c r="CN136" s="3"/>
-      <c r="CO136" s="1"/>
+      <c r="CO136" s="3"/>
+      <c r="CP136" s="3"/>
+      <c r="CQ136" s="1"/>
     </row>
-    <row r="137" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -13888,7 +14376,7 @@
       <c r="Q137" s="3"/>
       <c r="R137" s="3"/>
       <c r="S137" s="3"/>
-      <c r="T137" s="3"/>
+      <c r="T137" s="13"/>
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
       <c r="W137" s="3"/>
@@ -13961,9 +14449,11 @@
       <c r="CL137" s="3"/>
       <c r="CM137" s="3"/>
       <c r="CN137" s="3"/>
-      <c r="CO137" s="1"/>
+      <c r="CO137" s="3"/>
+      <c r="CP137" s="3"/>
+      <c r="CQ137" s="1"/>
     </row>
-    <row r="138" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -13983,7 +14473,7 @@
       <c r="Q138" s="3"/>
       <c r="R138" s="3"/>
       <c r="S138" s="3"/>
-      <c r="T138" s="3"/>
+      <c r="T138" s="13"/>
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
       <c r="W138" s="3"/>
@@ -14056,9 +14546,11 @@
       <c r="CL138" s="3"/>
       <c r="CM138" s="3"/>
       <c r="CN138" s="3"/>
-      <c r="CO138" s="1"/>
+      <c r="CO138" s="3"/>
+      <c r="CP138" s="3"/>
+      <c r="CQ138" s="1"/>
     </row>
-    <row r="139" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -14078,7 +14570,7 @@
       <c r="Q139" s="3"/>
       <c r="R139" s="3"/>
       <c r="S139" s="3"/>
-      <c r="T139" s="3"/>
+      <c r="T139" s="13"/>
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
       <c r="W139" s="3"/>
@@ -14151,9 +14643,11 @@
       <c r="CL139" s="3"/>
       <c r="CM139" s="3"/>
       <c r="CN139" s="3"/>
-      <c r="CO139" s="1"/>
+      <c r="CO139" s="3"/>
+      <c r="CP139" s="3"/>
+      <c r="CQ139" s="1"/>
     </row>
-    <row r="140" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -14173,7 +14667,7 @@
       <c r="Q140" s="3"/>
       <c r="R140" s="3"/>
       <c r="S140" s="3"/>
-      <c r="T140" s="3"/>
+      <c r="T140" s="13"/>
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
       <c r="W140" s="3"/>
@@ -14246,9 +14740,11 @@
       <c r="CL140" s="3"/>
       <c r="CM140" s="3"/>
       <c r="CN140" s="3"/>
-      <c r="CO140" s="1"/>
+      <c r="CO140" s="3"/>
+      <c r="CP140" s="3"/>
+      <c r="CQ140" s="1"/>
     </row>
-    <row r="141" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -14268,7 +14764,7 @@
       <c r="Q141" s="3"/>
       <c r="R141" s="3"/>
       <c r="S141" s="3"/>
-      <c r="T141" s="3"/>
+      <c r="T141" s="13"/>
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
       <c r="W141" s="3"/>
@@ -14341,9 +14837,11 @@
       <c r="CL141" s="3"/>
       <c r="CM141" s="3"/>
       <c r="CN141" s="3"/>
-      <c r="CO141" s="1"/>
+      <c r="CO141" s="3"/>
+      <c r="CP141" s="3"/>
+      <c r="CQ141" s="1"/>
     </row>
-    <row r="142" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -14363,7 +14861,7 @@
       <c r="Q142" s="3"/>
       <c r="R142" s="3"/>
       <c r="S142" s="3"/>
-      <c r="T142" s="3"/>
+      <c r="T142" s="13"/>
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
       <c r="W142" s="3"/>
@@ -14436,9 +14934,11 @@
       <c r="CL142" s="3"/>
       <c r="CM142" s="3"/>
       <c r="CN142" s="3"/>
-      <c r="CO142" s="1"/>
+      <c r="CO142" s="3"/>
+      <c r="CP142" s="3"/>
+      <c r="CQ142" s="1"/>
     </row>
-    <row r="143" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -14458,7 +14958,7 @@
       <c r="Q143" s="3"/>
       <c r="R143" s="3"/>
       <c r="S143" s="3"/>
-      <c r="T143" s="3"/>
+      <c r="T143" s="13"/>
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
       <c r="W143" s="3"/>
@@ -14531,9 +15031,11 @@
       <c r="CL143" s="3"/>
       <c r="CM143" s="3"/>
       <c r="CN143" s="3"/>
-      <c r="CO143" s="1"/>
+      <c r="CO143" s="3"/>
+      <c r="CP143" s="3"/>
+      <c r="CQ143" s="1"/>
     </row>
-    <row r="144" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -14553,7 +15055,7 @@
       <c r="Q144" s="3"/>
       <c r="R144" s="3"/>
       <c r="S144" s="3"/>
-      <c r="T144" s="3"/>
+      <c r="T144" s="13"/>
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
       <c r="W144" s="3"/>
@@ -14626,9 +15128,11 @@
       <c r="CL144" s="3"/>
       <c r="CM144" s="3"/>
       <c r="CN144" s="3"/>
-      <c r="CO144" s="1"/>
+      <c r="CO144" s="3"/>
+      <c r="CP144" s="3"/>
+      <c r="CQ144" s="1"/>
     </row>
-    <row r="145" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -14648,7 +15152,7 @@
       <c r="Q145" s="3"/>
       <c r="R145" s="3"/>
       <c r="S145" s="3"/>
-      <c r="T145" s="3"/>
+      <c r="T145" s="13"/>
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
       <c r="W145" s="3"/>
@@ -14721,9 +15225,11 @@
       <c r="CL145" s="3"/>
       <c r="CM145" s="3"/>
       <c r="CN145" s="3"/>
-      <c r="CO145" s="1"/>
+      <c r="CO145" s="3"/>
+      <c r="CP145" s="3"/>
+      <c r="CQ145" s="1"/>
     </row>
-    <row r="146" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -14743,7 +15249,7 @@
       <c r="Q146" s="3"/>
       <c r="R146" s="3"/>
       <c r="S146" s="3"/>
-      <c r="T146" s="3"/>
+      <c r="T146" s="13"/>
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
       <c r="W146" s="3"/>
@@ -14816,9 +15322,11 @@
       <c r="CL146" s="3"/>
       <c r="CM146" s="3"/>
       <c r="CN146" s="3"/>
-      <c r="CO146" s="1"/>
+      <c r="CO146" s="3"/>
+      <c r="CP146" s="3"/>
+      <c r="CQ146" s="1"/>
     </row>
-    <row r="147" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -14838,7 +15346,7 @@
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
       <c r="S147" s="3"/>
-      <c r="T147" s="3"/>
+      <c r="T147" s="13"/>
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
       <c r="W147" s="3"/>
@@ -14911,9 +15419,11 @@
       <c r="CL147" s="3"/>
       <c r="CM147" s="3"/>
       <c r="CN147" s="3"/>
-      <c r="CO147" s="1"/>
+      <c r="CO147" s="3"/>
+      <c r="CP147" s="3"/>
+      <c r="CQ147" s="1"/>
     </row>
-    <row r="148" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -14933,7 +15443,7 @@
       <c r="Q148" s="3"/>
       <c r="R148" s="3"/>
       <c r="S148" s="3"/>
-      <c r="T148" s="3"/>
+      <c r="T148" s="13"/>
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
       <c r="W148" s="3"/>
@@ -15006,9 +15516,11 @@
       <c r="CL148" s="3"/>
       <c r="CM148" s="3"/>
       <c r="CN148" s="3"/>
-      <c r="CO148" s="1"/>
+      <c r="CO148" s="3"/>
+      <c r="CP148" s="3"/>
+      <c r="CQ148" s="1"/>
     </row>
-    <row r="149" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -15028,7 +15540,7 @@
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
       <c r="S149" s="3"/>
-      <c r="T149" s="3"/>
+      <c r="T149" s="13"/>
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
       <c r="W149" s="3"/>
@@ -15101,9 +15613,11 @@
       <c r="CL149" s="3"/>
       <c r="CM149" s="3"/>
       <c r="CN149" s="3"/>
-      <c r="CO149" s="1"/>
+      <c r="CO149" s="3"/>
+      <c r="CP149" s="3"/>
+      <c r="CQ149" s="1"/>
     </row>
-    <row r="150" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -15123,7 +15637,7 @@
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
       <c r="S150" s="3"/>
-      <c r="T150" s="3"/>
+      <c r="T150" s="13"/>
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
       <c r="W150" s="3"/>
@@ -15196,9 +15710,11 @@
       <c r="CL150" s="3"/>
       <c r="CM150" s="3"/>
       <c r="CN150" s="3"/>
-      <c r="CO150" s="1"/>
+      <c r="CO150" s="3"/>
+      <c r="CP150" s="3"/>
+      <c r="CQ150" s="1"/>
     </row>
-    <row r="151" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -15218,7 +15734,7 @@
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
       <c r="S151" s="3"/>
-      <c r="T151" s="3"/>
+      <c r="T151" s="13"/>
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
       <c r="W151" s="3"/>
@@ -15291,9 +15807,11 @@
       <c r="CL151" s="3"/>
       <c r="CM151" s="3"/>
       <c r="CN151" s="3"/>
-      <c r="CO151" s="1"/>
+      <c r="CO151" s="3"/>
+      <c r="CP151" s="3"/>
+      <c r="CQ151" s="1"/>
     </row>
-    <row r="152" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -15313,7 +15831,7 @@
       <c r="Q152" s="3"/>
       <c r="R152" s="3"/>
       <c r="S152" s="3"/>
-      <c r="T152" s="3"/>
+      <c r="T152" s="13"/>
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
       <c r="W152" s="3"/>
@@ -15386,9 +15904,11 @@
       <c r="CL152" s="3"/>
       <c r="CM152" s="3"/>
       <c r="CN152" s="3"/>
-      <c r="CO152" s="1"/>
+      <c r="CO152" s="3"/>
+      <c r="CP152" s="3"/>
+      <c r="CQ152" s="1"/>
     </row>
-    <row r="153" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -15408,7 +15928,7 @@
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
       <c r="S153" s="3"/>
-      <c r="T153" s="3"/>
+      <c r="T153" s="13"/>
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
       <c r="W153" s="3"/>
@@ -15481,9 +16001,11 @@
       <c r="CL153" s="3"/>
       <c r="CM153" s="3"/>
       <c r="CN153" s="3"/>
-      <c r="CO153" s="1"/>
+      <c r="CO153" s="3"/>
+      <c r="CP153" s="3"/>
+      <c r="CQ153" s="1"/>
     </row>
-    <row r="154" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -15503,7 +16025,7 @@
       <c r="Q154" s="3"/>
       <c r="R154" s="3"/>
       <c r="S154" s="3"/>
-      <c r="T154" s="3"/>
+      <c r="T154" s="13"/>
       <c r="U154" s="3"/>
       <c r="V154" s="3"/>
       <c r="W154" s="3"/>
@@ -15576,9 +16098,11 @@
       <c r="CL154" s="3"/>
       <c r="CM154" s="3"/>
       <c r="CN154" s="3"/>
-      <c r="CO154" s="1"/>
+      <c r="CO154" s="3"/>
+      <c r="CP154" s="3"/>
+      <c r="CQ154" s="1"/>
     </row>
-    <row r="155" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -15598,7 +16122,7 @@
       <c r="Q155" s="3"/>
       <c r="R155" s="3"/>
       <c r="S155" s="3"/>
-      <c r="T155" s="3"/>
+      <c r="T155" s="13"/>
       <c r="U155" s="3"/>
       <c r="V155" s="3"/>
       <c r="W155" s="3"/>
@@ -15671,9 +16195,11 @@
       <c r="CL155" s="3"/>
       <c r="CM155" s="3"/>
       <c r="CN155" s="3"/>
-      <c r="CO155" s="1"/>
+      <c r="CO155" s="3"/>
+      <c r="CP155" s="3"/>
+      <c r="CQ155" s="1"/>
     </row>
-    <row r="156" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -15693,7 +16219,7 @@
       <c r="Q156" s="3"/>
       <c r="R156" s="3"/>
       <c r="S156" s="3"/>
-      <c r="T156" s="3"/>
+      <c r="T156" s="13"/>
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
       <c r="W156" s="3"/>
@@ -15766,9 +16292,11 @@
       <c r="CL156" s="3"/>
       <c r="CM156" s="3"/>
       <c r="CN156" s="3"/>
-      <c r="CO156" s="1"/>
+      <c r="CO156" s="3"/>
+      <c r="CP156" s="3"/>
+      <c r="CQ156" s="1"/>
     </row>
-    <row r="157" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -15788,7 +16316,7 @@
       <c r="Q157" s="3"/>
       <c r="R157" s="3"/>
       <c r="S157" s="3"/>
-      <c r="T157" s="3"/>
+      <c r="T157" s="13"/>
       <c r="U157" s="3"/>
       <c r="V157" s="3"/>
       <c r="W157" s="3"/>
@@ -15861,9 +16389,11 @@
       <c r="CL157" s="3"/>
       <c r="CM157" s="3"/>
       <c r="CN157" s="3"/>
-      <c r="CO157" s="1"/>
+      <c r="CO157" s="3"/>
+      <c r="CP157" s="3"/>
+      <c r="CQ157" s="1"/>
     </row>
-    <row r="158" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -15883,7 +16413,7 @@
       <c r="Q158" s="3"/>
       <c r="R158" s="3"/>
       <c r="S158" s="3"/>
-      <c r="T158" s="3"/>
+      <c r="T158" s="13"/>
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
       <c r="W158" s="3"/>
@@ -15956,9 +16486,11 @@
       <c r="CL158" s="3"/>
       <c r="CM158" s="3"/>
       <c r="CN158" s="3"/>
-      <c r="CO158" s="1"/>
+      <c r="CO158" s="3"/>
+      <c r="CP158" s="3"/>
+      <c r="CQ158" s="1"/>
     </row>
-    <row r="159" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -15978,7 +16510,7 @@
       <c r="Q159" s="3"/>
       <c r="R159" s="3"/>
       <c r="S159" s="3"/>
-      <c r="T159" s="3"/>
+      <c r="T159" s="13"/>
       <c r="U159" s="3"/>
       <c r="V159" s="3"/>
       <c r="W159" s="3"/>
@@ -16051,10 +16583,12 @@
       <c r="CL159" s="3"/>
       <c r="CM159" s="3"/>
       <c r="CN159" s="3"/>
-      <c r="CO159" s="1"/>
+      <c r="CO159" s="3"/>
+      <c r="CP159" s="3"/>
+      <c r="CQ159" s="1"/>
     </row>
-    <row r="160" spans="1:93" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
+    <row r="160" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -16073,7 +16607,7 @@
       <c r="Q160" s="3"/>
       <c r="R160" s="3"/>
       <c r="S160" s="3"/>
-      <c r="T160" s="3"/>
+      <c r="T160" s="13"/>
       <c r="U160" s="3"/>
       <c r="V160" s="3"/>
       <c r="W160" s="3"/>
@@ -16146,7 +16680,106 @@
       <c r="CL160" s="3"/>
       <c r="CM160" s="3"/>
       <c r="CN160" s="3"/>
-      <c r="CO160" s="1"/>
+      <c r="CO160" s="3"/>
+      <c r="CP160" s="3"/>
+      <c r="CQ160" s="1"/>
+    </row>
+    <row r="161" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="3"/>
+      <c r="S161" s="3"/>
+      <c r="T161" s="13"/>
+      <c r="U161" s="3"/>
+      <c r="V161" s="3"/>
+      <c r="W161" s="3"/>
+      <c r="X161" s="3"/>
+      <c r="Y161" s="3"/>
+      <c r="Z161" s="3"/>
+      <c r="AA161" s="3"/>
+      <c r="AB161" s="3"/>
+      <c r="AC161" s="3"/>
+      <c r="AD161" s="3"/>
+      <c r="AE161" s="3"/>
+      <c r="AF161" s="3"/>
+      <c r="AG161" s="3"/>
+      <c r="AH161" s="3"/>
+      <c r="AI161" s="3"/>
+      <c r="AJ161" s="3"/>
+      <c r="AK161" s="3"/>
+      <c r="AL161" s="3"/>
+      <c r="AM161" s="3"/>
+      <c r="AN161" s="3"/>
+      <c r="AO161" s="3"/>
+      <c r="AP161" s="3"/>
+      <c r="AQ161" s="3"/>
+      <c r="AR161" s="3"/>
+      <c r="AS161" s="3"/>
+      <c r="AT161" s="3"/>
+      <c r="AU161" s="3"/>
+      <c r="AV161" s="3"/>
+      <c r="AW161" s="3"/>
+      <c r="AX161" s="3"/>
+      <c r="AY161" s="3"/>
+      <c r="AZ161" s="3"/>
+      <c r="BA161" s="3"/>
+      <c r="BB161" s="3"/>
+      <c r="BC161" s="3"/>
+      <c r="BD161" s="3"/>
+      <c r="BE161" s="3"/>
+      <c r="BF161" s="3"/>
+      <c r="BG161" s="3"/>
+      <c r="BH161" s="3"/>
+      <c r="BI161" s="3"/>
+      <c r="BJ161" s="3"/>
+      <c r="BK161" s="3"/>
+      <c r="BL161" s="3"/>
+      <c r="BM161" s="3"/>
+      <c r="BN161" s="3"/>
+      <c r="BO161" s="3"/>
+      <c r="BP161" s="3"/>
+      <c r="BQ161" s="3"/>
+      <c r="BR161" s="3"/>
+      <c r="BS161" s="3"/>
+      <c r="BT161" s="3"/>
+      <c r="BU161" s="3"/>
+      <c r="BV161" s="3"/>
+      <c r="BW161" s="3"/>
+      <c r="BX161" s="3"/>
+      <c r="BY161" s="3"/>
+      <c r="BZ161" s="3"/>
+      <c r="CA161" s="3"/>
+      <c r="CB161" s="3"/>
+      <c r="CC161" s="3"/>
+      <c r="CD161" s="3"/>
+      <c r="CE161" s="3"/>
+      <c r="CF161" s="3"/>
+      <c r="CG161" s="3"/>
+      <c r="CH161" s="3"/>
+      <c r="CI161" s="3"/>
+      <c r="CJ161" s="3"/>
+      <c r="CK161" s="3"/>
+      <c r="CL161" s="3"/>
+      <c r="CM161" s="3"/>
+      <c r="CN161" s="3"/>
+      <c r="CO161" s="3"/>
+      <c r="CP161" s="3"/>
+      <c r="CQ161" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/frontend/src/components/components/Scholar Application Multiple.xlsx
+++ b/frontend/src/components/components/Scholar Application Multiple.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\OneDrive - up.edu.ph\Documents\CMSC\2SP\frontend\src\components\components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\OneDrive - up.edu.ph\Documents\GitHub\ScholarVision\frontend\src\components\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="96">
   <si>
     <t>Last Name *</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>Street Name &amp; House No. *</t>
+  </si>
+  <si>
+    <t>Org *</t>
+  </si>
+  <si>
+    <t>Work</t>
   </si>
 </sst>
 </file>
@@ -778,11 +784,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CQ161"/>
+  <dimension ref="A1:CR161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -791,10 +797,10 @@
     <col min="14" max="14" width="22.26953125" customWidth="1"/>
     <col min="15" max="19" width="21.36328125" customWidth="1"/>
     <col min="20" max="20" width="0.81640625" style="14" customWidth="1"/>
-    <col min="21" max="95" width="21.36328125" customWidth="1"/>
+    <col min="21" max="96" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
@@ -855,9 +861,7 @@
       <c r="U1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="V1" s="3"/>
       <c r="W1" s="3" t="s">
         <v>45</v>
       </c>
@@ -1074,8 +1078,11 @@
       <c r="CP1" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="CQ1" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -1136,229 +1143,234 @@
       <c r="T2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="6"/>
+      <c r="U2" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="V2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="BA2" s="6" t="s">
+      <c r="BB2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="BB2" s="6" t="s">
+      <c r="BC2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="BC2" s="6" t="s">
+      <c r="BD2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="BD2" s="6" t="s">
+      <c r="BE2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="BE2" s="6" t="s">
+      <c r="BF2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BF2" s="6" t="s">
+      <c r="BG2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="BG2" s="6" t="s">
+      <c r="BH2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="BH2" s="6" t="s">
+      <c r="BI2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="BI2" s="6" t="s">
+      <c r="BJ2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="BJ2" s="6" t="s">
+      <c r="BK2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="BK2" s="6" t="s">
+      <c r="BL2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="BL2" s="6" t="s">
+      <c r="BM2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="BM2" s="6" t="s">
+      <c r="BN2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="BN2" s="6" t="s">
+      <c r="BO2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="BO2" s="6" t="s">
+      <c r="BP2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="BP2" s="6" t="s">
+      <c r="BQ2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="BQ2" s="6" t="s">
+      <c r="BR2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="BR2" s="6" t="s">
+      <c r="BS2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="BS2" s="6" t="s">
+      <c r="BT2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="BT2" s="6" t="s">
+      <c r="BU2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="BU2" s="6" t="s">
+      <c r="BV2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="BV2" s="6" t="s">
+      <c r="BW2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="BW2" s="6" t="s">
+      <c r="BX2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="BX2" s="6" t="s">
+      <c r="BY2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="BY2" s="6" t="s">
+      <c r="BZ2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="BZ2" s="6" t="s">
+      <c r="CA2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="CA2" s="6" t="s">
+      <c r="CB2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="CB2" s="6" t="s">
+      <c r="CC2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="CC2" s="6" t="s">
+      <c r="CD2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="CD2" s="6" t="s">
+      <c r="CE2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="CE2" s="6" t="s">
+      <c r="CF2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="CF2" s="6" t="s">
+      <c r="CG2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="CG2" s="6" t="s">
+      <c r="CH2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="CH2" s="6" t="s">
+      <c r="CI2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="CI2" s="6" t="s">
+      <c r="CJ2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="CJ2" s="6" t="s">
+      <c r="CK2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="CK2" s="6" t="s">
+      <c r="CL2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="CL2" s="6" t="s">
+      <c r="CM2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="6" t="s">
+      <c r="CN2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="CN2" s="6" t="s">
+      <c r="CO2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="CO2" s="6" t="s">
+      <c r="CP2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="CP2" s="7" t="s">
+      <c r="CQ2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CQ2" s="2"/>
+      <c r="CR2" s="2"/>
     </row>
-    <row r="3" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1453,9 +1465,10 @@
       <c r="CN3" s="3"/>
       <c r="CO3" s="3"/>
       <c r="CP3" s="3"/>
-      <c r="CQ3" s="1"/>
+      <c r="CQ3" s="3"/>
+      <c r="CR3" s="1"/>
     </row>
-    <row r="4" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1490,19 +1503,19 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
-      <c r="AI4" s="8"/>
+      <c r="AI4" s="3"/>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
-      <c r="AL4" s="3"/>
+      <c r="AL4" s="8"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
-      <c r="AP4" s="8"/>
+      <c r="AP4" s="3"/>
       <c r="AQ4" s="8"/>
       <c r="AR4" s="8"/>
       <c r="AS4" s="8"/>
       <c r="AT4" s="8"/>
-      <c r="AU4" s="3"/>
+      <c r="AU4" s="8"/>
       <c r="AV4" s="3"/>
       <c r="AW4" s="3"/>
       <c r="AX4" s="3"/>
@@ -1522,12 +1535,12 @@
       <c r="BL4" s="3"/>
       <c r="BM4" s="3"/>
       <c r="BN4" s="3"/>
-      <c r="BO4" s="9"/>
+      <c r="BO4" s="3"/>
       <c r="BP4" s="9"/>
       <c r="BQ4" s="9"/>
       <c r="BR4" s="9"/>
       <c r="BS4" s="9"/>
-      <c r="BT4" s="3"/>
+      <c r="BT4" s="9"/>
       <c r="BU4" s="3"/>
       <c r="BV4" s="3"/>
       <c r="BW4" s="3"/>
@@ -1550,9 +1563,10 @@
       <c r="CN4" s="3"/>
       <c r="CO4" s="3"/>
       <c r="CP4" s="3"/>
-      <c r="CQ4" s="1"/>
+      <c r="CQ4" s="3"/>
+      <c r="CR4" s="1"/>
     </row>
-    <row r="5" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1587,19 +1601,19 @@
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
-      <c r="AI5" s="8"/>
+      <c r="AI5" s="3"/>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
-      <c r="AL5" s="3"/>
+      <c r="AL5" s="8"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
-      <c r="AP5" s="8"/>
+      <c r="AP5" s="3"/>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="8"/>
       <c r="AS5" s="8"/>
       <c r="AT5" s="8"/>
-      <c r="AU5" s="3"/>
+      <c r="AU5" s="8"/>
       <c r="AV5" s="3"/>
       <c r="AW5" s="3"/>
       <c r="AX5" s="3"/>
@@ -1619,12 +1633,12 @@
       <c r="BL5" s="3"/>
       <c r="BM5" s="3"/>
       <c r="BN5" s="3"/>
-      <c r="BO5" s="9"/>
+      <c r="BO5" s="3"/>
       <c r="BP5" s="9"/>
       <c r="BQ5" s="9"/>
       <c r="BR5" s="9"/>
       <c r="BS5" s="9"/>
-      <c r="BT5" s="3"/>
+      <c r="BT5" s="9"/>
       <c r="BU5" s="3"/>
       <c r="BV5" s="3"/>
       <c r="BW5" s="3"/>
@@ -1647,9 +1661,10 @@
       <c r="CN5" s="3"/>
       <c r="CO5" s="3"/>
       <c r="CP5" s="3"/>
-      <c r="CQ5" s="1"/>
+      <c r="CQ5" s="3"/>
+      <c r="CR5" s="1"/>
     </row>
-    <row r="6" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1684,19 +1699,19 @@
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
-      <c r="AI6" s="8"/>
+      <c r="AI6" s="3"/>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
-      <c r="AL6" s="3"/>
+      <c r="AL6" s="8"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
-      <c r="AP6" s="8"/>
+      <c r="AP6" s="3"/>
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8"/>
       <c r="AT6" s="8"/>
-      <c r="AU6" s="3"/>
+      <c r="AU6" s="8"/>
       <c r="AV6" s="3"/>
       <c r="AW6" s="3"/>
       <c r="AX6" s="3"/>
@@ -1716,12 +1731,12 @@
       <c r="BL6" s="3"/>
       <c r="BM6" s="3"/>
       <c r="BN6" s="3"/>
-      <c r="BO6" s="9"/>
+      <c r="BO6" s="3"/>
       <c r="BP6" s="9"/>
       <c r="BQ6" s="9"/>
       <c r="BR6" s="9"/>
       <c r="BS6" s="9"/>
-      <c r="BT6" s="3"/>
+      <c r="BT6" s="9"/>
       <c r="BU6" s="3"/>
       <c r="BV6" s="3"/>
       <c r="BW6" s="3"/>
@@ -1744,9 +1759,10 @@
       <c r="CN6" s="3"/>
       <c r="CO6" s="3"/>
       <c r="CP6" s="3"/>
-      <c r="CQ6" s="1"/>
+      <c r="CQ6" s="3"/>
+      <c r="CR6" s="1"/>
     </row>
-    <row r="7" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1781,19 +1797,19 @@
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
-      <c r="AI7" s="8"/>
+      <c r="AI7" s="3"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
-      <c r="AL7" s="3"/>
+      <c r="AL7" s="8"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
-      <c r="AP7" s="8"/>
+      <c r="AP7" s="3"/>
       <c r="AQ7" s="8"/>
       <c r="AR7" s="8"/>
       <c r="AS7" s="8"/>
       <c r="AT7" s="8"/>
-      <c r="AU7" s="3"/>
+      <c r="AU7" s="8"/>
       <c r="AV7" s="3"/>
       <c r="AW7" s="3"/>
       <c r="AX7" s="3"/>
@@ -1813,12 +1829,12 @@
       <c r="BL7" s="3"/>
       <c r="BM7" s="3"/>
       <c r="BN7" s="3"/>
-      <c r="BO7" s="9"/>
+      <c r="BO7" s="3"/>
       <c r="BP7" s="9"/>
       <c r="BQ7" s="9"/>
       <c r="BR7" s="9"/>
       <c r="BS7" s="9"/>
-      <c r="BT7" s="3"/>
+      <c r="BT7" s="9"/>
       <c r="BU7" s="3"/>
       <c r="BV7" s="3"/>
       <c r="BW7" s="3"/>
@@ -1841,9 +1857,10 @@
       <c r="CN7" s="3"/>
       <c r="CO7" s="3"/>
       <c r="CP7" s="3"/>
-      <c r="CQ7" s="1"/>
+      <c r="CQ7" s="3"/>
+      <c r="CR7" s="1"/>
     </row>
-    <row r="8" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1878,19 +1895,19 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
-      <c r="AI8" s="8"/>
+      <c r="AI8" s="3"/>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
-      <c r="AL8" s="3"/>
+      <c r="AL8" s="8"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
-      <c r="AP8" s="8"/>
+      <c r="AP8" s="3"/>
       <c r="AQ8" s="8"/>
       <c r="AR8" s="8"/>
       <c r="AS8" s="8"/>
       <c r="AT8" s="8"/>
-      <c r="AU8" s="3"/>
+      <c r="AU8" s="8"/>
       <c r="AV8" s="3"/>
       <c r="AW8" s="3"/>
       <c r="AX8" s="3"/>
@@ -1910,12 +1927,12 @@
       <c r="BL8" s="3"/>
       <c r="BM8" s="3"/>
       <c r="BN8" s="3"/>
-      <c r="BO8" s="9"/>
+      <c r="BO8" s="3"/>
       <c r="BP8" s="9"/>
       <c r="BQ8" s="9"/>
       <c r="BR8" s="9"/>
       <c r="BS8" s="9"/>
-      <c r="BT8" s="3"/>
+      <c r="BT8" s="9"/>
       <c r="BU8" s="3"/>
       <c r="BV8" s="3"/>
       <c r="BW8" s="3"/>
@@ -1938,9 +1955,10 @@
       <c r="CN8" s="3"/>
       <c r="CO8" s="3"/>
       <c r="CP8" s="3"/>
-      <c r="CQ8" s="1"/>
+      <c r="CQ8" s="3"/>
+      <c r="CR8" s="1"/>
     </row>
-    <row r="9" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1975,19 +1993,19 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
-      <c r="AI9" s="8"/>
+      <c r="AI9" s="3"/>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
-      <c r="AL9" s="3"/>
+      <c r="AL9" s="8"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
-      <c r="AP9" s="8"/>
+      <c r="AP9" s="3"/>
       <c r="AQ9" s="8"/>
       <c r="AR9" s="8"/>
       <c r="AS9" s="8"/>
       <c r="AT9" s="8"/>
-      <c r="AU9" s="3"/>
+      <c r="AU9" s="8"/>
       <c r="AV9" s="3"/>
       <c r="AW9" s="3"/>
       <c r="AX9" s="3"/>
@@ -2007,12 +2025,12 @@
       <c r="BL9" s="3"/>
       <c r="BM9" s="3"/>
       <c r="BN9" s="3"/>
-      <c r="BO9" s="9"/>
+      <c r="BO9" s="3"/>
       <c r="BP9" s="9"/>
       <c r="BQ9" s="9"/>
       <c r="BR9" s="9"/>
       <c r="BS9" s="9"/>
-      <c r="BT9" s="3"/>
+      <c r="BT9" s="9"/>
       <c r="BU9" s="3"/>
       <c r="BV9" s="3"/>
       <c r="BW9" s="3"/>
@@ -2035,9 +2053,10 @@
       <c r="CN9" s="3"/>
       <c r="CO9" s="3"/>
       <c r="CP9" s="3"/>
-      <c r="CQ9" s="1"/>
+      <c r="CQ9" s="3"/>
+      <c r="CR9" s="1"/>
     </row>
-    <row r="10" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2072,19 +2091,19 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="8"/>
+      <c r="AI10" s="3"/>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
-      <c r="AL10" s="3"/>
+      <c r="AL10" s="8"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
-      <c r="AP10" s="8"/>
+      <c r="AP10" s="3"/>
       <c r="AQ10" s="8"/>
       <c r="AR10" s="8"/>
       <c r="AS10" s="8"/>
       <c r="AT10" s="8"/>
-      <c r="AU10" s="3"/>
+      <c r="AU10" s="8"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="3"/>
       <c r="AX10" s="3"/>
@@ -2104,12 +2123,12 @@
       <c r="BL10" s="3"/>
       <c r="BM10" s="3"/>
       <c r="BN10" s="3"/>
-      <c r="BO10" s="9"/>
+      <c r="BO10" s="3"/>
       <c r="BP10" s="9"/>
       <c r="BQ10" s="9"/>
       <c r="BR10" s="9"/>
       <c r="BS10" s="9"/>
-      <c r="BT10" s="3"/>
+      <c r="BT10" s="9"/>
       <c r="BU10" s="3"/>
       <c r="BV10" s="3"/>
       <c r="BW10" s="3"/>
@@ -2132,9 +2151,10 @@
       <c r="CN10" s="3"/>
       <c r="CO10" s="3"/>
       <c r="CP10" s="3"/>
-      <c r="CQ10" s="1"/>
+      <c r="CQ10" s="3"/>
+      <c r="CR10" s="1"/>
     </row>
-    <row r="11" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2169,19 +2189,19 @@
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
-      <c r="AI11" s="8"/>
+      <c r="AI11" s="3"/>
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="3"/>
+      <c r="AL11" s="8"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
-      <c r="AP11" s="8"/>
+      <c r="AP11" s="3"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="8"/>
       <c r="AS11" s="8"/>
       <c r="AT11" s="8"/>
-      <c r="AU11" s="3"/>
+      <c r="AU11" s="8"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="3"/>
       <c r="AX11" s="3"/>
@@ -2201,12 +2221,12 @@
       <c r="BL11" s="3"/>
       <c r="BM11" s="3"/>
       <c r="BN11" s="3"/>
-      <c r="BO11" s="9"/>
+      <c r="BO11" s="3"/>
       <c r="BP11" s="9"/>
       <c r="BQ11" s="9"/>
       <c r="BR11" s="9"/>
       <c r="BS11" s="9"/>
-      <c r="BT11" s="3"/>
+      <c r="BT11" s="9"/>
       <c r="BU11" s="3"/>
       <c r="BV11" s="3"/>
       <c r="BW11" s="3"/>
@@ -2229,9 +2249,10 @@
       <c r="CN11" s="3"/>
       <c r="CO11" s="3"/>
       <c r="CP11" s="3"/>
-      <c r="CQ11" s="1"/>
+      <c r="CQ11" s="3"/>
+      <c r="CR11" s="1"/>
     </row>
-    <row r="12" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2266,19 +2287,19 @@
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
-      <c r="AI12" s="8"/>
+      <c r="AI12" s="3"/>
       <c r="AJ12" s="8"/>
       <c r="AK12" s="8"/>
-      <c r="AL12" s="3"/>
+      <c r="AL12" s="8"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
-      <c r="AP12" s="8"/>
+      <c r="AP12" s="3"/>
       <c r="AQ12" s="8"/>
       <c r="AR12" s="8"/>
       <c r="AS12" s="8"/>
       <c r="AT12" s="8"/>
-      <c r="AU12" s="3"/>
+      <c r="AU12" s="8"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="3"/>
       <c r="AX12" s="3"/>
@@ -2298,12 +2319,12 @@
       <c r="BL12" s="3"/>
       <c r="BM12" s="3"/>
       <c r="BN12" s="3"/>
-      <c r="BO12" s="9"/>
+      <c r="BO12" s="3"/>
       <c r="BP12" s="9"/>
       <c r="BQ12" s="9"/>
       <c r="BR12" s="9"/>
       <c r="BS12" s="9"/>
-      <c r="BT12" s="3"/>
+      <c r="BT12" s="9"/>
       <c r="BU12" s="3"/>
       <c r="BV12" s="3"/>
       <c r="BW12" s="3"/>
@@ -2326,9 +2347,10 @@
       <c r="CN12" s="3"/>
       <c r="CO12" s="3"/>
       <c r="CP12" s="3"/>
-      <c r="CQ12" s="1"/>
+      <c r="CQ12" s="3"/>
+      <c r="CR12" s="1"/>
     </row>
-    <row r="13" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2363,19 +2385,19 @@
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
-      <c r="AI13" s="8"/>
+      <c r="AI13" s="3"/>
       <c r="AJ13" s="8"/>
       <c r="AK13" s="8"/>
-      <c r="AL13" s="3"/>
+      <c r="AL13" s="8"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
-      <c r="AP13" s="8"/>
+      <c r="AP13" s="3"/>
       <c r="AQ13" s="8"/>
       <c r="AR13" s="8"/>
       <c r="AS13" s="8"/>
       <c r="AT13" s="8"/>
-      <c r="AU13" s="3"/>
+      <c r="AU13" s="8"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="3"/>
       <c r="AX13" s="3"/>
@@ -2395,12 +2417,12 @@
       <c r="BL13" s="3"/>
       <c r="BM13" s="3"/>
       <c r="BN13" s="3"/>
-      <c r="BO13" s="9"/>
+      <c r="BO13" s="3"/>
       <c r="BP13" s="9"/>
       <c r="BQ13" s="9"/>
       <c r="BR13" s="9"/>
       <c r="BS13" s="9"/>
-      <c r="BT13" s="3"/>
+      <c r="BT13" s="9"/>
       <c r="BU13" s="3"/>
       <c r="BV13" s="3"/>
       <c r="BW13" s="3"/>
@@ -2423,9 +2445,10 @@
       <c r="CN13" s="3"/>
       <c r="CO13" s="3"/>
       <c r="CP13" s="3"/>
-      <c r="CQ13" s="1"/>
+      <c r="CQ13" s="3"/>
+      <c r="CR13" s="1"/>
     </row>
-    <row r="14" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2460,19 +2483,19 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
-      <c r="AI14" s="8"/>
+      <c r="AI14" s="3"/>
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
-      <c r="AL14" s="3"/>
+      <c r="AL14" s="8"/>
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
-      <c r="AP14" s="8"/>
+      <c r="AP14" s="3"/>
       <c r="AQ14" s="8"/>
       <c r="AR14" s="8"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
-      <c r="AU14" s="3"/>
+      <c r="AU14" s="8"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="3"/>
       <c r="AX14" s="3"/>
@@ -2492,12 +2515,12 @@
       <c r="BL14" s="3"/>
       <c r="BM14" s="3"/>
       <c r="BN14" s="3"/>
-      <c r="BO14" s="9"/>
+      <c r="BO14" s="3"/>
       <c r="BP14" s="9"/>
       <c r="BQ14" s="9"/>
       <c r="BR14" s="9"/>
       <c r="BS14" s="9"/>
-      <c r="BT14" s="3"/>
+      <c r="BT14" s="9"/>
       <c r="BU14" s="3"/>
       <c r="BV14" s="3"/>
       <c r="BW14" s="3"/>
@@ -2520,9 +2543,10 @@
       <c r="CN14" s="3"/>
       <c r="CO14" s="3"/>
       <c r="CP14" s="3"/>
-      <c r="CQ14" s="1"/>
+      <c r="CQ14" s="3"/>
+      <c r="CR14" s="1"/>
     </row>
-    <row r="15" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2557,19 +2581,19 @@
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
-      <c r="AI15" s="8"/>
+      <c r="AI15" s="3"/>
       <c r="AJ15" s="8"/>
       <c r="AK15" s="8"/>
-      <c r="AL15" s="3"/>
+      <c r="AL15" s="8"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
-      <c r="AP15" s="8"/>
+      <c r="AP15" s="3"/>
       <c r="AQ15" s="8"/>
       <c r="AR15" s="8"/>
       <c r="AS15" s="8"/>
       <c r="AT15" s="8"/>
-      <c r="AU15" s="3"/>
+      <c r="AU15" s="8"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
@@ -2589,12 +2613,12 @@
       <c r="BL15" s="3"/>
       <c r="BM15" s="3"/>
       <c r="BN15" s="3"/>
-      <c r="BO15" s="9"/>
+      <c r="BO15" s="3"/>
       <c r="BP15" s="9"/>
       <c r="BQ15" s="9"/>
       <c r="BR15" s="9"/>
       <c r="BS15" s="9"/>
-      <c r="BT15" s="3"/>
+      <c r="BT15" s="9"/>
       <c r="BU15" s="3"/>
       <c r="BV15" s="3"/>
       <c r="BW15" s="3"/>
@@ -2617,9 +2641,10 @@
       <c r="CN15" s="3"/>
       <c r="CO15" s="3"/>
       <c r="CP15" s="3"/>
-      <c r="CQ15" s="1"/>
+      <c r="CQ15" s="3"/>
+      <c r="CR15" s="1"/>
     </row>
-    <row r="16" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2654,19 +2679,19 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
-      <c r="AI16" s="8"/>
+      <c r="AI16" s="3"/>
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
-      <c r="AL16" s="3"/>
+      <c r="AL16" s="8"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
-      <c r="AP16" s="8"/>
+      <c r="AP16" s="3"/>
       <c r="AQ16" s="8"/>
       <c r="AR16" s="8"/>
       <c r="AS16" s="8"/>
       <c r="AT16" s="8"/>
-      <c r="AU16" s="3"/>
+      <c r="AU16" s="8"/>
       <c r="AV16" s="3"/>
       <c r="AW16" s="3"/>
       <c r="AX16" s="3"/>
@@ -2686,12 +2711,12 @@
       <c r="BL16" s="3"/>
       <c r="BM16" s="3"/>
       <c r="BN16" s="3"/>
-      <c r="BO16" s="9"/>
+      <c r="BO16" s="3"/>
       <c r="BP16" s="9"/>
       <c r="BQ16" s="9"/>
       <c r="BR16" s="9"/>
       <c r="BS16" s="9"/>
-      <c r="BT16" s="3"/>
+      <c r="BT16" s="9"/>
       <c r="BU16" s="3"/>
       <c r="BV16" s="3"/>
       <c r="BW16" s="3"/>
@@ -2714,9 +2739,10 @@
       <c r="CN16" s="3"/>
       <c r="CO16" s="3"/>
       <c r="CP16" s="3"/>
-      <c r="CQ16" s="1"/>
+      <c r="CQ16" s="3"/>
+      <c r="CR16" s="1"/>
     </row>
-    <row r="17" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2751,19 +2777,19 @@
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
-      <c r="AI17" s="8"/>
+      <c r="AI17" s="3"/>
       <c r="AJ17" s="8"/>
       <c r="AK17" s="8"/>
-      <c r="AL17" s="3"/>
+      <c r="AL17" s="8"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
-      <c r="AP17" s="8"/>
+      <c r="AP17" s="3"/>
       <c r="AQ17" s="8"/>
       <c r="AR17" s="8"/>
       <c r="AS17" s="8"/>
       <c r="AT17" s="8"/>
-      <c r="AU17" s="3"/>
+      <c r="AU17" s="8"/>
       <c r="AV17" s="3"/>
       <c r="AW17" s="3"/>
       <c r="AX17" s="3"/>
@@ -2783,12 +2809,12 @@
       <c r="BL17" s="3"/>
       <c r="BM17" s="3"/>
       <c r="BN17" s="3"/>
-      <c r="BO17" s="9"/>
+      <c r="BO17" s="3"/>
       <c r="BP17" s="9"/>
       <c r="BQ17" s="9"/>
       <c r="BR17" s="9"/>
       <c r="BS17" s="9"/>
-      <c r="BT17" s="3"/>
+      <c r="BT17" s="9"/>
       <c r="BU17" s="3"/>
       <c r="BV17" s="3"/>
       <c r="BW17" s="3"/>
@@ -2811,9 +2837,10 @@
       <c r="CN17" s="3"/>
       <c r="CO17" s="3"/>
       <c r="CP17" s="3"/>
-      <c r="CQ17" s="1"/>
+      <c r="CQ17" s="3"/>
+      <c r="CR17" s="1"/>
     </row>
-    <row r="18" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2848,19 +2875,19 @@
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
-      <c r="AI18" s="8"/>
+      <c r="AI18" s="3"/>
       <c r="AJ18" s="8"/>
       <c r="AK18" s="8"/>
-      <c r="AL18" s="3"/>
+      <c r="AL18" s="8"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
-      <c r="AP18" s="8"/>
+      <c r="AP18" s="3"/>
       <c r="AQ18" s="8"/>
       <c r="AR18" s="8"/>
       <c r="AS18" s="8"/>
       <c r="AT18" s="8"/>
-      <c r="AU18" s="3"/>
+      <c r="AU18" s="8"/>
       <c r="AV18" s="3"/>
       <c r="AW18" s="3"/>
       <c r="AX18" s="3"/>
@@ -2880,12 +2907,12 @@
       <c r="BL18" s="3"/>
       <c r="BM18" s="3"/>
       <c r="BN18" s="3"/>
-      <c r="BO18" s="9"/>
+      <c r="BO18" s="3"/>
       <c r="BP18" s="9"/>
       <c r="BQ18" s="9"/>
       <c r="BR18" s="9"/>
       <c r="BS18" s="9"/>
-      <c r="BT18" s="3"/>
+      <c r="BT18" s="9"/>
       <c r="BU18" s="3"/>
       <c r="BV18" s="3"/>
       <c r="BW18" s="3"/>
@@ -2908,9 +2935,10 @@
       <c r="CN18" s="3"/>
       <c r="CO18" s="3"/>
       <c r="CP18" s="3"/>
-      <c r="CQ18" s="1"/>
+      <c r="CQ18" s="3"/>
+      <c r="CR18" s="1"/>
     </row>
-    <row r="19" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2945,19 +2973,19 @@
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
-      <c r="AI19" s="8"/>
+      <c r="AI19" s="3"/>
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
-      <c r="AL19" s="3"/>
+      <c r="AL19" s="8"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
-      <c r="AP19" s="8"/>
+      <c r="AP19" s="3"/>
       <c r="AQ19" s="8"/>
       <c r="AR19" s="8"/>
       <c r="AS19" s="8"/>
       <c r="AT19" s="8"/>
-      <c r="AU19" s="3"/>
+      <c r="AU19" s="8"/>
       <c r="AV19" s="3"/>
       <c r="AW19" s="3"/>
       <c r="AX19" s="3"/>
@@ -2977,12 +3005,12 @@
       <c r="BL19" s="3"/>
       <c r="BM19" s="3"/>
       <c r="BN19" s="3"/>
-      <c r="BO19" s="9"/>
+      <c r="BO19" s="3"/>
       <c r="BP19" s="9"/>
       <c r="BQ19" s="9"/>
       <c r="BR19" s="9"/>
       <c r="BS19" s="9"/>
-      <c r="BT19" s="3"/>
+      <c r="BT19" s="9"/>
       <c r="BU19" s="3"/>
       <c r="BV19" s="3"/>
       <c r="BW19" s="3"/>
@@ -3005,9 +3033,10 @@
       <c r="CN19" s="3"/>
       <c r="CO19" s="3"/>
       <c r="CP19" s="3"/>
-      <c r="CQ19" s="1"/>
+      <c r="CQ19" s="3"/>
+      <c r="CR19" s="1"/>
     </row>
-    <row r="20" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3042,19 +3071,19 @@
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
-      <c r="AI20" s="8"/>
+      <c r="AI20" s="3"/>
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
-      <c r="AL20" s="3"/>
+      <c r="AL20" s="8"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
-      <c r="AP20" s="8"/>
+      <c r="AP20" s="3"/>
       <c r="AQ20" s="8"/>
       <c r="AR20" s="8"/>
       <c r="AS20" s="8"/>
       <c r="AT20" s="8"/>
-      <c r="AU20" s="3"/>
+      <c r="AU20" s="8"/>
       <c r="AV20" s="3"/>
       <c r="AW20" s="3"/>
       <c r="AX20" s="3"/>
@@ -3074,12 +3103,12 @@
       <c r="BL20" s="3"/>
       <c r="BM20" s="3"/>
       <c r="BN20" s="3"/>
-      <c r="BO20" s="9"/>
+      <c r="BO20" s="3"/>
       <c r="BP20" s="9"/>
       <c r="BQ20" s="9"/>
       <c r="BR20" s="9"/>
       <c r="BS20" s="9"/>
-      <c r="BT20" s="3"/>
+      <c r="BT20" s="9"/>
       <c r="BU20" s="3"/>
       <c r="BV20" s="3"/>
       <c r="BW20" s="3"/>
@@ -3102,9 +3131,10 @@
       <c r="CN20" s="3"/>
       <c r="CO20" s="3"/>
       <c r="CP20" s="3"/>
-      <c r="CQ20" s="1"/>
+      <c r="CQ20" s="3"/>
+      <c r="CR20" s="1"/>
     </row>
-    <row r="21" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3139,19 +3169,19 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
-      <c r="AI21" s="8"/>
+      <c r="AI21" s="3"/>
       <c r="AJ21" s="8"/>
       <c r="AK21" s="8"/>
-      <c r="AL21" s="3"/>
+      <c r="AL21" s="8"/>
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
-      <c r="AP21" s="8"/>
+      <c r="AP21" s="3"/>
       <c r="AQ21" s="8"/>
       <c r="AR21" s="8"/>
       <c r="AS21" s="8"/>
       <c r="AT21" s="8"/>
-      <c r="AU21" s="3"/>
+      <c r="AU21" s="8"/>
       <c r="AV21" s="3"/>
       <c r="AW21" s="3"/>
       <c r="AX21" s="3"/>
@@ -3171,12 +3201,12 @@
       <c r="BL21" s="3"/>
       <c r="BM21" s="3"/>
       <c r="BN21" s="3"/>
-      <c r="BO21" s="9"/>
+      <c r="BO21" s="3"/>
       <c r="BP21" s="9"/>
       <c r="BQ21" s="9"/>
       <c r="BR21" s="9"/>
       <c r="BS21" s="9"/>
-      <c r="BT21" s="3"/>
+      <c r="BT21" s="9"/>
       <c r="BU21" s="3"/>
       <c r="BV21" s="3"/>
       <c r="BW21" s="3"/>
@@ -3199,9 +3229,10 @@
       <c r="CN21" s="3"/>
       <c r="CO21" s="3"/>
       <c r="CP21" s="3"/>
-      <c r="CQ21" s="1"/>
+      <c r="CQ21" s="3"/>
+      <c r="CR21" s="1"/>
     </row>
-    <row r="22" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3236,19 +3267,19 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
-      <c r="AI22" s="8"/>
+      <c r="AI22" s="3"/>
       <c r="AJ22" s="8"/>
       <c r="AK22" s="8"/>
-      <c r="AL22" s="3"/>
+      <c r="AL22" s="8"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
-      <c r="AP22" s="8"/>
+      <c r="AP22" s="3"/>
       <c r="AQ22" s="8"/>
       <c r="AR22" s="8"/>
       <c r="AS22" s="8"/>
       <c r="AT22" s="8"/>
-      <c r="AU22" s="3"/>
+      <c r="AU22" s="8"/>
       <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
@@ -3268,12 +3299,12 @@
       <c r="BL22" s="3"/>
       <c r="BM22" s="3"/>
       <c r="BN22" s="3"/>
-      <c r="BO22" s="9"/>
+      <c r="BO22" s="3"/>
       <c r="BP22" s="9"/>
       <c r="BQ22" s="9"/>
       <c r="BR22" s="9"/>
       <c r="BS22" s="9"/>
-      <c r="BT22" s="3"/>
+      <c r="BT22" s="9"/>
       <c r="BU22" s="3"/>
       <c r="BV22" s="3"/>
       <c r="BW22" s="3"/>
@@ -3296,9 +3327,10 @@
       <c r="CN22" s="3"/>
       <c r="CO22" s="3"/>
       <c r="CP22" s="3"/>
-      <c r="CQ22" s="1"/>
+      <c r="CQ22" s="3"/>
+      <c r="CR22" s="1"/>
     </row>
-    <row r="23" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3333,19 +3365,19 @@
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
-      <c r="AI23" s="8"/>
+      <c r="AI23" s="3"/>
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
-      <c r="AL23" s="3"/>
+      <c r="AL23" s="8"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
-      <c r="AP23" s="8"/>
+      <c r="AP23" s="3"/>
       <c r="AQ23" s="8"/>
       <c r="AR23" s="8"/>
       <c r="AS23" s="8"/>
       <c r="AT23" s="8"/>
-      <c r="AU23" s="3"/>
+      <c r="AU23" s="8"/>
       <c r="AV23" s="3"/>
       <c r="AW23" s="3"/>
       <c r="AX23" s="3"/>
@@ -3365,12 +3397,12 @@
       <c r="BL23" s="3"/>
       <c r="BM23" s="3"/>
       <c r="BN23" s="3"/>
-      <c r="BO23" s="9"/>
+      <c r="BO23" s="3"/>
       <c r="BP23" s="9"/>
       <c r="BQ23" s="9"/>
       <c r="BR23" s="9"/>
       <c r="BS23" s="9"/>
-      <c r="BT23" s="3"/>
+      <c r="BT23" s="9"/>
       <c r="BU23" s="3"/>
       <c r="BV23" s="3"/>
       <c r="BW23" s="3"/>
@@ -3393,9 +3425,10 @@
       <c r="CN23" s="3"/>
       <c r="CO23" s="3"/>
       <c r="CP23" s="3"/>
-      <c r="CQ23" s="1"/>
+      <c r="CQ23" s="3"/>
+      <c r="CR23" s="1"/>
     </row>
-    <row r="24" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3430,19 +3463,19 @@
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
-      <c r="AI24" s="8"/>
+      <c r="AI24" s="3"/>
       <c r="AJ24" s="8"/>
       <c r="AK24" s="8"/>
-      <c r="AL24" s="3"/>
+      <c r="AL24" s="8"/>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
-      <c r="AP24" s="8"/>
+      <c r="AP24" s="3"/>
       <c r="AQ24" s="8"/>
       <c r="AR24" s="8"/>
       <c r="AS24" s="8"/>
       <c r="AT24" s="8"/>
-      <c r="AU24" s="3"/>
+      <c r="AU24" s="8"/>
       <c r="AV24" s="3"/>
       <c r="AW24" s="3"/>
       <c r="AX24" s="3"/>
@@ -3462,12 +3495,12 @@
       <c r="BL24" s="3"/>
       <c r="BM24" s="3"/>
       <c r="BN24" s="3"/>
-      <c r="BO24" s="9"/>
+      <c r="BO24" s="3"/>
       <c r="BP24" s="9"/>
       <c r="BQ24" s="9"/>
       <c r="BR24" s="9"/>
       <c r="BS24" s="9"/>
-      <c r="BT24" s="3"/>
+      <c r="BT24" s="9"/>
       <c r="BU24" s="3"/>
       <c r="BV24" s="3"/>
       <c r="BW24" s="3"/>
@@ -3490,9 +3523,10 @@
       <c r="CN24" s="3"/>
       <c r="CO24" s="3"/>
       <c r="CP24" s="3"/>
-      <c r="CQ24" s="1"/>
+      <c r="CQ24" s="3"/>
+      <c r="CR24" s="1"/>
     </row>
-    <row r="25" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3527,19 +3561,19 @@
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
-      <c r="AI25" s="8"/>
+      <c r="AI25" s="3"/>
       <c r="AJ25" s="8"/>
       <c r="AK25" s="8"/>
-      <c r="AL25" s="3"/>
+      <c r="AL25" s="8"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
-      <c r="AP25" s="8"/>
+      <c r="AP25" s="3"/>
       <c r="AQ25" s="8"/>
       <c r="AR25" s="8"/>
       <c r="AS25" s="8"/>
       <c r="AT25" s="8"/>
-      <c r="AU25" s="3"/>
+      <c r="AU25" s="8"/>
       <c r="AV25" s="3"/>
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
@@ -3559,12 +3593,12 @@
       <c r="BL25" s="3"/>
       <c r="BM25" s="3"/>
       <c r="BN25" s="3"/>
-      <c r="BO25" s="9"/>
+      <c r="BO25" s="3"/>
       <c r="BP25" s="9"/>
       <c r="BQ25" s="9"/>
       <c r="BR25" s="9"/>
       <c r="BS25" s="9"/>
-      <c r="BT25" s="3"/>
+      <c r="BT25" s="9"/>
       <c r="BU25" s="3"/>
       <c r="BV25" s="3"/>
       <c r="BW25" s="3"/>
@@ -3587,9 +3621,10 @@
       <c r="CN25" s="3"/>
       <c r="CO25" s="3"/>
       <c r="CP25" s="3"/>
-      <c r="CQ25" s="1"/>
+      <c r="CQ25" s="3"/>
+      <c r="CR25" s="1"/>
     </row>
-    <row r="26" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3624,19 +3659,19 @@
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
-      <c r="AI26" s="8"/>
+      <c r="AI26" s="3"/>
       <c r="AJ26" s="8"/>
       <c r="AK26" s="8"/>
-      <c r="AL26" s="3"/>
+      <c r="AL26" s="8"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
-      <c r="AP26" s="8"/>
+      <c r="AP26" s="3"/>
       <c r="AQ26" s="8"/>
       <c r="AR26" s="8"/>
       <c r="AS26" s="8"/>
       <c r="AT26" s="8"/>
-      <c r="AU26" s="3"/>
+      <c r="AU26" s="8"/>
       <c r="AV26" s="3"/>
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
@@ -3656,12 +3691,12 @@
       <c r="BL26" s="3"/>
       <c r="BM26" s="3"/>
       <c r="BN26" s="3"/>
-      <c r="BO26" s="9"/>
+      <c r="BO26" s="3"/>
       <c r="BP26" s="9"/>
       <c r="BQ26" s="9"/>
       <c r="BR26" s="9"/>
       <c r="BS26" s="9"/>
-      <c r="BT26" s="3"/>
+      <c r="BT26" s="9"/>
       <c r="BU26" s="3"/>
       <c r="BV26" s="3"/>
       <c r="BW26" s="3"/>
@@ -3684,9 +3719,10 @@
       <c r="CN26" s="3"/>
       <c r="CO26" s="3"/>
       <c r="CP26" s="3"/>
-      <c r="CQ26" s="1"/>
+      <c r="CQ26" s="3"/>
+      <c r="CR26" s="1"/>
     </row>
-    <row r="27" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3721,19 +3757,19 @@
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
-      <c r="AI27" s="8"/>
+      <c r="AI27" s="3"/>
       <c r="AJ27" s="8"/>
       <c r="AK27" s="8"/>
-      <c r="AL27" s="3"/>
+      <c r="AL27" s="8"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
-      <c r="AP27" s="8"/>
+      <c r="AP27" s="3"/>
       <c r="AQ27" s="8"/>
       <c r="AR27" s="8"/>
       <c r="AS27" s="8"/>
       <c r="AT27" s="8"/>
-      <c r="AU27" s="3"/>
+      <c r="AU27" s="8"/>
       <c r="AV27" s="3"/>
       <c r="AW27" s="3"/>
       <c r="AX27" s="3"/>
@@ -3753,12 +3789,12 @@
       <c r="BL27" s="3"/>
       <c r="BM27" s="3"/>
       <c r="BN27" s="3"/>
-      <c r="BO27" s="9"/>
+      <c r="BO27" s="3"/>
       <c r="BP27" s="9"/>
       <c r="BQ27" s="9"/>
       <c r="BR27" s="9"/>
       <c r="BS27" s="9"/>
-      <c r="BT27" s="3"/>
+      <c r="BT27" s="9"/>
       <c r="BU27" s="3"/>
       <c r="BV27" s="3"/>
       <c r="BW27" s="3"/>
@@ -3781,9 +3817,10 @@
       <c r="CN27" s="3"/>
       <c r="CO27" s="3"/>
       <c r="CP27" s="3"/>
-      <c r="CQ27" s="1"/>
+      <c r="CQ27" s="3"/>
+      <c r="CR27" s="1"/>
     </row>
-    <row r="28" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3818,19 +3855,19 @@
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
-      <c r="AI28" s="8"/>
+      <c r="AI28" s="3"/>
       <c r="AJ28" s="8"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="3"/>
+      <c r="AL28" s="8"/>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
-      <c r="AP28" s="8"/>
+      <c r="AP28" s="3"/>
       <c r="AQ28" s="8"/>
       <c r="AR28" s="8"/>
       <c r="AS28" s="8"/>
       <c r="AT28" s="8"/>
-      <c r="AU28" s="3"/>
+      <c r="AU28" s="8"/>
       <c r="AV28" s="3"/>
       <c r="AW28" s="3"/>
       <c r="AX28" s="3"/>
@@ -3850,12 +3887,12 @@
       <c r="BL28" s="3"/>
       <c r="BM28" s="3"/>
       <c r="BN28" s="3"/>
-      <c r="BO28" s="9"/>
+      <c r="BO28" s="3"/>
       <c r="BP28" s="9"/>
       <c r="BQ28" s="9"/>
       <c r="BR28" s="9"/>
       <c r="BS28" s="9"/>
-      <c r="BT28" s="3"/>
+      <c r="BT28" s="9"/>
       <c r="BU28" s="3"/>
       <c r="BV28" s="3"/>
       <c r="BW28" s="3"/>
@@ -3878,9 +3915,10 @@
       <c r="CN28" s="3"/>
       <c r="CO28" s="3"/>
       <c r="CP28" s="3"/>
-      <c r="CQ28" s="1"/>
+      <c r="CQ28" s="3"/>
+      <c r="CR28" s="1"/>
     </row>
-    <row r="29" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3915,19 +3953,19 @@
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
-      <c r="AI29" s="8"/>
+      <c r="AI29" s="3"/>
       <c r="AJ29" s="8"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="3"/>
+      <c r="AL29" s="8"/>
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
-      <c r="AP29" s="8"/>
+      <c r="AP29" s="3"/>
       <c r="AQ29" s="8"/>
       <c r="AR29" s="8"/>
       <c r="AS29" s="8"/>
       <c r="AT29" s="8"/>
-      <c r="AU29" s="3"/>
+      <c r="AU29" s="8"/>
       <c r="AV29" s="3"/>
       <c r="AW29" s="3"/>
       <c r="AX29" s="3"/>
@@ -3947,12 +3985,12 @@
       <c r="BL29" s="3"/>
       <c r="BM29" s="3"/>
       <c r="BN29" s="3"/>
-      <c r="BO29" s="9"/>
+      <c r="BO29" s="3"/>
       <c r="BP29" s="9"/>
       <c r="BQ29" s="9"/>
       <c r="BR29" s="9"/>
       <c r="BS29" s="9"/>
-      <c r="BT29" s="3"/>
+      <c r="BT29" s="9"/>
       <c r="BU29" s="3"/>
       <c r="BV29" s="3"/>
       <c r="BW29" s="3"/>
@@ -3975,9 +4013,10 @@
       <c r="CN29" s="3"/>
       <c r="CO29" s="3"/>
       <c r="CP29" s="3"/>
-      <c r="CQ29" s="1"/>
+      <c r="CQ29" s="3"/>
+      <c r="CR29" s="1"/>
     </row>
-    <row r="30" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4012,19 +4051,19 @@
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
-      <c r="AI30" s="8"/>
+      <c r="AI30" s="3"/>
       <c r="AJ30" s="8"/>
       <c r="AK30" s="8"/>
-      <c r="AL30" s="3"/>
+      <c r="AL30" s="8"/>
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
-      <c r="AP30" s="8"/>
+      <c r="AP30" s="3"/>
       <c r="AQ30" s="8"/>
       <c r="AR30" s="8"/>
       <c r="AS30" s="8"/>
       <c r="AT30" s="8"/>
-      <c r="AU30" s="3"/>
+      <c r="AU30" s="8"/>
       <c r="AV30" s="3"/>
       <c r="AW30" s="3"/>
       <c r="AX30" s="3"/>
@@ -4044,12 +4083,12 @@
       <c r="BL30" s="3"/>
       <c r="BM30" s="3"/>
       <c r="BN30" s="3"/>
-      <c r="BO30" s="9"/>
+      <c r="BO30" s="3"/>
       <c r="BP30" s="9"/>
       <c r="BQ30" s="9"/>
       <c r="BR30" s="9"/>
       <c r="BS30" s="9"/>
-      <c r="BT30" s="3"/>
+      <c r="BT30" s="9"/>
       <c r="BU30" s="3"/>
       <c r="BV30" s="3"/>
       <c r="BW30" s="3"/>
@@ -4072,9 +4111,10 @@
       <c r="CN30" s="3"/>
       <c r="CO30" s="3"/>
       <c r="CP30" s="3"/>
-      <c r="CQ30" s="1"/>
+      <c r="CQ30" s="3"/>
+      <c r="CR30" s="1"/>
     </row>
-    <row r="31" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4109,19 +4149,19 @@
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
-      <c r="AI31" s="8"/>
+      <c r="AI31" s="3"/>
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
-      <c r="AL31" s="3"/>
+      <c r="AL31" s="8"/>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
-      <c r="AP31" s="8"/>
+      <c r="AP31" s="3"/>
       <c r="AQ31" s="8"/>
       <c r="AR31" s="8"/>
       <c r="AS31" s="8"/>
       <c r="AT31" s="8"/>
-      <c r="AU31" s="3"/>
+      <c r="AU31" s="8"/>
       <c r="AV31" s="3"/>
       <c r="AW31" s="3"/>
       <c r="AX31" s="3"/>
@@ -4141,12 +4181,12 @@
       <c r="BL31" s="3"/>
       <c r="BM31" s="3"/>
       <c r="BN31" s="3"/>
-      <c r="BO31" s="9"/>
+      <c r="BO31" s="3"/>
       <c r="BP31" s="9"/>
       <c r="BQ31" s="9"/>
       <c r="BR31" s="9"/>
       <c r="BS31" s="9"/>
-      <c r="BT31" s="3"/>
+      <c r="BT31" s="9"/>
       <c r="BU31" s="3"/>
       <c r="BV31" s="3"/>
       <c r="BW31" s="3"/>
@@ -4169,9 +4209,10 @@
       <c r="CN31" s="3"/>
       <c r="CO31" s="3"/>
       <c r="CP31" s="3"/>
-      <c r="CQ31" s="1"/>
+      <c r="CQ31" s="3"/>
+      <c r="CR31" s="1"/>
     </row>
-    <row r="32" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4206,19 +4247,19 @@
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
-      <c r="AI32" s="8"/>
+      <c r="AI32" s="3"/>
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8"/>
-      <c r="AL32" s="3"/>
+      <c r="AL32" s="8"/>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
-      <c r="AP32" s="8"/>
+      <c r="AP32" s="3"/>
       <c r="AQ32" s="8"/>
       <c r="AR32" s="8"/>
       <c r="AS32" s="8"/>
       <c r="AT32" s="8"/>
-      <c r="AU32" s="3"/>
+      <c r="AU32" s="8"/>
       <c r="AV32" s="3"/>
       <c r="AW32" s="3"/>
       <c r="AX32" s="3"/>
@@ -4238,12 +4279,12 @@
       <c r="BL32" s="3"/>
       <c r="BM32" s="3"/>
       <c r="BN32" s="3"/>
-      <c r="BO32" s="9"/>
+      <c r="BO32" s="3"/>
       <c r="BP32" s="9"/>
       <c r="BQ32" s="9"/>
       <c r="BR32" s="9"/>
       <c r="BS32" s="9"/>
-      <c r="BT32" s="3"/>
+      <c r="BT32" s="9"/>
       <c r="BU32" s="3"/>
       <c r="BV32" s="3"/>
       <c r="BW32" s="3"/>
@@ -4266,9 +4307,10 @@
       <c r="CN32" s="3"/>
       <c r="CO32" s="3"/>
       <c r="CP32" s="3"/>
-      <c r="CQ32" s="1"/>
+      <c r="CQ32" s="3"/>
+      <c r="CR32" s="1"/>
     </row>
-    <row r="33" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4303,19 +4345,19 @@
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
-      <c r="AI33" s="8"/>
+      <c r="AI33" s="3"/>
       <c r="AJ33" s="8"/>
       <c r="AK33" s="8"/>
-      <c r="AL33" s="3"/>
+      <c r="AL33" s="8"/>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
-      <c r="AP33" s="8"/>
+      <c r="AP33" s="3"/>
       <c r="AQ33" s="8"/>
       <c r="AR33" s="8"/>
       <c r="AS33" s="8"/>
       <c r="AT33" s="8"/>
-      <c r="AU33" s="3"/>
+      <c r="AU33" s="8"/>
       <c r="AV33" s="3"/>
       <c r="AW33" s="3"/>
       <c r="AX33" s="3"/>
@@ -4335,12 +4377,12 @@
       <c r="BL33" s="3"/>
       <c r="BM33" s="3"/>
       <c r="BN33" s="3"/>
-      <c r="BO33" s="9"/>
+      <c r="BO33" s="3"/>
       <c r="BP33" s="9"/>
       <c r="BQ33" s="9"/>
       <c r="BR33" s="9"/>
       <c r="BS33" s="9"/>
-      <c r="BT33" s="3"/>
+      <c r="BT33" s="9"/>
       <c r="BU33" s="3"/>
       <c r="BV33" s="3"/>
       <c r="BW33" s="3"/>
@@ -4363,9 +4405,10 @@
       <c r="CN33" s="3"/>
       <c r="CO33" s="3"/>
       <c r="CP33" s="3"/>
-      <c r="CQ33" s="1"/>
+      <c r="CQ33" s="3"/>
+      <c r="CR33" s="1"/>
     </row>
-    <row r="34" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4400,19 +4443,19 @@
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
-      <c r="AI34" s="8"/>
+      <c r="AI34" s="3"/>
       <c r="AJ34" s="8"/>
       <c r="AK34" s="8"/>
-      <c r="AL34" s="3"/>
+      <c r="AL34" s="8"/>
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
-      <c r="AP34" s="8"/>
+      <c r="AP34" s="3"/>
       <c r="AQ34" s="8"/>
       <c r="AR34" s="8"/>
       <c r="AS34" s="8"/>
       <c r="AT34" s="8"/>
-      <c r="AU34" s="3"/>
+      <c r="AU34" s="8"/>
       <c r="AV34" s="3"/>
       <c r="AW34" s="3"/>
       <c r="AX34" s="3"/>
@@ -4432,12 +4475,12 @@
       <c r="BL34" s="3"/>
       <c r="BM34" s="3"/>
       <c r="BN34" s="3"/>
-      <c r="BO34" s="9"/>
+      <c r="BO34" s="3"/>
       <c r="BP34" s="9"/>
       <c r="BQ34" s="9"/>
       <c r="BR34" s="9"/>
       <c r="BS34" s="9"/>
-      <c r="BT34" s="3"/>
+      <c r="BT34" s="9"/>
       <c r="BU34" s="3"/>
       <c r="BV34" s="3"/>
       <c r="BW34" s="3"/>
@@ -4460,9 +4503,10 @@
       <c r="CN34" s="3"/>
       <c r="CO34" s="3"/>
       <c r="CP34" s="3"/>
-      <c r="CQ34" s="1"/>
+      <c r="CQ34" s="3"/>
+      <c r="CR34" s="1"/>
     </row>
-    <row r="35" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4497,19 +4541,19 @@
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
-      <c r="AI35" s="8"/>
+      <c r="AI35" s="3"/>
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
-      <c r="AL35" s="3"/>
+      <c r="AL35" s="8"/>
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
-      <c r="AP35" s="8"/>
+      <c r="AP35" s="3"/>
       <c r="AQ35" s="8"/>
       <c r="AR35" s="8"/>
       <c r="AS35" s="8"/>
       <c r="AT35" s="8"/>
-      <c r="AU35" s="3"/>
+      <c r="AU35" s="8"/>
       <c r="AV35" s="3"/>
       <c r="AW35" s="3"/>
       <c r="AX35" s="3"/>
@@ -4529,12 +4573,12 @@
       <c r="BL35" s="3"/>
       <c r="BM35" s="3"/>
       <c r="BN35" s="3"/>
-      <c r="BO35" s="9"/>
+      <c r="BO35" s="3"/>
       <c r="BP35" s="9"/>
       <c r="BQ35" s="9"/>
       <c r="BR35" s="9"/>
       <c r="BS35" s="9"/>
-      <c r="BT35" s="3"/>
+      <c r="BT35" s="9"/>
       <c r="BU35" s="3"/>
       <c r="BV35" s="3"/>
       <c r="BW35" s="3"/>
@@ -4557,9 +4601,10 @@
       <c r="CN35" s="3"/>
       <c r="CO35" s="3"/>
       <c r="CP35" s="3"/>
-      <c r="CQ35" s="1"/>
+      <c r="CQ35" s="3"/>
+      <c r="CR35" s="1"/>
     </row>
-    <row r="36" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4594,19 +4639,19 @@
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
-      <c r="AI36" s="8"/>
+      <c r="AI36" s="3"/>
       <c r="AJ36" s="8"/>
       <c r="AK36" s="8"/>
-      <c r="AL36" s="3"/>
+      <c r="AL36" s="8"/>
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
-      <c r="AP36" s="8"/>
+      <c r="AP36" s="3"/>
       <c r="AQ36" s="8"/>
       <c r="AR36" s="8"/>
       <c r="AS36" s="8"/>
       <c r="AT36" s="8"/>
-      <c r="AU36" s="3"/>
+      <c r="AU36" s="8"/>
       <c r="AV36" s="3"/>
       <c r="AW36" s="3"/>
       <c r="AX36" s="3"/>
@@ -4626,12 +4671,12 @@
       <c r="BL36" s="3"/>
       <c r="BM36" s="3"/>
       <c r="BN36" s="3"/>
-      <c r="BO36" s="9"/>
+      <c r="BO36" s="3"/>
       <c r="BP36" s="9"/>
       <c r="BQ36" s="9"/>
       <c r="BR36" s="9"/>
       <c r="BS36" s="9"/>
-      <c r="BT36" s="3"/>
+      <c r="BT36" s="9"/>
       <c r="BU36" s="3"/>
       <c r="BV36" s="3"/>
       <c r="BW36" s="3"/>
@@ -4654,9 +4699,10 @@
       <c r="CN36" s="3"/>
       <c r="CO36" s="3"/>
       <c r="CP36" s="3"/>
-      <c r="CQ36" s="1"/>
+      <c r="CQ36" s="3"/>
+      <c r="CR36" s="1"/>
     </row>
-    <row r="37" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4691,19 +4737,19 @@
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
-      <c r="AI37" s="8"/>
+      <c r="AI37" s="3"/>
       <c r="AJ37" s="8"/>
       <c r="AK37" s="8"/>
-      <c r="AL37" s="3"/>
+      <c r="AL37" s="8"/>
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
-      <c r="AP37" s="8"/>
+      <c r="AP37" s="3"/>
       <c r="AQ37" s="8"/>
       <c r="AR37" s="8"/>
       <c r="AS37" s="8"/>
       <c r="AT37" s="8"/>
-      <c r="AU37" s="3"/>
+      <c r="AU37" s="8"/>
       <c r="AV37" s="3"/>
       <c r="AW37" s="3"/>
       <c r="AX37" s="3"/>
@@ -4723,12 +4769,12 @@
       <c r="BL37" s="3"/>
       <c r="BM37" s="3"/>
       <c r="BN37" s="3"/>
-      <c r="BO37" s="9"/>
+      <c r="BO37" s="3"/>
       <c r="BP37" s="9"/>
       <c r="BQ37" s="9"/>
       <c r="BR37" s="9"/>
       <c r="BS37" s="9"/>
-      <c r="BT37" s="3"/>
+      <c r="BT37" s="9"/>
       <c r="BU37" s="3"/>
       <c r="BV37" s="3"/>
       <c r="BW37" s="3"/>
@@ -4751,9 +4797,10 @@
       <c r="CN37" s="3"/>
       <c r="CO37" s="3"/>
       <c r="CP37" s="3"/>
-      <c r="CQ37" s="1"/>
+      <c r="CQ37" s="3"/>
+      <c r="CR37" s="1"/>
     </row>
-    <row r="38" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4788,19 +4835,19 @@
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
-      <c r="AI38" s="8"/>
+      <c r="AI38" s="3"/>
       <c r="AJ38" s="8"/>
       <c r="AK38" s="8"/>
-      <c r="AL38" s="3"/>
+      <c r="AL38" s="8"/>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
-      <c r="AP38" s="8"/>
+      <c r="AP38" s="3"/>
       <c r="AQ38" s="8"/>
       <c r="AR38" s="8"/>
       <c r="AS38" s="8"/>
       <c r="AT38" s="8"/>
-      <c r="AU38" s="3"/>
+      <c r="AU38" s="8"/>
       <c r="AV38" s="3"/>
       <c r="AW38" s="3"/>
       <c r="AX38" s="3"/>
@@ -4820,12 +4867,12 @@
       <c r="BL38" s="3"/>
       <c r="BM38" s="3"/>
       <c r="BN38" s="3"/>
-      <c r="BO38" s="9"/>
+      <c r="BO38" s="3"/>
       <c r="BP38" s="9"/>
       <c r="BQ38" s="9"/>
       <c r="BR38" s="9"/>
       <c r="BS38" s="9"/>
-      <c r="BT38" s="3"/>
+      <c r="BT38" s="9"/>
       <c r="BU38" s="3"/>
       <c r="BV38" s="3"/>
       <c r="BW38" s="3"/>
@@ -4848,9 +4895,10 @@
       <c r="CN38" s="3"/>
       <c r="CO38" s="3"/>
       <c r="CP38" s="3"/>
-      <c r="CQ38" s="1"/>
+      <c r="CQ38" s="3"/>
+      <c r="CR38" s="1"/>
     </row>
-    <row r="39" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4885,19 +4933,19 @@
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
-      <c r="AI39" s="8"/>
+      <c r="AI39" s="3"/>
       <c r="AJ39" s="8"/>
       <c r="AK39" s="8"/>
-      <c r="AL39" s="3"/>
+      <c r="AL39" s="8"/>
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
-      <c r="AP39" s="8"/>
+      <c r="AP39" s="3"/>
       <c r="AQ39" s="8"/>
       <c r="AR39" s="8"/>
       <c r="AS39" s="8"/>
       <c r="AT39" s="8"/>
-      <c r="AU39" s="3"/>
+      <c r="AU39" s="8"/>
       <c r="AV39" s="3"/>
       <c r="AW39" s="3"/>
       <c r="AX39" s="3"/>
@@ -4917,12 +4965,12 @@
       <c r="BL39" s="3"/>
       <c r="BM39" s="3"/>
       <c r="BN39" s="3"/>
-      <c r="BO39" s="9"/>
+      <c r="BO39" s="3"/>
       <c r="BP39" s="9"/>
       <c r="BQ39" s="9"/>
       <c r="BR39" s="9"/>
       <c r="BS39" s="9"/>
-      <c r="BT39" s="3"/>
+      <c r="BT39" s="9"/>
       <c r="BU39" s="3"/>
       <c r="BV39" s="3"/>
       <c r="BW39" s="3"/>
@@ -4945,9 +4993,10 @@
       <c r="CN39" s="3"/>
       <c r="CO39" s="3"/>
       <c r="CP39" s="3"/>
-      <c r="CQ39" s="1"/>
+      <c r="CQ39" s="3"/>
+      <c r="CR39" s="1"/>
     </row>
-    <row r="40" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4982,19 +5031,19 @@
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
-      <c r="AI40" s="8"/>
+      <c r="AI40" s="3"/>
       <c r="AJ40" s="8"/>
       <c r="AK40" s="8"/>
-      <c r="AL40" s="3"/>
+      <c r="AL40" s="8"/>
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
-      <c r="AP40" s="8"/>
+      <c r="AP40" s="3"/>
       <c r="AQ40" s="8"/>
       <c r="AR40" s="8"/>
       <c r="AS40" s="8"/>
       <c r="AT40" s="8"/>
-      <c r="AU40" s="3"/>
+      <c r="AU40" s="8"/>
       <c r="AV40" s="3"/>
       <c r="AW40" s="3"/>
       <c r="AX40" s="3"/>
@@ -5014,12 +5063,12 @@
       <c r="BL40" s="3"/>
       <c r="BM40" s="3"/>
       <c r="BN40" s="3"/>
-      <c r="BO40" s="9"/>
+      <c r="BO40" s="3"/>
       <c r="BP40" s="9"/>
       <c r="BQ40" s="9"/>
       <c r="BR40" s="9"/>
       <c r="BS40" s="9"/>
-      <c r="BT40" s="3"/>
+      <c r="BT40" s="9"/>
       <c r="BU40" s="3"/>
       <c r="BV40" s="3"/>
       <c r="BW40" s="3"/>
@@ -5042,9 +5091,10 @@
       <c r="CN40" s="3"/>
       <c r="CO40" s="3"/>
       <c r="CP40" s="3"/>
-      <c r="CQ40" s="1"/>
+      <c r="CQ40" s="3"/>
+      <c r="CR40" s="1"/>
     </row>
-    <row r="41" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -5079,19 +5129,19 @@
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
-      <c r="AI41" s="8"/>
+      <c r="AI41" s="3"/>
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
-      <c r="AL41" s="3"/>
+      <c r="AL41" s="8"/>
       <c r="AM41" s="3"/>
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
-      <c r="AP41" s="8"/>
+      <c r="AP41" s="3"/>
       <c r="AQ41" s="8"/>
       <c r="AR41" s="8"/>
       <c r="AS41" s="8"/>
       <c r="AT41" s="8"/>
-      <c r="AU41" s="3"/>
+      <c r="AU41" s="8"/>
       <c r="AV41" s="3"/>
       <c r="AW41" s="3"/>
       <c r="AX41" s="3"/>
@@ -5111,12 +5161,12 @@
       <c r="BL41" s="3"/>
       <c r="BM41" s="3"/>
       <c r="BN41" s="3"/>
-      <c r="BO41" s="9"/>
+      <c r="BO41" s="3"/>
       <c r="BP41" s="9"/>
       <c r="BQ41" s="9"/>
       <c r="BR41" s="9"/>
       <c r="BS41" s="9"/>
-      <c r="BT41" s="3"/>
+      <c r="BT41" s="9"/>
       <c r="BU41" s="3"/>
       <c r="BV41" s="3"/>
       <c r="BW41" s="3"/>
@@ -5139,9 +5189,10 @@
       <c r="CN41" s="3"/>
       <c r="CO41" s="3"/>
       <c r="CP41" s="3"/>
-      <c r="CQ41" s="1"/>
+      <c r="CQ41" s="3"/>
+      <c r="CR41" s="1"/>
     </row>
-    <row r="42" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5176,19 +5227,19 @@
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
-      <c r="AI42" s="8"/>
+      <c r="AI42" s="3"/>
       <c r="AJ42" s="8"/>
       <c r="AK42" s="8"/>
-      <c r="AL42" s="3"/>
+      <c r="AL42" s="8"/>
       <c r="AM42" s="3"/>
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
-      <c r="AP42" s="8"/>
+      <c r="AP42" s="3"/>
       <c r="AQ42" s="8"/>
       <c r="AR42" s="8"/>
       <c r="AS42" s="8"/>
       <c r="AT42" s="8"/>
-      <c r="AU42" s="3"/>
+      <c r="AU42" s="8"/>
       <c r="AV42" s="3"/>
       <c r="AW42" s="3"/>
       <c r="AX42" s="3"/>
@@ -5208,12 +5259,12 @@
       <c r="BL42" s="3"/>
       <c r="BM42" s="3"/>
       <c r="BN42" s="3"/>
-      <c r="BO42" s="9"/>
+      <c r="BO42" s="3"/>
       <c r="BP42" s="9"/>
       <c r="BQ42" s="9"/>
       <c r="BR42" s="9"/>
       <c r="BS42" s="9"/>
-      <c r="BT42" s="3"/>
+      <c r="BT42" s="9"/>
       <c r="BU42" s="3"/>
       <c r="BV42" s="3"/>
       <c r="BW42" s="3"/>
@@ -5236,9 +5287,10 @@
       <c r="CN42" s="3"/>
       <c r="CO42" s="3"/>
       <c r="CP42" s="3"/>
-      <c r="CQ42" s="1"/>
+      <c r="CQ42" s="3"/>
+      <c r="CR42" s="1"/>
     </row>
-    <row r="43" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -5273,19 +5325,19 @@
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
-      <c r="AI43" s="8"/>
+      <c r="AI43" s="3"/>
       <c r="AJ43" s="8"/>
       <c r="AK43" s="8"/>
-      <c r="AL43" s="3"/>
+      <c r="AL43" s="8"/>
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
-      <c r="AP43" s="8"/>
+      <c r="AP43" s="3"/>
       <c r="AQ43" s="8"/>
       <c r="AR43" s="8"/>
       <c r="AS43" s="8"/>
       <c r="AT43" s="8"/>
-      <c r="AU43" s="3"/>
+      <c r="AU43" s="8"/>
       <c r="AV43" s="3"/>
       <c r="AW43" s="3"/>
       <c r="AX43" s="3"/>
@@ -5305,12 +5357,12 @@
       <c r="BL43" s="3"/>
       <c r="BM43" s="3"/>
       <c r="BN43" s="3"/>
-      <c r="BO43" s="9"/>
+      <c r="BO43" s="3"/>
       <c r="BP43" s="9"/>
       <c r="BQ43" s="9"/>
       <c r="BR43" s="9"/>
       <c r="BS43" s="9"/>
-      <c r="BT43" s="3"/>
+      <c r="BT43" s="9"/>
       <c r="BU43" s="3"/>
       <c r="BV43" s="3"/>
       <c r="BW43" s="3"/>
@@ -5333,9 +5385,10 @@
       <c r="CN43" s="3"/>
       <c r="CO43" s="3"/>
       <c r="CP43" s="3"/>
-      <c r="CQ43" s="1"/>
+      <c r="CQ43" s="3"/>
+      <c r="CR43" s="1"/>
     </row>
-    <row r="44" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -5370,19 +5423,19 @@
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
-      <c r="AI44" s="8"/>
+      <c r="AI44" s="3"/>
       <c r="AJ44" s="8"/>
       <c r="AK44" s="8"/>
-      <c r="AL44" s="3"/>
+      <c r="AL44" s="8"/>
       <c r="AM44" s="3"/>
       <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
-      <c r="AP44" s="8"/>
+      <c r="AP44" s="3"/>
       <c r="AQ44" s="8"/>
       <c r="AR44" s="8"/>
       <c r="AS44" s="8"/>
       <c r="AT44" s="8"/>
-      <c r="AU44" s="3"/>
+      <c r="AU44" s="8"/>
       <c r="AV44" s="3"/>
       <c r="AW44" s="3"/>
       <c r="AX44" s="3"/>
@@ -5402,12 +5455,12 @@
       <c r="BL44" s="3"/>
       <c r="BM44" s="3"/>
       <c r="BN44" s="3"/>
-      <c r="BO44" s="9"/>
+      <c r="BO44" s="3"/>
       <c r="BP44" s="9"/>
       <c r="BQ44" s="9"/>
       <c r="BR44" s="9"/>
       <c r="BS44" s="9"/>
-      <c r="BT44" s="3"/>
+      <c r="BT44" s="9"/>
       <c r="BU44" s="3"/>
       <c r="BV44" s="3"/>
       <c r="BW44" s="3"/>
@@ -5430,9 +5483,10 @@
       <c r="CN44" s="3"/>
       <c r="CO44" s="3"/>
       <c r="CP44" s="3"/>
-      <c r="CQ44" s="1"/>
+      <c r="CQ44" s="3"/>
+      <c r="CR44" s="1"/>
     </row>
-    <row r="45" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -5467,19 +5521,19 @@
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
-      <c r="AI45" s="8"/>
+      <c r="AI45" s="3"/>
       <c r="AJ45" s="8"/>
       <c r="AK45" s="8"/>
-      <c r="AL45" s="3"/>
+      <c r="AL45" s="8"/>
       <c r="AM45" s="3"/>
       <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
-      <c r="AP45" s="8"/>
+      <c r="AP45" s="3"/>
       <c r="AQ45" s="8"/>
       <c r="AR45" s="8"/>
       <c r="AS45" s="8"/>
       <c r="AT45" s="8"/>
-      <c r="AU45" s="3"/>
+      <c r="AU45" s="8"/>
       <c r="AV45" s="3"/>
       <c r="AW45" s="3"/>
       <c r="AX45" s="3"/>
@@ -5499,12 +5553,12 @@
       <c r="BL45" s="3"/>
       <c r="BM45" s="3"/>
       <c r="BN45" s="3"/>
-      <c r="BO45" s="9"/>
+      <c r="BO45" s="3"/>
       <c r="BP45" s="9"/>
       <c r="BQ45" s="9"/>
       <c r="BR45" s="9"/>
       <c r="BS45" s="9"/>
-      <c r="BT45" s="3"/>
+      <c r="BT45" s="9"/>
       <c r="BU45" s="3"/>
       <c r="BV45" s="3"/>
       <c r="BW45" s="3"/>
@@ -5527,9 +5581,10 @@
       <c r="CN45" s="3"/>
       <c r="CO45" s="3"/>
       <c r="CP45" s="3"/>
-      <c r="CQ45" s="1"/>
+      <c r="CQ45" s="3"/>
+      <c r="CR45" s="1"/>
     </row>
-    <row r="46" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5564,19 +5619,19 @@
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
-      <c r="AI46" s="8"/>
+      <c r="AI46" s="3"/>
       <c r="AJ46" s="8"/>
       <c r="AK46" s="8"/>
-      <c r="AL46" s="3"/>
+      <c r="AL46" s="8"/>
       <c r="AM46" s="3"/>
       <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
-      <c r="AP46" s="8"/>
+      <c r="AP46" s="3"/>
       <c r="AQ46" s="8"/>
       <c r="AR46" s="8"/>
       <c r="AS46" s="8"/>
       <c r="AT46" s="8"/>
-      <c r="AU46" s="3"/>
+      <c r="AU46" s="8"/>
       <c r="AV46" s="3"/>
       <c r="AW46" s="3"/>
       <c r="AX46" s="3"/>
@@ -5596,12 +5651,12 @@
       <c r="BL46" s="3"/>
       <c r="BM46" s="3"/>
       <c r="BN46" s="3"/>
-      <c r="BO46" s="9"/>
+      <c r="BO46" s="3"/>
       <c r="BP46" s="9"/>
       <c r="BQ46" s="9"/>
       <c r="BR46" s="9"/>
       <c r="BS46" s="9"/>
-      <c r="BT46" s="3"/>
+      <c r="BT46" s="9"/>
       <c r="BU46" s="3"/>
       <c r="BV46" s="3"/>
       <c r="BW46" s="3"/>
@@ -5624,9 +5679,10 @@
       <c r="CN46" s="3"/>
       <c r="CO46" s="3"/>
       <c r="CP46" s="3"/>
-      <c r="CQ46" s="1"/>
+      <c r="CQ46" s="3"/>
+      <c r="CR46" s="1"/>
     </row>
-    <row r="47" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -5661,19 +5717,19 @@
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
-      <c r="AI47" s="8"/>
+      <c r="AI47" s="3"/>
       <c r="AJ47" s="8"/>
       <c r="AK47" s="8"/>
-      <c r="AL47" s="3"/>
+      <c r="AL47" s="8"/>
       <c r="AM47" s="3"/>
       <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
-      <c r="AP47" s="8"/>
+      <c r="AP47" s="3"/>
       <c r="AQ47" s="8"/>
       <c r="AR47" s="8"/>
       <c r="AS47" s="8"/>
       <c r="AT47" s="8"/>
-      <c r="AU47" s="3"/>
+      <c r="AU47" s="8"/>
       <c r="AV47" s="3"/>
       <c r="AW47" s="3"/>
       <c r="AX47" s="3"/>
@@ -5693,12 +5749,12 @@
       <c r="BL47" s="3"/>
       <c r="BM47" s="3"/>
       <c r="BN47" s="3"/>
-      <c r="BO47" s="9"/>
+      <c r="BO47" s="3"/>
       <c r="BP47" s="9"/>
       <c r="BQ47" s="9"/>
       <c r="BR47" s="9"/>
       <c r="BS47" s="9"/>
-      <c r="BT47" s="3"/>
+      <c r="BT47" s="9"/>
       <c r="BU47" s="3"/>
       <c r="BV47" s="3"/>
       <c r="BW47" s="3"/>
@@ -5721,9 +5777,10 @@
       <c r="CN47" s="3"/>
       <c r="CO47" s="3"/>
       <c r="CP47" s="3"/>
-      <c r="CQ47" s="1"/>
+      <c r="CQ47" s="3"/>
+      <c r="CR47" s="1"/>
     </row>
-    <row r="48" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -5758,19 +5815,19 @@
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
-      <c r="AI48" s="8"/>
+      <c r="AI48" s="3"/>
       <c r="AJ48" s="8"/>
       <c r="AK48" s="8"/>
-      <c r="AL48" s="3"/>
+      <c r="AL48" s="8"/>
       <c r="AM48" s="3"/>
       <c r="AN48" s="3"/>
       <c r="AO48" s="3"/>
-      <c r="AP48" s="8"/>
+      <c r="AP48" s="3"/>
       <c r="AQ48" s="8"/>
       <c r="AR48" s="8"/>
       <c r="AS48" s="8"/>
       <c r="AT48" s="8"/>
-      <c r="AU48" s="3"/>
+      <c r="AU48" s="8"/>
       <c r="AV48" s="3"/>
       <c r="AW48" s="3"/>
       <c r="AX48" s="3"/>
@@ -5790,12 +5847,12 @@
       <c r="BL48" s="3"/>
       <c r="BM48" s="3"/>
       <c r="BN48" s="3"/>
-      <c r="BO48" s="9"/>
+      <c r="BO48" s="3"/>
       <c r="BP48" s="9"/>
       <c r="BQ48" s="9"/>
       <c r="BR48" s="9"/>
       <c r="BS48" s="9"/>
-      <c r="BT48" s="3"/>
+      <c r="BT48" s="9"/>
       <c r="BU48" s="3"/>
       <c r="BV48" s="3"/>
       <c r="BW48" s="3"/>
@@ -5818,9 +5875,10 @@
       <c r="CN48" s="3"/>
       <c r="CO48" s="3"/>
       <c r="CP48" s="3"/>
-      <c r="CQ48" s="1"/>
+      <c r="CQ48" s="3"/>
+      <c r="CR48" s="1"/>
     </row>
-    <row r="49" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -5855,19 +5913,19 @@
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
-      <c r="AI49" s="8"/>
+      <c r="AI49" s="3"/>
       <c r="AJ49" s="8"/>
       <c r="AK49" s="8"/>
-      <c r="AL49" s="3"/>
+      <c r="AL49" s="8"/>
       <c r="AM49" s="3"/>
       <c r="AN49" s="3"/>
       <c r="AO49" s="3"/>
-      <c r="AP49" s="8"/>
+      <c r="AP49" s="3"/>
       <c r="AQ49" s="8"/>
       <c r="AR49" s="8"/>
       <c r="AS49" s="8"/>
       <c r="AT49" s="8"/>
-      <c r="AU49" s="3"/>
+      <c r="AU49" s="8"/>
       <c r="AV49" s="3"/>
       <c r="AW49" s="3"/>
       <c r="AX49" s="3"/>
@@ -5887,12 +5945,12 @@
       <c r="BL49" s="3"/>
       <c r="BM49" s="3"/>
       <c r="BN49" s="3"/>
-      <c r="BO49" s="9"/>
+      <c r="BO49" s="3"/>
       <c r="BP49" s="9"/>
       <c r="BQ49" s="9"/>
       <c r="BR49" s="9"/>
       <c r="BS49" s="9"/>
-      <c r="BT49" s="3"/>
+      <c r="BT49" s="9"/>
       <c r="BU49" s="3"/>
       <c r="BV49" s="3"/>
       <c r="BW49" s="3"/>
@@ -5915,9 +5973,10 @@
       <c r="CN49" s="3"/>
       <c r="CO49" s="3"/>
       <c r="CP49" s="3"/>
-      <c r="CQ49" s="1"/>
+      <c r="CQ49" s="3"/>
+      <c r="CR49" s="1"/>
     </row>
-    <row r="50" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -5952,19 +6011,19 @@
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
-      <c r="AI50" s="8"/>
+      <c r="AI50" s="3"/>
       <c r="AJ50" s="8"/>
       <c r="AK50" s="8"/>
-      <c r="AL50" s="3"/>
+      <c r="AL50" s="8"/>
       <c r="AM50" s="3"/>
       <c r="AN50" s="3"/>
       <c r="AO50" s="3"/>
-      <c r="AP50" s="8"/>
+      <c r="AP50" s="3"/>
       <c r="AQ50" s="8"/>
       <c r="AR50" s="8"/>
       <c r="AS50" s="8"/>
       <c r="AT50" s="8"/>
-      <c r="AU50" s="3"/>
+      <c r="AU50" s="8"/>
       <c r="AV50" s="3"/>
       <c r="AW50" s="3"/>
       <c r="AX50" s="3"/>
@@ -5984,12 +6043,12 @@
       <c r="BL50" s="3"/>
       <c r="BM50" s="3"/>
       <c r="BN50" s="3"/>
-      <c r="BO50" s="9"/>
+      <c r="BO50" s="3"/>
       <c r="BP50" s="9"/>
       <c r="BQ50" s="9"/>
       <c r="BR50" s="9"/>
       <c r="BS50" s="9"/>
-      <c r="BT50" s="3"/>
+      <c r="BT50" s="9"/>
       <c r="BU50" s="3"/>
       <c r="BV50" s="3"/>
       <c r="BW50" s="3"/>
@@ -6012,9 +6071,10 @@
       <c r="CN50" s="3"/>
       <c r="CO50" s="3"/>
       <c r="CP50" s="3"/>
-      <c r="CQ50" s="1"/>
+      <c r="CQ50" s="3"/>
+      <c r="CR50" s="1"/>
     </row>
-    <row r="51" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -6049,19 +6109,19 @@
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
-      <c r="AI51" s="8"/>
+      <c r="AI51" s="3"/>
       <c r="AJ51" s="8"/>
       <c r="AK51" s="8"/>
-      <c r="AL51" s="3"/>
+      <c r="AL51" s="8"/>
       <c r="AM51" s="3"/>
       <c r="AN51" s="3"/>
       <c r="AO51" s="3"/>
-      <c r="AP51" s="8"/>
+      <c r="AP51" s="3"/>
       <c r="AQ51" s="8"/>
       <c r="AR51" s="8"/>
       <c r="AS51" s="8"/>
       <c r="AT51" s="8"/>
-      <c r="AU51" s="3"/>
+      <c r="AU51" s="8"/>
       <c r="AV51" s="3"/>
       <c r="AW51" s="3"/>
       <c r="AX51" s="3"/>
@@ -6081,12 +6141,12 @@
       <c r="BL51" s="3"/>
       <c r="BM51" s="3"/>
       <c r="BN51" s="3"/>
-      <c r="BO51" s="9"/>
+      <c r="BO51" s="3"/>
       <c r="BP51" s="9"/>
       <c r="BQ51" s="9"/>
       <c r="BR51" s="9"/>
       <c r="BS51" s="9"/>
-      <c r="BT51" s="3"/>
+      <c r="BT51" s="9"/>
       <c r="BU51" s="3"/>
       <c r="BV51" s="3"/>
       <c r="BW51" s="3"/>
@@ -6109,9 +6169,10 @@
       <c r="CN51" s="3"/>
       <c r="CO51" s="3"/>
       <c r="CP51" s="3"/>
-      <c r="CQ51" s="1"/>
+      <c r="CQ51" s="3"/>
+      <c r="CR51" s="1"/>
     </row>
-    <row r="52" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -6146,19 +6207,19 @@
       <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
       <c r="AH52" s="3"/>
-      <c r="AI52" s="8"/>
+      <c r="AI52" s="3"/>
       <c r="AJ52" s="8"/>
       <c r="AK52" s="8"/>
-      <c r="AL52" s="3"/>
+      <c r="AL52" s="8"/>
       <c r="AM52" s="3"/>
       <c r="AN52" s="3"/>
       <c r="AO52" s="3"/>
-      <c r="AP52" s="8"/>
+      <c r="AP52" s="3"/>
       <c r="AQ52" s="8"/>
       <c r="AR52" s="8"/>
       <c r="AS52" s="8"/>
       <c r="AT52" s="8"/>
-      <c r="AU52" s="3"/>
+      <c r="AU52" s="8"/>
       <c r="AV52" s="3"/>
       <c r="AW52" s="3"/>
       <c r="AX52" s="3"/>
@@ -6178,12 +6239,12 @@
       <c r="BL52" s="3"/>
       <c r="BM52" s="3"/>
       <c r="BN52" s="3"/>
-      <c r="BO52" s="9"/>
+      <c r="BO52" s="3"/>
       <c r="BP52" s="9"/>
       <c r="BQ52" s="9"/>
       <c r="BR52" s="9"/>
       <c r="BS52" s="9"/>
-      <c r="BT52" s="3"/>
+      <c r="BT52" s="9"/>
       <c r="BU52" s="3"/>
       <c r="BV52" s="3"/>
       <c r="BW52" s="3"/>
@@ -6206,9 +6267,10 @@
       <c r="CN52" s="3"/>
       <c r="CO52" s="3"/>
       <c r="CP52" s="3"/>
-      <c r="CQ52" s="1"/>
+      <c r="CQ52" s="3"/>
+      <c r="CR52" s="1"/>
     </row>
-    <row r="53" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -6243,19 +6305,19 @@
       <c r="AF53" s="3"/>
       <c r="AG53" s="3"/>
       <c r="AH53" s="3"/>
-      <c r="AI53" s="8"/>
+      <c r="AI53" s="3"/>
       <c r="AJ53" s="8"/>
       <c r="AK53" s="8"/>
-      <c r="AL53" s="3"/>
+      <c r="AL53" s="8"/>
       <c r="AM53" s="3"/>
       <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
-      <c r="AP53" s="8"/>
+      <c r="AP53" s="3"/>
       <c r="AQ53" s="8"/>
       <c r="AR53" s="8"/>
       <c r="AS53" s="8"/>
       <c r="AT53" s="8"/>
-      <c r="AU53" s="3"/>
+      <c r="AU53" s="8"/>
       <c r="AV53" s="3"/>
       <c r="AW53" s="3"/>
       <c r="AX53" s="3"/>
@@ -6275,12 +6337,12 @@
       <c r="BL53" s="3"/>
       <c r="BM53" s="3"/>
       <c r="BN53" s="3"/>
-      <c r="BO53" s="9"/>
+      <c r="BO53" s="3"/>
       <c r="BP53" s="9"/>
       <c r="BQ53" s="9"/>
       <c r="BR53" s="9"/>
       <c r="BS53" s="9"/>
-      <c r="BT53" s="3"/>
+      <c r="BT53" s="9"/>
       <c r="BU53" s="3"/>
       <c r="BV53" s="3"/>
       <c r="BW53" s="3"/>
@@ -6303,9 +6365,10 @@
       <c r="CN53" s="3"/>
       <c r="CO53" s="3"/>
       <c r="CP53" s="3"/>
-      <c r="CQ53" s="1"/>
+      <c r="CQ53" s="3"/>
+      <c r="CR53" s="1"/>
     </row>
-    <row r="54" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -6340,19 +6403,19 @@
       <c r="AF54" s="3"/>
       <c r="AG54" s="3"/>
       <c r="AH54" s="3"/>
-      <c r="AI54" s="8"/>
+      <c r="AI54" s="3"/>
       <c r="AJ54" s="8"/>
       <c r="AK54" s="8"/>
-      <c r="AL54" s="3"/>
+      <c r="AL54" s="8"/>
       <c r="AM54" s="3"/>
       <c r="AN54" s="3"/>
       <c r="AO54" s="3"/>
-      <c r="AP54" s="8"/>
+      <c r="AP54" s="3"/>
       <c r="AQ54" s="8"/>
       <c r="AR54" s="8"/>
       <c r="AS54" s="8"/>
       <c r="AT54" s="8"/>
-      <c r="AU54" s="3"/>
+      <c r="AU54" s="8"/>
       <c r="AV54" s="3"/>
       <c r="AW54" s="3"/>
       <c r="AX54" s="3"/>
@@ -6372,12 +6435,12 @@
       <c r="BL54" s="3"/>
       <c r="BM54" s="3"/>
       <c r="BN54" s="3"/>
-      <c r="BO54" s="9"/>
+      <c r="BO54" s="3"/>
       <c r="BP54" s="9"/>
       <c r="BQ54" s="9"/>
       <c r="BR54" s="9"/>
       <c r="BS54" s="9"/>
-      <c r="BT54" s="3"/>
+      <c r="BT54" s="9"/>
       <c r="BU54" s="3"/>
       <c r="BV54" s="3"/>
       <c r="BW54" s="3"/>
@@ -6400,9 +6463,10 @@
       <c r="CN54" s="3"/>
       <c r="CO54" s="3"/>
       <c r="CP54" s="3"/>
-      <c r="CQ54" s="1"/>
+      <c r="CQ54" s="3"/>
+      <c r="CR54" s="1"/>
     </row>
-    <row r="55" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -6437,19 +6501,19 @@
       <c r="AF55" s="3"/>
       <c r="AG55" s="3"/>
       <c r="AH55" s="3"/>
-      <c r="AI55" s="8"/>
+      <c r="AI55" s="3"/>
       <c r="AJ55" s="8"/>
       <c r="AK55" s="8"/>
-      <c r="AL55" s="3"/>
+      <c r="AL55" s="8"/>
       <c r="AM55" s="3"/>
       <c r="AN55" s="3"/>
       <c r="AO55" s="3"/>
-      <c r="AP55" s="8"/>
+      <c r="AP55" s="3"/>
       <c r="AQ55" s="8"/>
       <c r="AR55" s="8"/>
       <c r="AS55" s="8"/>
       <c r="AT55" s="8"/>
-      <c r="AU55" s="3"/>
+      <c r="AU55" s="8"/>
       <c r="AV55" s="3"/>
       <c r="AW55" s="3"/>
       <c r="AX55" s="3"/>
@@ -6469,12 +6533,12 @@
       <c r="BL55" s="3"/>
       <c r="BM55" s="3"/>
       <c r="BN55" s="3"/>
-      <c r="BO55" s="9"/>
+      <c r="BO55" s="3"/>
       <c r="BP55" s="9"/>
       <c r="BQ55" s="9"/>
       <c r="BR55" s="9"/>
       <c r="BS55" s="9"/>
-      <c r="BT55" s="3"/>
+      <c r="BT55" s="9"/>
       <c r="BU55" s="3"/>
       <c r="BV55" s="3"/>
       <c r="BW55" s="3"/>
@@ -6497,9 +6561,10 @@
       <c r="CN55" s="3"/>
       <c r="CO55" s="3"/>
       <c r="CP55" s="3"/>
-      <c r="CQ55" s="1"/>
+      <c r="CQ55" s="3"/>
+      <c r="CR55" s="1"/>
     </row>
-    <row r="56" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -6534,19 +6599,19 @@
       <c r="AF56" s="3"/>
       <c r="AG56" s="3"/>
       <c r="AH56" s="3"/>
-      <c r="AI56" s="8"/>
+      <c r="AI56" s="3"/>
       <c r="AJ56" s="8"/>
       <c r="AK56" s="8"/>
-      <c r="AL56" s="3"/>
+      <c r="AL56" s="8"/>
       <c r="AM56" s="3"/>
       <c r="AN56" s="3"/>
       <c r="AO56" s="3"/>
-      <c r="AP56" s="8"/>
+      <c r="AP56" s="3"/>
       <c r="AQ56" s="8"/>
       <c r="AR56" s="8"/>
       <c r="AS56" s="8"/>
       <c r="AT56" s="8"/>
-      <c r="AU56" s="3"/>
+      <c r="AU56" s="8"/>
       <c r="AV56" s="3"/>
       <c r="AW56" s="3"/>
       <c r="AX56" s="3"/>
@@ -6566,12 +6631,12 @@
       <c r="BL56" s="3"/>
       <c r="BM56" s="3"/>
       <c r="BN56" s="3"/>
-      <c r="BO56" s="9"/>
+      <c r="BO56" s="3"/>
       <c r="BP56" s="9"/>
       <c r="BQ56" s="9"/>
       <c r="BR56" s="9"/>
       <c r="BS56" s="9"/>
-      <c r="BT56" s="3"/>
+      <c r="BT56" s="9"/>
       <c r="BU56" s="3"/>
       <c r="BV56" s="3"/>
       <c r="BW56" s="3"/>
@@ -6594,9 +6659,10 @@
       <c r="CN56" s="3"/>
       <c r="CO56" s="3"/>
       <c r="CP56" s="3"/>
-      <c r="CQ56" s="1"/>
+      <c r="CQ56" s="3"/>
+      <c r="CR56" s="1"/>
     </row>
-    <row r="57" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -6631,19 +6697,19 @@
       <c r="AF57" s="3"/>
       <c r="AG57" s="3"/>
       <c r="AH57" s="3"/>
-      <c r="AI57" s="8"/>
+      <c r="AI57" s="3"/>
       <c r="AJ57" s="8"/>
       <c r="AK57" s="8"/>
-      <c r="AL57" s="3"/>
+      <c r="AL57" s="8"/>
       <c r="AM57" s="3"/>
       <c r="AN57" s="3"/>
       <c r="AO57" s="3"/>
-      <c r="AP57" s="8"/>
+      <c r="AP57" s="3"/>
       <c r="AQ57" s="8"/>
       <c r="AR57" s="8"/>
       <c r="AS57" s="8"/>
       <c r="AT57" s="8"/>
-      <c r="AU57" s="3"/>
+      <c r="AU57" s="8"/>
       <c r="AV57" s="3"/>
       <c r="AW57" s="3"/>
       <c r="AX57" s="3"/>
@@ -6663,12 +6729,12 @@
       <c r="BL57" s="3"/>
       <c r="BM57" s="3"/>
       <c r="BN57" s="3"/>
-      <c r="BO57" s="9"/>
+      <c r="BO57" s="3"/>
       <c r="BP57" s="9"/>
       <c r="BQ57" s="9"/>
       <c r="BR57" s="9"/>
       <c r="BS57" s="9"/>
-      <c r="BT57" s="3"/>
+      <c r="BT57" s="9"/>
       <c r="BU57" s="3"/>
       <c r="BV57" s="3"/>
       <c r="BW57" s="3"/>
@@ -6691,9 +6757,10 @@
       <c r="CN57" s="3"/>
       <c r="CO57" s="3"/>
       <c r="CP57" s="3"/>
-      <c r="CQ57" s="1"/>
+      <c r="CQ57" s="3"/>
+      <c r="CR57" s="1"/>
     </row>
-    <row r="58" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -6728,19 +6795,19 @@
       <c r="AF58" s="3"/>
       <c r="AG58" s="3"/>
       <c r="AH58" s="3"/>
-      <c r="AI58" s="8"/>
+      <c r="AI58" s="3"/>
       <c r="AJ58" s="8"/>
       <c r="AK58" s="8"/>
-      <c r="AL58" s="3"/>
+      <c r="AL58" s="8"/>
       <c r="AM58" s="3"/>
       <c r="AN58" s="3"/>
       <c r="AO58" s="3"/>
-      <c r="AP58" s="8"/>
+      <c r="AP58" s="3"/>
       <c r="AQ58" s="8"/>
       <c r="AR58" s="8"/>
       <c r="AS58" s="8"/>
       <c r="AT58" s="8"/>
-      <c r="AU58" s="3"/>
+      <c r="AU58" s="8"/>
       <c r="AV58" s="3"/>
       <c r="AW58" s="3"/>
       <c r="AX58" s="3"/>
@@ -6760,12 +6827,12 @@
       <c r="BL58" s="3"/>
       <c r="BM58" s="3"/>
       <c r="BN58" s="3"/>
-      <c r="BO58" s="9"/>
+      <c r="BO58" s="3"/>
       <c r="BP58" s="9"/>
       <c r="BQ58" s="9"/>
       <c r="BR58" s="9"/>
       <c r="BS58" s="9"/>
-      <c r="BT58" s="3"/>
+      <c r="BT58" s="9"/>
       <c r="BU58" s="3"/>
       <c r="BV58" s="3"/>
       <c r="BW58" s="3"/>
@@ -6788,9 +6855,10 @@
       <c r="CN58" s="3"/>
       <c r="CO58" s="3"/>
       <c r="CP58" s="3"/>
-      <c r="CQ58" s="1"/>
+      <c r="CQ58" s="3"/>
+      <c r="CR58" s="1"/>
     </row>
-    <row r="59" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -6825,19 +6893,19 @@
       <c r="AF59" s="3"/>
       <c r="AG59" s="3"/>
       <c r="AH59" s="3"/>
-      <c r="AI59" s="8"/>
+      <c r="AI59" s="3"/>
       <c r="AJ59" s="8"/>
       <c r="AK59" s="8"/>
-      <c r="AL59" s="3"/>
+      <c r="AL59" s="8"/>
       <c r="AM59" s="3"/>
       <c r="AN59" s="3"/>
       <c r="AO59" s="3"/>
-      <c r="AP59" s="8"/>
+      <c r="AP59" s="3"/>
       <c r="AQ59" s="8"/>
       <c r="AR59" s="8"/>
       <c r="AS59" s="8"/>
       <c r="AT59" s="8"/>
-      <c r="AU59" s="3"/>
+      <c r="AU59" s="8"/>
       <c r="AV59" s="3"/>
       <c r="AW59" s="3"/>
       <c r="AX59" s="3"/>
@@ -6857,12 +6925,12 @@
       <c r="BL59" s="3"/>
       <c r="BM59" s="3"/>
       <c r="BN59" s="3"/>
-      <c r="BO59" s="9"/>
+      <c r="BO59" s="3"/>
       <c r="BP59" s="9"/>
       <c r="BQ59" s="9"/>
       <c r="BR59" s="9"/>
       <c r="BS59" s="9"/>
-      <c r="BT59" s="3"/>
+      <c r="BT59" s="9"/>
       <c r="BU59" s="3"/>
       <c r="BV59" s="3"/>
       <c r="BW59" s="3"/>
@@ -6885,9 +6953,10 @@
       <c r="CN59" s="3"/>
       <c r="CO59" s="3"/>
       <c r="CP59" s="3"/>
-      <c r="CQ59" s="1"/>
+      <c r="CQ59" s="3"/>
+      <c r="CR59" s="1"/>
     </row>
-    <row r="60" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -6922,19 +6991,19 @@
       <c r="AF60" s="3"/>
       <c r="AG60" s="3"/>
       <c r="AH60" s="3"/>
-      <c r="AI60" s="8"/>
+      <c r="AI60" s="3"/>
       <c r="AJ60" s="8"/>
       <c r="AK60" s="8"/>
-      <c r="AL60" s="3"/>
+      <c r="AL60" s="8"/>
       <c r="AM60" s="3"/>
       <c r="AN60" s="3"/>
       <c r="AO60" s="3"/>
-      <c r="AP60" s="8"/>
+      <c r="AP60" s="3"/>
       <c r="AQ60" s="8"/>
       <c r="AR60" s="8"/>
       <c r="AS60" s="8"/>
       <c r="AT60" s="8"/>
-      <c r="AU60" s="3"/>
+      <c r="AU60" s="8"/>
       <c r="AV60" s="3"/>
       <c r="AW60" s="3"/>
       <c r="AX60" s="3"/>
@@ -6954,12 +7023,12 @@
       <c r="BL60" s="3"/>
       <c r="BM60" s="3"/>
       <c r="BN60" s="3"/>
-      <c r="BO60" s="9"/>
+      <c r="BO60" s="3"/>
       <c r="BP60" s="9"/>
       <c r="BQ60" s="9"/>
       <c r="BR60" s="9"/>
       <c r="BS60" s="9"/>
-      <c r="BT60" s="3"/>
+      <c r="BT60" s="9"/>
       <c r="BU60" s="3"/>
       <c r="BV60" s="3"/>
       <c r="BW60" s="3"/>
@@ -6982,9 +7051,10 @@
       <c r="CN60" s="3"/>
       <c r="CO60" s="3"/>
       <c r="CP60" s="3"/>
-      <c r="CQ60" s="1"/>
+      <c r="CQ60" s="3"/>
+      <c r="CR60" s="1"/>
     </row>
-    <row r="61" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -7019,19 +7089,19 @@
       <c r="AF61" s="3"/>
       <c r="AG61" s="3"/>
       <c r="AH61" s="3"/>
-      <c r="AI61" s="8"/>
+      <c r="AI61" s="3"/>
       <c r="AJ61" s="8"/>
       <c r="AK61" s="8"/>
-      <c r="AL61" s="3"/>
+      <c r="AL61" s="8"/>
       <c r="AM61" s="3"/>
       <c r="AN61" s="3"/>
       <c r="AO61" s="3"/>
-      <c r="AP61" s="8"/>
+      <c r="AP61" s="3"/>
       <c r="AQ61" s="8"/>
       <c r="AR61" s="8"/>
       <c r="AS61" s="8"/>
       <c r="AT61" s="8"/>
-      <c r="AU61" s="3"/>
+      <c r="AU61" s="8"/>
       <c r="AV61" s="3"/>
       <c r="AW61" s="3"/>
       <c r="AX61" s="3"/>
@@ -7051,12 +7121,12 @@
       <c r="BL61" s="3"/>
       <c r="BM61" s="3"/>
       <c r="BN61" s="3"/>
-      <c r="BO61" s="9"/>
+      <c r="BO61" s="3"/>
       <c r="BP61" s="9"/>
       <c r="BQ61" s="9"/>
       <c r="BR61" s="9"/>
       <c r="BS61" s="9"/>
-      <c r="BT61" s="3"/>
+      <c r="BT61" s="9"/>
       <c r="BU61" s="3"/>
       <c r="BV61" s="3"/>
       <c r="BW61" s="3"/>
@@ -7079,9 +7149,10 @@
       <c r="CN61" s="3"/>
       <c r="CO61" s="3"/>
       <c r="CP61" s="3"/>
-      <c r="CQ61" s="1"/>
+      <c r="CQ61" s="3"/>
+      <c r="CR61" s="1"/>
     </row>
-    <row r="62" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -7116,19 +7187,19 @@
       <c r="AF62" s="3"/>
       <c r="AG62" s="3"/>
       <c r="AH62" s="3"/>
-      <c r="AI62" s="8"/>
+      <c r="AI62" s="3"/>
       <c r="AJ62" s="8"/>
       <c r="AK62" s="8"/>
-      <c r="AL62" s="3"/>
+      <c r="AL62" s="8"/>
       <c r="AM62" s="3"/>
       <c r="AN62" s="3"/>
       <c r="AO62" s="3"/>
-      <c r="AP62" s="8"/>
+      <c r="AP62" s="3"/>
       <c r="AQ62" s="8"/>
       <c r="AR62" s="8"/>
       <c r="AS62" s="8"/>
       <c r="AT62" s="8"/>
-      <c r="AU62" s="3"/>
+      <c r="AU62" s="8"/>
       <c r="AV62" s="3"/>
       <c r="AW62" s="3"/>
       <c r="AX62" s="3"/>
@@ -7148,12 +7219,12 @@
       <c r="BL62" s="3"/>
       <c r="BM62" s="3"/>
       <c r="BN62" s="3"/>
-      <c r="BO62" s="9"/>
+      <c r="BO62" s="3"/>
       <c r="BP62" s="9"/>
       <c r="BQ62" s="9"/>
       <c r="BR62" s="9"/>
       <c r="BS62" s="9"/>
-      <c r="BT62" s="3"/>
+      <c r="BT62" s="9"/>
       <c r="BU62" s="3"/>
       <c r="BV62" s="3"/>
       <c r="BW62" s="3"/>
@@ -7176,9 +7247,10 @@
       <c r="CN62" s="3"/>
       <c r="CO62" s="3"/>
       <c r="CP62" s="3"/>
-      <c r="CQ62" s="1"/>
+      <c r="CQ62" s="3"/>
+      <c r="CR62" s="1"/>
     </row>
-    <row r="63" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -7213,19 +7285,19 @@
       <c r="AF63" s="3"/>
       <c r="AG63" s="3"/>
       <c r="AH63" s="3"/>
-      <c r="AI63" s="8"/>
+      <c r="AI63" s="3"/>
       <c r="AJ63" s="8"/>
       <c r="AK63" s="8"/>
-      <c r="AL63" s="3"/>
+      <c r="AL63" s="8"/>
       <c r="AM63" s="3"/>
       <c r="AN63" s="3"/>
       <c r="AO63" s="3"/>
-      <c r="AP63" s="8"/>
+      <c r="AP63" s="3"/>
       <c r="AQ63" s="8"/>
       <c r="AR63" s="8"/>
       <c r="AS63" s="8"/>
       <c r="AT63" s="8"/>
-      <c r="AU63" s="3"/>
+      <c r="AU63" s="8"/>
       <c r="AV63" s="3"/>
       <c r="AW63" s="3"/>
       <c r="AX63" s="3"/>
@@ -7245,12 +7317,12 @@
       <c r="BL63" s="3"/>
       <c r="BM63" s="3"/>
       <c r="BN63" s="3"/>
-      <c r="BO63" s="9"/>
+      <c r="BO63" s="3"/>
       <c r="BP63" s="9"/>
       <c r="BQ63" s="9"/>
       <c r="BR63" s="9"/>
       <c r="BS63" s="9"/>
-      <c r="BT63" s="3"/>
+      <c r="BT63" s="9"/>
       <c r="BU63" s="3"/>
       <c r="BV63" s="3"/>
       <c r="BW63" s="3"/>
@@ -7273,9 +7345,10 @@
       <c r="CN63" s="3"/>
       <c r="CO63" s="3"/>
       <c r="CP63" s="3"/>
-      <c r="CQ63" s="1"/>
+      <c r="CQ63" s="3"/>
+      <c r="CR63" s="1"/>
     </row>
-    <row r="64" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -7310,19 +7383,19 @@
       <c r="AF64" s="3"/>
       <c r="AG64" s="3"/>
       <c r="AH64" s="3"/>
-      <c r="AI64" s="8"/>
+      <c r="AI64" s="3"/>
       <c r="AJ64" s="8"/>
       <c r="AK64" s="8"/>
-      <c r="AL64" s="3"/>
+      <c r="AL64" s="8"/>
       <c r="AM64" s="3"/>
       <c r="AN64" s="3"/>
       <c r="AO64" s="3"/>
-      <c r="AP64" s="8"/>
+      <c r="AP64" s="3"/>
       <c r="AQ64" s="8"/>
       <c r="AR64" s="8"/>
       <c r="AS64" s="8"/>
       <c r="AT64" s="8"/>
-      <c r="AU64" s="3"/>
+      <c r="AU64" s="8"/>
       <c r="AV64" s="3"/>
       <c r="AW64" s="3"/>
       <c r="AX64" s="3"/>
@@ -7342,12 +7415,12 @@
       <c r="BL64" s="3"/>
       <c r="BM64" s="3"/>
       <c r="BN64" s="3"/>
-      <c r="BO64" s="9"/>
+      <c r="BO64" s="3"/>
       <c r="BP64" s="9"/>
       <c r="BQ64" s="9"/>
       <c r="BR64" s="9"/>
       <c r="BS64" s="9"/>
-      <c r="BT64" s="3"/>
+      <c r="BT64" s="9"/>
       <c r="BU64" s="3"/>
       <c r="BV64" s="3"/>
       <c r="BW64" s="3"/>
@@ -7370,9 +7443,10 @@
       <c r="CN64" s="3"/>
       <c r="CO64" s="3"/>
       <c r="CP64" s="3"/>
-      <c r="CQ64" s="1"/>
+      <c r="CQ64" s="3"/>
+      <c r="CR64" s="1"/>
     </row>
-    <row r="65" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -7407,19 +7481,19 @@
       <c r="AF65" s="3"/>
       <c r="AG65" s="3"/>
       <c r="AH65" s="3"/>
-      <c r="AI65" s="8"/>
+      <c r="AI65" s="3"/>
       <c r="AJ65" s="8"/>
       <c r="AK65" s="8"/>
-      <c r="AL65" s="3"/>
+      <c r="AL65" s="8"/>
       <c r="AM65" s="3"/>
       <c r="AN65" s="3"/>
       <c r="AO65" s="3"/>
-      <c r="AP65" s="8"/>
+      <c r="AP65" s="3"/>
       <c r="AQ65" s="8"/>
       <c r="AR65" s="8"/>
       <c r="AS65" s="8"/>
       <c r="AT65" s="8"/>
-      <c r="AU65" s="3"/>
+      <c r="AU65" s="8"/>
       <c r="AV65" s="3"/>
       <c r="AW65" s="3"/>
       <c r="AX65" s="3"/>
@@ -7439,12 +7513,12 @@
       <c r="BL65" s="3"/>
       <c r="BM65" s="3"/>
       <c r="BN65" s="3"/>
-      <c r="BO65" s="9"/>
+      <c r="BO65" s="3"/>
       <c r="BP65" s="9"/>
       <c r="BQ65" s="9"/>
       <c r="BR65" s="9"/>
       <c r="BS65" s="9"/>
-      <c r="BT65" s="3"/>
+      <c r="BT65" s="9"/>
       <c r="BU65" s="3"/>
       <c r="BV65" s="3"/>
       <c r="BW65" s="3"/>
@@ -7467,9 +7541,10 @@
       <c r="CN65" s="3"/>
       <c r="CO65" s="3"/>
       <c r="CP65" s="3"/>
-      <c r="CQ65" s="1"/>
+      <c r="CQ65" s="3"/>
+      <c r="CR65" s="1"/>
     </row>
-    <row r="66" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -7504,19 +7579,19 @@
       <c r="AF66" s="3"/>
       <c r="AG66" s="3"/>
       <c r="AH66" s="3"/>
-      <c r="AI66" s="8"/>
+      <c r="AI66" s="3"/>
       <c r="AJ66" s="8"/>
       <c r="AK66" s="8"/>
-      <c r="AL66" s="3"/>
+      <c r="AL66" s="8"/>
       <c r="AM66" s="3"/>
       <c r="AN66" s="3"/>
       <c r="AO66" s="3"/>
-      <c r="AP66" s="8"/>
+      <c r="AP66" s="3"/>
       <c r="AQ66" s="8"/>
       <c r="AR66" s="8"/>
       <c r="AS66" s="8"/>
       <c r="AT66" s="8"/>
-      <c r="AU66" s="3"/>
+      <c r="AU66" s="8"/>
       <c r="AV66" s="3"/>
       <c r="AW66" s="3"/>
       <c r="AX66" s="3"/>
@@ -7536,12 +7611,12 @@
       <c r="BL66" s="3"/>
       <c r="BM66" s="3"/>
       <c r="BN66" s="3"/>
-      <c r="BO66" s="9"/>
+      <c r="BO66" s="3"/>
       <c r="BP66" s="9"/>
       <c r="BQ66" s="9"/>
       <c r="BR66" s="9"/>
       <c r="BS66" s="9"/>
-      <c r="BT66" s="3"/>
+      <c r="BT66" s="9"/>
       <c r="BU66" s="3"/>
       <c r="BV66" s="3"/>
       <c r="BW66" s="3"/>
@@ -7564,9 +7639,10 @@
       <c r="CN66" s="3"/>
       <c r="CO66" s="3"/>
       <c r="CP66" s="3"/>
-      <c r="CQ66" s="1"/>
+      <c r="CQ66" s="3"/>
+      <c r="CR66" s="1"/>
     </row>
-    <row r="67" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7601,19 +7677,19 @@
       <c r="AF67" s="3"/>
       <c r="AG67" s="3"/>
       <c r="AH67" s="3"/>
-      <c r="AI67" s="8"/>
+      <c r="AI67" s="3"/>
       <c r="AJ67" s="8"/>
       <c r="AK67" s="8"/>
-      <c r="AL67" s="3"/>
+      <c r="AL67" s="8"/>
       <c r="AM67" s="3"/>
       <c r="AN67" s="3"/>
       <c r="AO67" s="3"/>
-      <c r="AP67" s="8"/>
+      <c r="AP67" s="3"/>
       <c r="AQ67" s="8"/>
       <c r="AR67" s="8"/>
       <c r="AS67" s="8"/>
       <c r="AT67" s="8"/>
-      <c r="AU67" s="3"/>
+      <c r="AU67" s="8"/>
       <c r="AV67" s="3"/>
       <c r="AW67" s="3"/>
       <c r="AX67" s="3"/>
@@ -7633,12 +7709,12 @@
       <c r="BL67" s="3"/>
       <c r="BM67" s="3"/>
       <c r="BN67" s="3"/>
-      <c r="BO67" s="9"/>
+      <c r="BO67" s="3"/>
       <c r="BP67" s="9"/>
       <c r="BQ67" s="9"/>
       <c r="BR67" s="9"/>
       <c r="BS67" s="9"/>
-      <c r="BT67" s="3"/>
+      <c r="BT67" s="9"/>
       <c r="BU67" s="3"/>
       <c r="BV67" s="3"/>
       <c r="BW67" s="3"/>
@@ -7661,9 +7737,10 @@
       <c r="CN67" s="3"/>
       <c r="CO67" s="3"/>
       <c r="CP67" s="3"/>
-      <c r="CQ67" s="1"/>
+      <c r="CQ67" s="3"/>
+      <c r="CR67" s="1"/>
     </row>
-    <row r="68" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -7698,19 +7775,19 @@
       <c r="AF68" s="3"/>
       <c r="AG68" s="3"/>
       <c r="AH68" s="3"/>
-      <c r="AI68" s="8"/>
+      <c r="AI68" s="3"/>
       <c r="AJ68" s="8"/>
       <c r="AK68" s="8"/>
-      <c r="AL68" s="3"/>
+      <c r="AL68" s="8"/>
       <c r="AM68" s="3"/>
       <c r="AN68" s="3"/>
       <c r="AO68" s="3"/>
-      <c r="AP68" s="8"/>
+      <c r="AP68" s="3"/>
       <c r="AQ68" s="8"/>
       <c r="AR68" s="8"/>
       <c r="AS68" s="8"/>
       <c r="AT68" s="8"/>
-      <c r="AU68" s="3"/>
+      <c r="AU68" s="8"/>
       <c r="AV68" s="3"/>
       <c r="AW68" s="3"/>
       <c r="AX68" s="3"/>
@@ -7730,12 +7807,12 @@
       <c r="BL68" s="3"/>
       <c r="BM68" s="3"/>
       <c r="BN68" s="3"/>
-      <c r="BO68" s="9"/>
+      <c r="BO68" s="3"/>
       <c r="BP68" s="9"/>
       <c r="BQ68" s="9"/>
       <c r="BR68" s="9"/>
       <c r="BS68" s="9"/>
-      <c r="BT68" s="3"/>
+      <c r="BT68" s="9"/>
       <c r="BU68" s="3"/>
       <c r="BV68" s="3"/>
       <c r="BW68" s="3"/>
@@ -7758,9 +7835,10 @@
       <c r="CN68" s="3"/>
       <c r="CO68" s="3"/>
       <c r="CP68" s="3"/>
-      <c r="CQ68" s="1"/>
+      <c r="CQ68" s="3"/>
+      <c r="CR68" s="1"/>
     </row>
-    <row r="69" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -7795,19 +7873,19 @@
       <c r="AF69" s="3"/>
       <c r="AG69" s="3"/>
       <c r="AH69" s="3"/>
-      <c r="AI69" s="8"/>
+      <c r="AI69" s="3"/>
       <c r="AJ69" s="8"/>
       <c r="AK69" s="8"/>
-      <c r="AL69" s="3"/>
+      <c r="AL69" s="8"/>
       <c r="AM69" s="3"/>
       <c r="AN69" s="3"/>
       <c r="AO69" s="3"/>
-      <c r="AP69" s="8"/>
+      <c r="AP69" s="3"/>
       <c r="AQ69" s="8"/>
       <c r="AR69" s="8"/>
       <c r="AS69" s="8"/>
       <c r="AT69" s="8"/>
-      <c r="AU69" s="3"/>
+      <c r="AU69" s="8"/>
       <c r="AV69" s="3"/>
       <c r="AW69" s="3"/>
       <c r="AX69" s="3"/>
@@ -7827,12 +7905,12 @@
       <c r="BL69" s="3"/>
       <c r="BM69" s="3"/>
       <c r="BN69" s="3"/>
-      <c r="BO69" s="9"/>
+      <c r="BO69" s="3"/>
       <c r="BP69" s="9"/>
       <c r="BQ69" s="9"/>
       <c r="BR69" s="9"/>
       <c r="BS69" s="9"/>
-      <c r="BT69" s="3"/>
+      <c r="BT69" s="9"/>
       <c r="BU69" s="3"/>
       <c r="BV69" s="3"/>
       <c r="BW69" s="3"/>
@@ -7855,9 +7933,10 @@
       <c r="CN69" s="3"/>
       <c r="CO69" s="3"/>
       <c r="CP69" s="3"/>
-      <c r="CQ69" s="1"/>
+      <c r="CQ69" s="3"/>
+      <c r="CR69" s="1"/>
     </row>
-    <row r="70" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -7892,19 +7971,19 @@
       <c r="AF70" s="3"/>
       <c r="AG70" s="3"/>
       <c r="AH70" s="3"/>
-      <c r="AI70" s="8"/>
+      <c r="AI70" s="3"/>
       <c r="AJ70" s="8"/>
       <c r="AK70" s="8"/>
-      <c r="AL70" s="3"/>
+      <c r="AL70" s="8"/>
       <c r="AM70" s="3"/>
       <c r="AN70" s="3"/>
       <c r="AO70" s="3"/>
-      <c r="AP70" s="8"/>
+      <c r="AP70" s="3"/>
       <c r="AQ70" s="8"/>
       <c r="AR70" s="8"/>
       <c r="AS70" s="8"/>
       <c r="AT70" s="8"/>
-      <c r="AU70" s="3"/>
+      <c r="AU70" s="8"/>
       <c r="AV70" s="3"/>
       <c r="AW70" s="3"/>
       <c r="AX70" s="3"/>
@@ -7924,12 +8003,12 @@
       <c r="BL70" s="3"/>
       <c r="BM70" s="3"/>
       <c r="BN70" s="3"/>
-      <c r="BO70" s="9"/>
+      <c r="BO70" s="3"/>
       <c r="BP70" s="9"/>
       <c r="BQ70" s="9"/>
       <c r="BR70" s="9"/>
       <c r="BS70" s="9"/>
-      <c r="BT70" s="3"/>
+      <c r="BT70" s="9"/>
       <c r="BU70" s="3"/>
       <c r="BV70" s="3"/>
       <c r="BW70" s="3"/>
@@ -7952,9 +8031,10 @@
       <c r="CN70" s="3"/>
       <c r="CO70" s="3"/>
       <c r="CP70" s="3"/>
-      <c r="CQ70" s="1"/>
+      <c r="CQ70" s="3"/>
+      <c r="CR70" s="1"/>
     </row>
-    <row r="71" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -7989,19 +8069,19 @@
       <c r="AF71" s="3"/>
       <c r="AG71" s="3"/>
       <c r="AH71" s="3"/>
-      <c r="AI71" s="8"/>
+      <c r="AI71" s="3"/>
       <c r="AJ71" s="8"/>
       <c r="AK71" s="8"/>
-      <c r="AL71" s="3"/>
+      <c r="AL71" s="8"/>
       <c r="AM71" s="3"/>
       <c r="AN71" s="3"/>
       <c r="AO71" s="3"/>
-      <c r="AP71" s="8"/>
+      <c r="AP71" s="3"/>
       <c r="AQ71" s="8"/>
       <c r="AR71" s="8"/>
       <c r="AS71" s="8"/>
       <c r="AT71" s="8"/>
-      <c r="AU71" s="3"/>
+      <c r="AU71" s="8"/>
       <c r="AV71" s="3"/>
       <c r="AW71" s="3"/>
       <c r="AX71" s="3"/>
@@ -8021,12 +8101,12 @@
       <c r="BL71" s="3"/>
       <c r="BM71" s="3"/>
       <c r="BN71" s="3"/>
-      <c r="BO71" s="9"/>
+      <c r="BO71" s="3"/>
       <c r="BP71" s="9"/>
       <c r="BQ71" s="9"/>
       <c r="BR71" s="9"/>
       <c r="BS71" s="9"/>
-      <c r="BT71" s="3"/>
+      <c r="BT71" s="9"/>
       <c r="BU71" s="3"/>
       <c r="BV71" s="3"/>
       <c r="BW71" s="3"/>
@@ -8049,9 +8129,10 @@
       <c r="CN71" s="3"/>
       <c r="CO71" s="3"/>
       <c r="CP71" s="3"/>
-      <c r="CQ71" s="1"/>
+      <c r="CQ71" s="3"/>
+      <c r="CR71" s="1"/>
     </row>
-    <row r="72" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -8086,19 +8167,19 @@
       <c r="AF72" s="3"/>
       <c r="AG72" s="3"/>
       <c r="AH72" s="3"/>
-      <c r="AI72" s="8"/>
+      <c r="AI72" s="3"/>
       <c r="AJ72" s="8"/>
       <c r="AK72" s="8"/>
-      <c r="AL72" s="3"/>
+      <c r="AL72" s="8"/>
       <c r="AM72" s="3"/>
       <c r="AN72" s="3"/>
       <c r="AO72" s="3"/>
-      <c r="AP72" s="8"/>
+      <c r="AP72" s="3"/>
       <c r="AQ72" s="8"/>
       <c r="AR72" s="8"/>
       <c r="AS72" s="8"/>
       <c r="AT72" s="8"/>
-      <c r="AU72" s="3"/>
+      <c r="AU72" s="8"/>
       <c r="AV72" s="3"/>
       <c r="AW72" s="3"/>
       <c r="AX72" s="3"/>
@@ -8118,12 +8199,12 @@
       <c r="BL72" s="3"/>
       <c r="BM72" s="3"/>
       <c r="BN72" s="3"/>
-      <c r="BO72" s="9"/>
+      <c r="BO72" s="3"/>
       <c r="BP72" s="9"/>
       <c r="BQ72" s="9"/>
       <c r="BR72" s="9"/>
       <c r="BS72" s="9"/>
-      <c r="BT72" s="3"/>
+      <c r="BT72" s="9"/>
       <c r="BU72" s="3"/>
       <c r="BV72" s="3"/>
       <c r="BW72" s="3"/>
@@ -8146,9 +8227,10 @@
       <c r="CN72" s="3"/>
       <c r="CO72" s="3"/>
       <c r="CP72" s="3"/>
-      <c r="CQ72" s="1"/>
+      <c r="CQ72" s="3"/>
+      <c r="CR72" s="1"/>
     </row>
-    <row r="73" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -8183,19 +8265,19 @@
       <c r="AF73" s="3"/>
       <c r="AG73" s="3"/>
       <c r="AH73" s="3"/>
-      <c r="AI73" s="8"/>
+      <c r="AI73" s="3"/>
       <c r="AJ73" s="8"/>
       <c r="AK73" s="8"/>
-      <c r="AL73" s="3"/>
+      <c r="AL73" s="8"/>
       <c r="AM73" s="3"/>
       <c r="AN73" s="3"/>
       <c r="AO73" s="3"/>
-      <c r="AP73" s="8"/>
+      <c r="AP73" s="3"/>
       <c r="AQ73" s="8"/>
       <c r="AR73" s="8"/>
       <c r="AS73" s="8"/>
       <c r="AT73" s="8"/>
-      <c r="AU73" s="3"/>
+      <c r="AU73" s="8"/>
       <c r="AV73" s="3"/>
       <c r="AW73" s="3"/>
       <c r="AX73" s="3"/>
@@ -8215,12 +8297,12 @@
       <c r="BL73" s="3"/>
       <c r="BM73" s="3"/>
       <c r="BN73" s="3"/>
-      <c r="BO73" s="9"/>
+      <c r="BO73" s="3"/>
       <c r="BP73" s="9"/>
       <c r="BQ73" s="9"/>
       <c r="BR73" s="9"/>
       <c r="BS73" s="9"/>
-      <c r="BT73" s="3"/>
+      <c r="BT73" s="9"/>
       <c r="BU73" s="3"/>
       <c r="BV73" s="3"/>
       <c r="BW73" s="3"/>
@@ -8243,9 +8325,10 @@
       <c r="CN73" s="3"/>
       <c r="CO73" s="3"/>
       <c r="CP73" s="3"/>
-      <c r="CQ73" s="1"/>
+      <c r="CQ73" s="3"/>
+      <c r="CR73" s="1"/>
     </row>
-    <row r="74" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -8280,19 +8363,19 @@
       <c r="AF74" s="3"/>
       <c r="AG74" s="3"/>
       <c r="AH74" s="3"/>
-      <c r="AI74" s="8"/>
+      <c r="AI74" s="3"/>
       <c r="AJ74" s="8"/>
       <c r="AK74" s="8"/>
-      <c r="AL74" s="3"/>
+      <c r="AL74" s="8"/>
       <c r="AM74" s="3"/>
       <c r="AN74" s="3"/>
       <c r="AO74" s="3"/>
-      <c r="AP74" s="8"/>
+      <c r="AP74" s="3"/>
       <c r="AQ74" s="8"/>
       <c r="AR74" s="8"/>
       <c r="AS74" s="8"/>
       <c r="AT74" s="8"/>
-      <c r="AU74" s="3"/>
+      <c r="AU74" s="8"/>
       <c r="AV74" s="3"/>
       <c r="AW74" s="3"/>
       <c r="AX74" s="3"/>
@@ -8312,12 +8395,12 @@
       <c r="BL74" s="3"/>
       <c r="BM74" s="3"/>
       <c r="BN74" s="3"/>
-      <c r="BO74" s="9"/>
+      <c r="BO74" s="3"/>
       <c r="BP74" s="9"/>
       <c r="BQ74" s="9"/>
       <c r="BR74" s="9"/>
       <c r="BS74" s="9"/>
-      <c r="BT74" s="3"/>
+      <c r="BT74" s="9"/>
       <c r="BU74" s="3"/>
       <c r="BV74" s="3"/>
       <c r="BW74" s="3"/>
@@ -8340,9 +8423,10 @@
       <c r="CN74" s="3"/>
       <c r="CO74" s="3"/>
       <c r="CP74" s="3"/>
-      <c r="CQ74" s="1"/>
+      <c r="CQ74" s="3"/>
+      <c r="CR74" s="1"/>
     </row>
-    <row r="75" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -8377,19 +8461,19 @@
       <c r="AF75" s="3"/>
       <c r="AG75" s="3"/>
       <c r="AH75" s="3"/>
-      <c r="AI75" s="8"/>
+      <c r="AI75" s="3"/>
       <c r="AJ75" s="8"/>
       <c r="AK75" s="8"/>
-      <c r="AL75" s="3"/>
+      <c r="AL75" s="8"/>
       <c r="AM75" s="3"/>
       <c r="AN75" s="3"/>
       <c r="AO75" s="3"/>
-      <c r="AP75" s="8"/>
+      <c r="AP75" s="3"/>
       <c r="AQ75" s="8"/>
       <c r="AR75" s="8"/>
       <c r="AS75" s="8"/>
       <c r="AT75" s="8"/>
-      <c r="AU75" s="3"/>
+      <c r="AU75" s="8"/>
       <c r="AV75" s="3"/>
       <c r="AW75" s="3"/>
       <c r="AX75" s="3"/>
@@ -8409,12 +8493,12 @@
       <c r="BL75" s="3"/>
       <c r="BM75" s="3"/>
       <c r="BN75" s="3"/>
-      <c r="BO75" s="9"/>
+      <c r="BO75" s="3"/>
       <c r="BP75" s="9"/>
       <c r="BQ75" s="9"/>
       <c r="BR75" s="9"/>
       <c r="BS75" s="9"/>
-      <c r="BT75" s="3"/>
+      <c r="BT75" s="9"/>
       <c r="BU75" s="3"/>
       <c r="BV75" s="3"/>
       <c r="BW75" s="3"/>
@@ -8437,9 +8521,10 @@
       <c r="CN75" s="3"/>
       <c r="CO75" s="3"/>
       <c r="CP75" s="3"/>
-      <c r="CQ75" s="1"/>
+      <c r="CQ75" s="3"/>
+      <c r="CR75" s="1"/>
     </row>
-    <row r="76" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -8474,19 +8559,19 @@
       <c r="AF76" s="3"/>
       <c r="AG76" s="3"/>
       <c r="AH76" s="3"/>
-      <c r="AI76" s="8"/>
+      <c r="AI76" s="3"/>
       <c r="AJ76" s="8"/>
       <c r="AK76" s="8"/>
-      <c r="AL76" s="3"/>
+      <c r="AL76" s="8"/>
       <c r="AM76" s="3"/>
       <c r="AN76" s="3"/>
       <c r="AO76" s="3"/>
-      <c r="AP76" s="8"/>
+      <c r="AP76" s="3"/>
       <c r="AQ76" s="8"/>
       <c r="AR76" s="8"/>
       <c r="AS76" s="8"/>
       <c r="AT76" s="8"/>
-      <c r="AU76" s="3"/>
+      <c r="AU76" s="8"/>
       <c r="AV76" s="3"/>
       <c r="AW76" s="3"/>
       <c r="AX76" s="3"/>
@@ -8506,12 +8591,12 @@
       <c r="BL76" s="3"/>
       <c r="BM76" s="3"/>
       <c r="BN76" s="3"/>
-      <c r="BO76" s="9"/>
+      <c r="BO76" s="3"/>
       <c r="BP76" s="9"/>
       <c r="BQ76" s="9"/>
       <c r="BR76" s="9"/>
       <c r="BS76" s="9"/>
-      <c r="BT76" s="3"/>
+      <c r="BT76" s="9"/>
       <c r="BU76" s="3"/>
       <c r="BV76" s="3"/>
       <c r="BW76" s="3"/>
@@ -8534,9 +8619,10 @@
       <c r="CN76" s="3"/>
       <c r="CO76" s="3"/>
       <c r="CP76" s="3"/>
-      <c r="CQ76" s="1"/>
+      <c r="CQ76" s="3"/>
+      <c r="CR76" s="1"/>
     </row>
-    <row r="77" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -8571,19 +8657,19 @@
       <c r="AF77" s="3"/>
       <c r="AG77" s="3"/>
       <c r="AH77" s="3"/>
-      <c r="AI77" s="8"/>
+      <c r="AI77" s="3"/>
       <c r="AJ77" s="8"/>
       <c r="AK77" s="8"/>
-      <c r="AL77" s="3"/>
+      <c r="AL77" s="8"/>
       <c r="AM77" s="3"/>
       <c r="AN77" s="3"/>
       <c r="AO77" s="3"/>
-      <c r="AP77" s="8"/>
+      <c r="AP77" s="3"/>
       <c r="AQ77" s="8"/>
       <c r="AR77" s="8"/>
       <c r="AS77" s="8"/>
       <c r="AT77" s="8"/>
-      <c r="AU77" s="3"/>
+      <c r="AU77" s="8"/>
       <c r="AV77" s="3"/>
       <c r="AW77" s="3"/>
       <c r="AX77" s="3"/>
@@ -8603,12 +8689,12 @@
       <c r="BL77" s="3"/>
       <c r="BM77" s="3"/>
       <c r="BN77" s="3"/>
-      <c r="BO77" s="9"/>
+      <c r="BO77" s="3"/>
       <c r="BP77" s="9"/>
       <c r="BQ77" s="9"/>
       <c r="BR77" s="9"/>
       <c r="BS77" s="9"/>
-      <c r="BT77" s="3"/>
+      <c r="BT77" s="9"/>
       <c r="BU77" s="3"/>
       <c r="BV77" s="3"/>
       <c r="BW77" s="3"/>
@@ -8631,9 +8717,10 @@
       <c r="CN77" s="3"/>
       <c r="CO77" s="3"/>
       <c r="CP77" s="3"/>
-      <c r="CQ77" s="1"/>
+      <c r="CQ77" s="3"/>
+      <c r="CR77" s="1"/>
     </row>
-    <row r="78" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -8668,19 +8755,19 @@
       <c r="AF78" s="3"/>
       <c r="AG78" s="3"/>
       <c r="AH78" s="3"/>
-      <c r="AI78" s="8"/>
+      <c r="AI78" s="3"/>
       <c r="AJ78" s="8"/>
       <c r="AK78" s="8"/>
-      <c r="AL78" s="3"/>
+      <c r="AL78" s="8"/>
       <c r="AM78" s="3"/>
       <c r="AN78" s="3"/>
       <c r="AO78" s="3"/>
-      <c r="AP78" s="8"/>
+      <c r="AP78" s="3"/>
       <c r="AQ78" s="8"/>
       <c r="AR78" s="8"/>
       <c r="AS78" s="8"/>
       <c r="AT78" s="8"/>
-      <c r="AU78" s="3"/>
+      <c r="AU78" s="8"/>
       <c r="AV78" s="3"/>
       <c r="AW78" s="3"/>
       <c r="AX78" s="3"/>
@@ -8700,12 +8787,12 @@
       <c r="BL78" s="3"/>
       <c r="BM78" s="3"/>
       <c r="BN78" s="3"/>
-      <c r="BO78" s="9"/>
+      <c r="BO78" s="3"/>
       <c r="BP78" s="9"/>
       <c r="BQ78" s="9"/>
       <c r="BR78" s="9"/>
       <c r="BS78" s="9"/>
-      <c r="BT78" s="3"/>
+      <c r="BT78" s="9"/>
       <c r="BU78" s="3"/>
       <c r="BV78" s="3"/>
       <c r="BW78" s="3"/>
@@ -8728,9 +8815,10 @@
       <c r="CN78" s="3"/>
       <c r="CO78" s="3"/>
       <c r="CP78" s="3"/>
-      <c r="CQ78" s="1"/>
+      <c r="CQ78" s="3"/>
+      <c r="CR78" s="1"/>
     </row>
-    <row r="79" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -8765,19 +8853,19 @@
       <c r="AF79" s="3"/>
       <c r="AG79" s="3"/>
       <c r="AH79" s="3"/>
-      <c r="AI79" s="8"/>
+      <c r="AI79" s="3"/>
       <c r="AJ79" s="8"/>
       <c r="AK79" s="8"/>
-      <c r="AL79" s="3"/>
+      <c r="AL79" s="8"/>
       <c r="AM79" s="3"/>
       <c r="AN79" s="3"/>
       <c r="AO79" s="3"/>
-      <c r="AP79" s="8"/>
+      <c r="AP79" s="3"/>
       <c r="AQ79" s="8"/>
       <c r="AR79" s="8"/>
       <c r="AS79" s="8"/>
       <c r="AT79" s="8"/>
-      <c r="AU79" s="3"/>
+      <c r="AU79" s="8"/>
       <c r="AV79" s="3"/>
       <c r="AW79" s="3"/>
       <c r="AX79" s="3"/>
@@ -8797,12 +8885,12 @@
       <c r="BL79" s="3"/>
       <c r="BM79" s="3"/>
       <c r="BN79" s="3"/>
-      <c r="BO79" s="9"/>
+      <c r="BO79" s="3"/>
       <c r="BP79" s="9"/>
       <c r="BQ79" s="9"/>
       <c r="BR79" s="9"/>
       <c r="BS79" s="9"/>
-      <c r="BT79" s="3"/>
+      <c r="BT79" s="9"/>
       <c r="BU79" s="3"/>
       <c r="BV79" s="3"/>
       <c r="BW79" s="3"/>
@@ -8825,9 +8913,10 @@
       <c r="CN79" s="3"/>
       <c r="CO79" s="3"/>
       <c r="CP79" s="3"/>
-      <c r="CQ79" s="1"/>
+      <c r="CQ79" s="3"/>
+      <c r="CR79" s="1"/>
     </row>
-    <row r="80" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -8862,19 +8951,19 @@
       <c r="AF80" s="3"/>
       <c r="AG80" s="3"/>
       <c r="AH80" s="3"/>
-      <c r="AI80" s="8"/>
+      <c r="AI80" s="3"/>
       <c r="AJ80" s="8"/>
       <c r="AK80" s="8"/>
-      <c r="AL80" s="3"/>
+      <c r="AL80" s="8"/>
       <c r="AM80" s="3"/>
       <c r="AN80" s="3"/>
       <c r="AO80" s="3"/>
-      <c r="AP80" s="8"/>
+      <c r="AP80" s="3"/>
       <c r="AQ80" s="8"/>
       <c r="AR80" s="8"/>
       <c r="AS80" s="8"/>
       <c r="AT80" s="8"/>
-      <c r="AU80" s="3"/>
+      <c r="AU80" s="8"/>
       <c r="AV80" s="3"/>
       <c r="AW80" s="3"/>
       <c r="AX80" s="3"/>
@@ -8894,12 +8983,12 @@
       <c r="BL80" s="3"/>
       <c r="BM80" s="3"/>
       <c r="BN80" s="3"/>
-      <c r="BO80" s="9"/>
+      <c r="BO80" s="3"/>
       <c r="BP80" s="9"/>
       <c r="BQ80" s="9"/>
       <c r="BR80" s="9"/>
       <c r="BS80" s="9"/>
-      <c r="BT80" s="3"/>
+      <c r="BT80" s="9"/>
       <c r="BU80" s="3"/>
       <c r="BV80" s="3"/>
       <c r="BW80" s="3"/>
@@ -8922,9 +9011,10 @@
       <c r="CN80" s="3"/>
       <c r="CO80" s="3"/>
       <c r="CP80" s="3"/>
-      <c r="CQ80" s="1"/>
+      <c r="CQ80" s="3"/>
+      <c r="CR80" s="1"/>
     </row>
-    <row r="81" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -8959,19 +9049,19 @@
       <c r="AF81" s="3"/>
       <c r="AG81" s="3"/>
       <c r="AH81" s="3"/>
-      <c r="AI81" s="8"/>
+      <c r="AI81" s="3"/>
       <c r="AJ81" s="8"/>
       <c r="AK81" s="8"/>
-      <c r="AL81" s="3"/>
+      <c r="AL81" s="8"/>
       <c r="AM81" s="3"/>
       <c r="AN81" s="3"/>
       <c r="AO81" s="3"/>
-      <c r="AP81" s="8"/>
+      <c r="AP81" s="3"/>
       <c r="AQ81" s="8"/>
       <c r="AR81" s="8"/>
       <c r="AS81" s="8"/>
       <c r="AT81" s="8"/>
-      <c r="AU81" s="3"/>
+      <c r="AU81" s="8"/>
       <c r="AV81" s="3"/>
       <c r="AW81" s="3"/>
       <c r="AX81" s="3"/>
@@ -8991,12 +9081,12 @@
       <c r="BL81" s="3"/>
       <c r="BM81" s="3"/>
       <c r="BN81" s="3"/>
-      <c r="BO81" s="9"/>
+      <c r="BO81" s="3"/>
       <c r="BP81" s="9"/>
       <c r="BQ81" s="9"/>
       <c r="BR81" s="9"/>
       <c r="BS81" s="9"/>
-      <c r="BT81" s="3"/>
+      <c r="BT81" s="9"/>
       <c r="BU81" s="3"/>
       <c r="BV81" s="3"/>
       <c r="BW81" s="3"/>
@@ -9019,9 +9109,10 @@
       <c r="CN81" s="3"/>
       <c r="CO81" s="3"/>
       <c r="CP81" s="3"/>
-      <c r="CQ81" s="1"/>
+      <c r="CQ81" s="3"/>
+      <c r="CR81" s="1"/>
     </row>
-    <row r="82" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -9056,19 +9147,19 @@
       <c r="AF82" s="3"/>
       <c r="AG82" s="3"/>
       <c r="AH82" s="3"/>
-      <c r="AI82" s="8"/>
+      <c r="AI82" s="3"/>
       <c r="AJ82" s="8"/>
       <c r="AK82" s="8"/>
-      <c r="AL82" s="3"/>
+      <c r="AL82" s="8"/>
       <c r="AM82" s="3"/>
       <c r="AN82" s="3"/>
       <c r="AO82" s="3"/>
-      <c r="AP82" s="8"/>
+      <c r="AP82" s="3"/>
       <c r="AQ82" s="8"/>
       <c r="AR82" s="8"/>
       <c r="AS82" s="8"/>
       <c r="AT82" s="8"/>
-      <c r="AU82" s="3"/>
+      <c r="AU82" s="8"/>
       <c r="AV82" s="3"/>
       <c r="AW82" s="3"/>
       <c r="AX82" s="3"/>
@@ -9088,12 +9179,12 @@
       <c r="BL82" s="3"/>
       <c r="BM82" s="3"/>
       <c r="BN82" s="3"/>
-      <c r="BO82" s="9"/>
+      <c r="BO82" s="3"/>
       <c r="BP82" s="9"/>
       <c r="BQ82" s="9"/>
       <c r="BR82" s="9"/>
       <c r="BS82" s="9"/>
-      <c r="BT82" s="3"/>
+      <c r="BT82" s="9"/>
       <c r="BU82" s="3"/>
       <c r="BV82" s="3"/>
       <c r="BW82" s="3"/>
@@ -9116,9 +9207,10 @@
       <c r="CN82" s="3"/>
       <c r="CO82" s="3"/>
       <c r="CP82" s="3"/>
-      <c r="CQ82" s="1"/>
+      <c r="CQ82" s="3"/>
+      <c r="CR82" s="1"/>
     </row>
-    <row r="83" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -9153,19 +9245,19 @@
       <c r="AF83" s="3"/>
       <c r="AG83" s="3"/>
       <c r="AH83" s="3"/>
-      <c r="AI83" s="8"/>
+      <c r="AI83" s="3"/>
       <c r="AJ83" s="8"/>
       <c r="AK83" s="8"/>
-      <c r="AL83" s="3"/>
+      <c r="AL83" s="8"/>
       <c r="AM83" s="3"/>
       <c r="AN83" s="3"/>
       <c r="AO83" s="3"/>
-      <c r="AP83" s="8"/>
+      <c r="AP83" s="3"/>
       <c r="AQ83" s="8"/>
       <c r="AR83" s="8"/>
       <c r="AS83" s="8"/>
       <c r="AT83" s="8"/>
-      <c r="AU83" s="3"/>
+      <c r="AU83" s="8"/>
       <c r="AV83" s="3"/>
       <c r="AW83" s="3"/>
       <c r="AX83" s="3"/>
@@ -9185,12 +9277,12 @@
       <c r="BL83" s="3"/>
       <c r="BM83" s="3"/>
       <c r="BN83" s="3"/>
-      <c r="BO83" s="9"/>
+      <c r="BO83" s="3"/>
       <c r="BP83" s="9"/>
       <c r="BQ83" s="9"/>
       <c r="BR83" s="9"/>
       <c r="BS83" s="9"/>
-      <c r="BT83" s="3"/>
+      <c r="BT83" s="9"/>
       <c r="BU83" s="3"/>
       <c r="BV83" s="3"/>
       <c r="BW83" s="3"/>
@@ -9213,9 +9305,10 @@
       <c r="CN83" s="3"/>
       <c r="CO83" s="3"/>
       <c r="CP83" s="3"/>
-      <c r="CQ83" s="1"/>
+      <c r="CQ83" s="3"/>
+      <c r="CR83" s="1"/>
     </row>
-    <row r="84" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -9255,14 +9348,14 @@
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
       <c r="AM84" s="3"/>
-      <c r="AN84" s="9"/>
-      <c r="AO84" s="10"/>
-      <c r="AP84" s="3"/>
+      <c r="AN84" s="3"/>
+      <c r="AO84" s="9"/>
+      <c r="AP84" s="10"/>
       <c r="AQ84" s="3"/>
       <c r="AR84" s="3"/>
       <c r="AS84" s="3"/>
       <c r="AT84" s="3"/>
-      <c r="AU84" s="9"/>
+      <c r="AU84" s="3"/>
       <c r="AV84" s="9"/>
       <c r="AW84" s="9"/>
       <c r="AX84" s="9"/>
@@ -9309,10 +9402,11 @@
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
       <c r="CO84" s="9"/>
-      <c r="CP84" s="3"/>
-      <c r="CQ84" s="1"/>
+      <c r="CP84" s="9"/>
+      <c r="CQ84" s="3"/>
+      <c r="CR84" s="1"/>
     </row>
-    <row r="85" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -9378,14 +9472,14 @@
       <c r="BK85" s="3"/>
       <c r="BL85" s="3"/>
       <c r="BM85" s="3"/>
-      <c r="BN85" s="11"/>
-      <c r="BO85" s="9"/>
+      <c r="BN85" s="3"/>
+      <c r="BO85" s="11"/>
       <c r="BP85" s="9"/>
       <c r="BQ85" s="9"/>
       <c r="BR85" s="9"/>
       <c r="BS85" s="9"/>
       <c r="BT85" s="9"/>
-      <c r="BU85" s="3"/>
+      <c r="BU85" s="9"/>
       <c r="BV85" s="3"/>
       <c r="BW85" s="3"/>
       <c r="BX85" s="3"/>
@@ -9407,9 +9501,10 @@
       <c r="CN85" s="3"/>
       <c r="CO85" s="3"/>
       <c r="CP85" s="3"/>
-      <c r="CQ85" s="1"/>
+      <c r="CQ85" s="3"/>
+      <c r="CR85" s="1"/>
     </row>
-    <row r="86" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -9476,13 +9571,13 @@
       <c r="BL86" s="3"/>
       <c r="BM86" s="3"/>
       <c r="BN86" s="3"/>
-      <c r="BO86" s="9"/>
+      <c r="BO86" s="3"/>
       <c r="BP86" s="9"/>
       <c r="BQ86" s="9"/>
       <c r="BR86" s="9"/>
       <c r="BS86" s="9"/>
       <c r="BT86" s="9"/>
-      <c r="BU86" s="3"/>
+      <c r="BU86" s="9"/>
       <c r="BV86" s="3"/>
       <c r="BW86" s="3"/>
       <c r="BX86" s="3"/>
@@ -9504,9 +9599,10 @@
       <c r="CN86" s="3"/>
       <c r="CO86" s="3"/>
       <c r="CP86" s="3"/>
-      <c r="CQ86" s="1"/>
+      <c r="CQ86" s="3"/>
+      <c r="CR86" s="1"/>
     </row>
-    <row r="87" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -9573,13 +9669,13 @@
       <c r="BL87" s="3"/>
       <c r="BM87" s="3"/>
       <c r="BN87" s="3"/>
-      <c r="BO87" s="9"/>
+      <c r="BO87" s="3"/>
       <c r="BP87" s="9"/>
       <c r="BQ87" s="9"/>
       <c r="BR87" s="9"/>
       <c r="BS87" s="9"/>
       <c r="BT87" s="9"/>
-      <c r="BU87" s="3"/>
+      <c r="BU87" s="9"/>
       <c r="BV87" s="3"/>
       <c r="BW87" s="3"/>
       <c r="BX87" s="3"/>
@@ -9601,9 +9697,10 @@
       <c r="CN87" s="3"/>
       <c r="CO87" s="3"/>
       <c r="CP87" s="3"/>
-      <c r="CQ87" s="1"/>
+      <c r="CQ87" s="3"/>
+      <c r="CR87" s="1"/>
     </row>
-    <row r="88" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -9670,13 +9767,13 @@
       <c r="BL88" s="3"/>
       <c r="BM88" s="3"/>
       <c r="BN88" s="3"/>
-      <c r="BO88" s="9"/>
+      <c r="BO88" s="3"/>
       <c r="BP88" s="9"/>
       <c r="BQ88" s="9"/>
       <c r="BR88" s="9"/>
       <c r="BS88" s="9"/>
       <c r="BT88" s="9"/>
-      <c r="BU88" s="3"/>
+      <c r="BU88" s="9"/>
       <c r="BV88" s="3"/>
       <c r="BW88" s="3"/>
       <c r="BX88" s="3"/>
@@ -9698,9 +9795,10 @@
       <c r="CN88" s="3"/>
       <c r="CO88" s="3"/>
       <c r="CP88" s="3"/>
-      <c r="CQ88" s="1"/>
+      <c r="CQ88" s="3"/>
+      <c r="CR88" s="1"/>
     </row>
-    <row r="89" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -9767,13 +9865,13 @@
       <c r="BL89" s="3"/>
       <c r="BM89" s="3"/>
       <c r="BN89" s="3"/>
-      <c r="BO89" s="9"/>
+      <c r="BO89" s="3"/>
       <c r="BP89" s="9"/>
       <c r="BQ89" s="9"/>
       <c r="BR89" s="9"/>
       <c r="BS89" s="9"/>
       <c r="BT89" s="9"/>
-      <c r="BU89" s="3"/>
+      <c r="BU89" s="9"/>
       <c r="BV89" s="3"/>
       <c r="BW89" s="3"/>
       <c r="BX89" s="3"/>
@@ -9795,9 +9893,10 @@
       <c r="CN89" s="3"/>
       <c r="CO89" s="3"/>
       <c r="CP89" s="3"/>
-      <c r="CQ89" s="1"/>
+      <c r="CQ89" s="3"/>
+      <c r="CR89" s="1"/>
     </row>
-    <row r="90" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -9864,13 +9963,13 @@
       <c r="BL90" s="3"/>
       <c r="BM90" s="3"/>
       <c r="BN90" s="3"/>
-      <c r="BO90" s="9"/>
+      <c r="BO90" s="3"/>
       <c r="BP90" s="9"/>
       <c r="BQ90" s="9"/>
       <c r="BR90" s="9"/>
       <c r="BS90" s="9"/>
       <c r="BT90" s="9"/>
-      <c r="BU90" s="3"/>
+      <c r="BU90" s="9"/>
       <c r="BV90" s="3"/>
       <c r="BW90" s="3"/>
       <c r="BX90" s="3"/>
@@ -9892,9 +9991,10 @@
       <c r="CN90" s="3"/>
       <c r="CO90" s="3"/>
       <c r="CP90" s="3"/>
-      <c r="CQ90" s="1"/>
+      <c r="CQ90" s="3"/>
+      <c r="CR90" s="1"/>
     </row>
-    <row r="91" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -9961,13 +10061,13 @@
       <c r="BL91" s="3"/>
       <c r="BM91" s="3"/>
       <c r="BN91" s="3"/>
-      <c r="BO91" s="9"/>
+      <c r="BO91" s="3"/>
       <c r="BP91" s="9"/>
       <c r="BQ91" s="9"/>
       <c r="BR91" s="9"/>
       <c r="BS91" s="9"/>
       <c r="BT91" s="9"/>
-      <c r="BU91" s="3"/>
+      <c r="BU91" s="9"/>
       <c r="BV91" s="3"/>
       <c r="BW91" s="3"/>
       <c r="BX91" s="3"/>
@@ -9989,9 +10089,10 @@
       <c r="CN91" s="3"/>
       <c r="CO91" s="3"/>
       <c r="CP91" s="3"/>
-      <c r="CQ91" s="1"/>
+      <c r="CQ91" s="3"/>
+      <c r="CR91" s="1"/>
     </row>
-    <row r="92" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -10031,14 +10132,14 @@
       <c r="AK92" s="3"/>
       <c r="AL92" s="3"/>
       <c r="AM92" s="3"/>
-      <c r="AN92" s="9"/>
+      <c r="AN92" s="3"/>
       <c r="AO92" s="9"/>
-      <c r="AP92" s="3"/>
+      <c r="AP92" s="9"/>
       <c r="AQ92" s="3"/>
       <c r="AR92" s="3"/>
       <c r="AS92" s="3"/>
       <c r="AT92" s="3"/>
-      <c r="AU92" s="9"/>
+      <c r="AU92" s="3"/>
       <c r="AV92" s="9"/>
       <c r="AW92" s="9"/>
       <c r="AX92" s="9"/>
@@ -10057,8 +10158,8 @@
       <c r="BK92" s="9"/>
       <c r="BL92" s="9"/>
       <c r="BM92" s="9"/>
-      <c r="BN92" s="10"/>
-      <c r="BO92" s="9"/>
+      <c r="BN92" s="9"/>
+      <c r="BO92" s="10"/>
       <c r="BP92" s="9"/>
       <c r="BQ92" s="9"/>
       <c r="BR92" s="9"/>
@@ -10085,10 +10186,11 @@
       <c r="CM92" s="9"/>
       <c r="CN92" s="9"/>
       <c r="CO92" s="9"/>
-      <c r="CP92" s="3"/>
-      <c r="CQ92" s="1"/>
+      <c r="CP92" s="9"/>
+      <c r="CQ92" s="3"/>
+      <c r="CR92" s="1"/>
     </row>
-    <row r="93" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -10154,14 +10256,14 @@
       <c r="BK93" s="3"/>
       <c r="BL93" s="3"/>
       <c r="BM93" s="3"/>
-      <c r="BN93" s="11"/>
-      <c r="BO93" s="9"/>
+      <c r="BN93" s="3"/>
+      <c r="BO93" s="11"/>
       <c r="BP93" s="9"/>
       <c r="BQ93" s="9"/>
       <c r="BR93" s="9"/>
       <c r="BS93" s="9"/>
       <c r="BT93" s="9"/>
-      <c r="BU93" s="3"/>
+      <c r="BU93" s="9"/>
       <c r="BV93" s="3"/>
       <c r="BW93" s="3"/>
       <c r="BX93" s="3"/>
@@ -10183,9 +10285,10 @@
       <c r="CN93" s="3"/>
       <c r="CO93" s="3"/>
       <c r="CP93" s="3"/>
-      <c r="CQ93" s="1"/>
+      <c r="CQ93" s="3"/>
+      <c r="CR93" s="1"/>
     </row>
-    <row r="94" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -10251,14 +10354,14 @@
       <c r="BK94" s="3"/>
       <c r="BL94" s="3"/>
       <c r="BM94" s="3"/>
-      <c r="BN94" s="11"/>
-      <c r="BO94" s="9"/>
+      <c r="BN94" s="3"/>
+      <c r="BO94" s="11"/>
       <c r="BP94" s="9"/>
       <c r="BQ94" s="9"/>
       <c r="BR94" s="9"/>
       <c r="BS94" s="9"/>
       <c r="BT94" s="9"/>
-      <c r="BU94" s="3"/>
+      <c r="BU94" s="9"/>
       <c r="BV94" s="3"/>
       <c r="BW94" s="3"/>
       <c r="BX94" s="3"/>
@@ -10280,9 +10383,10 @@
       <c r="CN94" s="3"/>
       <c r="CO94" s="3"/>
       <c r="CP94" s="3"/>
-      <c r="CQ94" s="1"/>
+      <c r="CQ94" s="3"/>
+      <c r="CR94" s="1"/>
     </row>
-    <row r="95" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -10349,12 +10453,12 @@
       <c r="BL95" s="3"/>
       <c r="BM95" s="3"/>
       <c r="BN95" s="3"/>
-      <c r="BO95" s="9"/>
+      <c r="BO95" s="3"/>
       <c r="BP95" s="9"/>
       <c r="BQ95" s="9"/>
       <c r="BR95" s="9"/>
       <c r="BS95" s="9"/>
-      <c r="BT95" s="3"/>
+      <c r="BT95" s="9"/>
       <c r="BU95" s="3"/>
       <c r="BV95" s="3"/>
       <c r="BW95" s="3"/>
@@ -10377,9 +10481,10 @@
       <c r="CN95" s="3"/>
       <c r="CO95" s="3"/>
       <c r="CP95" s="3"/>
-      <c r="CQ95" s="1"/>
+      <c r="CQ95" s="3"/>
+      <c r="CR95" s="1"/>
     </row>
-    <row r="96" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -10446,12 +10551,12 @@
       <c r="BL96" s="3"/>
       <c r="BM96" s="3"/>
       <c r="BN96" s="3"/>
-      <c r="BO96" s="9"/>
+      <c r="BO96" s="3"/>
       <c r="BP96" s="9"/>
       <c r="BQ96" s="9"/>
       <c r="BR96" s="9"/>
       <c r="BS96" s="9"/>
-      <c r="BT96" s="3"/>
+      <c r="BT96" s="9"/>
       <c r="BU96" s="3"/>
       <c r="BV96" s="3"/>
       <c r="BW96" s="3"/>
@@ -10474,9 +10579,10 @@
       <c r="CN96" s="3"/>
       <c r="CO96" s="3"/>
       <c r="CP96" s="3"/>
-      <c r="CQ96" s="1"/>
+      <c r="CQ96" s="3"/>
+      <c r="CR96" s="1"/>
     </row>
-    <row r="97" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -10543,12 +10649,12 @@
       <c r="BL97" s="3"/>
       <c r="BM97" s="3"/>
       <c r="BN97" s="3"/>
-      <c r="BO97" s="9"/>
+      <c r="BO97" s="3"/>
       <c r="BP97" s="9"/>
       <c r="BQ97" s="9"/>
       <c r="BR97" s="9"/>
       <c r="BS97" s="9"/>
-      <c r="BT97" s="3"/>
+      <c r="BT97" s="9"/>
       <c r="BU97" s="3"/>
       <c r="BV97" s="3"/>
       <c r="BW97" s="3"/>
@@ -10571,9 +10677,10 @@
       <c r="CN97" s="3"/>
       <c r="CO97" s="3"/>
       <c r="CP97" s="3"/>
-      <c r="CQ97" s="1"/>
+      <c r="CQ97" s="3"/>
+      <c r="CR97" s="1"/>
     </row>
-    <row r="98" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -10640,12 +10747,12 @@
       <c r="BL98" s="3"/>
       <c r="BM98" s="3"/>
       <c r="BN98" s="3"/>
-      <c r="BO98" s="9"/>
+      <c r="BO98" s="3"/>
       <c r="BP98" s="9"/>
       <c r="BQ98" s="9"/>
       <c r="BR98" s="9"/>
       <c r="BS98" s="9"/>
-      <c r="BT98" s="3"/>
+      <c r="BT98" s="9"/>
       <c r="BU98" s="3"/>
       <c r="BV98" s="3"/>
       <c r="BW98" s="3"/>
@@ -10668,9 +10775,10 @@
       <c r="CN98" s="3"/>
       <c r="CO98" s="3"/>
       <c r="CP98" s="3"/>
-      <c r="CQ98" s="1"/>
+      <c r="CQ98" s="3"/>
+      <c r="CR98" s="1"/>
     </row>
-    <row r="99" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -10710,14 +10818,14 @@
       <c r="AK99" s="3"/>
       <c r="AL99" s="3"/>
       <c r="AM99" s="3"/>
-      <c r="AN99" s="9"/>
+      <c r="AN99" s="3"/>
       <c r="AO99" s="9"/>
-      <c r="AP99" s="3"/>
+      <c r="AP99" s="9"/>
       <c r="AQ99" s="3"/>
       <c r="AR99" s="3"/>
       <c r="AS99" s="3"/>
       <c r="AT99" s="3"/>
-      <c r="AU99" s="9"/>
+      <c r="AU99" s="3"/>
       <c r="AV99" s="9"/>
       <c r="AW99" s="9"/>
       <c r="AX99" s="9"/>
@@ -10764,10 +10872,11 @@
       <c r="CM99" s="9"/>
       <c r="CN99" s="9"/>
       <c r="CO99" s="9"/>
-      <c r="CP99" s="3"/>
-      <c r="CQ99" s="1"/>
+      <c r="CP99" s="9"/>
+      <c r="CQ99" s="3"/>
+      <c r="CR99" s="1"/>
     </row>
-    <row r="100" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -10807,14 +10916,14 @@
       <c r="AK100" s="3"/>
       <c r="AL100" s="3"/>
       <c r="AM100" s="3"/>
-      <c r="AN100" s="9"/>
+      <c r="AN100" s="3"/>
       <c r="AO100" s="9"/>
-      <c r="AP100" s="3"/>
+      <c r="AP100" s="9"/>
       <c r="AQ100" s="3"/>
       <c r="AR100" s="3"/>
       <c r="AS100" s="3"/>
       <c r="AT100" s="3"/>
-      <c r="AU100" s="9"/>
+      <c r="AU100" s="3"/>
       <c r="AV100" s="9"/>
       <c r="AW100" s="9"/>
       <c r="AX100" s="9"/>
@@ -10861,10 +10970,11 @@
       <c r="CM100" s="9"/>
       <c r="CN100" s="9"/>
       <c r="CO100" s="9"/>
-      <c r="CP100" s="3"/>
-      <c r="CQ100" s="1"/>
+      <c r="CP100" s="9"/>
+      <c r="CQ100" s="3"/>
+      <c r="CR100" s="1"/>
     </row>
-    <row r="101" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -10904,14 +11014,14 @@
       <c r="AK101" s="3"/>
       <c r="AL101" s="3"/>
       <c r="AM101" s="3"/>
-      <c r="AN101" s="9"/>
+      <c r="AN101" s="3"/>
       <c r="AO101" s="9"/>
-      <c r="AP101" s="3"/>
+      <c r="AP101" s="9"/>
       <c r="AQ101" s="3"/>
       <c r="AR101" s="3"/>
       <c r="AS101" s="3"/>
       <c r="AT101" s="3"/>
-      <c r="AU101" s="9"/>
+      <c r="AU101" s="3"/>
       <c r="AV101" s="9"/>
       <c r="AW101" s="9"/>
       <c r="AX101" s="9"/>
@@ -10958,10 +11068,11 @@
       <c r="CM101" s="9"/>
       <c r="CN101" s="9"/>
       <c r="CO101" s="9"/>
-      <c r="CP101" s="3"/>
-      <c r="CQ101" s="1"/>
+      <c r="CP101" s="9"/>
+      <c r="CQ101" s="3"/>
+      <c r="CR101" s="1"/>
     </row>
-    <row r="102" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -11056,9 +11167,10 @@
       <c r="CN102" s="3"/>
       <c r="CO102" s="3"/>
       <c r="CP102" s="3"/>
-      <c r="CQ102" s="1"/>
+      <c r="CQ102" s="3"/>
+      <c r="CR102" s="1"/>
     </row>
-    <row r="103" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -11153,9 +11265,10 @@
       <c r="CN103" s="3"/>
       <c r="CO103" s="3"/>
       <c r="CP103" s="3"/>
-      <c r="CQ103" s="1"/>
+      <c r="CQ103" s="3"/>
+      <c r="CR103" s="1"/>
     </row>
-    <row r="104" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -11250,9 +11363,10 @@
       <c r="CN104" s="3"/>
       <c r="CO104" s="3"/>
       <c r="CP104" s="3"/>
-      <c r="CQ104" s="1"/>
+      <c r="CQ104" s="3"/>
+      <c r="CR104" s="1"/>
     </row>
-    <row r="105" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -11347,9 +11461,10 @@
       <c r="CN105" s="3"/>
       <c r="CO105" s="3"/>
       <c r="CP105" s="3"/>
-      <c r="CQ105" s="1"/>
+      <c r="CQ105" s="3"/>
+      <c r="CR105" s="1"/>
     </row>
-    <row r="106" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -11444,9 +11559,10 @@
       <c r="CN106" s="3"/>
       <c r="CO106" s="3"/>
       <c r="CP106" s="3"/>
-      <c r="CQ106" s="1"/>
+      <c r="CQ106" s="3"/>
+      <c r="CR106" s="1"/>
     </row>
-    <row r="107" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -11541,9 +11657,10 @@
       <c r="CN107" s="3"/>
       <c r="CO107" s="3"/>
       <c r="CP107" s="3"/>
-      <c r="CQ107" s="1"/>
+      <c r="CQ107" s="3"/>
+      <c r="CR107" s="1"/>
     </row>
-    <row r="108" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -11638,9 +11755,10 @@
       <c r="CN108" s="3"/>
       <c r="CO108" s="3"/>
       <c r="CP108" s="3"/>
-      <c r="CQ108" s="1"/>
+      <c r="CQ108" s="3"/>
+      <c r="CR108" s="1"/>
     </row>
-    <row r="109" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -11735,9 +11853,10 @@
       <c r="CN109" s="3"/>
       <c r="CO109" s="3"/>
       <c r="CP109" s="3"/>
-      <c r="CQ109" s="1"/>
+      <c r="CQ109" s="3"/>
+      <c r="CR109" s="1"/>
     </row>
-    <row r="110" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -11832,9 +11951,10 @@
       <c r="CN110" s="3"/>
       <c r="CO110" s="3"/>
       <c r="CP110" s="3"/>
-      <c r="CQ110" s="1"/>
+      <c r="CQ110" s="3"/>
+      <c r="CR110" s="1"/>
     </row>
-    <row r="111" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -11929,9 +12049,10 @@
       <c r="CN111" s="3"/>
       <c r="CO111" s="3"/>
       <c r="CP111" s="3"/>
-      <c r="CQ111" s="1"/>
+      <c r="CQ111" s="3"/>
+      <c r="CR111" s="1"/>
     </row>
-    <row r="112" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -12026,9 +12147,10 @@
       <c r="CN112" s="3"/>
       <c r="CO112" s="3"/>
       <c r="CP112" s="3"/>
-      <c r="CQ112" s="1"/>
+      <c r="CQ112" s="3"/>
+      <c r="CR112" s="1"/>
     </row>
-    <row r="113" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -12123,9 +12245,10 @@
       <c r="CN113" s="3"/>
       <c r="CO113" s="3"/>
       <c r="CP113" s="3"/>
-      <c r="CQ113" s="1"/>
+      <c r="CQ113" s="3"/>
+      <c r="CR113" s="1"/>
     </row>
-    <row r="114" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -12220,9 +12343,10 @@
       <c r="CN114" s="3"/>
       <c r="CO114" s="3"/>
       <c r="CP114" s="3"/>
-      <c r="CQ114" s="1"/>
+      <c r="CQ114" s="3"/>
+      <c r="CR114" s="1"/>
     </row>
-    <row r="115" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -12317,9 +12441,10 @@
       <c r="CN115" s="3"/>
       <c r="CO115" s="3"/>
       <c r="CP115" s="3"/>
-      <c r="CQ115" s="1"/>
+      <c r="CQ115" s="3"/>
+      <c r="CR115" s="1"/>
     </row>
-    <row r="116" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -12414,9 +12539,10 @@
       <c r="CN116" s="3"/>
       <c r="CO116" s="3"/>
       <c r="CP116" s="3"/>
-      <c r="CQ116" s="1"/>
+      <c r="CQ116" s="3"/>
+      <c r="CR116" s="1"/>
     </row>
-    <row r="117" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -12511,9 +12637,10 @@
       <c r="CN117" s="3"/>
       <c r="CO117" s="3"/>
       <c r="CP117" s="3"/>
-      <c r="CQ117" s="1"/>
+      <c r="CQ117" s="3"/>
+      <c r="CR117" s="1"/>
     </row>
-    <row r="118" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -12608,9 +12735,10 @@
       <c r="CN118" s="3"/>
       <c r="CO118" s="3"/>
       <c r="CP118" s="3"/>
-      <c r="CQ118" s="1"/>
+      <c r="CQ118" s="3"/>
+      <c r="CR118" s="1"/>
     </row>
-    <row r="119" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -12705,9 +12833,10 @@
       <c r="CN119" s="3"/>
       <c r="CO119" s="3"/>
       <c r="CP119" s="3"/>
-      <c r="CQ119" s="1"/>
+      <c r="CQ119" s="3"/>
+      <c r="CR119" s="1"/>
     </row>
-    <row r="120" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -12802,9 +12931,10 @@
       <c r="CN120" s="3"/>
       <c r="CO120" s="3"/>
       <c r="CP120" s="3"/>
-      <c r="CQ120" s="1"/>
+      <c r="CQ120" s="3"/>
+      <c r="CR120" s="1"/>
     </row>
-    <row r="121" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -12899,9 +13029,10 @@
       <c r="CN121" s="3"/>
       <c r="CO121" s="3"/>
       <c r="CP121" s="3"/>
-      <c r="CQ121" s="1"/>
+      <c r="CQ121" s="3"/>
+      <c r="CR121" s="1"/>
     </row>
-    <row r="122" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -12996,9 +13127,10 @@
       <c r="CN122" s="3"/>
       <c r="CO122" s="3"/>
       <c r="CP122" s="3"/>
-      <c r="CQ122" s="1"/>
+      <c r="CQ122" s="3"/>
+      <c r="CR122" s="1"/>
     </row>
-    <row r="123" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -13093,9 +13225,10 @@
       <c r="CN123" s="3"/>
       <c r="CO123" s="3"/>
       <c r="CP123" s="3"/>
-      <c r="CQ123" s="1"/>
+      <c r="CQ123" s="3"/>
+      <c r="CR123" s="1"/>
     </row>
-    <row r="124" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -13190,9 +13323,10 @@
       <c r="CN124" s="3"/>
       <c r="CO124" s="3"/>
       <c r="CP124" s="3"/>
-      <c r="CQ124" s="1"/>
+      <c r="CQ124" s="3"/>
+      <c r="CR124" s="1"/>
     </row>
-    <row r="125" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -13287,9 +13421,10 @@
       <c r="CN125" s="3"/>
       <c r="CO125" s="3"/>
       <c r="CP125" s="3"/>
-      <c r="CQ125" s="1"/>
+      <c r="CQ125" s="3"/>
+      <c r="CR125" s="1"/>
     </row>
-    <row r="126" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -13384,9 +13519,10 @@
       <c r="CN126" s="3"/>
       <c r="CO126" s="3"/>
       <c r="CP126" s="3"/>
-      <c r="CQ126" s="1"/>
+      <c r="CQ126" s="3"/>
+      <c r="CR126" s="1"/>
     </row>
-    <row r="127" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -13481,9 +13617,10 @@
       <c r="CN127" s="3"/>
       <c r="CO127" s="3"/>
       <c r="CP127" s="3"/>
-      <c r="CQ127" s="1"/>
+      <c r="CQ127" s="3"/>
+      <c r="CR127" s="1"/>
     </row>
-    <row r="128" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -13578,9 +13715,10 @@
       <c r="CN128" s="3"/>
       <c r="CO128" s="3"/>
       <c r="CP128" s="3"/>
-      <c r="CQ128" s="1"/>
+      <c r="CQ128" s="3"/>
+      <c r="CR128" s="1"/>
     </row>
-    <row r="129" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -13675,9 +13813,10 @@
       <c r="CN129" s="3"/>
       <c r="CO129" s="3"/>
       <c r="CP129" s="3"/>
-      <c r="CQ129" s="1"/>
+      <c r="CQ129" s="3"/>
+      <c r="CR129" s="1"/>
     </row>
-    <row r="130" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -13772,9 +13911,10 @@
       <c r="CN130" s="3"/>
       <c r="CO130" s="3"/>
       <c r="CP130" s="3"/>
-      <c r="CQ130" s="1"/>
+      <c r="CQ130" s="3"/>
+      <c r="CR130" s="1"/>
     </row>
-    <row r="131" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -13869,9 +14009,10 @@
       <c r="CN131" s="3"/>
       <c r="CO131" s="3"/>
       <c r="CP131" s="3"/>
-      <c r="CQ131" s="1"/>
+      <c r="CQ131" s="3"/>
+      <c r="CR131" s="1"/>
     </row>
-    <row r="132" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -13966,9 +14107,10 @@
       <c r="CN132" s="3"/>
       <c r="CO132" s="3"/>
       <c r="CP132" s="3"/>
-      <c r="CQ132" s="1"/>
+      <c r="CQ132" s="3"/>
+      <c r="CR132" s="1"/>
     </row>
-    <row r="133" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -14063,9 +14205,10 @@
       <c r="CN133" s="3"/>
       <c r="CO133" s="3"/>
       <c r="CP133" s="3"/>
-      <c r="CQ133" s="1"/>
+      <c r="CQ133" s="3"/>
+      <c r="CR133" s="1"/>
     </row>
-    <row r="134" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -14160,9 +14303,10 @@
       <c r="CN134" s="3"/>
       <c r="CO134" s="3"/>
       <c r="CP134" s="3"/>
-      <c r="CQ134" s="1"/>
+      <c r="CQ134" s="3"/>
+      <c r="CR134" s="1"/>
     </row>
-    <row r="135" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -14257,9 +14401,10 @@
       <c r="CN135" s="3"/>
       <c r="CO135" s="3"/>
       <c r="CP135" s="3"/>
-      <c r="CQ135" s="1"/>
+      <c r="CQ135" s="3"/>
+      <c r="CR135" s="1"/>
     </row>
-    <row r="136" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -14354,9 +14499,10 @@
       <c r="CN136" s="3"/>
       <c r="CO136" s="3"/>
       <c r="CP136" s="3"/>
-      <c r="CQ136" s="1"/>
+      <c r="CQ136" s="3"/>
+      <c r="CR136" s="1"/>
     </row>
-    <row r="137" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -14451,9 +14597,10 @@
       <c r="CN137" s="3"/>
       <c r="CO137" s="3"/>
       <c r="CP137" s="3"/>
-      <c r="CQ137" s="1"/>
+      <c r="CQ137" s="3"/>
+      <c r="CR137" s="1"/>
     </row>
-    <row r="138" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -14548,9 +14695,10 @@
       <c r="CN138" s="3"/>
       <c r="CO138" s="3"/>
       <c r="CP138" s="3"/>
-      <c r="CQ138" s="1"/>
+      <c r="CQ138" s="3"/>
+      <c r="CR138" s="1"/>
     </row>
-    <row r="139" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -14645,9 +14793,10 @@
       <c r="CN139" s="3"/>
       <c r="CO139" s="3"/>
       <c r="CP139" s="3"/>
-      <c r="CQ139" s="1"/>
+      <c r="CQ139" s="3"/>
+      <c r="CR139" s="1"/>
     </row>
-    <row r="140" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -14742,9 +14891,10 @@
       <c r="CN140" s="3"/>
       <c r="CO140" s="3"/>
       <c r="CP140" s="3"/>
-      <c r="CQ140" s="1"/>
+      <c r="CQ140" s="3"/>
+      <c r="CR140" s="1"/>
     </row>
-    <row r="141" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -14839,9 +14989,10 @@
       <c r="CN141" s="3"/>
       <c r="CO141" s="3"/>
       <c r="CP141" s="3"/>
-      <c r="CQ141" s="1"/>
+      <c r="CQ141" s="3"/>
+      <c r="CR141" s="1"/>
     </row>
-    <row r="142" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -14936,9 +15087,10 @@
       <c r="CN142" s="3"/>
       <c r="CO142" s="3"/>
       <c r="CP142" s="3"/>
-      <c r="CQ142" s="1"/>
+      <c r="CQ142" s="3"/>
+      <c r="CR142" s="1"/>
     </row>
-    <row r="143" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -15033,9 +15185,10 @@
       <c r="CN143" s="3"/>
       <c r="CO143" s="3"/>
       <c r="CP143" s="3"/>
-      <c r="CQ143" s="1"/>
+      <c r="CQ143" s="3"/>
+      <c r="CR143" s="1"/>
     </row>
-    <row r="144" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -15130,9 +15283,10 @@
       <c r="CN144" s="3"/>
       <c r="CO144" s="3"/>
       <c r="CP144" s="3"/>
-      <c r="CQ144" s="1"/>
+      <c r="CQ144" s="3"/>
+      <c r="CR144" s="1"/>
     </row>
-    <row r="145" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -15227,9 +15381,10 @@
       <c r="CN145" s="3"/>
       <c r="CO145" s="3"/>
       <c r="CP145" s="3"/>
-      <c r="CQ145" s="1"/>
+      <c r="CQ145" s="3"/>
+      <c r="CR145" s="1"/>
     </row>
-    <row r="146" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -15324,9 +15479,10 @@
       <c r="CN146" s="3"/>
       <c r="CO146" s="3"/>
       <c r="CP146" s="3"/>
-      <c r="CQ146" s="1"/>
+      <c r="CQ146" s="3"/>
+      <c r="CR146" s="1"/>
     </row>
-    <row r="147" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -15421,9 +15577,10 @@
       <c r="CN147" s="3"/>
       <c r="CO147" s="3"/>
       <c r="CP147" s="3"/>
-      <c r="CQ147" s="1"/>
+      <c r="CQ147" s="3"/>
+      <c r="CR147" s="1"/>
     </row>
-    <row r="148" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -15518,9 +15675,10 @@
       <c r="CN148" s="3"/>
       <c r="CO148" s="3"/>
       <c r="CP148" s="3"/>
-      <c r="CQ148" s="1"/>
+      <c r="CQ148" s="3"/>
+      <c r="CR148" s="1"/>
     </row>
-    <row r="149" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -15615,9 +15773,10 @@
       <c r="CN149" s="3"/>
       <c r="CO149" s="3"/>
       <c r="CP149" s="3"/>
-      <c r="CQ149" s="1"/>
+      <c r="CQ149" s="3"/>
+      <c r="CR149" s="1"/>
     </row>
-    <row r="150" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -15712,9 +15871,10 @@
       <c r="CN150" s="3"/>
       <c r="CO150" s="3"/>
       <c r="CP150" s="3"/>
-      <c r="CQ150" s="1"/>
+      <c r="CQ150" s="3"/>
+      <c r="CR150" s="1"/>
     </row>
-    <row r="151" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -15809,9 +15969,10 @@
       <c r="CN151" s="3"/>
       <c r="CO151" s="3"/>
       <c r="CP151" s="3"/>
-      <c r="CQ151" s="1"/>
+      <c r="CQ151" s="3"/>
+      <c r="CR151" s="1"/>
     </row>
-    <row r="152" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -15906,9 +16067,10 @@
       <c r="CN152" s="3"/>
       <c r="CO152" s="3"/>
       <c r="CP152" s="3"/>
-      <c r="CQ152" s="1"/>
+      <c r="CQ152" s="3"/>
+      <c r="CR152" s="1"/>
     </row>
-    <row r="153" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -16003,9 +16165,10 @@
       <c r="CN153" s="3"/>
       <c r="CO153" s="3"/>
       <c r="CP153" s="3"/>
-      <c r="CQ153" s="1"/>
+      <c r="CQ153" s="3"/>
+      <c r="CR153" s="1"/>
     </row>
-    <row r="154" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -16100,9 +16263,10 @@
       <c r="CN154" s="3"/>
       <c r="CO154" s="3"/>
       <c r="CP154" s="3"/>
-      <c r="CQ154" s="1"/>
+      <c r="CQ154" s="3"/>
+      <c r="CR154" s="1"/>
     </row>
-    <row r="155" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -16197,9 +16361,10 @@
       <c r="CN155" s="3"/>
       <c r="CO155" s="3"/>
       <c r="CP155" s="3"/>
-      <c r="CQ155" s="1"/>
+      <c r="CQ155" s="3"/>
+      <c r="CR155" s="1"/>
     </row>
-    <row r="156" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -16294,9 +16459,10 @@
       <c r="CN156" s="3"/>
       <c r="CO156" s="3"/>
       <c r="CP156" s="3"/>
-      <c r="CQ156" s="1"/>
+      <c r="CQ156" s="3"/>
+      <c r="CR156" s="1"/>
     </row>
-    <row r="157" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -16391,9 +16557,10 @@
       <c r="CN157" s="3"/>
       <c r="CO157" s="3"/>
       <c r="CP157" s="3"/>
-      <c r="CQ157" s="1"/>
+      <c r="CQ157" s="3"/>
+      <c r="CR157" s="1"/>
     </row>
-    <row r="158" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -16488,9 +16655,10 @@
       <c r="CN158" s="3"/>
       <c r="CO158" s="3"/>
       <c r="CP158" s="3"/>
-      <c r="CQ158" s="1"/>
+      <c r="CQ158" s="3"/>
+      <c r="CR158" s="1"/>
     </row>
-    <row r="159" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -16585,9 +16753,10 @@
       <c r="CN159" s="3"/>
       <c r="CO159" s="3"/>
       <c r="CP159" s="3"/>
-      <c r="CQ159" s="1"/>
+      <c r="CQ159" s="3"/>
+      <c r="CR159" s="1"/>
     </row>
-    <row r="160" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -16682,9 +16851,10 @@
       <c r="CN160" s="3"/>
       <c r="CO160" s="3"/>
       <c r="CP160" s="3"/>
-      <c r="CQ160" s="1"/>
+      <c r="CQ160" s="3"/>
+      <c r="CR160" s="1"/>
     </row>
-    <row r="161" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -16779,7 +16949,8 @@
       <c r="CN161" s="3"/>
       <c r="CO161" s="3"/>
       <c r="CP161" s="3"/>
-      <c r="CQ161" s="1"/>
+      <c r="CQ161" s="3"/>
+      <c r="CR161" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/frontend/src/components/components/Scholar Application Multiple.xlsx
+++ b/frontend/src/components/components/Scholar Application Multiple.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="94">
   <si>
     <t>Last Name *</t>
   </si>
@@ -301,12 +301,6 @@
   </si>
   <si>
     <t>Street Name &amp; House No. *</t>
-  </si>
-  <si>
-    <t>Org *</t>
-  </si>
-  <si>
-    <t>Work</t>
   </si>
 </sst>
 </file>
@@ -784,11 +778,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CR161"/>
+  <dimension ref="A1:CQ161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -797,10 +791,10 @@
     <col min="14" max="14" width="22.26953125" customWidth="1"/>
     <col min="15" max="19" width="21.36328125" customWidth="1"/>
     <col min="20" max="20" width="0.81640625" style="14" customWidth="1"/>
-    <col min="21" max="96" width="21.36328125" customWidth="1"/>
+    <col min="21" max="95" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
@@ -861,7 +855,9 @@
       <c r="U1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="3"/>
+      <c r="V1" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="W1" s="3" t="s">
         <v>45</v>
       </c>
@@ -1078,11 +1074,8 @@
       <c r="CP1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="CQ1" s="3" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="2" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -1143,234 +1136,229 @@
       <c r="T2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="U2" s="6"/>
       <c r="V2" s="6" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AU2" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="AX2" s="6" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="AY2" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BA2" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB2" s="6" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="BC2" s="6" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="BD2" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BE2" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BG2" s="6" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="BH2" s="6" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="BI2" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BJ2" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BK2" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BL2" s="6" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="BM2" s="6" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="BN2" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BO2" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BP2" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BQ2" s="6" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="BR2" s="6" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="BS2" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BT2" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BU2" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BV2" s="6" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="BW2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BX2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BY2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BZ2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CA2" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CB2" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CC2" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CD2" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CE2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CF2" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CG2" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CH2" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CI2" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CJ2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CK2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CL2" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CM2" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CN2" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CO2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="CP2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="CQ2" s="7" t="s">
+      <c r="CP2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CR2" s="2"/>
+      <c r="CQ2" s="2"/>
     </row>
-    <row r="3" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1465,10 +1453,9 @@
       <c r="CN3" s="3"/>
       <c r="CO3" s="3"/>
       <c r="CP3" s="3"/>
-      <c r="CQ3" s="3"/>
-      <c r="CR3" s="1"/>
+      <c r="CQ3" s="1"/>
     </row>
-    <row r="4" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1503,19 +1490,19 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
+      <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
+      <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
+      <c r="AP4" s="8"/>
       <c r="AQ4" s="8"/>
       <c r="AR4" s="8"/>
       <c r="AS4" s="8"/>
       <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
+      <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
       <c r="AW4" s="3"/>
       <c r="AX4" s="3"/>
@@ -1535,12 +1522,12 @@
       <c r="BL4" s="3"/>
       <c r="BM4" s="3"/>
       <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
+      <c r="BO4" s="9"/>
       <c r="BP4" s="9"/>
       <c r="BQ4" s="9"/>
       <c r="BR4" s="9"/>
       <c r="BS4" s="9"/>
-      <c r="BT4" s="9"/>
+      <c r="BT4" s="3"/>
       <c r="BU4" s="3"/>
       <c r="BV4" s="3"/>
       <c r="BW4" s="3"/>
@@ -1563,10 +1550,9 @@
       <c r="CN4" s="3"/>
       <c r="CO4" s="3"/>
       <c r="CP4" s="3"/>
-      <c r="CQ4" s="3"/>
-      <c r="CR4" s="1"/>
+      <c r="CQ4" s="1"/>
     </row>
-    <row r="5" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1601,19 +1587,19 @@
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
+      <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
+      <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
+      <c r="AP5" s="8"/>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="8"/>
       <c r="AS5" s="8"/>
       <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
+      <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
       <c r="AW5" s="3"/>
       <c r="AX5" s="3"/>
@@ -1633,12 +1619,12 @@
       <c r="BL5" s="3"/>
       <c r="BM5" s="3"/>
       <c r="BN5" s="3"/>
-      <c r="BO5" s="3"/>
+      <c r="BO5" s="9"/>
       <c r="BP5" s="9"/>
       <c r="BQ5" s="9"/>
       <c r="BR5" s="9"/>
       <c r="BS5" s="9"/>
-      <c r="BT5" s="9"/>
+      <c r="BT5" s="3"/>
       <c r="BU5" s="3"/>
       <c r="BV5" s="3"/>
       <c r="BW5" s="3"/>
@@ -1661,10 +1647,9 @@
       <c r="CN5" s="3"/>
       <c r="CO5" s="3"/>
       <c r="CP5" s="3"/>
-      <c r="CQ5" s="3"/>
-      <c r="CR5" s="1"/>
+      <c r="CQ5" s="1"/>
     </row>
-    <row r="6" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1699,19 +1684,19 @@
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
+      <c r="AI6" s="8"/>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
+      <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
+      <c r="AP6" s="8"/>
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8"/>
       <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
+      <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
       <c r="AW6" s="3"/>
       <c r="AX6" s="3"/>
@@ -1731,12 +1716,12 @@
       <c r="BL6" s="3"/>
       <c r="BM6" s="3"/>
       <c r="BN6" s="3"/>
-      <c r="BO6" s="3"/>
+      <c r="BO6" s="9"/>
       <c r="BP6" s="9"/>
       <c r="BQ6" s="9"/>
       <c r="BR6" s="9"/>
       <c r="BS6" s="9"/>
-      <c r="BT6" s="9"/>
+      <c r="BT6" s="3"/>
       <c r="BU6" s="3"/>
       <c r="BV6" s="3"/>
       <c r="BW6" s="3"/>
@@ -1759,10 +1744,9 @@
       <c r="CN6" s="3"/>
       <c r="CO6" s="3"/>
       <c r="CP6" s="3"/>
-      <c r="CQ6" s="3"/>
-      <c r="CR6" s="1"/>
+      <c r="CQ6" s="1"/>
     </row>
-    <row r="7" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1797,19 +1781,19 @@
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
+      <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
-      <c r="AL7" s="8"/>
+      <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
+      <c r="AP7" s="8"/>
       <c r="AQ7" s="8"/>
       <c r="AR7" s="8"/>
       <c r="AS7" s="8"/>
       <c r="AT7" s="8"/>
-      <c r="AU7" s="8"/>
+      <c r="AU7" s="3"/>
       <c r="AV7" s="3"/>
       <c r="AW7" s="3"/>
       <c r="AX7" s="3"/>
@@ -1829,12 +1813,12 @@
       <c r="BL7" s="3"/>
       <c r="BM7" s="3"/>
       <c r="BN7" s="3"/>
-      <c r="BO7" s="3"/>
+      <c r="BO7" s="9"/>
       <c r="BP7" s="9"/>
       <c r="BQ7" s="9"/>
       <c r="BR7" s="9"/>
       <c r="BS7" s="9"/>
-      <c r="BT7" s="9"/>
+      <c r="BT7" s="3"/>
       <c r="BU7" s="3"/>
       <c r="BV7" s="3"/>
       <c r="BW7" s="3"/>
@@ -1857,10 +1841,9 @@
       <c r="CN7" s="3"/>
       <c r="CO7" s="3"/>
       <c r="CP7" s="3"/>
-      <c r="CQ7" s="3"/>
-      <c r="CR7" s="1"/>
+      <c r="CQ7" s="1"/>
     </row>
-    <row r="8" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1895,19 +1878,19 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
+      <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
+      <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
+      <c r="AP8" s="8"/>
       <c r="AQ8" s="8"/>
       <c r="AR8" s="8"/>
       <c r="AS8" s="8"/>
       <c r="AT8" s="8"/>
-      <c r="AU8" s="8"/>
+      <c r="AU8" s="3"/>
       <c r="AV8" s="3"/>
       <c r="AW8" s="3"/>
       <c r="AX8" s="3"/>
@@ -1927,12 +1910,12 @@
       <c r="BL8" s="3"/>
       <c r="BM8" s="3"/>
       <c r="BN8" s="3"/>
-      <c r="BO8" s="3"/>
+      <c r="BO8" s="9"/>
       <c r="BP8" s="9"/>
       <c r="BQ8" s="9"/>
       <c r="BR8" s="9"/>
       <c r="BS8" s="9"/>
-      <c r="BT8" s="9"/>
+      <c r="BT8" s="3"/>
       <c r="BU8" s="3"/>
       <c r="BV8" s="3"/>
       <c r="BW8" s="3"/>
@@ -1955,10 +1938,9 @@
       <c r="CN8" s="3"/>
       <c r="CO8" s="3"/>
       <c r="CP8" s="3"/>
-      <c r="CQ8" s="3"/>
-      <c r="CR8" s="1"/>
+      <c r="CQ8" s="1"/>
     </row>
-    <row r="9" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1993,19 +1975,19 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
+      <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
+      <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
+      <c r="AP9" s="8"/>
       <c r="AQ9" s="8"/>
       <c r="AR9" s="8"/>
       <c r="AS9" s="8"/>
       <c r="AT9" s="8"/>
-      <c r="AU9" s="8"/>
+      <c r="AU9" s="3"/>
       <c r="AV9" s="3"/>
       <c r="AW9" s="3"/>
       <c r="AX9" s="3"/>
@@ -2025,12 +2007,12 @@
       <c r="BL9" s="3"/>
       <c r="BM9" s="3"/>
       <c r="BN9" s="3"/>
-      <c r="BO9" s="3"/>
+      <c r="BO9" s="9"/>
       <c r="BP9" s="9"/>
       <c r="BQ9" s="9"/>
       <c r="BR9" s="9"/>
       <c r="BS9" s="9"/>
-      <c r="BT9" s="9"/>
+      <c r="BT9" s="3"/>
       <c r="BU9" s="3"/>
       <c r="BV9" s="3"/>
       <c r="BW9" s="3"/>
@@ -2053,10 +2035,9 @@
       <c r="CN9" s="3"/>
       <c r="CO9" s="3"/>
       <c r="CP9" s="3"/>
-      <c r="CQ9" s="3"/>
-      <c r="CR9" s="1"/>
+      <c r="CQ9" s="1"/>
     </row>
-    <row r="10" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2091,19 +2072,19 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
+      <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
+      <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
+      <c r="AP10" s="8"/>
       <c r="AQ10" s="8"/>
       <c r="AR10" s="8"/>
       <c r="AS10" s="8"/>
       <c r="AT10" s="8"/>
-      <c r="AU10" s="8"/>
+      <c r="AU10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="3"/>
       <c r="AX10" s="3"/>
@@ -2123,12 +2104,12 @@
       <c r="BL10" s="3"/>
       <c r="BM10" s="3"/>
       <c r="BN10" s="3"/>
-      <c r="BO10" s="3"/>
+      <c r="BO10" s="9"/>
       <c r="BP10" s="9"/>
       <c r="BQ10" s="9"/>
       <c r="BR10" s="9"/>
       <c r="BS10" s="9"/>
-      <c r="BT10" s="9"/>
+      <c r="BT10" s="3"/>
       <c r="BU10" s="3"/>
       <c r="BV10" s="3"/>
       <c r="BW10" s="3"/>
@@ -2151,10 +2132,9 @@
       <c r="CN10" s="3"/>
       <c r="CO10" s="3"/>
       <c r="CP10" s="3"/>
-      <c r="CQ10" s="3"/>
-      <c r="CR10" s="1"/>
+      <c r="CQ10" s="1"/>
     </row>
-    <row r="11" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2189,19 +2169,19 @@
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
+      <c r="AI11" s="8"/>
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
+      <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
+      <c r="AP11" s="8"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="8"/>
       <c r="AS11" s="8"/>
       <c r="AT11" s="8"/>
-      <c r="AU11" s="8"/>
+      <c r="AU11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="3"/>
       <c r="AX11" s="3"/>
@@ -2221,12 +2201,12 @@
       <c r="BL11" s="3"/>
       <c r="BM11" s="3"/>
       <c r="BN11" s="3"/>
-      <c r="BO11" s="3"/>
+      <c r="BO11" s="9"/>
       <c r="BP11" s="9"/>
       <c r="BQ11" s="9"/>
       <c r="BR11" s="9"/>
       <c r="BS11" s="9"/>
-      <c r="BT11" s="9"/>
+      <c r="BT11" s="3"/>
       <c r="BU11" s="3"/>
       <c r="BV11" s="3"/>
       <c r="BW11" s="3"/>
@@ -2249,10 +2229,9 @@
       <c r="CN11" s="3"/>
       <c r="CO11" s="3"/>
       <c r="CP11" s="3"/>
-      <c r="CQ11" s="3"/>
-      <c r="CR11" s="1"/>
+      <c r="CQ11" s="1"/>
     </row>
-    <row r="12" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2287,19 +2266,19 @@
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
+      <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
       <c r="AK12" s="8"/>
-      <c r="AL12" s="8"/>
+      <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
+      <c r="AP12" s="8"/>
       <c r="AQ12" s="8"/>
       <c r="AR12" s="8"/>
       <c r="AS12" s="8"/>
       <c r="AT12" s="8"/>
-      <c r="AU12" s="8"/>
+      <c r="AU12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="3"/>
       <c r="AX12" s="3"/>
@@ -2319,12 +2298,12 @@
       <c r="BL12" s="3"/>
       <c r="BM12" s="3"/>
       <c r="BN12" s="3"/>
-      <c r="BO12" s="3"/>
+      <c r="BO12" s="9"/>
       <c r="BP12" s="9"/>
       <c r="BQ12" s="9"/>
       <c r="BR12" s="9"/>
       <c r="BS12" s="9"/>
-      <c r="BT12" s="9"/>
+      <c r="BT12" s="3"/>
       <c r="BU12" s="3"/>
       <c r="BV12" s="3"/>
       <c r="BW12" s="3"/>
@@ -2347,10 +2326,9 @@
       <c r="CN12" s="3"/>
       <c r="CO12" s="3"/>
       <c r="CP12" s="3"/>
-      <c r="CQ12" s="3"/>
-      <c r="CR12" s="1"/>
+      <c r="CQ12" s="1"/>
     </row>
-    <row r="13" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2385,19 +2363,19 @@
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
+      <c r="AI13" s="8"/>
       <c r="AJ13" s="8"/>
       <c r="AK13" s="8"/>
-      <c r="AL13" s="8"/>
+      <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
+      <c r="AP13" s="8"/>
       <c r="AQ13" s="8"/>
       <c r="AR13" s="8"/>
       <c r="AS13" s="8"/>
       <c r="AT13" s="8"/>
-      <c r="AU13" s="8"/>
+      <c r="AU13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="3"/>
       <c r="AX13" s="3"/>
@@ -2417,12 +2395,12 @@
       <c r="BL13" s="3"/>
       <c r="BM13" s="3"/>
       <c r="BN13" s="3"/>
-      <c r="BO13" s="3"/>
+      <c r="BO13" s="9"/>
       <c r="BP13" s="9"/>
       <c r="BQ13" s="9"/>
       <c r="BR13" s="9"/>
       <c r="BS13" s="9"/>
-      <c r="BT13" s="9"/>
+      <c r="BT13" s="3"/>
       <c r="BU13" s="3"/>
       <c r="BV13" s="3"/>
       <c r="BW13" s="3"/>
@@ -2445,10 +2423,9 @@
       <c r="CN13" s="3"/>
       <c r="CO13" s="3"/>
       <c r="CP13" s="3"/>
-      <c r="CQ13" s="3"/>
-      <c r="CR13" s="1"/>
+      <c r="CQ13" s="1"/>
     </row>
-    <row r="14" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2483,19 +2460,19 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
+      <c r="AI14" s="8"/>
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
-      <c r="AL14" s="8"/>
+      <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
+      <c r="AP14" s="8"/>
       <c r="AQ14" s="8"/>
       <c r="AR14" s="8"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
-      <c r="AU14" s="8"/>
+      <c r="AU14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="3"/>
       <c r="AX14" s="3"/>
@@ -2515,12 +2492,12 @@
       <c r="BL14" s="3"/>
       <c r="BM14" s="3"/>
       <c r="BN14" s="3"/>
-      <c r="BO14" s="3"/>
+      <c r="BO14" s="9"/>
       <c r="BP14" s="9"/>
       <c r="BQ14" s="9"/>
       <c r="BR14" s="9"/>
       <c r="BS14" s="9"/>
-      <c r="BT14" s="9"/>
+      <c r="BT14" s="3"/>
       <c r="BU14" s="3"/>
       <c r="BV14" s="3"/>
       <c r="BW14" s="3"/>
@@ -2543,10 +2520,9 @@
       <c r="CN14" s="3"/>
       <c r="CO14" s="3"/>
       <c r="CP14" s="3"/>
-      <c r="CQ14" s="3"/>
-      <c r="CR14" s="1"/>
+      <c r="CQ14" s="1"/>
     </row>
-    <row r="15" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2581,19 +2557,19 @@
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
+      <c r="AI15" s="8"/>
       <c r="AJ15" s="8"/>
       <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
+      <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
+      <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
       <c r="AR15" s="8"/>
       <c r="AS15" s="8"/>
       <c r="AT15" s="8"/>
-      <c r="AU15" s="8"/>
+      <c r="AU15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
@@ -2613,12 +2589,12 @@
       <c r="BL15" s="3"/>
       <c r="BM15" s="3"/>
       <c r="BN15" s="3"/>
-      <c r="BO15" s="3"/>
+      <c r="BO15" s="9"/>
       <c r="BP15" s="9"/>
       <c r="BQ15" s="9"/>
       <c r="BR15" s="9"/>
       <c r="BS15" s="9"/>
-      <c r="BT15" s="9"/>
+      <c r="BT15" s="3"/>
       <c r="BU15" s="3"/>
       <c r="BV15" s="3"/>
       <c r="BW15" s="3"/>
@@ -2641,10 +2617,9 @@
       <c r="CN15" s="3"/>
       <c r="CO15" s="3"/>
       <c r="CP15" s="3"/>
-      <c r="CQ15" s="3"/>
-      <c r="CR15" s="1"/>
+      <c r="CQ15" s="1"/>
     </row>
-    <row r="16" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2679,19 +2654,19 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
+      <c r="AI16" s="8"/>
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
-      <c r="AL16" s="8"/>
+      <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
+      <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
       <c r="AR16" s="8"/>
       <c r="AS16" s="8"/>
       <c r="AT16" s="8"/>
-      <c r="AU16" s="8"/>
+      <c r="AU16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="AW16" s="3"/>
       <c r="AX16" s="3"/>
@@ -2711,12 +2686,12 @@
       <c r="BL16" s="3"/>
       <c r="BM16" s="3"/>
       <c r="BN16" s="3"/>
-      <c r="BO16" s="3"/>
+      <c r="BO16" s="9"/>
       <c r="BP16" s="9"/>
       <c r="BQ16" s="9"/>
       <c r="BR16" s="9"/>
       <c r="BS16" s="9"/>
-      <c r="BT16" s="9"/>
+      <c r="BT16" s="3"/>
       <c r="BU16" s="3"/>
       <c r="BV16" s="3"/>
       <c r="BW16" s="3"/>
@@ -2739,10 +2714,9 @@
       <c r="CN16" s="3"/>
       <c r="CO16" s="3"/>
       <c r="CP16" s="3"/>
-      <c r="CQ16" s="3"/>
-      <c r="CR16" s="1"/>
+      <c r="CQ16" s="1"/>
     </row>
-    <row r="17" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2777,19 +2751,19 @@
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
+      <c r="AI17" s="8"/>
       <c r="AJ17" s="8"/>
       <c r="AK17" s="8"/>
-      <c r="AL17" s="8"/>
+      <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
+      <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
       <c r="AR17" s="8"/>
       <c r="AS17" s="8"/>
       <c r="AT17" s="8"/>
-      <c r="AU17" s="8"/>
+      <c r="AU17" s="3"/>
       <c r="AV17" s="3"/>
       <c r="AW17" s="3"/>
       <c r="AX17" s="3"/>
@@ -2809,12 +2783,12 @@
       <c r="BL17" s="3"/>
       <c r="BM17" s="3"/>
       <c r="BN17" s="3"/>
-      <c r="BO17" s="3"/>
+      <c r="BO17" s="9"/>
       <c r="BP17" s="9"/>
       <c r="BQ17" s="9"/>
       <c r="BR17" s="9"/>
       <c r="BS17" s="9"/>
-      <c r="BT17" s="9"/>
+      <c r="BT17" s="3"/>
       <c r="BU17" s="3"/>
       <c r="BV17" s="3"/>
       <c r="BW17" s="3"/>
@@ -2837,10 +2811,9 @@
       <c r="CN17" s="3"/>
       <c r="CO17" s="3"/>
       <c r="CP17" s="3"/>
-      <c r="CQ17" s="3"/>
-      <c r="CR17" s="1"/>
+      <c r="CQ17" s="1"/>
     </row>
-    <row r="18" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2875,19 +2848,19 @@
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
+      <c r="AI18" s="8"/>
       <c r="AJ18" s="8"/>
       <c r="AK18" s="8"/>
-      <c r="AL18" s="8"/>
+      <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
+      <c r="AP18" s="8"/>
       <c r="AQ18" s="8"/>
       <c r="AR18" s="8"/>
       <c r="AS18" s="8"/>
       <c r="AT18" s="8"/>
-      <c r="AU18" s="8"/>
+      <c r="AU18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="AW18" s="3"/>
       <c r="AX18" s="3"/>
@@ -2907,12 +2880,12 @@
       <c r="BL18" s="3"/>
       <c r="BM18" s="3"/>
       <c r="BN18" s="3"/>
-      <c r="BO18" s="3"/>
+      <c r="BO18" s="9"/>
       <c r="BP18" s="9"/>
       <c r="BQ18" s="9"/>
       <c r="BR18" s="9"/>
       <c r="BS18" s="9"/>
-      <c r="BT18" s="9"/>
+      <c r="BT18" s="3"/>
       <c r="BU18" s="3"/>
       <c r="BV18" s="3"/>
       <c r="BW18" s="3"/>
@@ -2935,10 +2908,9 @@
       <c r="CN18" s="3"/>
       <c r="CO18" s="3"/>
       <c r="CP18" s="3"/>
-      <c r="CQ18" s="3"/>
-      <c r="CR18" s="1"/>
+      <c r="CQ18" s="1"/>
     </row>
-    <row r="19" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2973,19 +2945,19 @@
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
+      <c r="AI19" s="8"/>
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
-      <c r="AL19" s="8"/>
+      <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
+      <c r="AP19" s="8"/>
       <c r="AQ19" s="8"/>
       <c r="AR19" s="8"/>
       <c r="AS19" s="8"/>
       <c r="AT19" s="8"/>
-      <c r="AU19" s="8"/>
+      <c r="AU19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="AW19" s="3"/>
       <c r="AX19" s="3"/>
@@ -3005,12 +2977,12 @@
       <c r="BL19" s="3"/>
       <c r="BM19" s="3"/>
       <c r="BN19" s="3"/>
-      <c r="BO19" s="3"/>
+      <c r="BO19" s="9"/>
       <c r="BP19" s="9"/>
       <c r="BQ19" s="9"/>
       <c r="BR19" s="9"/>
       <c r="BS19" s="9"/>
-      <c r="BT19" s="9"/>
+      <c r="BT19" s="3"/>
       <c r="BU19" s="3"/>
       <c r="BV19" s="3"/>
       <c r="BW19" s="3"/>
@@ -3033,10 +3005,9 @@
       <c r="CN19" s="3"/>
       <c r="CO19" s="3"/>
       <c r="CP19" s="3"/>
-      <c r="CQ19" s="3"/>
-      <c r="CR19" s="1"/>
+      <c r="CQ19" s="1"/>
     </row>
-    <row r="20" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3071,19 +3042,19 @@
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
+      <c r="AI20" s="8"/>
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
-      <c r="AL20" s="8"/>
+      <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
+      <c r="AP20" s="8"/>
       <c r="AQ20" s="8"/>
       <c r="AR20" s="8"/>
       <c r="AS20" s="8"/>
       <c r="AT20" s="8"/>
-      <c r="AU20" s="8"/>
+      <c r="AU20" s="3"/>
       <c r="AV20" s="3"/>
       <c r="AW20" s="3"/>
       <c r="AX20" s="3"/>
@@ -3103,12 +3074,12 @@
       <c r="BL20" s="3"/>
       <c r="BM20" s="3"/>
       <c r="BN20" s="3"/>
-      <c r="BO20" s="3"/>
+      <c r="BO20" s="9"/>
       <c r="BP20" s="9"/>
       <c r="BQ20" s="9"/>
       <c r="BR20" s="9"/>
       <c r="BS20" s="9"/>
-      <c r="BT20" s="9"/>
+      <c r="BT20" s="3"/>
       <c r="BU20" s="3"/>
       <c r="BV20" s="3"/>
       <c r="BW20" s="3"/>
@@ -3131,10 +3102,9 @@
       <c r="CN20" s="3"/>
       <c r="CO20" s="3"/>
       <c r="CP20" s="3"/>
-      <c r="CQ20" s="3"/>
-      <c r="CR20" s="1"/>
+      <c r="CQ20" s="1"/>
     </row>
-    <row r="21" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3169,19 +3139,19 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
+      <c r="AI21" s="8"/>
       <c r="AJ21" s="8"/>
       <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
+      <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
+      <c r="AP21" s="8"/>
       <c r="AQ21" s="8"/>
       <c r="AR21" s="8"/>
       <c r="AS21" s="8"/>
       <c r="AT21" s="8"/>
-      <c r="AU21" s="8"/>
+      <c r="AU21" s="3"/>
       <c r="AV21" s="3"/>
       <c r="AW21" s="3"/>
       <c r="AX21" s="3"/>
@@ -3201,12 +3171,12 @@
       <c r="BL21" s="3"/>
       <c r="BM21" s="3"/>
       <c r="BN21" s="3"/>
-      <c r="BO21" s="3"/>
+      <c r="BO21" s="9"/>
       <c r="BP21" s="9"/>
       <c r="BQ21" s="9"/>
       <c r="BR21" s="9"/>
       <c r="BS21" s="9"/>
-      <c r="BT21" s="9"/>
+      <c r="BT21" s="3"/>
       <c r="BU21" s="3"/>
       <c r="BV21" s="3"/>
       <c r="BW21" s="3"/>
@@ -3229,10 +3199,9 @@
       <c r="CN21" s="3"/>
       <c r="CO21" s="3"/>
       <c r="CP21" s="3"/>
-      <c r="CQ21" s="3"/>
-      <c r="CR21" s="1"/>
+      <c r="CQ21" s="1"/>
     </row>
-    <row r="22" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3267,19 +3236,19 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
+      <c r="AI22" s="8"/>
       <c r="AJ22" s="8"/>
       <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
+      <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
+      <c r="AP22" s="8"/>
       <c r="AQ22" s="8"/>
       <c r="AR22" s="8"/>
       <c r="AS22" s="8"/>
       <c r="AT22" s="8"/>
-      <c r="AU22" s="8"/>
+      <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
@@ -3299,12 +3268,12 @@
       <c r="BL22" s="3"/>
       <c r="BM22" s="3"/>
       <c r="BN22" s="3"/>
-      <c r="BO22" s="3"/>
+      <c r="BO22" s="9"/>
       <c r="BP22" s="9"/>
       <c r="BQ22" s="9"/>
       <c r="BR22" s="9"/>
       <c r="BS22" s="9"/>
-      <c r="BT22" s="9"/>
+      <c r="BT22" s="3"/>
       <c r="BU22" s="3"/>
       <c r="BV22" s="3"/>
       <c r="BW22" s="3"/>
@@ -3327,10 +3296,9 @@
       <c r="CN22" s="3"/>
       <c r="CO22" s="3"/>
       <c r="CP22" s="3"/>
-      <c r="CQ22" s="3"/>
-      <c r="CR22" s="1"/>
+      <c r="CQ22" s="1"/>
     </row>
-    <row r="23" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3365,19 +3333,19 @@
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
+      <c r="AI23" s="8"/>
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
-      <c r="AL23" s="8"/>
+      <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
+      <c r="AP23" s="8"/>
       <c r="AQ23" s="8"/>
       <c r="AR23" s="8"/>
       <c r="AS23" s="8"/>
       <c r="AT23" s="8"/>
-      <c r="AU23" s="8"/>
+      <c r="AU23" s="3"/>
       <c r="AV23" s="3"/>
       <c r="AW23" s="3"/>
       <c r="AX23" s="3"/>
@@ -3397,12 +3365,12 @@
       <c r="BL23" s="3"/>
       <c r="BM23" s="3"/>
       <c r="BN23" s="3"/>
-      <c r="BO23" s="3"/>
+      <c r="BO23" s="9"/>
       <c r="BP23" s="9"/>
       <c r="BQ23" s="9"/>
       <c r="BR23" s="9"/>
       <c r="BS23" s="9"/>
-      <c r="BT23" s="9"/>
+      <c r="BT23" s="3"/>
       <c r="BU23" s="3"/>
       <c r="BV23" s="3"/>
       <c r="BW23" s="3"/>
@@ -3425,10 +3393,9 @@
       <c r="CN23" s="3"/>
       <c r="CO23" s="3"/>
       <c r="CP23" s="3"/>
-      <c r="CQ23" s="3"/>
-      <c r="CR23" s="1"/>
+      <c r="CQ23" s="1"/>
     </row>
-    <row r="24" spans="1:96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3463,19 +3430,19 @@
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
+      <c r="AI24" s="8"/>
       <c r="AJ24" s="8"/>
       <c r="AK24" s="8"/>
-      <c r="AL24" s="8"/>
+      <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
+      <c r="AP24" s="8"/>
       <c r="AQ24" s="8"/>
       <c r="AR24" s="8"/>
       <c r="AS24" s="8"/>
       <c r="AT24" s="8"/>
-      <c r="AU24" s="8"/>
+      <c r="AU24" s="3"/>
       <c r="AV24" s="3"/>
       <c r="AW24" s="3"/>
       <c r="AX24" s="3"/>
@@ -3495,12 +3462,12 @@
       <c r="BL24" s="3"/>
       <c r="BM24" s="3"/>
       <c r="BN24" s="3"/>
-      <c r="BO24" s="3"/>
+      <c r="BO24" s="9"/>
       <c r="BP24" s="9"/>
       <c r="BQ24" s="9"/>
       <c r="BR24" s="9"/>
       <c r="BS24" s="9"/>
-      <c r="BT24" s="9"/>
+      <c r="BT24" s="3"/>
       <c r="BU24" s="3"/>
       <c r="BV24" s="3"/>
       <c r="BW24" s="3"/>
@@ -3523,10 +3490,9 @@
       <c r="CN24" s="3"/>
       <c r="CO24" s="3"/>
       <c r="CP24" s="3"/>
-      <c r="CQ24" s="3"/>
-      <c r="CR24" s="1"/>
+      <c r="CQ24" s="1"/>
     </row>
-    <row r="25" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3561,19 +3527,19 @@
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
+      <c r="AI25" s="8"/>
       <c r="AJ25" s="8"/>
       <c r="AK25" s="8"/>
-      <c r="AL25" s="8"/>
+      <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
+      <c r="AP25" s="8"/>
       <c r="AQ25" s="8"/>
       <c r="AR25" s="8"/>
       <c r="AS25" s="8"/>
       <c r="AT25" s="8"/>
-      <c r="AU25" s="8"/>
+      <c r="AU25" s="3"/>
       <c r="AV25" s="3"/>
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
@@ -3593,12 +3559,12 @@
       <c r="BL25" s="3"/>
       <c r="BM25" s="3"/>
       <c r="BN25" s="3"/>
-      <c r="BO25" s="3"/>
+      <c r="BO25" s="9"/>
       <c r="BP25" s="9"/>
       <c r="BQ25" s="9"/>
       <c r="BR25" s="9"/>
       <c r="BS25" s="9"/>
-      <c r="BT25" s="9"/>
+      <c r="BT25" s="3"/>
       <c r="BU25" s="3"/>
       <c r="BV25" s="3"/>
       <c r="BW25" s="3"/>
@@ -3621,10 +3587,9 @@
       <c r="CN25" s="3"/>
       <c r="CO25" s="3"/>
       <c r="CP25" s="3"/>
-      <c r="CQ25" s="3"/>
-      <c r="CR25" s="1"/>
+      <c r="CQ25" s="1"/>
     </row>
-    <row r="26" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3659,19 +3624,19 @@
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
+      <c r="AI26" s="8"/>
       <c r="AJ26" s="8"/>
       <c r="AK26" s="8"/>
-      <c r="AL26" s="8"/>
+      <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
+      <c r="AP26" s="8"/>
       <c r="AQ26" s="8"/>
       <c r="AR26" s="8"/>
       <c r="AS26" s="8"/>
       <c r="AT26" s="8"/>
-      <c r="AU26" s="8"/>
+      <c r="AU26" s="3"/>
       <c r="AV26" s="3"/>
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
@@ -3691,12 +3656,12 @@
       <c r="BL26" s="3"/>
       <c r="BM26" s="3"/>
       <c r="BN26" s="3"/>
-      <c r="BO26" s="3"/>
+      <c r="BO26" s="9"/>
       <c r="BP26" s="9"/>
       <c r="BQ26" s="9"/>
       <c r="BR26" s="9"/>
       <c r="BS26" s="9"/>
-      <c r="BT26" s="9"/>
+      <c r="BT26" s="3"/>
       <c r="BU26" s="3"/>
       <c r="BV26" s="3"/>
       <c r="BW26" s="3"/>
@@ -3719,10 +3684,9 @@
       <c r="CN26" s="3"/>
       <c r="CO26" s="3"/>
       <c r="CP26" s="3"/>
-      <c r="CQ26" s="3"/>
-      <c r="CR26" s="1"/>
+      <c r="CQ26" s="1"/>
     </row>
-    <row r="27" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3757,19 +3721,19 @@
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
+      <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
       <c r="AK27" s="8"/>
-      <c r="AL27" s="8"/>
+      <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
-      <c r="AP27" s="3"/>
+      <c r="AP27" s="8"/>
       <c r="AQ27" s="8"/>
       <c r="AR27" s="8"/>
       <c r="AS27" s="8"/>
       <c r="AT27" s="8"/>
-      <c r="AU27" s="8"/>
+      <c r="AU27" s="3"/>
       <c r="AV27" s="3"/>
       <c r="AW27" s="3"/>
       <c r="AX27" s="3"/>
@@ -3789,12 +3753,12 @@
       <c r="BL27" s="3"/>
       <c r="BM27" s="3"/>
       <c r="BN27" s="3"/>
-      <c r="BO27" s="3"/>
+      <c r="BO27" s="9"/>
       <c r="BP27" s="9"/>
       <c r="BQ27" s="9"/>
       <c r="BR27" s="9"/>
       <c r="BS27" s="9"/>
-      <c r="BT27" s="9"/>
+      <c r="BT27" s="3"/>
       <c r="BU27" s="3"/>
       <c r="BV27" s="3"/>
       <c r="BW27" s="3"/>
@@ -3817,10 +3781,9 @@
       <c r="CN27" s="3"/>
       <c r="CO27" s="3"/>
       <c r="CP27" s="3"/>
-      <c r="CQ27" s="3"/>
-      <c r="CR27" s="1"/>
+      <c r="CQ27" s="1"/>
     </row>
-    <row r="28" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3855,19 +3818,19 @@
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
+      <c r="AI28" s="8"/>
       <c r="AJ28" s="8"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="8"/>
+      <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
+      <c r="AP28" s="8"/>
       <c r="AQ28" s="8"/>
       <c r="AR28" s="8"/>
       <c r="AS28" s="8"/>
       <c r="AT28" s="8"/>
-      <c r="AU28" s="8"/>
+      <c r="AU28" s="3"/>
       <c r="AV28" s="3"/>
       <c r="AW28" s="3"/>
       <c r="AX28" s="3"/>
@@ -3887,12 +3850,12 @@
       <c r="BL28" s="3"/>
       <c r="BM28" s="3"/>
       <c r="BN28" s="3"/>
-      <c r="BO28" s="3"/>
+      <c r="BO28" s="9"/>
       <c r="BP28" s="9"/>
       <c r="BQ28" s="9"/>
       <c r="BR28" s="9"/>
       <c r="BS28" s="9"/>
-      <c r="BT28" s="9"/>
+      <c r="BT28" s="3"/>
       <c r="BU28" s="3"/>
       <c r="BV28" s="3"/>
       <c r="BW28" s="3"/>
@@ -3915,10 +3878,9 @@
       <c r="CN28" s="3"/>
       <c r="CO28" s="3"/>
       <c r="CP28" s="3"/>
-      <c r="CQ28" s="3"/>
-      <c r="CR28" s="1"/>
+      <c r="CQ28" s="1"/>
     </row>
-    <row r="29" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3953,19 +3915,19 @@
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
+      <c r="AI29" s="8"/>
       <c r="AJ29" s="8"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="8"/>
+      <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
+      <c r="AP29" s="8"/>
       <c r="AQ29" s="8"/>
       <c r="AR29" s="8"/>
       <c r="AS29" s="8"/>
       <c r="AT29" s="8"/>
-      <c r="AU29" s="8"/>
+      <c r="AU29" s="3"/>
       <c r="AV29" s="3"/>
       <c r="AW29" s="3"/>
       <c r="AX29" s="3"/>
@@ -3985,12 +3947,12 @@
       <c r="BL29" s="3"/>
       <c r="BM29" s="3"/>
       <c r="BN29" s="3"/>
-      <c r="BO29" s="3"/>
+      <c r="BO29" s="9"/>
       <c r="BP29" s="9"/>
       <c r="BQ29" s="9"/>
       <c r="BR29" s="9"/>
       <c r="BS29" s="9"/>
-      <c r="BT29" s="9"/>
+      <c r="BT29" s="3"/>
       <c r="BU29" s="3"/>
       <c r="BV29" s="3"/>
       <c r="BW29" s="3"/>
@@ -4013,10 +3975,9 @@
       <c r="CN29" s="3"/>
       <c r="CO29" s="3"/>
       <c r="CP29" s="3"/>
-      <c r="CQ29" s="3"/>
-      <c r="CR29" s="1"/>
+      <c r="CQ29" s="1"/>
     </row>
-    <row r="30" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4051,19 +4012,19 @@
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
+      <c r="AI30" s="8"/>
       <c r="AJ30" s="8"/>
       <c r="AK30" s="8"/>
-      <c r="AL30" s="8"/>
+      <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
-      <c r="AP30" s="3"/>
+      <c r="AP30" s="8"/>
       <c r="AQ30" s="8"/>
       <c r="AR30" s="8"/>
       <c r="AS30" s="8"/>
       <c r="AT30" s="8"/>
-      <c r="AU30" s="8"/>
+      <c r="AU30" s="3"/>
       <c r="AV30" s="3"/>
       <c r="AW30" s="3"/>
       <c r="AX30" s="3"/>
@@ -4083,12 +4044,12 @@
       <c r="BL30" s="3"/>
       <c r="BM30" s="3"/>
       <c r="BN30" s="3"/>
-      <c r="BO30" s="3"/>
+      <c r="BO30" s="9"/>
       <c r="BP30" s="9"/>
       <c r="BQ30" s="9"/>
       <c r="BR30" s="9"/>
       <c r="BS30" s="9"/>
-      <c r="BT30" s="9"/>
+      <c r="BT30" s="3"/>
       <c r="BU30" s="3"/>
       <c r="BV30" s="3"/>
       <c r="BW30" s="3"/>
@@ -4111,10 +4072,9 @@
       <c r="CN30" s="3"/>
       <c r="CO30" s="3"/>
       <c r="CP30" s="3"/>
-      <c r="CQ30" s="3"/>
-      <c r="CR30" s="1"/>
+      <c r="CQ30" s="1"/>
     </row>
-    <row r="31" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4149,19 +4109,19 @@
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
+      <c r="AI31" s="8"/>
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
-      <c r="AL31" s="8"/>
+      <c r="AL31" s="3"/>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
-      <c r="AP31" s="3"/>
+      <c r="AP31" s="8"/>
       <c r="AQ31" s="8"/>
       <c r="AR31" s="8"/>
       <c r="AS31" s="8"/>
       <c r="AT31" s="8"/>
-      <c r="AU31" s="8"/>
+      <c r="AU31" s="3"/>
       <c r="AV31" s="3"/>
       <c r="AW31" s="3"/>
       <c r="AX31" s="3"/>
@@ -4181,12 +4141,12 @@
       <c r="BL31" s="3"/>
       <c r="BM31" s="3"/>
       <c r="BN31" s="3"/>
-      <c r="BO31" s="3"/>
+      <c r="BO31" s="9"/>
       <c r="BP31" s="9"/>
       <c r="BQ31" s="9"/>
       <c r="BR31" s="9"/>
       <c r="BS31" s="9"/>
-      <c r="BT31" s="9"/>
+      <c r="BT31" s="3"/>
       <c r="BU31" s="3"/>
       <c r="BV31" s="3"/>
       <c r="BW31" s="3"/>
@@ -4209,10 +4169,9 @@
       <c r="CN31" s="3"/>
       <c r="CO31" s="3"/>
       <c r="CP31" s="3"/>
-      <c r="CQ31" s="3"/>
-      <c r="CR31" s="1"/>
+      <c r="CQ31" s="1"/>
     </row>
-    <row r="32" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4247,19 +4206,19 @@
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
+      <c r="AI32" s="8"/>
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8"/>
-      <c r="AL32" s="8"/>
+      <c r="AL32" s="3"/>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
-      <c r="AP32" s="3"/>
+      <c r="AP32" s="8"/>
       <c r="AQ32" s="8"/>
       <c r="AR32" s="8"/>
       <c r="AS32" s="8"/>
       <c r="AT32" s="8"/>
-      <c r="AU32" s="8"/>
+      <c r="AU32" s="3"/>
       <c r="AV32" s="3"/>
       <c r="AW32" s="3"/>
       <c r="AX32" s="3"/>
@@ -4279,12 +4238,12 @@
       <c r="BL32" s="3"/>
       <c r="BM32" s="3"/>
       <c r="BN32" s="3"/>
-      <c r="BO32" s="3"/>
+      <c r="BO32" s="9"/>
       <c r="BP32" s="9"/>
       <c r="BQ32" s="9"/>
       <c r="BR32" s="9"/>
       <c r="BS32" s="9"/>
-      <c r="BT32" s="9"/>
+      <c r="BT32" s="3"/>
       <c r="BU32" s="3"/>
       <c r="BV32" s="3"/>
       <c r="BW32" s="3"/>
@@ -4307,10 +4266,9 @@
       <c r="CN32" s="3"/>
       <c r="CO32" s="3"/>
       <c r="CP32" s="3"/>
-      <c r="CQ32" s="3"/>
-      <c r="CR32" s="1"/>
+      <c r="CQ32" s="1"/>
     </row>
-    <row r="33" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4345,19 +4303,19 @@
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
+      <c r="AI33" s="8"/>
       <c r="AJ33" s="8"/>
       <c r="AK33" s="8"/>
-      <c r="AL33" s="8"/>
+      <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
+      <c r="AP33" s="8"/>
       <c r="AQ33" s="8"/>
       <c r="AR33" s="8"/>
       <c r="AS33" s="8"/>
       <c r="AT33" s="8"/>
-      <c r="AU33" s="8"/>
+      <c r="AU33" s="3"/>
       <c r="AV33" s="3"/>
       <c r="AW33" s="3"/>
       <c r="AX33" s="3"/>
@@ -4377,12 +4335,12 @@
       <c r="BL33" s="3"/>
       <c r="BM33" s="3"/>
       <c r="BN33" s="3"/>
-      <c r="BO33" s="3"/>
+      <c r="BO33" s="9"/>
       <c r="BP33" s="9"/>
       <c r="BQ33" s="9"/>
       <c r="BR33" s="9"/>
       <c r="BS33" s="9"/>
-      <c r="BT33" s="9"/>
+      <c r="BT33" s="3"/>
       <c r="BU33" s="3"/>
       <c r="BV33" s="3"/>
       <c r="BW33" s="3"/>
@@ -4405,10 +4363,9 @@
       <c r="CN33" s="3"/>
       <c r="CO33" s="3"/>
       <c r="CP33" s="3"/>
-      <c r="CQ33" s="3"/>
-      <c r="CR33" s="1"/>
+      <c r="CQ33" s="1"/>
     </row>
-    <row r="34" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4443,19 +4400,19 @@
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
+      <c r="AI34" s="8"/>
       <c r="AJ34" s="8"/>
       <c r="AK34" s="8"/>
-      <c r="AL34" s="8"/>
+      <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
+      <c r="AP34" s="8"/>
       <c r="AQ34" s="8"/>
       <c r="AR34" s="8"/>
       <c r="AS34" s="8"/>
       <c r="AT34" s="8"/>
-      <c r="AU34" s="8"/>
+      <c r="AU34" s="3"/>
       <c r="AV34" s="3"/>
       <c r="AW34" s="3"/>
       <c r="AX34" s="3"/>
@@ -4475,12 +4432,12 @@
       <c r="BL34" s="3"/>
       <c r="BM34" s="3"/>
       <c r="BN34" s="3"/>
-      <c r="BO34" s="3"/>
+      <c r="BO34" s="9"/>
       <c r="BP34" s="9"/>
       <c r="BQ34" s="9"/>
       <c r="BR34" s="9"/>
       <c r="BS34" s="9"/>
-      <c r="BT34" s="9"/>
+      <c r="BT34" s="3"/>
       <c r="BU34" s="3"/>
       <c r="BV34" s="3"/>
       <c r="BW34" s="3"/>
@@ -4503,10 +4460,9 @@
       <c r="CN34" s="3"/>
       <c r="CO34" s="3"/>
       <c r="CP34" s="3"/>
-      <c r="CQ34" s="3"/>
-      <c r="CR34" s="1"/>
+      <c r="CQ34" s="1"/>
     </row>
-    <row r="35" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4541,19 +4497,19 @@
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
+      <c r="AI35" s="8"/>
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
-      <c r="AL35" s="8"/>
+      <c r="AL35" s="3"/>
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
+      <c r="AP35" s="8"/>
       <c r="AQ35" s="8"/>
       <c r="AR35" s="8"/>
       <c r="AS35" s="8"/>
       <c r="AT35" s="8"/>
-      <c r="AU35" s="8"/>
+      <c r="AU35" s="3"/>
       <c r="AV35" s="3"/>
       <c r="AW35" s="3"/>
       <c r="AX35" s="3"/>
@@ -4573,12 +4529,12 @@
       <c r="BL35" s="3"/>
       <c r="BM35" s="3"/>
       <c r="BN35" s="3"/>
-      <c r="BO35" s="3"/>
+      <c r="BO35" s="9"/>
       <c r="BP35" s="9"/>
       <c r="BQ35" s="9"/>
       <c r="BR35" s="9"/>
       <c r="BS35" s="9"/>
-      <c r="BT35" s="9"/>
+      <c r="BT35" s="3"/>
       <c r="BU35" s="3"/>
       <c r="BV35" s="3"/>
       <c r="BW35" s="3"/>
@@ -4601,10 +4557,9 @@
       <c r="CN35" s="3"/>
       <c r="CO35" s="3"/>
       <c r="CP35" s="3"/>
-      <c r="CQ35" s="3"/>
-      <c r="CR35" s="1"/>
+      <c r="CQ35" s="1"/>
     </row>
-    <row r="36" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4639,19 +4594,19 @@
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
+      <c r="AI36" s="8"/>
       <c r="AJ36" s="8"/>
       <c r="AK36" s="8"/>
-      <c r="AL36" s="8"/>
+      <c r="AL36" s="3"/>
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
-      <c r="AP36" s="3"/>
+      <c r="AP36" s="8"/>
       <c r="AQ36" s="8"/>
       <c r="AR36" s="8"/>
       <c r="AS36" s="8"/>
       <c r="AT36" s="8"/>
-      <c r="AU36" s="8"/>
+      <c r="AU36" s="3"/>
       <c r="AV36" s="3"/>
       <c r="AW36" s="3"/>
       <c r="AX36" s="3"/>
@@ -4671,12 +4626,12 @@
       <c r="BL36" s="3"/>
       <c r="BM36" s="3"/>
       <c r="BN36" s="3"/>
-      <c r="BO36" s="3"/>
+      <c r="BO36" s="9"/>
       <c r="BP36" s="9"/>
       <c r="BQ36" s="9"/>
       <c r="BR36" s="9"/>
       <c r="BS36" s="9"/>
-      <c r="BT36" s="9"/>
+      <c r="BT36" s="3"/>
       <c r="BU36" s="3"/>
       <c r="BV36" s="3"/>
       <c r="BW36" s="3"/>
@@ -4699,10 +4654,9 @@
       <c r="CN36" s="3"/>
       <c r="CO36" s="3"/>
       <c r="CP36" s="3"/>
-      <c r="CQ36" s="3"/>
-      <c r="CR36" s="1"/>
+      <c r="CQ36" s="1"/>
     </row>
-    <row r="37" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4737,19 +4691,19 @@
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
-      <c r="AI37" s="3"/>
+      <c r="AI37" s="8"/>
       <c r="AJ37" s="8"/>
       <c r="AK37" s="8"/>
-      <c r="AL37" s="8"/>
+      <c r="AL37" s="3"/>
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
-      <c r="AP37" s="3"/>
+      <c r="AP37" s="8"/>
       <c r="AQ37" s="8"/>
       <c r="AR37" s="8"/>
       <c r="AS37" s="8"/>
       <c r="AT37" s="8"/>
-      <c r="AU37" s="8"/>
+      <c r="AU37" s="3"/>
       <c r="AV37" s="3"/>
       <c r="AW37" s="3"/>
       <c r="AX37" s="3"/>
@@ -4769,12 +4723,12 @@
       <c r="BL37" s="3"/>
       <c r="BM37" s="3"/>
       <c r="BN37" s="3"/>
-      <c r="BO37" s="3"/>
+      <c r="BO37" s="9"/>
       <c r="BP37" s="9"/>
       <c r="BQ37" s="9"/>
       <c r="BR37" s="9"/>
       <c r="BS37" s="9"/>
-      <c r="BT37" s="9"/>
+      <c r="BT37" s="3"/>
       <c r="BU37" s="3"/>
       <c r="BV37" s="3"/>
       <c r="BW37" s="3"/>
@@ -4797,10 +4751,9 @@
       <c r="CN37" s="3"/>
       <c r="CO37" s="3"/>
       <c r="CP37" s="3"/>
-      <c r="CQ37" s="3"/>
-      <c r="CR37" s="1"/>
+      <c r="CQ37" s="1"/>
     </row>
-    <row r="38" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4835,19 +4788,19 @@
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
-      <c r="AI38" s="3"/>
+      <c r="AI38" s="8"/>
       <c r="AJ38" s="8"/>
       <c r="AK38" s="8"/>
-      <c r="AL38" s="8"/>
+      <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
-      <c r="AP38" s="3"/>
+      <c r="AP38" s="8"/>
       <c r="AQ38" s="8"/>
       <c r="AR38" s="8"/>
       <c r="AS38" s="8"/>
       <c r="AT38" s="8"/>
-      <c r="AU38" s="8"/>
+      <c r="AU38" s="3"/>
       <c r="AV38" s="3"/>
       <c r="AW38" s="3"/>
       <c r="AX38" s="3"/>
@@ -4867,12 +4820,12 @@
       <c r="BL38" s="3"/>
       <c r="BM38" s="3"/>
       <c r="BN38" s="3"/>
-      <c r="BO38" s="3"/>
+      <c r="BO38" s="9"/>
       <c r="BP38" s="9"/>
       <c r="BQ38" s="9"/>
       <c r="BR38" s="9"/>
       <c r="BS38" s="9"/>
-      <c r="BT38" s="9"/>
+      <c r="BT38" s="3"/>
       <c r="BU38" s="3"/>
       <c r="BV38" s="3"/>
       <c r="BW38" s="3"/>
@@ -4895,10 +4848,9 @@
       <c r="CN38" s="3"/>
       <c r="CO38" s="3"/>
       <c r="CP38" s="3"/>
-      <c r="CQ38" s="3"/>
-      <c r="CR38" s="1"/>
+      <c r="CQ38" s="1"/>
     </row>
-    <row r="39" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4933,19 +4885,19 @@
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
+      <c r="AI39" s="8"/>
       <c r="AJ39" s="8"/>
       <c r="AK39" s="8"/>
-      <c r="AL39" s="8"/>
+      <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
-      <c r="AP39" s="3"/>
+      <c r="AP39" s="8"/>
       <c r="AQ39" s="8"/>
       <c r="AR39" s="8"/>
       <c r="AS39" s="8"/>
       <c r="AT39" s="8"/>
-      <c r="AU39" s="8"/>
+      <c r="AU39" s="3"/>
       <c r="AV39" s="3"/>
       <c r="AW39" s="3"/>
       <c r="AX39" s="3"/>
@@ -4965,12 +4917,12 @@
       <c r="BL39" s="3"/>
       <c r="BM39" s="3"/>
       <c r="BN39" s="3"/>
-      <c r="BO39" s="3"/>
+      <c r="BO39" s="9"/>
       <c r="BP39" s="9"/>
       <c r="BQ39" s="9"/>
       <c r="BR39" s="9"/>
       <c r="BS39" s="9"/>
-      <c r="BT39" s="9"/>
+      <c r="BT39" s="3"/>
       <c r="BU39" s="3"/>
       <c r="BV39" s="3"/>
       <c r="BW39" s="3"/>
@@ -4993,10 +4945,9 @@
       <c r="CN39" s="3"/>
       <c r="CO39" s="3"/>
       <c r="CP39" s="3"/>
-      <c r="CQ39" s="3"/>
-      <c r="CR39" s="1"/>
+      <c r="CQ39" s="1"/>
     </row>
-    <row r="40" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5031,19 +4982,19 @@
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
+      <c r="AI40" s="8"/>
       <c r="AJ40" s="8"/>
       <c r="AK40" s="8"/>
-      <c r="AL40" s="8"/>
+      <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
-      <c r="AP40" s="3"/>
+      <c r="AP40" s="8"/>
       <c r="AQ40" s="8"/>
       <c r="AR40" s="8"/>
       <c r="AS40" s="8"/>
       <c r="AT40" s="8"/>
-      <c r="AU40" s="8"/>
+      <c r="AU40" s="3"/>
       <c r="AV40" s="3"/>
       <c r="AW40" s="3"/>
       <c r="AX40" s="3"/>
@@ -5063,12 +5014,12 @@
       <c r="BL40" s="3"/>
       <c r="BM40" s="3"/>
       <c r="BN40" s="3"/>
-      <c r="BO40" s="3"/>
+      <c r="BO40" s="9"/>
       <c r="BP40" s="9"/>
       <c r="BQ40" s="9"/>
       <c r="BR40" s="9"/>
       <c r="BS40" s="9"/>
-      <c r="BT40" s="9"/>
+      <c r="BT40" s="3"/>
       <c r="BU40" s="3"/>
       <c r="BV40" s="3"/>
       <c r="BW40" s="3"/>
@@ -5091,10 +5042,9 @@
       <c r="CN40" s="3"/>
       <c r="CO40" s="3"/>
       <c r="CP40" s="3"/>
-      <c r="CQ40" s="3"/>
-      <c r="CR40" s="1"/>
+      <c r="CQ40" s="1"/>
     </row>
-    <row r="41" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -5129,19 +5079,19 @@
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
-      <c r="AI41" s="3"/>
+      <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
-      <c r="AL41" s="8"/>
+      <c r="AL41" s="3"/>
       <c r="AM41" s="3"/>
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
-      <c r="AP41" s="3"/>
+      <c r="AP41" s="8"/>
       <c r="AQ41" s="8"/>
       <c r="AR41" s="8"/>
       <c r="AS41" s="8"/>
       <c r="AT41" s="8"/>
-      <c r="AU41" s="8"/>
+      <c r="AU41" s="3"/>
       <c r="AV41" s="3"/>
       <c r="AW41" s="3"/>
       <c r="AX41" s="3"/>
@@ -5161,12 +5111,12 @@
       <c r="BL41" s="3"/>
       <c r="BM41" s="3"/>
       <c r="BN41" s="3"/>
-      <c r="BO41" s="3"/>
+      <c r="BO41" s="9"/>
       <c r="BP41" s="9"/>
       <c r="BQ41" s="9"/>
       <c r="BR41" s="9"/>
       <c r="BS41" s="9"/>
-      <c r="BT41" s="9"/>
+      <c r="BT41" s="3"/>
       <c r="BU41" s="3"/>
       <c r="BV41" s="3"/>
       <c r="BW41" s="3"/>
@@ -5189,10 +5139,9 @@
       <c r="CN41" s="3"/>
       <c r="CO41" s="3"/>
       <c r="CP41" s="3"/>
-      <c r="CQ41" s="3"/>
-      <c r="CR41" s="1"/>
+      <c r="CQ41" s="1"/>
     </row>
-    <row r="42" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5227,19 +5176,19 @@
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
-      <c r="AI42" s="3"/>
+      <c r="AI42" s="8"/>
       <c r="AJ42" s="8"/>
       <c r="AK42" s="8"/>
-      <c r="AL42" s="8"/>
+      <c r="AL42" s="3"/>
       <c r="AM42" s="3"/>
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
-      <c r="AP42" s="3"/>
+      <c r="AP42" s="8"/>
       <c r="AQ42" s="8"/>
       <c r="AR42" s="8"/>
       <c r="AS42" s="8"/>
       <c r="AT42" s="8"/>
-      <c r="AU42" s="8"/>
+      <c r="AU42" s="3"/>
       <c r="AV42" s="3"/>
       <c r="AW42" s="3"/>
       <c r="AX42" s="3"/>
@@ -5259,12 +5208,12 @@
       <c r="BL42" s="3"/>
       <c r="BM42" s="3"/>
       <c r="BN42" s="3"/>
-      <c r="BO42" s="3"/>
+      <c r="BO42" s="9"/>
       <c r="BP42" s="9"/>
       <c r="BQ42" s="9"/>
       <c r="BR42" s="9"/>
       <c r="BS42" s="9"/>
-      <c r="BT42" s="9"/>
+      <c r="BT42" s="3"/>
       <c r="BU42" s="3"/>
       <c r="BV42" s="3"/>
       <c r="BW42" s="3"/>
@@ -5287,10 +5236,9 @@
       <c r="CN42" s="3"/>
       <c r="CO42" s="3"/>
       <c r="CP42" s="3"/>
-      <c r="CQ42" s="3"/>
-      <c r="CR42" s="1"/>
+      <c r="CQ42" s="1"/>
     </row>
-    <row r="43" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -5325,19 +5273,19 @@
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
-      <c r="AI43" s="3"/>
+      <c r="AI43" s="8"/>
       <c r="AJ43" s="8"/>
       <c r="AK43" s="8"/>
-      <c r="AL43" s="8"/>
+      <c r="AL43" s="3"/>
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
-      <c r="AP43" s="3"/>
+      <c r="AP43" s="8"/>
       <c r="AQ43" s="8"/>
       <c r="AR43" s="8"/>
       <c r="AS43" s="8"/>
       <c r="AT43" s="8"/>
-      <c r="AU43" s="8"/>
+      <c r="AU43" s="3"/>
       <c r="AV43" s="3"/>
       <c r="AW43" s="3"/>
       <c r="AX43" s="3"/>
@@ -5357,12 +5305,12 @@
       <c r="BL43" s="3"/>
       <c r="BM43" s="3"/>
       <c r="BN43" s="3"/>
-      <c r="BO43" s="3"/>
+      <c r="BO43" s="9"/>
       <c r="BP43" s="9"/>
       <c r="BQ43" s="9"/>
       <c r="BR43" s="9"/>
       <c r="BS43" s="9"/>
-      <c r="BT43" s="9"/>
+      <c r="BT43" s="3"/>
       <c r="BU43" s="3"/>
       <c r="BV43" s="3"/>
       <c r="BW43" s="3"/>
@@ -5385,10 +5333,9 @@
       <c r="CN43" s="3"/>
       <c r="CO43" s="3"/>
       <c r="CP43" s="3"/>
-      <c r="CQ43" s="3"/>
-      <c r="CR43" s="1"/>
+      <c r="CQ43" s="1"/>
     </row>
-    <row r="44" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -5423,19 +5370,19 @@
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
-      <c r="AI44" s="3"/>
+      <c r="AI44" s="8"/>
       <c r="AJ44" s="8"/>
       <c r="AK44" s="8"/>
-      <c r="AL44" s="8"/>
+      <c r="AL44" s="3"/>
       <c r="AM44" s="3"/>
       <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
-      <c r="AP44" s="3"/>
+      <c r="AP44" s="8"/>
       <c r="AQ44" s="8"/>
       <c r="AR44" s="8"/>
       <c r="AS44" s="8"/>
       <c r="AT44" s="8"/>
-      <c r="AU44" s="8"/>
+      <c r="AU44" s="3"/>
       <c r="AV44" s="3"/>
       <c r="AW44" s="3"/>
       <c r="AX44" s="3"/>
@@ -5455,12 +5402,12 @@
       <c r="BL44" s="3"/>
       <c r="BM44" s="3"/>
       <c r="BN44" s="3"/>
-      <c r="BO44" s="3"/>
+      <c r="BO44" s="9"/>
       <c r="BP44" s="9"/>
       <c r="BQ44" s="9"/>
       <c r="BR44" s="9"/>
       <c r="BS44" s="9"/>
-      <c r="BT44" s="9"/>
+      <c r="BT44" s="3"/>
       <c r="BU44" s="3"/>
       <c r="BV44" s="3"/>
       <c r="BW44" s="3"/>
@@ -5483,10 +5430,9 @@
       <c r="CN44" s="3"/>
       <c r="CO44" s="3"/>
       <c r="CP44" s="3"/>
-      <c r="CQ44" s="3"/>
-      <c r="CR44" s="1"/>
+      <c r="CQ44" s="1"/>
     </row>
-    <row r="45" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -5521,19 +5467,19 @@
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
-      <c r="AI45" s="3"/>
+      <c r="AI45" s="8"/>
       <c r="AJ45" s="8"/>
       <c r="AK45" s="8"/>
-      <c r="AL45" s="8"/>
+      <c r="AL45" s="3"/>
       <c r="AM45" s="3"/>
       <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
-      <c r="AP45" s="3"/>
+      <c r="AP45" s="8"/>
       <c r="AQ45" s="8"/>
       <c r="AR45" s="8"/>
       <c r="AS45" s="8"/>
       <c r="AT45" s="8"/>
-      <c r="AU45" s="8"/>
+      <c r="AU45" s="3"/>
       <c r="AV45" s="3"/>
       <c r="AW45" s="3"/>
       <c r="AX45" s="3"/>
@@ -5553,12 +5499,12 @@
       <c r="BL45" s="3"/>
       <c r="BM45" s="3"/>
       <c r="BN45" s="3"/>
-      <c r="BO45" s="3"/>
+      <c r="BO45" s="9"/>
       <c r="BP45" s="9"/>
       <c r="BQ45" s="9"/>
       <c r="BR45" s="9"/>
       <c r="BS45" s="9"/>
-      <c r="BT45" s="9"/>
+      <c r="BT45" s="3"/>
       <c r="BU45" s="3"/>
       <c r="BV45" s="3"/>
       <c r="BW45" s="3"/>
@@ -5581,10 +5527,9 @@
       <c r="CN45" s="3"/>
       <c r="CO45" s="3"/>
       <c r="CP45" s="3"/>
-      <c r="CQ45" s="3"/>
-      <c r="CR45" s="1"/>
+      <c r="CQ45" s="1"/>
     </row>
-    <row r="46" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5619,19 +5564,19 @@
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
-      <c r="AI46" s="3"/>
+      <c r="AI46" s="8"/>
       <c r="AJ46" s="8"/>
       <c r="AK46" s="8"/>
-      <c r="AL46" s="8"/>
+      <c r="AL46" s="3"/>
       <c r="AM46" s="3"/>
       <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
-      <c r="AP46" s="3"/>
+      <c r="AP46" s="8"/>
       <c r="AQ46" s="8"/>
       <c r="AR46" s="8"/>
       <c r="AS46" s="8"/>
       <c r="AT46" s="8"/>
-      <c r="AU46" s="8"/>
+      <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
       <c r="AW46" s="3"/>
       <c r="AX46" s="3"/>
@@ -5651,12 +5596,12 @@
       <c r="BL46" s="3"/>
       <c r="BM46" s="3"/>
       <c r="BN46" s="3"/>
-      <c r="BO46" s="3"/>
+      <c r="BO46" s="9"/>
       <c r="BP46" s="9"/>
       <c r="BQ46" s="9"/>
       <c r="BR46" s="9"/>
       <c r="BS46" s="9"/>
-      <c r="BT46" s="9"/>
+      <c r="BT46" s="3"/>
       <c r="BU46" s="3"/>
       <c r="BV46" s="3"/>
       <c r="BW46" s="3"/>
@@ -5679,10 +5624,9 @@
       <c r="CN46" s="3"/>
       <c r="CO46" s="3"/>
       <c r="CP46" s="3"/>
-      <c r="CQ46" s="3"/>
-      <c r="CR46" s="1"/>
+      <c r="CQ46" s="1"/>
     </row>
-    <row r="47" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -5717,19 +5661,19 @@
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
-      <c r="AI47" s="3"/>
+      <c r="AI47" s="8"/>
       <c r="AJ47" s="8"/>
       <c r="AK47" s="8"/>
-      <c r="AL47" s="8"/>
+      <c r="AL47" s="3"/>
       <c r="AM47" s="3"/>
       <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
-      <c r="AP47" s="3"/>
+      <c r="AP47" s="8"/>
       <c r="AQ47" s="8"/>
       <c r="AR47" s="8"/>
       <c r="AS47" s="8"/>
       <c r="AT47" s="8"/>
-      <c r="AU47" s="8"/>
+      <c r="AU47" s="3"/>
       <c r="AV47" s="3"/>
       <c r="AW47" s="3"/>
       <c r="AX47" s="3"/>
@@ -5749,12 +5693,12 @@
       <c r="BL47" s="3"/>
       <c r="BM47" s="3"/>
       <c r="BN47" s="3"/>
-      <c r="BO47" s="3"/>
+      <c r="BO47" s="9"/>
       <c r="BP47" s="9"/>
       <c r="BQ47" s="9"/>
       <c r="BR47" s="9"/>
       <c r="BS47" s="9"/>
-      <c r="BT47" s="9"/>
+      <c r="BT47" s="3"/>
       <c r="BU47" s="3"/>
       <c r="BV47" s="3"/>
       <c r="BW47" s="3"/>
@@ -5777,10 +5721,9 @@
       <c r="CN47" s="3"/>
       <c r="CO47" s="3"/>
       <c r="CP47" s="3"/>
-      <c r="CQ47" s="3"/>
-      <c r="CR47" s="1"/>
+      <c r="CQ47" s="1"/>
     </row>
-    <row r="48" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -5815,19 +5758,19 @@
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
-      <c r="AI48" s="3"/>
+      <c r="AI48" s="8"/>
       <c r="AJ48" s="8"/>
       <c r="AK48" s="8"/>
-      <c r="AL48" s="8"/>
+      <c r="AL48" s="3"/>
       <c r="AM48" s="3"/>
       <c r="AN48" s="3"/>
       <c r="AO48" s="3"/>
-      <c r="AP48" s="3"/>
+      <c r="AP48" s="8"/>
       <c r="AQ48" s="8"/>
       <c r="AR48" s="8"/>
       <c r="AS48" s="8"/>
       <c r="AT48" s="8"/>
-      <c r="AU48" s="8"/>
+      <c r="AU48" s="3"/>
       <c r="AV48" s="3"/>
       <c r="AW48" s="3"/>
       <c r="AX48" s="3"/>
@@ -5847,12 +5790,12 @@
       <c r="BL48" s="3"/>
       <c r="BM48" s="3"/>
       <c r="BN48" s="3"/>
-      <c r="BO48" s="3"/>
+      <c r="BO48" s="9"/>
       <c r="BP48" s="9"/>
       <c r="BQ48" s="9"/>
       <c r="BR48" s="9"/>
       <c r="BS48" s="9"/>
-      <c r="BT48" s="9"/>
+      <c r="BT48" s="3"/>
       <c r="BU48" s="3"/>
       <c r="BV48" s="3"/>
       <c r="BW48" s="3"/>
@@ -5875,10 +5818,9 @@
       <c r="CN48" s="3"/>
       <c r="CO48" s="3"/>
       <c r="CP48" s="3"/>
-      <c r="CQ48" s="3"/>
-      <c r="CR48" s="1"/>
+      <c r="CQ48" s="1"/>
     </row>
-    <row r="49" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -5913,19 +5855,19 @@
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
-      <c r="AI49" s="3"/>
+      <c r="AI49" s="8"/>
       <c r="AJ49" s="8"/>
       <c r="AK49" s="8"/>
-      <c r="AL49" s="8"/>
+      <c r="AL49" s="3"/>
       <c r="AM49" s="3"/>
       <c r="AN49" s="3"/>
       <c r="AO49" s="3"/>
-      <c r="AP49" s="3"/>
+      <c r="AP49" s="8"/>
       <c r="AQ49" s="8"/>
       <c r="AR49" s="8"/>
       <c r="AS49" s="8"/>
       <c r="AT49" s="8"/>
-      <c r="AU49" s="8"/>
+      <c r="AU49" s="3"/>
       <c r="AV49" s="3"/>
       <c r="AW49" s="3"/>
       <c r="AX49" s="3"/>
@@ -5945,12 +5887,12 @@
       <c r="BL49" s="3"/>
       <c r="BM49" s="3"/>
       <c r="BN49" s="3"/>
-      <c r="BO49" s="3"/>
+      <c r="BO49" s="9"/>
       <c r="BP49" s="9"/>
       <c r="BQ49" s="9"/>
       <c r="BR49" s="9"/>
       <c r="BS49" s="9"/>
-      <c r="BT49" s="9"/>
+      <c r="BT49" s="3"/>
       <c r="BU49" s="3"/>
       <c r="BV49" s="3"/>
       <c r="BW49" s="3"/>
@@ -5973,10 +5915,9 @@
       <c r="CN49" s="3"/>
       <c r="CO49" s="3"/>
       <c r="CP49" s="3"/>
-      <c r="CQ49" s="3"/>
-      <c r="CR49" s="1"/>
+      <c r="CQ49" s="1"/>
     </row>
-    <row r="50" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -6011,19 +5952,19 @@
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
-      <c r="AI50" s="3"/>
+      <c r="AI50" s="8"/>
       <c r="AJ50" s="8"/>
       <c r="AK50" s="8"/>
-      <c r="AL50" s="8"/>
+      <c r="AL50" s="3"/>
       <c r="AM50" s="3"/>
       <c r="AN50" s="3"/>
       <c r="AO50" s="3"/>
-      <c r="AP50" s="3"/>
+      <c r="AP50" s="8"/>
       <c r="AQ50" s="8"/>
       <c r="AR50" s="8"/>
       <c r="AS50" s="8"/>
       <c r="AT50" s="8"/>
-      <c r="AU50" s="8"/>
+      <c r="AU50" s="3"/>
       <c r="AV50" s="3"/>
       <c r="AW50" s="3"/>
       <c r="AX50" s="3"/>
@@ -6043,12 +5984,12 @@
       <c r="BL50" s="3"/>
       <c r="BM50" s="3"/>
       <c r="BN50" s="3"/>
-      <c r="BO50" s="3"/>
+      <c r="BO50" s="9"/>
       <c r="BP50" s="9"/>
       <c r="BQ50" s="9"/>
       <c r="BR50" s="9"/>
       <c r="BS50" s="9"/>
-      <c r="BT50" s="9"/>
+      <c r="BT50" s="3"/>
       <c r="BU50" s="3"/>
       <c r="BV50" s="3"/>
       <c r="BW50" s="3"/>
@@ -6071,10 +6012,9 @@
       <c r="CN50" s="3"/>
       <c r="CO50" s="3"/>
       <c r="CP50" s="3"/>
-      <c r="CQ50" s="3"/>
-      <c r="CR50" s="1"/>
+      <c r="CQ50" s="1"/>
     </row>
-    <row r="51" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -6109,19 +6049,19 @@
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
-      <c r="AI51" s="3"/>
+      <c r="AI51" s="8"/>
       <c r="AJ51" s="8"/>
       <c r="AK51" s="8"/>
-      <c r="AL51" s="8"/>
+      <c r="AL51" s="3"/>
       <c r="AM51" s="3"/>
       <c r="AN51" s="3"/>
       <c r="AO51" s="3"/>
-      <c r="AP51" s="3"/>
+      <c r="AP51" s="8"/>
       <c r="AQ51" s="8"/>
       <c r="AR51" s="8"/>
       <c r="AS51" s="8"/>
       <c r="AT51" s="8"/>
-      <c r="AU51" s="8"/>
+      <c r="AU51" s="3"/>
       <c r="AV51" s="3"/>
       <c r="AW51" s="3"/>
       <c r="AX51" s="3"/>
@@ -6141,12 +6081,12 @@
       <c r="BL51" s="3"/>
       <c r="BM51" s="3"/>
       <c r="BN51" s="3"/>
-      <c r="BO51" s="3"/>
+      <c r="BO51" s="9"/>
       <c r="BP51" s="9"/>
       <c r="BQ51" s="9"/>
       <c r="BR51" s="9"/>
       <c r="BS51" s="9"/>
-      <c r="BT51" s="9"/>
+      <c r="BT51" s="3"/>
       <c r="BU51" s="3"/>
       <c r="BV51" s="3"/>
       <c r="BW51" s="3"/>
@@ -6169,10 +6109,9 @@
       <c r="CN51" s="3"/>
       <c r="CO51" s="3"/>
       <c r="CP51" s="3"/>
-      <c r="CQ51" s="3"/>
-      <c r="CR51" s="1"/>
+      <c r="CQ51" s="1"/>
     </row>
-    <row r="52" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -6207,19 +6146,19 @@
       <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
       <c r="AH52" s="3"/>
-      <c r="AI52" s="3"/>
+      <c r="AI52" s="8"/>
       <c r="AJ52" s="8"/>
       <c r="AK52" s="8"/>
-      <c r="AL52" s="8"/>
+      <c r="AL52" s="3"/>
       <c r="AM52" s="3"/>
       <c r="AN52" s="3"/>
       <c r="AO52" s="3"/>
-      <c r="AP52" s="3"/>
+      <c r="AP52" s="8"/>
       <c r="AQ52" s="8"/>
       <c r="AR52" s="8"/>
       <c r="AS52" s="8"/>
       <c r="AT52" s="8"/>
-      <c r="AU52" s="8"/>
+      <c r="AU52" s="3"/>
       <c r="AV52" s="3"/>
       <c r="AW52" s="3"/>
       <c r="AX52" s="3"/>
@@ -6239,12 +6178,12 @@
       <c r="BL52" s="3"/>
       <c r="BM52" s="3"/>
       <c r="BN52" s="3"/>
-      <c r="BO52" s="3"/>
+      <c r="BO52" s="9"/>
       <c r="BP52" s="9"/>
       <c r="BQ52" s="9"/>
       <c r="BR52" s="9"/>
       <c r="BS52" s="9"/>
-      <c r="BT52" s="9"/>
+      <c r="BT52" s="3"/>
       <c r="BU52" s="3"/>
       <c r="BV52" s="3"/>
       <c r="BW52" s="3"/>
@@ -6267,10 +6206,9 @@
       <c r="CN52" s="3"/>
       <c r="CO52" s="3"/>
       <c r="CP52" s="3"/>
-      <c r="CQ52" s="3"/>
-      <c r="CR52" s="1"/>
+      <c r="CQ52" s="1"/>
     </row>
-    <row r="53" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -6305,19 +6243,19 @@
       <c r="AF53" s="3"/>
       <c r="AG53" s="3"/>
       <c r="AH53" s="3"/>
-      <c r="AI53" s="3"/>
+      <c r="AI53" s="8"/>
       <c r="AJ53" s="8"/>
       <c r="AK53" s="8"/>
-      <c r="AL53" s="8"/>
+      <c r="AL53" s="3"/>
       <c r="AM53" s="3"/>
       <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
-      <c r="AP53" s="3"/>
+      <c r="AP53" s="8"/>
       <c r="AQ53" s="8"/>
       <c r="AR53" s="8"/>
       <c r="AS53" s="8"/>
       <c r="AT53" s="8"/>
-      <c r="AU53" s="8"/>
+      <c r="AU53" s="3"/>
       <c r="AV53" s="3"/>
       <c r="AW53" s="3"/>
       <c r="AX53" s="3"/>
@@ -6337,12 +6275,12 @@
       <c r="BL53" s="3"/>
       <c r="BM53" s="3"/>
       <c r="BN53" s="3"/>
-      <c r="BO53" s="3"/>
+      <c r="BO53" s="9"/>
       <c r="BP53" s="9"/>
       <c r="BQ53" s="9"/>
       <c r="BR53" s="9"/>
       <c r="BS53" s="9"/>
-      <c r="BT53" s="9"/>
+      <c r="BT53" s="3"/>
       <c r="BU53" s="3"/>
       <c r="BV53" s="3"/>
       <c r="BW53" s="3"/>
@@ -6365,10 +6303,9 @@
       <c r="CN53" s="3"/>
       <c r="CO53" s="3"/>
       <c r="CP53" s="3"/>
-      <c r="CQ53" s="3"/>
-      <c r="CR53" s="1"/>
+      <c r="CQ53" s="1"/>
     </row>
-    <row r="54" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -6403,19 +6340,19 @@
       <c r="AF54" s="3"/>
       <c r="AG54" s="3"/>
       <c r="AH54" s="3"/>
-      <c r="AI54" s="3"/>
+      <c r="AI54" s="8"/>
       <c r="AJ54" s="8"/>
       <c r="AK54" s="8"/>
-      <c r="AL54" s="8"/>
+      <c r="AL54" s="3"/>
       <c r="AM54" s="3"/>
       <c r="AN54" s="3"/>
       <c r="AO54" s="3"/>
-      <c r="AP54" s="3"/>
+      <c r="AP54" s="8"/>
       <c r="AQ54" s="8"/>
       <c r="AR54" s="8"/>
       <c r="AS54" s="8"/>
       <c r="AT54" s="8"/>
-      <c r="AU54" s="8"/>
+      <c r="AU54" s="3"/>
       <c r="AV54" s="3"/>
       <c r="AW54" s="3"/>
       <c r="AX54" s="3"/>
@@ -6435,12 +6372,12 @@
       <c r="BL54" s="3"/>
       <c r="BM54" s="3"/>
       <c r="BN54" s="3"/>
-      <c r="BO54" s="3"/>
+      <c r="BO54" s="9"/>
       <c r="BP54" s="9"/>
       <c r="BQ54" s="9"/>
       <c r="BR54" s="9"/>
       <c r="BS54" s="9"/>
-      <c r="BT54" s="9"/>
+      <c r="BT54" s="3"/>
       <c r="BU54" s="3"/>
       <c r="BV54" s="3"/>
       <c r="BW54" s="3"/>
@@ -6463,10 +6400,9 @@
       <c r="CN54" s="3"/>
       <c r="CO54" s="3"/>
       <c r="CP54" s="3"/>
-      <c r="CQ54" s="3"/>
-      <c r="CR54" s="1"/>
+      <c r="CQ54" s="1"/>
     </row>
-    <row r="55" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -6501,19 +6437,19 @@
       <c r="AF55" s="3"/>
       <c r="AG55" s="3"/>
       <c r="AH55" s="3"/>
-      <c r="AI55" s="3"/>
+      <c r="AI55" s="8"/>
       <c r="AJ55" s="8"/>
       <c r="AK55" s="8"/>
-      <c r="AL55" s="8"/>
+      <c r="AL55" s="3"/>
       <c r="AM55" s="3"/>
       <c r="AN55" s="3"/>
       <c r="AO55" s="3"/>
-      <c r="AP55" s="3"/>
+      <c r="AP55" s="8"/>
       <c r="AQ55" s="8"/>
       <c r="AR55" s="8"/>
       <c r="AS55" s="8"/>
       <c r="AT55" s="8"/>
-      <c r="AU55" s="8"/>
+      <c r="AU55" s="3"/>
       <c r="AV55" s="3"/>
       <c r="AW55" s="3"/>
       <c r="AX55" s="3"/>
@@ -6533,12 +6469,12 @@
       <c r="BL55" s="3"/>
       <c r="BM55" s="3"/>
       <c r="BN55" s="3"/>
-      <c r="BO55" s="3"/>
+      <c r="BO55" s="9"/>
       <c r="BP55" s="9"/>
       <c r="BQ55" s="9"/>
       <c r="BR55" s="9"/>
       <c r="BS55" s="9"/>
-      <c r="BT55" s="9"/>
+      <c r="BT55" s="3"/>
       <c r="BU55" s="3"/>
       <c r="BV55" s="3"/>
       <c r="BW55" s="3"/>
@@ -6561,10 +6497,9 @@
       <c r="CN55" s="3"/>
       <c r="CO55" s="3"/>
       <c r="CP55" s="3"/>
-      <c r="CQ55" s="3"/>
-      <c r="CR55" s="1"/>
+      <c r="CQ55" s="1"/>
     </row>
-    <row r="56" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -6599,19 +6534,19 @@
       <c r="AF56" s="3"/>
       <c r="AG56" s="3"/>
       <c r="AH56" s="3"/>
-      <c r="AI56" s="3"/>
+      <c r="AI56" s="8"/>
       <c r="AJ56" s="8"/>
       <c r="AK56" s="8"/>
-      <c r="AL56" s="8"/>
+      <c r="AL56" s="3"/>
       <c r="AM56" s="3"/>
       <c r="AN56" s="3"/>
       <c r="AO56" s="3"/>
-      <c r="AP56" s="3"/>
+      <c r="AP56" s="8"/>
       <c r="AQ56" s="8"/>
       <c r="AR56" s="8"/>
       <c r="AS56" s="8"/>
       <c r="AT56" s="8"/>
-      <c r="AU56" s="8"/>
+      <c r="AU56" s="3"/>
       <c r="AV56" s="3"/>
       <c r="AW56" s="3"/>
       <c r="AX56" s="3"/>
@@ -6631,12 +6566,12 @@
       <c r="BL56" s="3"/>
       <c r="BM56" s="3"/>
       <c r="BN56" s="3"/>
-      <c r="BO56" s="3"/>
+      <c r="BO56" s="9"/>
       <c r="BP56" s="9"/>
       <c r="BQ56" s="9"/>
       <c r="BR56" s="9"/>
       <c r="BS56" s="9"/>
-      <c r="BT56" s="9"/>
+      <c r="BT56" s="3"/>
       <c r="BU56" s="3"/>
       <c r="BV56" s="3"/>
       <c r="BW56" s="3"/>
@@ -6659,10 +6594,9 @@
       <c r="CN56" s="3"/>
       <c r="CO56" s="3"/>
       <c r="CP56" s="3"/>
-      <c r="CQ56" s="3"/>
-      <c r="CR56" s="1"/>
+      <c r="CQ56" s="1"/>
     </row>
-    <row r="57" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -6697,19 +6631,19 @@
       <c r="AF57" s="3"/>
       <c r="AG57" s="3"/>
       <c r="AH57" s="3"/>
-      <c r="AI57" s="3"/>
+      <c r="AI57" s="8"/>
       <c r="AJ57" s="8"/>
       <c r="AK57" s="8"/>
-      <c r="AL57" s="8"/>
+      <c r="AL57" s="3"/>
       <c r="AM57" s="3"/>
       <c r="AN57" s="3"/>
       <c r="AO57" s="3"/>
-      <c r="AP57" s="3"/>
+      <c r="AP57" s="8"/>
       <c r="AQ57" s="8"/>
       <c r="AR57" s="8"/>
       <c r="AS57" s="8"/>
       <c r="AT57" s="8"/>
-      <c r="AU57" s="8"/>
+      <c r="AU57" s="3"/>
       <c r="AV57" s="3"/>
       <c r="AW57" s="3"/>
       <c r="AX57" s="3"/>
@@ -6729,12 +6663,12 @@
       <c r="BL57" s="3"/>
       <c r="BM57" s="3"/>
       <c r="BN57" s="3"/>
-      <c r="BO57" s="3"/>
+      <c r="BO57" s="9"/>
       <c r="BP57" s="9"/>
       <c r="BQ57" s="9"/>
       <c r="BR57" s="9"/>
       <c r="BS57" s="9"/>
-      <c r="BT57" s="9"/>
+      <c r="BT57" s="3"/>
       <c r="BU57" s="3"/>
       <c r="BV57" s="3"/>
       <c r="BW57" s="3"/>
@@ -6757,10 +6691,9 @@
       <c r="CN57" s="3"/>
       <c r="CO57" s="3"/>
       <c r="CP57" s="3"/>
-      <c r="CQ57" s="3"/>
-      <c r="CR57" s="1"/>
+      <c r="CQ57" s="1"/>
     </row>
-    <row r="58" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -6795,19 +6728,19 @@
       <c r="AF58" s="3"/>
       <c r="AG58" s="3"/>
       <c r="AH58" s="3"/>
-      <c r="AI58" s="3"/>
+      <c r="AI58" s="8"/>
       <c r="AJ58" s="8"/>
       <c r="AK58" s="8"/>
-      <c r="AL58" s="8"/>
+      <c r="AL58" s="3"/>
       <c r="AM58" s="3"/>
       <c r="AN58" s="3"/>
       <c r="AO58" s="3"/>
-      <c r="AP58" s="3"/>
+      <c r="AP58" s="8"/>
       <c r="AQ58" s="8"/>
       <c r="AR58" s="8"/>
       <c r="AS58" s="8"/>
       <c r="AT58" s="8"/>
-      <c r="AU58" s="8"/>
+      <c r="AU58" s="3"/>
       <c r="AV58" s="3"/>
       <c r="AW58" s="3"/>
       <c r="AX58" s="3"/>
@@ -6827,12 +6760,12 @@
       <c r="BL58" s="3"/>
       <c r="BM58" s="3"/>
       <c r="BN58" s="3"/>
-      <c r="BO58" s="3"/>
+      <c r="BO58" s="9"/>
       <c r="BP58" s="9"/>
       <c r="BQ58" s="9"/>
       <c r="BR58" s="9"/>
       <c r="BS58" s="9"/>
-      <c r="BT58" s="9"/>
+      <c r="BT58" s="3"/>
       <c r="BU58" s="3"/>
       <c r="BV58" s="3"/>
       <c r="BW58" s="3"/>
@@ -6855,10 +6788,9 @@
       <c r="CN58" s="3"/>
       <c r="CO58" s="3"/>
       <c r="CP58" s="3"/>
-      <c r="CQ58" s="3"/>
-      <c r="CR58" s="1"/>
+      <c r="CQ58" s="1"/>
     </row>
-    <row r="59" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -6893,19 +6825,19 @@
       <c r="AF59" s="3"/>
       <c r="AG59" s="3"/>
       <c r="AH59" s="3"/>
-      <c r="AI59" s="3"/>
+      <c r="AI59" s="8"/>
       <c r="AJ59" s="8"/>
       <c r="AK59" s="8"/>
-      <c r="AL59" s="8"/>
+      <c r="AL59" s="3"/>
       <c r="AM59" s="3"/>
       <c r="AN59" s="3"/>
       <c r="AO59" s="3"/>
-      <c r="AP59" s="3"/>
+      <c r="AP59" s="8"/>
       <c r="AQ59" s="8"/>
       <c r="AR59" s="8"/>
       <c r="AS59" s="8"/>
       <c r="AT59" s="8"/>
-      <c r="AU59" s="8"/>
+      <c r="AU59" s="3"/>
       <c r="AV59" s="3"/>
       <c r="AW59" s="3"/>
       <c r="AX59" s="3"/>
@@ -6925,12 +6857,12 @@
       <c r="BL59" s="3"/>
       <c r="BM59" s="3"/>
       <c r="BN59" s="3"/>
-      <c r="BO59" s="3"/>
+      <c r="BO59" s="9"/>
       <c r="BP59" s="9"/>
       <c r="BQ59" s="9"/>
       <c r="BR59" s="9"/>
       <c r="BS59" s="9"/>
-      <c r="BT59" s="9"/>
+      <c r="BT59" s="3"/>
       <c r="BU59" s="3"/>
       <c r="BV59" s="3"/>
       <c r="BW59" s="3"/>
@@ -6953,10 +6885,9 @@
       <c r="CN59" s="3"/>
       <c r="CO59" s="3"/>
       <c r="CP59" s="3"/>
-      <c r="CQ59" s="3"/>
-      <c r="CR59" s="1"/>
+      <c r="CQ59" s="1"/>
     </row>
-    <row r="60" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -6991,19 +6922,19 @@
       <c r="AF60" s="3"/>
       <c r="AG60" s="3"/>
       <c r="AH60" s="3"/>
-      <c r="AI60" s="3"/>
+      <c r="AI60" s="8"/>
       <c r="AJ60" s="8"/>
       <c r="AK60" s="8"/>
-      <c r="AL60" s="8"/>
+      <c r="AL60" s="3"/>
       <c r="AM60" s="3"/>
       <c r="AN60" s="3"/>
       <c r="AO60" s="3"/>
-      <c r="AP60" s="3"/>
+      <c r="AP60" s="8"/>
       <c r="AQ60" s="8"/>
       <c r="AR60" s="8"/>
       <c r="AS60" s="8"/>
       <c r="AT60" s="8"/>
-      <c r="AU60" s="8"/>
+      <c r="AU60" s="3"/>
       <c r="AV60" s="3"/>
       <c r="AW60" s="3"/>
       <c r="AX60" s="3"/>
@@ -7023,12 +6954,12 @@
       <c r="BL60" s="3"/>
       <c r="BM60" s="3"/>
       <c r="BN60" s="3"/>
-      <c r="BO60" s="3"/>
+      <c r="BO60" s="9"/>
       <c r="BP60" s="9"/>
       <c r="BQ60" s="9"/>
       <c r="BR60" s="9"/>
       <c r="BS60" s="9"/>
-      <c r="BT60" s="9"/>
+      <c r="BT60" s="3"/>
       <c r="BU60" s="3"/>
       <c r="BV60" s="3"/>
       <c r="BW60" s="3"/>
@@ -7051,10 +6982,9 @@
       <c r="CN60" s="3"/>
       <c r="CO60" s="3"/>
       <c r="CP60" s="3"/>
-      <c r="CQ60" s="3"/>
-      <c r="CR60" s="1"/>
+      <c r="CQ60" s="1"/>
     </row>
-    <row r="61" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -7089,19 +7019,19 @@
       <c r="AF61" s="3"/>
       <c r="AG61" s="3"/>
       <c r="AH61" s="3"/>
-      <c r="AI61" s="3"/>
+      <c r="AI61" s="8"/>
       <c r="AJ61" s="8"/>
       <c r="AK61" s="8"/>
-      <c r="AL61" s="8"/>
+      <c r="AL61" s="3"/>
       <c r="AM61" s="3"/>
       <c r="AN61" s="3"/>
       <c r="AO61" s="3"/>
-      <c r="AP61" s="3"/>
+      <c r="AP61" s="8"/>
       <c r="AQ61" s="8"/>
       <c r="AR61" s="8"/>
       <c r="AS61" s="8"/>
       <c r="AT61" s="8"/>
-      <c r="AU61" s="8"/>
+      <c r="AU61" s="3"/>
       <c r="AV61" s="3"/>
       <c r="AW61" s="3"/>
       <c r="AX61" s="3"/>
@@ -7121,12 +7051,12 @@
       <c r="BL61" s="3"/>
       <c r="BM61" s="3"/>
       <c r="BN61" s="3"/>
-      <c r="BO61" s="3"/>
+      <c r="BO61" s="9"/>
       <c r="BP61" s="9"/>
       <c r="BQ61" s="9"/>
       <c r="BR61" s="9"/>
       <c r="BS61" s="9"/>
-      <c r="BT61" s="9"/>
+      <c r="BT61" s="3"/>
       <c r="BU61" s="3"/>
       <c r="BV61" s="3"/>
       <c r="BW61" s="3"/>
@@ -7149,10 +7079,9 @@
       <c r="CN61" s="3"/>
       <c r="CO61" s="3"/>
       <c r="CP61" s="3"/>
-      <c r="CQ61" s="3"/>
-      <c r="CR61" s="1"/>
+      <c r="CQ61" s="1"/>
     </row>
-    <row r="62" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -7187,19 +7116,19 @@
       <c r="AF62" s="3"/>
       <c r="AG62" s="3"/>
       <c r="AH62" s="3"/>
-      <c r="AI62" s="3"/>
+      <c r="AI62" s="8"/>
       <c r="AJ62" s="8"/>
       <c r="AK62" s="8"/>
-      <c r="AL62" s="8"/>
+      <c r="AL62" s="3"/>
       <c r="AM62" s="3"/>
       <c r="AN62" s="3"/>
       <c r="AO62" s="3"/>
-      <c r="AP62" s="3"/>
+      <c r="AP62" s="8"/>
       <c r="AQ62" s="8"/>
       <c r="AR62" s="8"/>
       <c r="AS62" s="8"/>
       <c r="AT62" s="8"/>
-      <c r="AU62" s="8"/>
+      <c r="AU62" s="3"/>
       <c r="AV62" s="3"/>
       <c r="AW62" s="3"/>
       <c r="AX62" s="3"/>
@@ -7219,12 +7148,12 @@
       <c r="BL62" s="3"/>
       <c r="BM62" s="3"/>
       <c r="BN62" s="3"/>
-      <c r="BO62" s="3"/>
+      <c r="BO62" s="9"/>
       <c r="BP62" s="9"/>
       <c r="BQ62" s="9"/>
       <c r="BR62" s="9"/>
       <c r="BS62" s="9"/>
-      <c r="BT62" s="9"/>
+      <c r="BT62" s="3"/>
       <c r="BU62" s="3"/>
       <c r="BV62" s="3"/>
       <c r="BW62" s="3"/>
@@ -7247,10 +7176,9 @@
       <c r="CN62" s="3"/>
       <c r="CO62" s="3"/>
       <c r="CP62" s="3"/>
-      <c r="CQ62" s="3"/>
-      <c r="CR62" s="1"/>
+      <c r="CQ62" s="1"/>
     </row>
-    <row r="63" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -7285,19 +7213,19 @@
       <c r="AF63" s="3"/>
       <c r="AG63" s="3"/>
       <c r="AH63" s="3"/>
-      <c r="AI63" s="3"/>
+      <c r="AI63" s="8"/>
       <c r="AJ63" s="8"/>
       <c r="AK63" s="8"/>
-      <c r="AL63" s="8"/>
+      <c r="AL63" s="3"/>
       <c r="AM63" s="3"/>
       <c r="AN63" s="3"/>
       <c r="AO63" s="3"/>
-      <c r="AP63" s="3"/>
+      <c r="AP63" s="8"/>
       <c r="AQ63" s="8"/>
       <c r="AR63" s="8"/>
       <c r="AS63" s="8"/>
       <c r="AT63" s="8"/>
-      <c r="AU63" s="8"/>
+      <c r="AU63" s="3"/>
       <c r="AV63" s="3"/>
       <c r="AW63" s="3"/>
       <c r="AX63" s="3"/>
@@ -7317,12 +7245,12 @@
       <c r="BL63" s="3"/>
       <c r="BM63" s="3"/>
       <c r="BN63" s="3"/>
-      <c r="BO63" s="3"/>
+      <c r="BO63" s="9"/>
       <c r="BP63" s="9"/>
       <c r="BQ63" s="9"/>
       <c r="BR63" s="9"/>
       <c r="BS63" s="9"/>
-      <c r="BT63" s="9"/>
+      <c r="BT63" s="3"/>
       <c r="BU63" s="3"/>
       <c r="BV63" s="3"/>
       <c r="BW63" s="3"/>
@@ -7345,10 +7273,9 @@
       <c r="CN63" s="3"/>
       <c r="CO63" s="3"/>
       <c r="CP63" s="3"/>
-      <c r="CQ63" s="3"/>
-      <c r="CR63" s="1"/>
+      <c r="CQ63" s="1"/>
     </row>
-    <row r="64" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -7383,19 +7310,19 @@
       <c r="AF64" s="3"/>
       <c r="AG64" s="3"/>
       <c r="AH64" s="3"/>
-      <c r="AI64" s="3"/>
+      <c r="AI64" s="8"/>
       <c r="AJ64" s="8"/>
       <c r="AK64" s="8"/>
-      <c r="AL64" s="8"/>
+      <c r="AL64" s="3"/>
       <c r="AM64" s="3"/>
       <c r="AN64" s="3"/>
       <c r="AO64" s="3"/>
-      <c r="AP64" s="3"/>
+      <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
       <c r="AR64" s="8"/>
       <c r="AS64" s="8"/>
       <c r="AT64" s="8"/>
-      <c r="AU64" s="8"/>
+      <c r="AU64" s="3"/>
       <c r="AV64" s="3"/>
       <c r="AW64" s="3"/>
       <c r="AX64" s="3"/>
@@ -7415,12 +7342,12 @@
       <c r="BL64" s="3"/>
       <c r="BM64" s="3"/>
       <c r="BN64" s="3"/>
-      <c r="BO64" s="3"/>
+      <c r="BO64" s="9"/>
       <c r="BP64" s="9"/>
       <c r="BQ64" s="9"/>
       <c r="BR64" s="9"/>
       <c r="BS64" s="9"/>
-      <c r="BT64" s="9"/>
+      <c r="BT64" s="3"/>
       <c r="BU64" s="3"/>
       <c r="BV64" s="3"/>
       <c r="BW64" s="3"/>
@@ -7443,10 +7370,9 @@
       <c r="CN64" s="3"/>
       <c r="CO64" s="3"/>
       <c r="CP64" s="3"/>
-      <c r="CQ64" s="3"/>
-      <c r="CR64" s="1"/>
+      <c r="CQ64" s="1"/>
     </row>
-    <row r="65" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -7481,19 +7407,19 @@
       <c r="AF65" s="3"/>
       <c r="AG65" s="3"/>
       <c r="AH65" s="3"/>
-      <c r="AI65" s="3"/>
+      <c r="AI65" s="8"/>
       <c r="AJ65" s="8"/>
       <c r="AK65" s="8"/>
-      <c r="AL65" s="8"/>
+      <c r="AL65" s="3"/>
       <c r="AM65" s="3"/>
       <c r="AN65" s="3"/>
       <c r="AO65" s="3"/>
-      <c r="AP65" s="3"/>
+      <c r="AP65" s="8"/>
       <c r="AQ65" s="8"/>
       <c r="AR65" s="8"/>
       <c r="AS65" s="8"/>
       <c r="AT65" s="8"/>
-      <c r="AU65" s="8"/>
+      <c r="AU65" s="3"/>
       <c r="AV65" s="3"/>
       <c r="AW65" s="3"/>
       <c r="AX65" s="3"/>
@@ -7513,12 +7439,12 @@
       <c r="BL65" s="3"/>
       <c r="BM65" s="3"/>
       <c r="BN65" s="3"/>
-      <c r="BO65" s="3"/>
+      <c r="BO65" s="9"/>
       <c r="BP65" s="9"/>
       <c r="BQ65" s="9"/>
       <c r="BR65" s="9"/>
       <c r="BS65" s="9"/>
-      <c r="BT65" s="9"/>
+      <c r="BT65" s="3"/>
       <c r="BU65" s="3"/>
       <c r="BV65" s="3"/>
       <c r="BW65" s="3"/>
@@ -7541,10 +7467,9 @@
       <c r="CN65" s="3"/>
       <c r="CO65" s="3"/>
       <c r="CP65" s="3"/>
-      <c r="CQ65" s="3"/>
-      <c r="CR65" s="1"/>
+      <c r="CQ65" s="1"/>
     </row>
-    <row r="66" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -7579,19 +7504,19 @@
       <c r="AF66" s="3"/>
       <c r="AG66" s="3"/>
       <c r="AH66" s="3"/>
-      <c r="AI66" s="3"/>
+      <c r="AI66" s="8"/>
       <c r="AJ66" s="8"/>
       <c r="AK66" s="8"/>
-      <c r="AL66" s="8"/>
+      <c r="AL66" s="3"/>
       <c r="AM66" s="3"/>
       <c r="AN66" s="3"/>
       <c r="AO66" s="3"/>
-      <c r="AP66" s="3"/>
+      <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
       <c r="AR66" s="8"/>
       <c r="AS66" s="8"/>
       <c r="AT66" s="8"/>
-      <c r="AU66" s="8"/>
+      <c r="AU66" s="3"/>
       <c r="AV66" s="3"/>
       <c r="AW66" s="3"/>
       <c r="AX66" s="3"/>
@@ -7611,12 +7536,12 @@
       <c r="BL66" s="3"/>
       <c r="BM66" s="3"/>
       <c r="BN66" s="3"/>
-      <c r="BO66" s="3"/>
+      <c r="BO66" s="9"/>
       <c r="BP66" s="9"/>
       <c r="BQ66" s="9"/>
       <c r="BR66" s="9"/>
       <c r="BS66" s="9"/>
-      <c r="BT66" s="9"/>
+      <c r="BT66" s="3"/>
       <c r="BU66" s="3"/>
       <c r="BV66" s="3"/>
       <c r="BW66" s="3"/>
@@ -7639,10 +7564,9 @@
       <c r="CN66" s="3"/>
       <c r="CO66" s="3"/>
       <c r="CP66" s="3"/>
-      <c r="CQ66" s="3"/>
-      <c r="CR66" s="1"/>
+      <c r="CQ66" s="1"/>
     </row>
-    <row r="67" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7677,19 +7601,19 @@
       <c r="AF67" s="3"/>
       <c r="AG67" s="3"/>
       <c r="AH67" s="3"/>
-      <c r="AI67" s="3"/>
+      <c r="AI67" s="8"/>
       <c r="AJ67" s="8"/>
       <c r="AK67" s="8"/>
-      <c r="AL67" s="8"/>
+      <c r="AL67" s="3"/>
       <c r="AM67" s="3"/>
       <c r="AN67" s="3"/>
       <c r="AO67" s="3"/>
-      <c r="AP67" s="3"/>
+      <c r="AP67" s="8"/>
       <c r="AQ67" s="8"/>
       <c r="AR67" s="8"/>
       <c r="AS67" s="8"/>
       <c r="AT67" s="8"/>
-      <c r="AU67" s="8"/>
+      <c r="AU67" s="3"/>
       <c r="AV67" s="3"/>
       <c r="AW67" s="3"/>
       <c r="AX67" s="3"/>
@@ -7709,12 +7633,12 @@
       <c r="BL67" s="3"/>
       <c r="BM67" s="3"/>
       <c r="BN67" s="3"/>
-      <c r="BO67" s="3"/>
+      <c r="BO67" s="9"/>
       <c r="BP67" s="9"/>
       <c r="BQ67" s="9"/>
       <c r="BR67" s="9"/>
       <c r="BS67" s="9"/>
-      <c r="BT67" s="9"/>
+      <c r="BT67" s="3"/>
       <c r="BU67" s="3"/>
       <c r="BV67" s="3"/>
       <c r="BW67" s="3"/>
@@ -7737,10 +7661,9 @@
       <c r="CN67" s="3"/>
       <c r="CO67" s="3"/>
       <c r="CP67" s="3"/>
-      <c r="CQ67" s="3"/>
-      <c r="CR67" s="1"/>
+      <c r="CQ67" s="1"/>
     </row>
-    <row r="68" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -7775,19 +7698,19 @@
       <c r="AF68" s="3"/>
       <c r="AG68" s="3"/>
       <c r="AH68" s="3"/>
-      <c r="AI68" s="3"/>
+      <c r="AI68" s="8"/>
       <c r="AJ68" s="8"/>
       <c r="AK68" s="8"/>
-      <c r="AL68" s="8"/>
+      <c r="AL68" s="3"/>
       <c r="AM68" s="3"/>
       <c r="AN68" s="3"/>
       <c r="AO68" s="3"/>
-      <c r="AP68" s="3"/>
+      <c r="AP68" s="8"/>
       <c r="AQ68" s="8"/>
       <c r="AR68" s="8"/>
       <c r="AS68" s="8"/>
       <c r="AT68" s="8"/>
-      <c r="AU68" s="8"/>
+      <c r="AU68" s="3"/>
       <c r="AV68" s="3"/>
       <c r="AW68" s="3"/>
       <c r="AX68" s="3"/>
@@ -7807,12 +7730,12 @@
       <c r="BL68" s="3"/>
       <c r="BM68" s="3"/>
       <c r="BN68" s="3"/>
-      <c r="BO68" s="3"/>
+      <c r="BO68" s="9"/>
       <c r="BP68" s="9"/>
       <c r="BQ68" s="9"/>
       <c r="BR68" s="9"/>
       <c r="BS68" s="9"/>
-      <c r="BT68" s="9"/>
+      <c r="BT68" s="3"/>
       <c r="BU68" s="3"/>
       <c r="BV68" s="3"/>
       <c r="BW68" s="3"/>
@@ -7835,10 +7758,9 @@
       <c r="CN68" s="3"/>
       <c r="CO68" s="3"/>
       <c r="CP68" s="3"/>
-      <c r="CQ68" s="3"/>
-      <c r="CR68" s="1"/>
+      <c r="CQ68" s="1"/>
     </row>
-    <row r="69" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -7873,19 +7795,19 @@
       <c r="AF69" s="3"/>
       <c r="AG69" s="3"/>
       <c r="AH69" s="3"/>
-      <c r="AI69" s="3"/>
+      <c r="AI69" s="8"/>
       <c r="AJ69" s="8"/>
       <c r="AK69" s="8"/>
-      <c r="AL69" s="8"/>
+      <c r="AL69" s="3"/>
       <c r="AM69" s="3"/>
       <c r="AN69" s="3"/>
       <c r="AO69" s="3"/>
-      <c r="AP69" s="3"/>
+      <c r="AP69" s="8"/>
       <c r="AQ69" s="8"/>
       <c r="AR69" s="8"/>
       <c r="AS69" s="8"/>
       <c r="AT69" s="8"/>
-      <c r="AU69" s="8"/>
+      <c r="AU69" s="3"/>
       <c r="AV69" s="3"/>
       <c r="AW69" s="3"/>
       <c r="AX69" s="3"/>
@@ -7905,12 +7827,12 @@
       <c r="BL69" s="3"/>
       <c r="BM69" s="3"/>
       <c r="BN69" s="3"/>
-      <c r="BO69" s="3"/>
+      <c r="BO69" s="9"/>
       <c r="BP69" s="9"/>
       <c r="BQ69" s="9"/>
       <c r="BR69" s="9"/>
       <c r="BS69" s="9"/>
-      <c r="BT69" s="9"/>
+      <c r="BT69" s="3"/>
       <c r="BU69" s="3"/>
       <c r="BV69" s="3"/>
       <c r="BW69" s="3"/>
@@ -7933,10 +7855,9 @@
       <c r="CN69" s="3"/>
       <c r="CO69" s="3"/>
       <c r="CP69" s="3"/>
-      <c r="CQ69" s="3"/>
-      <c r="CR69" s="1"/>
+      <c r="CQ69" s="1"/>
     </row>
-    <row r="70" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -7971,19 +7892,19 @@
       <c r="AF70" s="3"/>
       <c r="AG70" s="3"/>
       <c r="AH70" s="3"/>
-      <c r="AI70" s="3"/>
+      <c r="AI70" s="8"/>
       <c r="AJ70" s="8"/>
       <c r="AK70" s="8"/>
-      <c r="AL70" s="8"/>
+      <c r="AL70" s="3"/>
       <c r="AM70" s="3"/>
       <c r="AN70" s="3"/>
       <c r="AO70" s="3"/>
-      <c r="AP70" s="3"/>
+      <c r="AP70" s="8"/>
       <c r="AQ70" s="8"/>
       <c r="AR70" s="8"/>
       <c r="AS70" s="8"/>
       <c r="AT70" s="8"/>
-      <c r="AU70" s="8"/>
+      <c r="AU70" s="3"/>
       <c r="AV70" s="3"/>
       <c r="AW70" s="3"/>
       <c r="AX70" s="3"/>
@@ -8003,12 +7924,12 @@
       <c r="BL70" s="3"/>
       <c r="BM70" s="3"/>
       <c r="BN70" s="3"/>
-      <c r="BO70" s="3"/>
+      <c r="BO70" s="9"/>
       <c r="BP70" s="9"/>
       <c r="BQ70" s="9"/>
       <c r="BR70" s="9"/>
       <c r="BS70" s="9"/>
-      <c r="BT70" s="9"/>
+      <c r="BT70" s="3"/>
       <c r="BU70" s="3"/>
       <c r="BV70" s="3"/>
       <c r="BW70" s="3"/>
@@ -8031,10 +7952,9 @@
       <c r="CN70" s="3"/>
       <c r="CO70" s="3"/>
       <c r="CP70" s="3"/>
-      <c r="CQ70" s="3"/>
-      <c r="CR70" s="1"/>
+      <c r="CQ70" s="1"/>
     </row>
-    <row r="71" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -8069,19 +7989,19 @@
       <c r="AF71" s="3"/>
       <c r="AG71" s="3"/>
       <c r="AH71" s="3"/>
-      <c r="AI71" s="3"/>
+      <c r="AI71" s="8"/>
       <c r="AJ71" s="8"/>
       <c r="AK71" s="8"/>
-      <c r="AL71" s="8"/>
+      <c r="AL71" s="3"/>
       <c r="AM71" s="3"/>
       <c r="AN71" s="3"/>
       <c r="AO71" s="3"/>
-      <c r="AP71" s="3"/>
+      <c r="AP71" s="8"/>
       <c r="AQ71" s="8"/>
       <c r="AR71" s="8"/>
       <c r="AS71" s="8"/>
       <c r="AT71" s="8"/>
-      <c r="AU71" s="8"/>
+      <c r="AU71" s="3"/>
       <c r="AV71" s="3"/>
       <c r="AW71" s="3"/>
       <c r="AX71" s="3"/>
@@ -8101,12 +8021,12 @@
       <c r="BL71" s="3"/>
       <c r="BM71" s="3"/>
       <c r="BN71" s="3"/>
-      <c r="BO71" s="3"/>
+      <c r="BO71" s="9"/>
       <c r="BP71" s="9"/>
       <c r="BQ71" s="9"/>
       <c r="BR71" s="9"/>
       <c r="BS71" s="9"/>
-      <c r="BT71" s="9"/>
+      <c r="BT71" s="3"/>
       <c r="BU71" s="3"/>
       <c r="BV71" s="3"/>
       <c r="BW71" s="3"/>
@@ -8129,10 +8049,9 @@
       <c r="CN71" s="3"/>
       <c r="CO71" s="3"/>
       <c r="CP71" s="3"/>
-      <c r="CQ71" s="3"/>
-      <c r="CR71" s="1"/>
+      <c r="CQ71" s="1"/>
     </row>
-    <row r="72" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -8167,19 +8086,19 @@
       <c r="AF72" s="3"/>
       <c r="AG72" s="3"/>
       <c r="AH72" s="3"/>
-      <c r="AI72" s="3"/>
+      <c r="AI72" s="8"/>
       <c r="AJ72" s="8"/>
       <c r="AK72" s="8"/>
-      <c r="AL72" s="8"/>
+      <c r="AL72" s="3"/>
       <c r="AM72" s="3"/>
       <c r="AN72" s="3"/>
       <c r="AO72" s="3"/>
-      <c r="AP72" s="3"/>
+      <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
       <c r="AR72" s="8"/>
       <c r="AS72" s="8"/>
       <c r="AT72" s="8"/>
-      <c r="AU72" s="8"/>
+      <c r="AU72" s="3"/>
       <c r="AV72" s="3"/>
       <c r="AW72" s="3"/>
       <c r="AX72" s="3"/>
@@ -8199,12 +8118,12 @@
       <c r="BL72" s="3"/>
       <c r="BM72" s="3"/>
       <c r="BN72" s="3"/>
-      <c r="BO72" s="3"/>
+      <c r="BO72" s="9"/>
       <c r="BP72" s="9"/>
       <c r="BQ72" s="9"/>
       <c r="BR72" s="9"/>
       <c r="BS72" s="9"/>
-      <c r="BT72" s="9"/>
+      <c r="BT72" s="3"/>
       <c r="BU72" s="3"/>
       <c r="BV72" s="3"/>
       <c r="BW72" s="3"/>
@@ -8227,10 +8146,9 @@
       <c r="CN72" s="3"/>
       <c r="CO72" s="3"/>
       <c r="CP72" s="3"/>
-      <c r="CQ72" s="3"/>
-      <c r="CR72" s="1"/>
+      <c r="CQ72" s="1"/>
     </row>
-    <row r="73" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -8265,19 +8183,19 @@
       <c r="AF73" s="3"/>
       <c r="AG73" s="3"/>
       <c r="AH73" s="3"/>
-      <c r="AI73" s="3"/>
+      <c r="AI73" s="8"/>
       <c r="AJ73" s="8"/>
       <c r="AK73" s="8"/>
-      <c r="AL73" s="8"/>
+      <c r="AL73" s="3"/>
       <c r="AM73" s="3"/>
       <c r="AN73" s="3"/>
       <c r="AO73" s="3"/>
-      <c r="AP73" s="3"/>
+      <c r="AP73" s="8"/>
       <c r="AQ73" s="8"/>
       <c r="AR73" s="8"/>
       <c r="AS73" s="8"/>
       <c r="AT73" s="8"/>
-      <c r="AU73" s="8"/>
+      <c r="AU73" s="3"/>
       <c r="AV73" s="3"/>
       <c r="AW73" s="3"/>
       <c r="AX73" s="3"/>
@@ -8297,12 +8215,12 @@
       <c r="BL73" s="3"/>
       <c r="BM73" s="3"/>
       <c r="BN73" s="3"/>
-      <c r="BO73" s="3"/>
+      <c r="BO73" s="9"/>
       <c r="BP73" s="9"/>
       <c r="BQ73" s="9"/>
       <c r="BR73" s="9"/>
       <c r="BS73" s="9"/>
-      <c r="BT73" s="9"/>
+      <c r="BT73" s="3"/>
       <c r="BU73" s="3"/>
       <c r="BV73" s="3"/>
       <c r="BW73" s="3"/>
@@ -8325,10 +8243,9 @@
       <c r="CN73" s="3"/>
       <c r="CO73" s="3"/>
       <c r="CP73" s="3"/>
-      <c r="CQ73" s="3"/>
-      <c r="CR73" s="1"/>
+      <c r="CQ73" s="1"/>
     </row>
-    <row r="74" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -8363,19 +8280,19 @@
       <c r="AF74" s="3"/>
       <c r="AG74" s="3"/>
       <c r="AH74" s="3"/>
-      <c r="AI74" s="3"/>
+      <c r="AI74" s="8"/>
       <c r="AJ74" s="8"/>
       <c r="AK74" s="8"/>
-      <c r="AL74" s="8"/>
+      <c r="AL74" s="3"/>
       <c r="AM74" s="3"/>
       <c r="AN74" s="3"/>
       <c r="AO74" s="3"/>
-      <c r="AP74" s="3"/>
+      <c r="AP74" s="8"/>
       <c r="AQ74" s="8"/>
       <c r="AR74" s="8"/>
       <c r="AS74" s="8"/>
       <c r="AT74" s="8"/>
-      <c r="AU74" s="8"/>
+      <c r="AU74" s="3"/>
       <c r="AV74" s="3"/>
       <c r="AW74" s="3"/>
       <c r="AX74" s="3"/>
@@ -8395,12 +8312,12 @@
       <c r="BL74" s="3"/>
       <c r="BM74" s="3"/>
       <c r="BN74" s="3"/>
-      <c r="BO74" s="3"/>
+      <c r="BO74" s="9"/>
       <c r="BP74" s="9"/>
       <c r="BQ74" s="9"/>
       <c r="BR74" s="9"/>
       <c r="BS74" s="9"/>
-      <c r="BT74" s="9"/>
+      <c r="BT74" s="3"/>
       <c r="BU74" s="3"/>
       <c r="BV74" s="3"/>
       <c r="BW74" s="3"/>
@@ -8423,10 +8340,9 @@
       <c r="CN74" s="3"/>
       <c r="CO74" s="3"/>
       <c r="CP74" s="3"/>
-      <c r="CQ74" s="3"/>
-      <c r="CR74" s="1"/>
+      <c r="CQ74" s="1"/>
     </row>
-    <row r="75" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -8461,19 +8377,19 @@
       <c r="AF75" s="3"/>
       <c r="AG75" s="3"/>
       <c r="AH75" s="3"/>
-      <c r="AI75" s="3"/>
+      <c r="AI75" s="8"/>
       <c r="AJ75" s="8"/>
       <c r="AK75" s="8"/>
-      <c r="AL75" s="8"/>
+      <c r="AL75" s="3"/>
       <c r="AM75" s="3"/>
       <c r="AN75" s="3"/>
       <c r="AO75" s="3"/>
-      <c r="AP75" s="3"/>
+      <c r="AP75" s="8"/>
       <c r="AQ75" s="8"/>
       <c r="AR75" s="8"/>
       <c r="AS75" s="8"/>
       <c r="AT75" s="8"/>
-      <c r="AU75" s="8"/>
+      <c r="AU75" s="3"/>
       <c r="AV75" s="3"/>
       <c r="AW75" s="3"/>
       <c r="AX75" s="3"/>
@@ -8493,12 +8409,12 @@
       <c r="BL75" s="3"/>
       <c r="BM75" s="3"/>
       <c r="BN75" s="3"/>
-      <c r="BO75" s="3"/>
+      <c r="BO75" s="9"/>
       <c r="BP75" s="9"/>
       <c r="BQ75" s="9"/>
       <c r="BR75" s="9"/>
       <c r="BS75" s="9"/>
-      <c r="BT75" s="9"/>
+      <c r="BT75" s="3"/>
       <c r="BU75" s="3"/>
       <c r="BV75" s="3"/>
       <c r="BW75" s="3"/>
@@ -8521,10 +8437,9 @@
       <c r="CN75" s="3"/>
       <c r="CO75" s="3"/>
       <c r="CP75" s="3"/>
-      <c r="CQ75" s="3"/>
-      <c r="CR75" s="1"/>
+      <c r="CQ75" s="1"/>
     </row>
-    <row r="76" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -8559,19 +8474,19 @@
       <c r="AF76" s="3"/>
       <c r="AG76" s="3"/>
       <c r="AH76" s="3"/>
-      <c r="AI76" s="3"/>
+      <c r="AI76" s="8"/>
       <c r="AJ76" s="8"/>
       <c r="AK76" s="8"/>
-      <c r="AL76" s="8"/>
+      <c r="AL76" s="3"/>
       <c r="AM76" s="3"/>
       <c r="AN76" s="3"/>
       <c r="AO76" s="3"/>
-      <c r="AP76" s="3"/>
+      <c r="AP76" s="8"/>
       <c r="AQ76" s="8"/>
       <c r="AR76" s="8"/>
       <c r="AS76" s="8"/>
       <c r="AT76" s="8"/>
-      <c r="AU76" s="8"/>
+      <c r="AU76" s="3"/>
       <c r="AV76" s="3"/>
       <c r="AW76" s="3"/>
       <c r="AX76" s="3"/>
@@ -8591,12 +8506,12 @@
       <c r="BL76" s="3"/>
       <c r="BM76" s="3"/>
       <c r="BN76" s="3"/>
-      <c r="BO76" s="3"/>
+      <c r="BO76" s="9"/>
       <c r="BP76" s="9"/>
       <c r="BQ76" s="9"/>
       <c r="BR76" s="9"/>
       <c r="BS76" s="9"/>
-      <c r="BT76" s="9"/>
+      <c r="BT76" s="3"/>
       <c r="BU76" s="3"/>
       <c r="BV76" s="3"/>
       <c r="BW76" s="3"/>
@@ -8619,10 +8534,9 @@
       <c r="CN76" s="3"/>
       <c r="CO76" s="3"/>
       <c r="CP76" s="3"/>
-      <c r="CQ76" s="3"/>
-      <c r="CR76" s="1"/>
+      <c r="CQ76" s="1"/>
     </row>
-    <row r="77" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -8657,19 +8571,19 @@
       <c r="AF77" s="3"/>
       <c r="AG77" s="3"/>
       <c r="AH77" s="3"/>
-      <c r="AI77" s="3"/>
+      <c r="AI77" s="8"/>
       <c r="AJ77" s="8"/>
       <c r="AK77" s="8"/>
-      <c r="AL77" s="8"/>
+      <c r="AL77" s="3"/>
       <c r="AM77" s="3"/>
       <c r="AN77" s="3"/>
       <c r="AO77" s="3"/>
-      <c r="AP77" s="3"/>
+      <c r="AP77" s="8"/>
       <c r="AQ77" s="8"/>
       <c r="AR77" s="8"/>
       <c r="AS77" s="8"/>
       <c r="AT77" s="8"/>
-      <c r="AU77" s="8"/>
+      <c r="AU77" s="3"/>
       <c r="AV77" s="3"/>
       <c r="AW77" s="3"/>
       <c r="AX77" s="3"/>
@@ -8689,12 +8603,12 @@
       <c r="BL77" s="3"/>
       <c r="BM77" s="3"/>
       <c r="BN77" s="3"/>
-      <c r="BO77" s="3"/>
+      <c r="BO77" s="9"/>
       <c r="BP77" s="9"/>
       <c r="BQ77" s="9"/>
       <c r="BR77" s="9"/>
       <c r="BS77" s="9"/>
-      <c r="BT77" s="9"/>
+      <c r="BT77" s="3"/>
       <c r="BU77" s="3"/>
       <c r="BV77" s="3"/>
       <c r="BW77" s="3"/>
@@ -8717,10 +8631,9 @@
       <c r="CN77" s="3"/>
       <c r="CO77" s="3"/>
       <c r="CP77" s="3"/>
-      <c r="CQ77" s="3"/>
-      <c r="CR77" s="1"/>
+      <c r="CQ77" s="1"/>
     </row>
-    <row r="78" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -8755,19 +8668,19 @@
       <c r="AF78" s="3"/>
       <c r="AG78" s="3"/>
       <c r="AH78" s="3"/>
-      <c r="AI78" s="3"/>
+      <c r="AI78" s="8"/>
       <c r="AJ78" s="8"/>
       <c r="AK78" s="8"/>
-      <c r="AL78" s="8"/>
+      <c r="AL78" s="3"/>
       <c r="AM78" s="3"/>
       <c r="AN78" s="3"/>
       <c r="AO78" s="3"/>
-      <c r="AP78" s="3"/>
+      <c r="AP78" s="8"/>
       <c r="AQ78" s="8"/>
       <c r="AR78" s="8"/>
       <c r="AS78" s="8"/>
       <c r="AT78" s="8"/>
-      <c r="AU78" s="8"/>
+      <c r="AU78" s="3"/>
       <c r="AV78" s="3"/>
       <c r="AW78" s="3"/>
       <c r="AX78" s="3"/>
@@ -8787,12 +8700,12 @@
       <c r="BL78" s="3"/>
       <c r="BM78" s="3"/>
       <c r="BN78" s="3"/>
-      <c r="BO78" s="3"/>
+      <c r="BO78" s="9"/>
       <c r="BP78" s="9"/>
       <c r="BQ78" s="9"/>
       <c r="BR78" s="9"/>
       <c r="BS78" s="9"/>
-      <c r="BT78" s="9"/>
+      <c r="BT78" s="3"/>
       <c r="BU78" s="3"/>
       <c r="BV78" s="3"/>
       <c r="BW78" s="3"/>
@@ -8815,10 +8728,9 @@
       <c r="CN78" s="3"/>
       <c r="CO78" s="3"/>
       <c r="CP78" s="3"/>
-      <c r="CQ78" s="3"/>
-      <c r="CR78" s="1"/>
+      <c r="CQ78" s="1"/>
     </row>
-    <row r="79" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -8853,19 +8765,19 @@
       <c r="AF79" s="3"/>
       <c r="AG79" s="3"/>
       <c r="AH79" s="3"/>
-      <c r="AI79" s="3"/>
+      <c r="AI79" s="8"/>
       <c r="AJ79" s="8"/>
       <c r="AK79" s="8"/>
-      <c r="AL79" s="8"/>
+      <c r="AL79" s="3"/>
       <c r="AM79" s="3"/>
       <c r="AN79" s="3"/>
       <c r="AO79" s="3"/>
-      <c r="AP79" s="3"/>
+      <c r="AP79" s="8"/>
       <c r="AQ79" s="8"/>
       <c r="AR79" s="8"/>
       <c r="AS79" s="8"/>
       <c r="AT79" s="8"/>
-      <c r="AU79" s="8"/>
+      <c r="AU79" s="3"/>
       <c r="AV79" s="3"/>
       <c r="AW79" s="3"/>
       <c r="AX79" s="3"/>
@@ -8885,12 +8797,12 @@
       <c r="BL79" s="3"/>
       <c r="BM79" s="3"/>
       <c r="BN79" s="3"/>
-      <c r="BO79" s="3"/>
+      <c r="BO79" s="9"/>
       <c r="BP79" s="9"/>
       <c r="BQ79" s="9"/>
       <c r="BR79" s="9"/>
       <c r="BS79" s="9"/>
-      <c r="BT79" s="9"/>
+      <c r="BT79" s="3"/>
       <c r="BU79" s="3"/>
       <c r="BV79" s="3"/>
       <c r="BW79" s="3"/>
@@ -8913,10 +8825,9 @@
       <c r="CN79" s="3"/>
       <c r="CO79" s="3"/>
       <c r="CP79" s="3"/>
-      <c r="CQ79" s="3"/>
-      <c r="CR79" s="1"/>
+      <c r="CQ79" s="1"/>
     </row>
-    <row r="80" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -8951,19 +8862,19 @@
       <c r="AF80" s="3"/>
       <c r="AG80" s="3"/>
       <c r="AH80" s="3"/>
-      <c r="AI80" s="3"/>
+      <c r="AI80" s="8"/>
       <c r="AJ80" s="8"/>
       <c r="AK80" s="8"/>
-      <c r="AL80" s="8"/>
+      <c r="AL80" s="3"/>
       <c r="AM80" s="3"/>
       <c r="AN80" s="3"/>
       <c r="AO80" s="3"/>
-      <c r="AP80" s="3"/>
+      <c r="AP80" s="8"/>
       <c r="AQ80" s="8"/>
       <c r="AR80" s="8"/>
       <c r="AS80" s="8"/>
       <c r="AT80" s="8"/>
-      <c r="AU80" s="8"/>
+      <c r="AU80" s="3"/>
       <c r="AV80" s="3"/>
       <c r="AW80" s="3"/>
       <c r="AX80" s="3"/>
@@ -8983,12 +8894,12 @@
       <c r="BL80" s="3"/>
       <c r="BM80" s="3"/>
       <c r="BN80" s="3"/>
-      <c r="BO80" s="3"/>
+      <c r="BO80" s="9"/>
       <c r="BP80" s="9"/>
       <c r="BQ80" s="9"/>
       <c r="BR80" s="9"/>
       <c r="BS80" s="9"/>
-      <c r="BT80" s="9"/>
+      <c r="BT80" s="3"/>
       <c r="BU80" s="3"/>
       <c r="BV80" s="3"/>
       <c r="BW80" s="3"/>
@@ -9011,10 +8922,9 @@
       <c r="CN80" s="3"/>
       <c r="CO80" s="3"/>
       <c r="CP80" s="3"/>
-      <c r="CQ80" s="3"/>
-      <c r="CR80" s="1"/>
+      <c r="CQ80" s="1"/>
     </row>
-    <row r="81" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -9049,19 +8959,19 @@
       <c r="AF81" s="3"/>
       <c r="AG81" s="3"/>
       <c r="AH81" s="3"/>
-      <c r="AI81" s="3"/>
+      <c r="AI81" s="8"/>
       <c r="AJ81" s="8"/>
       <c r="AK81" s="8"/>
-      <c r="AL81" s="8"/>
+      <c r="AL81" s="3"/>
       <c r="AM81" s="3"/>
       <c r="AN81" s="3"/>
       <c r="AO81" s="3"/>
-      <c r="AP81" s="3"/>
+      <c r="AP81" s="8"/>
       <c r="AQ81" s="8"/>
       <c r="AR81" s="8"/>
       <c r="AS81" s="8"/>
       <c r="AT81" s="8"/>
-      <c r="AU81" s="8"/>
+      <c r="AU81" s="3"/>
       <c r="AV81" s="3"/>
       <c r="AW81" s="3"/>
       <c r="AX81" s="3"/>
@@ -9081,12 +8991,12 @@
       <c r="BL81" s="3"/>
       <c r="BM81" s="3"/>
       <c r="BN81" s="3"/>
-      <c r="BO81" s="3"/>
+      <c r="BO81" s="9"/>
       <c r="BP81" s="9"/>
       <c r="BQ81" s="9"/>
       <c r="BR81" s="9"/>
       <c r="BS81" s="9"/>
-      <c r="BT81" s="9"/>
+      <c r="BT81" s="3"/>
       <c r="BU81" s="3"/>
       <c r="BV81" s="3"/>
       <c r="BW81" s="3"/>
@@ -9109,10 +9019,9 @@
       <c r="CN81" s="3"/>
       <c r="CO81" s="3"/>
       <c r="CP81" s="3"/>
-      <c r="CQ81" s="3"/>
-      <c r="CR81" s="1"/>
+      <c r="CQ81" s="1"/>
     </row>
-    <row r="82" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -9147,19 +9056,19 @@
       <c r="AF82" s="3"/>
       <c r="AG82" s="3"/>
       <c r="AH82" s="3"/>
-      <c r="AI82" s="3"/>
+      <c r="AI82" s="8"/>
       <c r="AJ82" s="8"/>
       <c r="AK82" s="8"/>
-      <c r="AL82" s="8"/>
+      <c r="AL82" s="3"/>
       <c r="AM82" s="3"/>
       <c r="AN82" s="3"/>
       <c r="AO82" s="3"/>
-      <c r="AP82" s="3"/>
+      <c r="AP82" s="8"/>
       <c r="AQ82" s="8"/>
       <c r="AR82" s="8"/>
       <c r="AS82" s="8"/>
       <c r="AT82" s="8"/>
-      <c r="AU82" s="8"/>
+      <c r="AU82" s="3"/>
       <c r="AV82" s="3"/>
       <c r="AW82" s="3"/>
       <c r="AX82" s="3"/>
@@ -9179,12 +9088,12 @@
       <c r="BL82" s="3"/>
       <c r="BM82" s="3"/>
       <c r="BN82" s="3"/>
-      <c r="BO82" s="3"/>
+      <c r="BO82" s="9"/>
       <c r="BP82" s="9"/>
       <c r="BQ82" s="9"/>
       <c r="BR82" s="9"/>
       <c r="BS82" s="9"/>
-      <c r="BT82" s="9"/>
+      <c r="BT82" s="3"/>
       <c r="BU82" s="3"/>
       <c r="BV82" s="3"/>
       <c r="BW82" s="3"/>
@@ -9207,10 +9116,9 @@
       <c r="CN82" s="3"/>
       <c r="CO82" s="3"/>
       <c r="CP82" s="3"/>
-      <c r="CQ82" s="3"/>
-      <c r="CR82" s="1"/>
+      <c r="CQ82" s="1"/>
     </row>
-    <row r="83" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -9245,19 +9153,19 @@
       <c r="AF83" s="3"/>
       <c r="AG83" s="3"/>
       <c r="AH83" s="3"/>
-      <c r="AI83" s="3"/>
+      <c r="AI83" s="8"/>
       <c r="AJ83" s="8"/>
       <c r="AK83" s="8"/>
-      <c r="AL83" s="8"/>
+      <c r="AL83" s="3"/>
       <c r="AM83" s="3"/>
       <c r="AN83" s="3"/>
       <c r="AO83" s="3"/>
-      <c r="AP83" s="3"/>
+      <c r="AP83" s="8"/>
       <c r="AQ83" s="8"/>
       <c r="AR83" s="8"/>
       <c r="AS83" s="8"/>
       <c r="AT83" s="8"/>
-      <c r="AU83" s="8"/>
+      <c r="AU83" s="3"/>
       <c r="AV83" s="3"/>
       <c r="AW83" s="3"/>
       <c r="AX83" s="3"/>
@@ -9277,12 +9185,12 @@
       <c r="BL83" s="3"/>
       <c r="BM83" s="3"/>
       <c r="BN83" s="3"/>
-      <c r="BO83" s="3"/>
+      <c r="BO83" s="9"/>
       <c r="BP83" s="9"/>
       <c r="BQ83" s="9"/>
       <c r="BR83" s="9"/>
       <c r="BS83" s="9"/>
-      <c r="BT83" s="9"/>
+      <c r="BT83" s="3"/>
       <c r="BU83" s="3"/>
       <c r="BV83" s="3"/>
       <c r="BW83" s="3"/>
@@ -9305,10 +9213,9 @@
       <c r="CN83" s="3"/>
       <c r="CO83" s="3"/>
       <c r="CP83" s="3"/>
-      <c r="CQ83" s="3"/>
-      <c r="CR83" s="1"/>
+      <c r="CQ83" s="1"/>
     </row>
-    <row r="84" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -9348,14 +9255,14 @@
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
       <c r="AM84" s="3"/>
-      <c r="AN84" s="3"/>
-      <c r="AO84" s="9"/>
-      <c r="AP84" s="10"/>
+      <c r="AN84" s="9"/>
+      <c r="AO84" s="10"/>
+      <c r="AP84" s="3"/>
       <c r="AQ84" s="3"/>
       <c r="AR84" s="3"/>
       <c r="AS84" s="3"/>
       <c r="AT84" s="3"/>
-      <c r="AU84" s="3"/>
+      <c r="AU84" s="9"/>
       <c r="AV84" s="9"/>
       <c r="AW84" s="9"/>
       <c r="AX84" s="9"/>
@@ -9402,11 +9309,10 @@
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
       <c r="CO84" s="9"/>
-      <c r="CP84" s="9"/>
-      <c r="CQ84" s="3"/>
-      <c r="CR84" s="1"/>
+      <c r="CP84" s="3"/>
+      <c r="CQ84" s="1"/>
     </row>
-    <row r="85" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -9472,14 +9378,14 @@
       <c r="BK85" s="3"/>
       <c r="BL85" s="3"/>
       <c r="BM85" s="3"/>
-      <c r="BN85" s="3"/>
-      <c r="BO85" s="11"/>
+      <c r="BN85" s="11"/>
+      <c r="BO85" s="9"/>
       <c r="BP85" s="9"/>
       <c r="BQ85" s="9"/>
       <c r="BR85" s="9"/>
       <c r="BS85" s="9"/>
       <c r="BT85" s="9"/>
-      <c r="BU85" s="9"/>
+      <c r="BU85" s="3"/>
       <c r="BV85" s="3"/>
       <c r="BW85" s="3"/>
       <c r="BX85" s="3"/>
@@ -9501,10 +9407,9 @@
       <c r="CN85" s="3"/>
       <c r="CO85" s="3"/>
       <c r="CP85" s="3"/>
-      <c r="CQ85" s="3"/>
-      <c r="CR85" s="1"/>
+      <c r="CQ85" s="1"/>
     </row>
-    <row r="86" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -9571,13 +9476,13 @@
       <c r="BL86" s="3"/>
       <c r="BM86" s="3"/>
       <c r="BN86" s="3"/>
-      <c r="BO86" s="3"/>
+      <c r="BO86" s="9"/>
       <c r="BP86" s="9"/>
       <c r="BQ86" s="9"/>
       <c r="BR86" s="9"/>
       <c r="BS86" s="9"/>
       <c r="BT86" s="9"/>
-      <c r="BU86" s="9"/>
+      <c r="BU86" s="3"/>
       <c r="BV86" s="3"/>
       <c r="BW86" s="3"/>
       <c r="BX86" s="3"/>
@@ -9599,10 +9504,9 @@
       <c r="CN86" s="3"/>
       <c r="CO86" s="3"/>
       <c r="CP86" s="3"/>
-      <c r="CQ86" s="3"/>
-      <c r="CR86" s="1"/>
+      <c r="CQ86" s="1"/>
     </row>
-    <row r="87" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -9669,13 +9573,13 @@
       <c r="BL87" s="3"/>
       <c r="BM87" s="3"/>
       <c r="BN87" s="3"/>
-      <c r="BO87" s="3"/>
+      <c r="BO87" s="9"/>
       <c r="BP87" s="9"/>
       <c r="BQ87" s="9"/>
       <c r="BR87" s="9"/>
       <c r="BS87" s="9"/>
       <c r="BT87" s="9"/>
-      <c r="BU87" s="9"/>
+      <c r="BU87" s="3"/>
       <c r="BV87" s="3"/>
       <c r="BW87" s="3"/>
       <c r="BX87" s="3"/>
@@ -9697,10 +9601,9 @@
       <c r="CN87" s="3"/>
       <c r="CO87" s="3"/>
       <c r="CP87" s="3"/>
-      <c r="CQ87" s="3"/>
-      <c r="CR87" s="1"/>
+      <c r="CQ87" s="1"/>
     </row>
-    <row r="88" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -9767,13 +9670,13 @@
       <c r="BL88" s="3"/>
       <c r="BM88" s="3"/>
       <c r="BN88" s="3"/>
-      <c r="BO88" s="3"/>
+      <c r="BO88" s="9"/>
       <c r="BP88" s="9"/>
       <c r="BQ88" s="9"/>
       <c r="BR88" s="9"/>
       <c r="BS88" s="9"/>
       <c r="BT88" s="9"/>
-      <c r="BU88" s="9"/>
+      <c r="BU88" s="3"/>
       <c r="BV88" s="3"/>
       <c r="BW88" s="3"/>
       <c r="BX88" s="3"/>
@@ -9795,10 +9698,9 @@
       <c r="CN88" s="3"/>
       <c r="CO88" s="3"/>
       <c r="CP88" s="3"/>
-      <c r="CQ88" s="3"/>
-      <c r="CR88" s="1"/>
+      <c r="CQ88" s="1"/>
     </row>
-    <row r="89" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -9865,13 +9767,13 @@
       <c r="BL89" s="3"/>
       <c r="BM89" s="3"/>
       <c r="BN89" s="3"/>
-      <c r="BO89" s="3"/>
+      <c r="BO89" s="9"/>
       <c r="BP89" s="9"/>
       <c r="BQ89" s="9"/>
       <c r="BR89" s="9"/>
       <c r="BS89" s="9"/>
       <c r="BT89" s="9"/>
-      <c r="BU89" s="9"/>
+      <c r="BU89" s="3"/>
       <c r="BV89" s="3"/>
       <c r="BW89" s="3"/>
       <c r="BX89" s="3"/>
@@ -9893,10 +9795,9 @@
       <c r="CN89" s="3"/>
       <c r="CO89" s="3"/>
       <c r="CP89" s="3"/>
-      <c r="CQ89" s="3"/>
-      <c r="CR89" s="1"/>
+      <c r="CQ89" s="1"/>
     </row>
-    <row r="90" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -9963,13 +9864,13 @@
       <c r="BL90" s="3"/>
       <c r="BM90" s="3"/>
       <c r="BN90" s="3"/>
-      <c r="BO90" s="3"/>
+      <c r="BO90" s="9"/>
       <c r="BP90" s="9"/>
       <c r="BQ90" s="9"/>
       <c r="BR90" s="9"/>
       <c r="BS90" s="9"/>
       <c r="BT90" s="9"/>
-      <c r="BU90" s="9"/>
+      <c r="BU90" s="3"/>
       <c r="BV90" s="3"/>
       <c r="BW90" s="3"/>
       <c r="BX90" s="3"/>
@@ -9991,10 +9892,9 @@
       <c r="CN90" s="3"/>
       <c r="CO90" s="3"/>
       <c r="CP90" s="3"/>
-      <c r="CQ90" s="3"/>
-      <c r="CR90" s="1"/>
+      <c r="CQ90" s="1"/>
     </row>
-    <row r="91" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -10061,13 +9961,13 @@
       <c r="BL91" s="3"/>
       <c r="BM91" s="3"/>
       <c r="BN91" s="3"/>
-      <c r="BO91" s="3"/>
+      <c r="BO91" s="9"/>
       <c r="BP91" s="9"/>
       <c r="BQ91" s="9"/>
       <c r="BR91" s="9"/>
       <c r="BS91" s="9"/>
       <c r="BT91" s="9"/>
-      <c r="BU91" s="9"/>
+      <c r="BU91" s="3"/>
       <c r="BV91" s="3"/>
       <c r="BW91" s="3"/>
       <c r="BX91" s="3"/>
@@ -10089,10 +9989,9 @@
       <c r="CN91" s="3"/>
       <c r="CO91" s="3"/>
       <c r="CP91" s="3"/>
-      <c r="CQ91" s="3"/>
-      <c r="CR91" s="1"/>
+      <c r="CQ91" s="1"/>
     </row>
-    <row r="92" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -10132,14 +10031,14 @@
       <c r="AK92" s="3"/>
       <c r="AL92" s="3"/>
       <c r="AM92" s="3"/>
-      <c r="AN92" s="3"/>
+      <c r="AN92" s="9"/>
       <c r="AO92" s="9"/>
-      <c r="AP92" s="9"/>
+      <c r="AP92" s="3"/>
       <c r="AQ92" s="3"/>
       <c r="AR92" s="3"/>
       <c r="AS92" s="3"/>
       <c r="AT92" s="3"/>
-      <c r="AU92" s="3"/>
+      <c r="AU92" s="9"/>
       <c r="AV92" s="9"/>
       <c r="AW92" s="9"/>
       <c r="AX92" s="9"/>
@@ -10158,8 +10057,8 @@
       <c r="BK92" s="9"/>
       <c r="BL92" s="9"/>
       <c r="BM92" s="9"/>
-      <c r="BN92" s="9"/>
-      <c r="BO92" s="10"/>
+      <c r="BN92" s="10"/>
+      <c r="BO92" s="9"/>
       <c r="BP92" s="9"/>
       <c r="BQ92" s="9"/>
       <c r="BR92" s="9"/>
@@ -10186,11 +10085,10 @@
       <c r="CM92" s="9"/>
       <c r="CN92" s="9"/>
       <c r="CO92" s="9"/>
-      <c r="CP92" s="9"/>
-      <c r="CQ92" s="3"/>
-      <c r="CR92" s="1"/>
+      <c r="CP92" s="3"/>
+      <c r="CQ92" s="1"/>
     </row>
-    <row r="93" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -10256,14 +10154,14 @@
       <c r="BK93" s="3"/>
       <c r="BL93" s="3"/>
       <c r="BM93" s="3"/>
-      <c r="BN93" s="3"/>
-      <c r="BO93" s="11"/>
+      <c r="BN93" s="11"/>
+      <c r="BO93" s="9"/>
       <c r="BP93" s="9"/>
       <c r="BQ93" s="9"/>
       <c r="BR93" s="9"/>
       <c r="BS93" s="9"/>
       <c r="BT93" s="9"/>
-      <c r="BU93" s="9"/>
+      <c r="BU93" s="3"/>
       <c r="BV93" s="3"/>
       <c r="BW93" s="3"/>
       <c r="BX93" s="3"/>
@@ -10285,10 +10183,9 @@
       <c r="CN93" s="3"/>
       <c r="CO93" s="3"/>
       <c r="CP93" s="3"/>
-      <c r="CQ93" s="3"/>
-      <c r="CR93" s="1"/>
+      <c r="CQ93" s="1"/>
     </row>
-    <row r="94" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -10354,14 +10251,14 @@
       <c r="BK94" s="3"/>
       <c r="BL94" s="3"/>
       <c r="BM94" s="3"/>
-      <c r="BN94" s="3"/>
-      <c r="BO94" s="11"/>
+      <c r="BN94" s="11"/>
+      <c r="BO94" s="9"/>
       <c r="BP94" s="9"/>
       <c r="BQ94" s="9"/>
       <c r="BR94" s="9"/>
       <c r="BS94" s="9"/>
       <c r="BT94" s="9"/>
-      <c r="BU94" s="9"/>
+      <c r="BU94" s="3"/>
       <c r="BV94" s="3"/>
       <c r="BW94" s="3"/>
       <c r="BX94" s="3"/>
@@ -10383,10 +10280,9 @@
       <c r="CN94" s="3"/>
       <c r="CO94" s="3"/>
       <c r="CP94" s="3"/>
-      <c r="CQ94" s="3"/>
-      <c r="CR94" s="1"/>
+      <c r="CQ94" s="1"/>
     </row>
-    <row r="95" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -10453,12 +10349,12 @@
       <c r="BL95" s="3"/>
       <c r="BM95" s="3"/>
       <c r="BN95" s="3"/>
-      <c r="BO95" s="3"/>
+      <c r="BO95" s="9"/>
       <c r="BP95" s="9"/>
       <c r="BQ95" s="9"/>
       <c r="BR95" s="9"/>
       <c r="BS95" s="9"/>
-      <c r="BT95" s="9"/>
+      <c r="BT95" s="3"/>
       <c r="BU95" s="3"/>
       <c r="BV95" s="3"/>
       <c r="BW95" s="3"/>
@@ -10481,10 +10377,9 @@
       <c r="CN95" s="3"/>
       <c r="CO95" s="3"/>
       <c r="CP95" s="3"/>
-      <c r="CQ95" s="3"/>
-      <c r="CR95" s="1"/>
+      <c r="CQ95" s="1"/>
     </row>
-    <row r="96" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -10551,12 +10446,12 @@
       <c r="BL96" s="3"/>
       <c r="BM96" s="3"/>
       <c r="BN96" s="3"/>
-      <c r="BO96" s="3"/>
+      <c r="BO96" s="9"/>
       <c r="BP96" s="9"/>
       <c r="BQ96" s="9"/>
       <c r="BR96" s="9"/>
       <c r="BS96" s="9"/>
-      <c r="BT96" s="9"/>
+      <c r="BT96" s="3"/>
       <c r="BU96" s="3"/>
       <c r="BV96" s="3"/>
       <c r="BW96" s="3"/>
@@ -10579,10 +10474,9 @@
       <c r="CN96" s="3"/>
       <c r="CO96" s="3"/>
       <c r="CP96" s="3"/>
-      <c r="CQ96" s="3"/>
-      <c r="CR96" s="1"/>
+      <c r="CQ96" s="1"/>
     </row>
-    <row r="97" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -10649,12 +10543,12 @@
       <c r="BL97" s="3"/>
       <c r="BM97" s="3"/>
       <c r="BN97" s="3"/>
-      <c r="BO97" s="3"/>
+      <c r="BO97" s="9"/>
       <c r="BP97" s="9"/>
       <c r="BQ97" s="9"/>
       <c r="BR97" s="9"/>
       <c r="BS97" s="9"/>
-      <c r="BT97" s="9"/>
+      <c r="BT97" s="3"/>
       <c r="BU97" s="3"/>
       <c r="BV97" s="3"/>
       <c r="BW97" s="3"/>
@@ -10677,10 +10571,9 @@
       <c r="CN97" s="3"/>
       <c r="CO97" s="3"/>
       <c r="CP97" s="3"/>
-      <c r="CQ97" s="3"/>
-      <c r="CR97" s="1"/>
+      <c r="CQ97" s="1"/>
     </row>
-    <row r="98" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -10747,12 +10640,12 @@
       <c r="BL98" s="3"/>
       <c r="BM98" s="3"/>
       <c r="BN98" s="3"/>
-      <c r="BO98" s="3"/>
+      <c r="BO98" s="9"/>
       <c r="BP98" s="9"/>
       <c r="BQ98" s="9"/>
       <c r="BR98" s="9"/>
       <c r="BS98" s="9"/>
-      <c r="BT98" s="9"/>
+      <c r="BT98" s="3"/>
       <c r="BU98" s="3"/>
       <c r="BV98" s="3"/>
       <c r="BW98" s="3"/>
@@ -10775,10 +10668,9 @@
       <c r="CN98" s="3"/>
       <c r="CO98" s="3"/>
       <c r="CP98" s="3"/>
-      <c r="CQ98" s="3"/>
-      <c r="CR98" s="1"/>
+      <c r="CQ98" s="1"/>
     </row>
-    <row r="99" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -10818,14 +10710,14 @@
       <c r="AK99" s="3"/>
       <c r="AL99" s="3"/>
       <c r="AM99" s="3"/>
-      <c r="AN99" s="3"/>
+      <c r="AN99" s="9"/>
       <c r="AO99" s="9"/>
-      <c r="AP99" s="9"/>
+      <c r="AP99" s="3"/>
       <c r="AQ99" s="3"/>
       <c r="AR99" s="3"/>
       <c r="AS99" s="3"/>
       <c r="AT99" s="3"/>
-      <c r="AU99" s="3"/>
+      <c r="AU99" s="9"/>
       <c r="AV99" s="9"/>
       <c r="AW99" s="9"/>
       <c r="AX99" s="9"/>
@@ -10872,11 +10764,10 @@
       <c r="CM99" s="9"/>
       <c r="CN99" s="9"/>
       <c r="CO99" s="9"/>
-      <c r="CP99" s="9"/>
-      <c r="CQ99" s="3"/>
-      <c r="CR99" s="1"/>
+      <c r="CP99" s="3"/>
+      <c r="CQ99" s="1"/>
     </row>
-    <row r="100" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -10916,14 +10807,14 @@
       <c r="AK100" s="3"/>
       <c r="AL100" s="3"/>
       <c r="AM100" s="3"/>
-      <c r="AN100" s="3"/>
+      <c r="AN100" s="9"/>
       <c r="AO100" s="9"/>
-      <c r="AP100" s="9"/>
+      <c r="AP100" s="3"/>
       <c r="AQ100" s="3"/>
       <c r="AR100" s="3"/>
       <c r="AS100" s="3"/>
       <c r="AT100" s="3"/>
-      <c r="AU100" s="3"/>
+      <c r="AU100" s="9"/>
       <c r="AV100" s="9"/>
       <c r="AW100" s="9"/>
       <c r="AX100" s="9"/>
@@ -10970,11 +10861,10 @@
       <c r="CM100" s="9"/>
       <c r="CN100" s="9"/>
       <c r="CO100" s="9"/>
-      <c r="CP100" s="9"/>
-      <c r="CQ100" s="3"/>
-      <c r="CR100" s="1"/>
+      <c r="CP100" s="3"/>
+      <c r="CQ100" s="1"/>
     </row>
-    <row r="101" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -11014,14 +10904,14 @@
       <c r="AK101" s="3"/>
       <c r="AL101" s="3"/>
       <c r="AM101" s="3"/>
-      <c r="AN101" s="3"/>
+      <c r="AN101" s="9"/>
       <c r="AO101" s="9"/>
-      <c r="AP101" s="9"/>
+      <c r="AP101" s="3"/>
       <c r="AQ101" s="3"/>
       <c r="AR101" s="3"/>
       <c r="AS101" s="3"/>
       <c r="AT101" s="3"/>
-      <c r="AU101" s="3"/>
+      <c r="AU101" s="9"/>
       <c r="AV101" s="9"/>
       <c r="AW101" s="9"/>
       <c r="AX101" s="9"/>
@@ -11068,11 +10958,10 @@
       <c r="CM101" s="9"/>
       <c r="CN101" s="9"/>
       <c r="CO101" s="9"/>
-      <c r="CP101" s="9"/>
-      <c r="CQ101" s="3"/>
-      <c r="CR101" s="1"/>
+      <c r="CP101" s="3"/>
+      <c r="CQ101" s="1"/>
     </row>
-    <row r="102" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -11167,10 +11056,9 @@
       <c r="CN102" s="3"/>
       <c r="CO102" s="3"/>
       <c r="CP102" s="3"/>
-      <c r="CQ102" s="3"/>
-      <c r="CR102" s="1"/>
+      <c r="CQ102" s="1"/>
     </row>
-    <row r="103" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -11265,10 +11153,9 @@
       <c r="CN103" s="3"/>
       <c r="CO103" s="3"/>
       <c r="CP103" s="3"/>
-      <c r="CQ103" s="3"/>
-      <c r="CR103" s="1"/>
+      <c r="CQ103" s="1"/>
     </row>
-    <row r="104" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -11363,10 +11250,9 @@
       <c r="CN104" s="3"/>
       <c r="CO104" s="3"/>
       <c r="CP104" s="3"/>
-      <c r="CQ104" s="3"/>
-      <c r="CR104" s="1"/>
+      <c r="CQ104" s="1"/>
     </row>
-    <row r="105" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -11461,10 +11347,9 @@
       <c r="CN105" s="3"/>
       <c r="CO105" s="3"/>
       <c r="CP105" s="3"/>
-      <c r="CQ105" s="3"/>
-      <c r="CR105" s="1"/>
+      <c r="CQ105" s="1"/>
     </row>
-    <row r="106" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -11559,10 +11444,9 @@
       <c r="CN106" s="3"/>
       <c r="CO106" s="3"/>
       <c r="CP106" s="3"/>
-      <c r="CQ106" s="3"/>
-      <c r="CR106" s="1"/>
+      <c r="CQ106" s="1"/>
     </row>
-    <row r="107" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -11657,10 +11541,9 @@
       <c r="CN107" s="3"/>
       <c r="CO107" s="3"/>
       <c r="CP107" s="3"/>
-      <c r="CQ107" s="3"/>
-      <c r="CR107" s="1"/>
+      <c r="CQ107" s="1"/>
     </row>
-    <row r="108" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -11755,10 +11638,9 @@
       <c r="CN108" s="3"/>
       <c r="CO108" s="3"/>
       <c r="CP108" s="3"/>
-      <c r="CQ108" s="3"/>
-      <c r="CR108" s="1"/>
+      <c r="CQ108" s="1"/>
     </row>
-    <row r="109" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -11853,10 +11735,9 @@
       <c r="CN109" s="3"/>
       <c r="CO109" s="3"/>
       <c r="CP109" s="3"/>
-      <c r="CQ109" s="3"/>
-      <c r="CR109" s="1"/>
+      <c r="CQ109" s="1"/>
     </row>
-    <row r="110" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -11951,10 +11832,9 @@
       <c r="CN110" s="3"/>
       <c r="CO110" s="3"/>
       <c r="CP110" s="3"/>
-      <c r="CQ110" s="3"/>
-      <c r="CR110" s="1"/>
+      <c r="CQ110" s="1"/>
     </row>
-    <row r="111" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -12049,10 +11929,9 @@
       <c r="CN111" s="3"/>
       <c r="CO111" s="3"/>
       <c r="CP111" s="3"/>
-      <c r="CQ111" s="3"/>
-      <c r="CR111" s="1"/>
+      <c r="CQ111" s="1"/>
     </row>
-    <row r="112" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -12147,10 +12026,9 @@
       <c r="CN112" s="3"/>
       <c r="CO112" s="3"/>
       <c r="CP112" s="3"/>
-      <c r="CQ112" s="3"/>
-      <c r="CR112" s="1"/>
+      <c r="CQ112" s="1"/>
     </row>
-    <row r="113" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -12245,10 +12123,9 @@
       <c r="CN113" s="3"/>
       <c r="CO113" s="3"/>
       <c r="CP113" s="3"/>
-      <c r="CQ113" s="3"/>
-      <c r="CR113" s="1"/>
+      <c r="CQ113" s="1"/>
     </row>
-    <row r="114" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -12343,10 +12220,9 @@
       <c r="CN114" s="3"/>
       <c r="CO114" s="3"/>
       <c r="CP114" s="3"/>
-      <c r="CQ114" s="3"/>
-      <c r="CR114" s="1"/>
+      <c r="CQ114" s="1"/>
     </row>
-    <row r="115" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -12441,10 +12317,9 @@
       <c r="CN115" s="3"/>
       <c r="CO115" s="3"/>
       <c r="CP115" s="3"/>
-      <c r="CQ115" s="3"/>
-      <c r="CR115" s="1"/>
+      <c r="CQ115" s="1"/>
     </row>
-    <row r="116" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -12539,10 +12414,9 @@
       <c r="CN116" s="3"/>
       <c r="CO116" s="3"/>
       <c r="CP116" s="3"/>
-      <c r="CQ116" s="3"/>
-      <c r="CR116" s="1"/>
+      <c r="CQ116" s="1"/>
     </row>
-    <row r="117" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -12637,10 +12511,9 @@
       <c r="CN117" s="3"/>
       <c r="CO117" s="3"/>
       <c r="CP117" s="3"/>
-      <c r="CQ117" s="3"/>
-      <c r="CR117" s="1"/>
+      <c r="CQ117" s="1"/>
     </row>
-    <row r="118" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -12735,10 +12608,9 @@
       <c r="CN118" s="3"/>
       <c r="CO118" s="3"/>
       <c r="CP118" s="3"/>
-      <c r="CQ118" s="3"/>
-      <c r="CR118" s="1"/>
+      <c r="CQ118" s="1"/>
     </row>
-    <row r="119" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -12833,10 +12705,9 @@
       <c r="CN119" s="3"/>
       <c r="CO119" s="3"/>
       <c r="CP119" s="3"/>
-      <c r="CQ119" s="3"/>
-      <c r="CR119" s="1"/>
+      <c r="CQ119" s="1"/>
     </row>
-    <row r="120" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -12931,10 +12802,9 @@
       <c r="CN120" s="3"/>
       <c r="CO120" s="3"/>
       <c r="CP120" s="3"/>
-      <c r="CQ120" s="3"/>
-      <c r="CR120" s="1"/>
+      <c r="CQ120" s="1"/>
     </row>
-    <row r="121" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -13029,10 +12899,9 @@
       <c r="CN121" s="3"/>
       <c r="CO121" s="3"/>
       <c r="CP121" s="3"/>
-      <c r="CQ121" s="3"/>
-      <c r="CR121" s="1"/>
+      <c r="CQ121" s="1"/>
     </row>
-    <row r="122" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -13127,10 +12996,9 @@
       <c r="CN122" s="3"/>
       <c r="CO122" s="3"/>
       <c r="CP122" s="3"/>
-      <c r="CQ122" s="3"/>
-      <c r="CR122" s="1"/>
+      <c r="CQ122" s="1"/>
     </row>
-    <row r="123" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -13225,10 +13093,9 @@
       <c r="CN123" s="3"/>
       <c r="CO123" s="3"/>
       <c r="CP123" s="3"/>
-      <c r="CQ123" s="3"/>
-      <c r="CR123" s="1"/>
+      <c r="CQ123" s="1"/>
     </row>
-    <row r="124" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -13323,10 +13190,9 @@
       <c r="CN124" s="3"/>
       <c r="CO124" s="3"/>
       <c r="CP124" s="3"/>
-      <c r="CQ124" s="3"/>
-      <c r="CR124" s="1"/>
+      <c r="CQ124" s="1"/>
     </row>
-    <row r="125" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -13421,10 +13287,9 @@
       <c r="CN125" s="3"/>
       <c r="CO125" s="3"/>
       <c r="CP125" s="3"/>
-      <c r="CQ125" s="3"/>
-      <c r="CR125" s="1"/>
+      <c r="CQ125" s="1"/>
     </row>
-    <row r="126" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -13519,10 +13384,9 @@
       <c r="CN126" s="3"/>
       <c r="CO126" s="3"/>
       <c r="CP126" s="3"/>
-      <c r="CQ126" s="3"/>
-      <c r="CR126" s="1"/>
+      <c r="CQ126" s="1"/>
     </row>
-    <row r="127" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -13617,10 +13481,9 @@
       <c r="CN127" s="3"/>
       <c r="CO127" s="3"/>
       <c r="CP127" s="3"/>
-      <c r="CQ127" s="3"/>
-      <c r="CR127" s="1"/>
+      <c r="CQ127" s="1"/>
     </row>
-    <row r="128" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -13715,10 +13578,9 @@
       <c r="CN128" s="3"/>
       <c r="CO128" s="3"/>
       <c r="CP128" s="3"/>
-      <c r="CQ128" s="3"/>
-      <c r="CR128" s="1"/>
+      <c r="CQ128" s="1"/>
     </row>
-    <row r="129" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -13813,10 +13675,9 @@
       <c r="CN129" s="3"/>
       <c r="CO129" s="3"/>
       <c r="CP129" s="3"/>
-      <c r="CQ129" s="3"/>
-      <c r="CR129" s="1"/>
+      <c r="CQ129" s="1"/>
     </row>
-    <row r="130" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -13911,10 +13772,9 @@
       <c r="CN130" s="3"/>
       <c r="CO130" s="3"/>
       <c r="CP130" s="3"/>
-      <c r="CQ130" s="3"/>
-      <c r="CR130" s="1"/>
+      <c r="CQ130" s="1"/>
     </row>
-    <row r="131" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -14009,10 +13869,9 @@
       <c r="CN131" s="3"/>
       <c r="CO131" s="3"/>
       <c r="CP131" s="3"/>
-      <c r="CQ131" s="3"/>
-      <c r="CR131" s="1"/>
+      <c r="CQ131" s="1"/>
     </row>
-    <row r="132" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -14107,10 +13966,9 @@
       <c r="CN132" s="3"/>
       <c r="CO132" s="3"/>
       <c r="CP132" s="3"/>
-      <c r="CQ132" s="3"/>
-      <c r="CR132" s="1"/>
+      <c r="CQ132" s="1"/>
     </row>
-    <row r="133" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -14205,10 +14063,9 @@
       <c r="CN133" s="3"/>
       <c r="CO133" s="3"/>
       <c r="CP133" s="3"/>
-      <c r="CQ133" s="3"/>
-      <c r="CR133" s="1"/>
+      <c r="CQ133" s="1"/>
     </row>
-    <row r="134" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -14303,10 +14160,9 @@
       <c r="CN134" s="3"/>
       <c r="CO134" s="3"/>
       <c r="CP134" s="3"/>
-      <c r="CQ134" s="3"/>
-      <c r="CR134" s="1"/>
+      <c r="CQ134" s="1"/>
     </row>
-    <row r="135" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -14401,10 +14257,9 @@
       <c r="CN135" s="3"/>
       <c r="CO135" s="3"/>
       <c r="CP135" s="3"/>
-      <c r="CQ135" s="3"/>
-      <c r="CR135" s="1"/>
+      <c r="CQ135" s="1"/>
     </row>
-    <row r="136" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -14499,10 +14354,9 @@
       <c r="CN136" s="3"/>
       <c r="CO136" s="3"/>
       <c r="CP136" s="3"/>
-      <c r="CQ136" s="3"/>
-      <c r="CR136" s="1"/>
+      <c r="CQ136" s="1"/>
     </row>
-    <row r="137" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -14597,10 +14451,9 @@
       <c r="CN137" s="3"/>
       <c r="CO137" s="3"/>
       <c r="CP137" s="3"/>
-      <c r="CQ137" s="3"/>
-      <c r="CR137" s="1"/>
+      <c r="CQ137" s="1"/>
     </row>
-    <row r="138" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -14695,10 +14548,9 @@
       <c r="CN138" s="3"/>
       <c r="CO138" s="3"/>
       <c r="CP138" s="3"/>
-      <c r="CQ138" s="3"/>
-      <c r="CR138" s="1"/>
+      <c r="CQ138" s="1"/>
     </row>
-    <row r="139" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -14793,10 +14645,9 @@
       <c r="CN139" s="3"/>
       <c r="CO139" s="3"/>
       <c r="CP139" s="3"/>
-      <c r="CQ139" s="3"/>
-      <c r="CR139" s="1"/>
+      <c r="CQ139" s="1"/>
     </row>
-    <row r="140" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -14891,10 +14742,9 @@
       <c r="CN140" s="3"/>
       <c r="CO140" s="3"/>
       <c r="CP140" s="3"/>
-      <c r="CQ140" s="3"/>
-      <c r="CR140" s="1"/>
+      <c r="CQ140" s="1"/>
     </row>
-    <row r="141" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -14989,10 +14839,9 @@
       <c r="CN141" s="3"/>
       <c r="CO141" s="3"/>
       <c r="CP141" s="3"/>
-      <c r="CQ141" s="3"/>
-      <c r="CR141" s="1"/>
+      <c r="CQ141" s="1"/>
     </row>
-    <row r="142" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -15087,10 +14936,9 @@
       <c r="CN142" s="3"/>
       <c r="CO142" s="3"/>
       <c r="CP142" s="3"/>
-      <c r="CQ142" s="3"/>
-      <c r="CR142" s="1"/>
+      <c r="CQ142" s="1"/>
     </row>
-    <row r="143" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -15185,10 +15033,9 @@
       <c r="CN143" s="3"/>
       <c r="CO143" s="3"/>
       <c r="CP143" s="3"/>
-      <c r="CQ143" s="3"/>
-      <c r="CR143" s="1"/>
+      <c r="CQ143" s="1"/>
     </row>
-    <row r="144" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -15283,10 +15130,9 @@
       <c r="CN144" s="3"/>
       <c r="CO144" s="3"/>
       <c r="CP144" s="3"/>
-      <c r="CQ144" s="3"/>
-      <c r="CR144" s="1"/>
+      <c r="CQ144" s="1"/>
     </row>
-    <row r="145" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -15381,10 +15227,9 @@
       <c r="CN145" s="3"/>
       <c r="CO145" s="3"/>
       <c r="CP145" s="3"/>
-      <c r="CQ145" s="3"/>
-      <c r="CR145" s="1"/>
+      <c r="CQ145" s="1"/>
     </row>
-    <row r="146" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -15479,10 +15324,9 @@
       <c r="CN146" s="3"/>
       <c r="CO146" s="3"/>
       <c r="CP146" s="3"/>
-      <c r="CQ146" s="3"/>
-      <c r="CR146" s="1"/>
+      <c r="CQ146" s="1"/>
     </row>
-    <row r="147" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -15577,10 +15421,9 @@
       <c r="CN147" s="3"/>
       <c r="CO147" s="3"/>
       <c r="CP147" s="3"/>
-      <c r="CQ147" s="3"/>
-      <c r="CR147" s="1"/>
+      <c r="CQ147" s="1"/>
     </row>
-    <row r="148" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -15675,10 +15518,9 @@
       <c r="CN148" s="3"/>
       <c r="CO148" s="3"/>
       <c r="CP148" s="3"/>
-      <c r="CQ148" s="3"/>
-      <c r="CR148" s="1"/>
+      <c r="CQ148" s="1"/>
     </row>
-    <row r="149" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -15773,10 +15615,9 @@
       <c r="CN149" s="3"/>
       <c r="CO149" s="3"/>
       <c r="CP149" s="3"/>
-      <c r="CQ149" s="3"/>
-      <c r="CR149" s="1"/>
+      <c r="CQ149" s="1"/>
     </row>
-    <row r="150" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -15871,10 +15712,9 @@
       <c r="CN150" s="3"/>
       <c r="CO150" s="3"/>
       <c r="CP150" s="3"/>
-      <c r="CQ150" s="3"/>
-      <c r="CR150" s="1"/>
+      <c r="CQ150" s="1"/>
     </row>
-    <row r="151" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -15969,10 +15809,9 @@
       <c r="CN151" s="3"/>
       <c r="CO151" s="3"/>
       <c r="CP151" s="3"/>
-      <c r="CQ151" s="3"/>
-      <c r="CR151" s="1"/>
+      <c r="CQ151" s="1"/>
     </row>
-    <row r="152" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -16067,10 +15906,9 @@
       <c r="CN152" s="3"/>
       <c r="CO152" s="3"/>
       <c r="CP152" s="3"/>
-      <c r="CQ152" s="3"/>
-      <c r="CR152" s="1"/>
+      <c r="CQ152" s="1"/>
     </row>
-    <row r="153" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -16165,10 +16003,9 @@
       <c r="CN153" s="3"/>
       <c r="CO153" s="3"/>
       <c r="CP153" s="3"/>
-      <c r="CQ153" s="3"/>
-      <c r="CR153" s="1"/>
+      <c r="CQ153" s="1"/>
     </row>
-    <row r="154" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -16263,10 +16100,9 @@
       <c r="CN154" s="3"/>
       <c r="CO154" s="3"/>
       <c r="CP154" s="3"/>
-      <c r="CQ154" s="3"/>
-      <c r="CR154" s="1"/>
+      <c r="CQ154" s="1"/>
     </row>
-    <row r="155" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -16361,10 +16197,9 @@
       <c r="CN155" s="3"/>
       <c r="CO155" s="3"/>
       <c r="CP155" s="3"/>
-      <c r="CQ155" s="3"/>
-      <c r="CR155" s="1"/>
+      <c r="CQ155" s="1"/>
     </row>
-    <row r="156" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -16459,10 +16294,9 @@
       <c r="CN156" s="3"/>
       <c r="CO156" s="3"/>
       <c r="CP156" s="3"/>
-      <c r="CQ156" s="3"/>
-      <c r="CR156" s="1"/>
+      <c r="CQ156" s="1"/>
     </row>
-    <row r="157" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -16557,10 +16391,9 @@
       <c r="CN157" s="3"/>
       <c r="CO157" s="3"/>
       <c r="CP157" s="3"/>
-      <c r="CQ157" s="3"/>
-      <c r="CR157" s="1"/>
+      <c r="CQ157" s="1"/>
     </row>
-    <row r="158" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -16655,10 +16488,9 @@
       <c r="CN158" s="3"/>
       <c r="CO158" s="3"/>
       <c r="CP158" s="3"/>
-      <c r="CQ158" s="3"/>
-      <c r="CR158" s="1"/>
+      <c r="CQ158" s="1"/>
     </row>
-    <row r="159" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -16753,10 +16585,9 @@
       <c r="CN159" s="3"/>
       <c r="CO159" s="3"/>
       <c r="CP159" s="3"/>
-      <c r="CQ159" s="3"/>
-      <c r="CR159" s="1"/>
+      <c r="CQ159" s="1"/>
     </row>
-    <row r="160" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -16851,10 +16682,9 @@
       <c r="CN160" s="3"/>
       <c r="CO160" s="3"/>
       <c r="CP160" s="3"/>
-      <c r="CQ160" s="3"/>
-      <c r="CR160" s="1"/>
+      <c r="CQ160" s="1"/>
     </row>
-    <row r="161" spans="1:96" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:95" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -16949,8 +16779,7 @@
       <c r="CN161" s="3"/>
       <c r="CO161" s="3"/>
       <c r="CP161" s="3"/>
-      <c r="CQ161" s="3"/>
-      <c r="CR161" s="1"/>
+      <c r="CQ161" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/frontend/src/components/components/Scholar Application Multiple.xlsx
+++ b/frontend/src/components/components/Scholar Application Multiple.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\OneDrive - up.edu.ph\Documents\GitHub\ScholarVision\frontend\src\components\components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\OneDrive - up.edu.ph\Documents\CMSC\2SP\frontend\src\components\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -780,9 +780,9 @@
   </sheetPr>
   <dimension ref="A1:CQ161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
